--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB8A5A-B4F7-4257-97FF-6AED8EE9DB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="40170" yWindow="5130" windowWidth="20625" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BHPSbP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,18 +58,6 @@
     <t>biomass gasification</t>
   </si>
   <si>
-    <t>U.S. Department of Energy Fuel Cell Technologies Office</t>
-  </si>
-  <si>
-    <t>Hydrogen Production Processes</t>
-  </si>
-  <si>
-    <t>https://www.energy.gov/eere/fuelcells/hydrogen-production-processes</t>
-  </si>
-  <si>
-    <t>See sub-pages for each process, particularly "natural gas reforming"</t>
-  </si>
-  <si>
     <t>For international (global) statistics, see:</t>
   </si>
   <si>
@@ -85,12 +83,24 @@
   </si>
   <si>
     <t>Production Share (dimensionless)</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>https://op.europa.eu/en/publication-detail/-/publication/7e4afa7d-d077-11ea-adf7-01aa75ed71a1</t>
+  </si>
+  <si>
+    <t>Hydrogen generation in Europe: Overview of costs and key benefits</t>
+  </si>
+  <si>
+    <t>Introduction (paragraphs 3 and 4)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,14 +437,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -447,27 +459,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -477,32 +489,32 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -527,13 +539,13 @@
         <v>0.22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -541,22 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2">
         <v>2017</v>
@@ -1223,7 +1237,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5E899-2AC2-40FF-8FAB-92AFAAF5C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB585F-457D-47C8-AB58-AD29FDB88104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2445" windowWidth="22755" windowHeight="13815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,80 +381,79 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,10 +860,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="114.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -992,7 +990,7 @@
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6"/>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7"/>
@@ -1077,7 +1075,7 @@
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>O51</f>
         <v>0.75560000000000005</v>
       </c>
@@ -1117,7 +1115,7 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1157,7 +1155,7 @@
       <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
@@ -1281,7 +1279,7 @@
       <c r="AL10" s="7"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="6"/>
@@ -1323,73 +1321,73 @@
       <c r="AL11" s="7"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="28" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7"/>
@@ -1421,27 +1419,27 @@
       <c r="AL13" s="7"/>
     </row>
     <row r="14" spans="1:38" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1480,32 +1478,32 @@
       <c r="C15" s="7">
         <v>4.7230394679999996</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>636000000000000</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>488000000000000</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>3.5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>472000000000000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>165000000000000</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>488000000000000</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>61493</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -1546,32 +1544,32 @@
       <c r="C16" s="7">
         <v>2.7</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>292000000000000</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>292000000000000</v>
       </c>
       <c r="G16" s="7">
         <v>1.65</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>69600000000000</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>69600000000000</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>135568.85889999999</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1612,32 +1610,32 @@
       <c r="C17" s="7">
         <v>1.6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>173000000000000</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>173000000000000</v>
       </c>
       <c r="G17" s="7">
         <v>0.27</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>137000000000000</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>137000000000000</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>4110000000</v>
       </c>
       <c r="N17" s="7" t="s">
@@ -1678,38 +1676,38 @@
       <c r="C18" s="7">
         <v>0.2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>20800000000000</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>20800000000000</v>
       </c>
       <c r="G18" s="7">
         <v>9.3333333000000004E-2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>8210000000000</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>8210000000000</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>50</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>0.79465919630000004</v>
       </c>
       <c r="P18" s="7"/>
@@ -1746,32 +1744,32 @@
       <c r="C19" s="7">
         <v>0.4</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>43300000000000</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>43300000000000</v>
       </c>
       <c r="G19" s="7">
         <v>0.18666666700000001</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>18100000000000</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>18100000000000</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>206000000</v>
       </c>
       <c r="N19" s="7" t="s">
@@ -1843,55 +1841,55 @@
       <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
     </row>
     <row r="22" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>75161</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="7"/>
@@ -1931,13 +1929,13 @@
       <c r="AL22" s="7"/>
     </row>
     <row r="23" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>6.2869999999999999</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="7"/>
@@ -1977,10 +1975,10 @@
       <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>473000000000000</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="7"/>
@@ -2021,13 +2019,13 @@
       <c r="AL24" s="7"/>
     </row>
     <row r="25" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>199050</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="7"/>
@@ -2067,7 +2065,7 @@
       <c r="AL25" s="7"/>
     </row>
     <row r="26" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>1037000000</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2111,10 +2109,10 @@
       <c r="AL26" s="7"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>206000000000000</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="7"/>
@@ -2155,13 +2153,13 @@
       <c r="AL27" s="7"/>
     </row>
     <row r="28" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>0.72</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="7"/>
@@ -2201,7 +2199,7 @@
       <c r="AL28" s="7"/>
     </row>
     <row r="29" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>149000000000000</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2245,7 +2243,7 @@
       <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="20">
         <v>0.23930000000000001</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2329,142 +2327,142 @@
       <c r="AL31" s="7"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="24">
         <v>2020</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="24">
         <v>2021</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="24">
         <v>2022</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="24">
         <v>2023</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>2024</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>2025</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="24">
         <v>2026</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>2027</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <v>2028</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="24">
         <v>2029</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>2030</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>2031</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>2032</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <v>2033</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="11">
         <v>2034</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="11">
         <v>2035</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="11">
         <v>2036</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="11">
         <v>2037</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="11">
         <v>2038</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="11">
         <v>2039</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33" s="11">
         <v>2040</v>
       </c>
-      <c r="W33" s="12">
+      <c r="W33" s="11">
         <v>2041</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="11">
         <v>2042</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="11">
         <v>2043</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z33" s="11">
         <v>2044</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="11">
         <v>2045</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AB33" s="11">
         <v>2046</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AC33" s="11">
         <v>2047</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AD33" s="11">
         <v>2048</v>
       </c>
-      <c r="AE33" s="12">
+      <c r="AE33" s="11">
         <v>2049</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="11">
         <v>2050</v>
       </c>
       <c r="AG33" s="7"/>
@@ -2475,100 +2473,100 @@
       <c r="AL33" s="7"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="15">
         <v>488000000000000</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>553000000000000</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>572000000000000</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="15">
         <v>582000000000000</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="15">
         <v>590000000000000</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>591000000000000</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="15">
         <v>590000000000000</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="18">
         <v>588000000000000</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="18">
         <v>583000000000000</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="18">
         <v>583000000000000</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="18">
         <v>582000000000000</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="18">
         <v>578000000000000</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="18">
         <v>578000000000000</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="18">
         <v>577000000000000</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="18">
         <v>575000000000000</v>
       </c>
-      <c r="AC34" s="21">
+      <c r="AC34" s="18">
         <v>576000000000000</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AD34" s="18">
         <v>573000000000000</v>
       </c>
-      <c r="AE34" s="21">
+      <c r="AE34" s="18">
         <v>572000000000000</v>
       </c>
-      <c r="AF34" s="21">
+      <c r="AF34" s="18">
         <v>574000000000000</v>
       </c>
       <c r="AG34" s="7"/>
@@ -2579,100 +2577,100 @@
       <c r="AL34" s="7"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="15">
         <v>224000000000000</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <v>227000000000000</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <v>252000000000000</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <v>270000000000000</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <v>278000000000000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <v>284000000000000</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="15">
         <v>288000000000000</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <v>290000000000000</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="15">
         <v>294000000000000</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="15">
         <v>297000000000000</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="18">
         <v>301000000000000</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="18">
         <v>305000000000000</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="18">
         <v>308000000000000</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="18">
         <v>311000000000000</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="18">
         <v>315000000000000</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="18">
         <v>319000000000000</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="18">
         <v>323000000000000</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="18">
         <v>326000000000000</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="18">
         <v>329000000000000</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="18">
         <v>332000000000000</v>
       </c>
-      <c r="V35" s="21">
+      <c r="V35" s="18">
         <v>333000000000000</v>
       </c>
-      <c r="W35" s="21">
+      <c r="W35" s="18">
         <v>334000000000000</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35" s="18">
         <v>336000000000000</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="18">
         <v>340000000000000</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="18">
         <v>343000000000000</v>
       </c>
-      <c r="AA35" s="21">
+      <c r="AA35" s="18">
         <v>347000000000000</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AB35" s="18">
         <v>349000000000000</v>
       </c>
-      <c r="AC35" s="21">
+      <c r="AC35" s="18">
         <v>351000000000000</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AD35" s="18">
         <v>352000000000000</v>
       </c>
-      <c r="AE35" s="21">
+      <c r="AE35" s="18">
         <v>355000000000000</v>
       </c>
-      <c r="AF35" s="21">
+      <c r="AF35" s="18">
         <v>359000000000000</v>
       </c>
       <c r="AG35" s="7"/>
@@ -2683,100 +2681,100 @@
       <c r="AL35" s="7"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <v>8210000000000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <v>7150000000000</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>7970000000000</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <v>7740000000000</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <v>7940000000000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <v>8320000000000</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <v>8170000000000</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <v>8030000000000</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <v>7900000000000</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="15">
         <v>7820000000000</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="18">
         <v>7780000000000</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="18">
         <v>7300000000000</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="18">
         <v>6840000000000</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="18">
         <v>6400000000000</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="18">
         <v>6120000000000</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="18">
         <v>6040000000000</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="18">
         <v>5980000000000</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="18">
         <v>5960000000000</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U36" s="18">
         <v>6050000000000</v>
       </c>
-      <c r="V36" s="21">
+      <c r="V36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="W36" s="21">
+      <c r="W36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36" s="18">
         <v>6090000000000</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="18">
         <v>6260000000000</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z36" s="18">
         <v>6270000000000</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AC36" s="21">
+      <c r="AC36" s="18">
         <v>6300000000000</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AD36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AE36" s="21">
+      <c r="AE36" s="18">
         <v>6390000000000</v>
       </c>
-      <c r="AF36" s="21">
+      <c r="AF36" s="18">
         <v>6540000000000</v>
       </c>
       <c r="AG36" s="7"/>
@@ -2787,17 +2785,17 @@
       <c r="AL36" s="7"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2827,145 +2825,145 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="25">
         <v>2020</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="25">
         <v>2021</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="25">
         <v>2022</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="25">
         <v>2023</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="25">
         <v>2024</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="25">
         <v>2025</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="25">
         <v>2026</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="25">
         <v>2027</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="25">
         <v>2028</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="25">
         <v>2029</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="25">
         <v>2030</v>
       </c>
-      <c r="N39" s="28">
+      <c r="N39" s="25">
         <v>2031</v>
       </c>
-      <c r="O39" s="28">
+      <c r="O39" s="25">
         <v>2032</v>
       </c>
-      <c r="P39" s="28">
+      <c r="P39" s="25">
         <v>2033</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="25">
         <v>2034</v>
       </c>
-      <c r="R39" s="28">
+      <c r="R39" s="25">
         <v>2035</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="25">
         <v>2036</v>
       </c>
-      <c r="T39" s="28">
+      <c r="T39" s="25">
         <v>2037</v>
       </c>
-      <c r="U39" s="28">
+      <c r="U39" s="25">
         <v>2038</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="25">
         <v>2039</v>
       </c>
-      <c r="W39" s="28">
+      <c r="W39" s="25">
         <v>2040</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="25">
         <v>2041</v>
       </c>
-      <c r="Y39" s="28">
+      <c r="Y39" s="25">
         <v>2042</v>
       </c>
-      <c r="Z39" s="28">
+      <c r="Z39" s="25">
         <v>2043</v>
       </c>
-      <c r="AA39" s="28">
+      <c r="AA39" s="25">
         <v>2044</v>
       </c>
-      <c r="AB39" s="28">
+      <c r="AB39" s="25">
         <v>2045</v>
       </c>
-      <c r="AC39" s="28">
+      <c r="AC39" s="25">
         <v>2046</v>
       </c>
-      <c r="AD39" s="28">
+      <c r="AD39" s="25">
         <v>2047</v>
       </c>
-      <c r="AE39" s="28">
+      <c r="AE39" s="25">
         <v>2048</v>
       </c>
-      <c r="AF39" s="28">
+      <c r="AF39" s="25">
         <v>2049</v>
       </c>
-      <c r="AG39" s="28">
+      <c r="AG39" s="25">
         <v>2050</v>
       </c>
       <c r="AH39" s="7"/>
@@ -2981,97 +2979,97 @@
       <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>0</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="19">
         <v>0.11</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="19">
         <v>0.22</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="19">
         <v>0.33</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="19">
         <v>0.44</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="19">
         <v>0.67</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="19">
         <v>0.78</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="19">
         <v>0.89</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="19">
         <v>1</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="19">
         <v>1</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="19">
         <v>1</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="19">
         <v>1</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40" s="19">
         <v>1</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="19">
         <v>1</v>
       </c>
-      <c r="S40" s="22">
+      <c r="S40" s="19">
         <v>1</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="19">
         <v>1</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="19">
         <v>1</v>
       </c>
-      <c r="V40" s="22">
+      <c r="V40" s="19">
         <v>1</v>
       </c>
-      <c r="W40" s="22">
+      <c r="W40" s="19">
         <v>1</v>
       </c>
-      <c r="X40" s="22">
+      <c r="X40" s="19">
         <v>1</v>
       </c>
-      <c r="Y40" s="22">
+      <c r="Y40" s="19">
         <v>1</v>
       </c>
-      <c r="Z40" s="22">
+      <c r="Z40" s="19">
         <v>1</v>
       </c>
-      <c r="AA40" s="22">
+      <c r="AA40" s="19">
         <v>1</v>
       </c>
-      <c r="AB40" s="22">
+      <c r="AB40" s="19">
         <v>1</v>
       </c>
-      <c r="AC40" s="22">
+      <c r="AC40" s="19">
         <v>1</v>
       </c>
-      <c r="AD40" s="22">
+      <c r="AD40" s="19">
         <v>1</v>
       </c>
-      <c r="AE40" s="22">
+      <c r="AE40" s="19">
         <v>1</v>
       </c>
-      <c r="AF40" s="22">
+      <c r="AF40" s="19">
         <v>1</v>
       </c>
-      <c r="AG40" s="22">
+      <c r="AG40" s="19">
         <v>1</v>
       </c>
       <c r="AH40" s="7"/>
@@ -3087,97 +3085,97 @@
       <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>0</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="19">
         <v>0.11</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="19">
         <v>0.22</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="19">
         <v>0.33</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="19">
         <v>0.44</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="19">
         <v>0.67</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="19">
         <v>0.78</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="19">
         <v>0.89</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="26">
         <v>1</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="19">
         <v>1</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="19">
         <v>1</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="19">
         <v>1</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="19">
         <v>1</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="19">
         <v>1</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="19">
         <v>1</v>
       </c>
-      <c r="T41" s="22">
+      <c r="T41" s="19">
         <v>1</v>
       </c>
-      <c r="U41" s="22">
+      <c r="U41" s="19">
         <v>1</v>
       </c>
-      <c r="V41" s="22">
+      <c r="V41" s="19">
         <v>1</v>
       </c>
-      <c r="W41" s="22">
+      <c r="W41" s="19">
         <v>1</v>
       </c>
-      <c r="X41" s="22">
+      <c r="X41" s="19">
         <v>1</v>
       </c>
-      <c r="Y41" s="22">
+      <c r="Y41" s="19">
         <v>1</v>
       </c>
-      <c r="Z41" s="22">
+      <c r="Z41" s="19">
         <v>1</v>
       </c>
-      <c r="AA41" s="22">
+      <c r="AA41" s="19">
         <v>1</v>
       </c>
-      <c r="AB41" s="22">
+      <c r="AB41" s="19">
         <v>1</v>
       </c>
-      <c r="AC41" s="22">
+      <c r="AC41" s="19">
         <v>1</v>
       </c>
-      <c r="AD41" s="22">
+      <c r="AD41" s="19">
         <v>1</v>
       </c>
-      <c r="AE41" s="22">
+      <c r="AE41" s="19">
         <v>1</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AF41" s="19">
         <v>1</v>
       </c>
-      <c r="AG41" s="22">
+      <c r="AG41" s="19">
         <v>1</v>
       </c>
       <c r="AH41" s="7"/>
@@ -3193,97 +3191,97 @@
       <c r="B42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>0</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>0</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="19">
         <v>0</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="19">
         <v>0</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="19">
         <v>0</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="19">
         <v>0</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="19">
         <v>0</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>0</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>0</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>0</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>0</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>0</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>0</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>0</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>0</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>0</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="11">
         <v>0</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="11">
         <v>0</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="11">
         <v>0</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="11">
         <v>0</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>0</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="11">
         <v>0</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="11">
         <v>0</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="11">
         <v>0</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="11">
         <v>0</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <v>0</v>
       </c>
-      <c r="AG42" s="12">
+      <c r="AG42" s="11">
         <v>0</v>
       </c>
       <c r="AH42" s="7"/>
@@ -3299,97 +3297,97 @@
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>0</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>0</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="19">
         <v>0</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="19">
         <v>0</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="19">
         <v>0</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="19">
         <v>0</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="11">
         <v>0</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <v>0</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="11">
         <v>0</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="11">
         <v>0</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="11">
         <v>0</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="11">
         <v>0</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="11">
         <v>0</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="11">
         <v>0</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="11">
         <v>0</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="11">
         <v>0</v>
       </c>
-      <c r="W43" s="12">
+      <c r="W43" s="11">
         <v>0</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="11">
         <v>0</v>
       </c>
-      <c r="Y43" s="12">
+      <c r="Y43" s="11">
         <v>0</v>
       </c>
-      <c r="Z43" s="12">
+      <c r="Z43" s="11">
         <v>0</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="11">
         <v>0</v>
       </c>
-      <c r="AB43" s="12">
+      <c r="AB43" s="11">
         <v>0</v>
       </c>
-      <c r="AC43" s="12">
+      <c r="AC43" s="11">
         <v>0</v>
       </c>
-      <c r="AD43" s="12">
+      <c r="AD43" s="11">
         <v>0</v>
       </c>
-      <c r="AE43" s="12">
+      <c r="AE43" s="11">
         <v>0</v>
       </c>
-      <c r="AF43" s="12">
+      <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="12">
+      <c r="AG43" s="11">
         <v>0</v>
       </c>
       <c r="AH43" s="7"/>
@@ -3405,97 +3403,97 @@
       <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="19">
         <v>0</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="19">
         <v>0</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="19">
         <v>0</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="19">
         <v>0</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="19">
         <v>0</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="19">
         <v>0</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>0</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>0</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="11">
         <v>0</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="11">
         <v>0</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="11">
         <v>0</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="11">
         <v>0</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="11">
         <v>0</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="11">
         <v>0</v>
       </c>
-      <c r="U44" s="12">
+      <c r="U44" s="11">
         <v>0</v>
       </c>
-      <c r="V44" s="12">
+      <c r="V44" s="11">
         <v>0</v>
       </c>
-      <c r="W44" s="12">
+      <c r="W44" s="11">
         <v>0</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="11">
         <v>0</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y44" s="11">
         <v>0</v>
       </c>
-      <c r="Z44" s="12">
+      <c r="Z44" s="11">
         <v>0</v>
       </c>
-      <c r="AA44" s="12">
+      <c r="AA44" s="11">
         <v>0</v>
       </c>
-      <c r="AB44" s="12">
+      <c r="AB44" s="11">
         <v>0</v>
       </c>
-      <c r="AC44" s="12">
+      <c r="AC44" s="11">
         <v>0</v>
       </c>
-      <c r="AD44" s="12">
+      <c r="AD44" s="11">
         <v>0</v>
       </c>
-      <c r="AE44" s="12">
+      <c r="AE44" s="11">
         <v>0</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="11">
         <v>0</v>
       </c>
-      <c r="AG44" s="12">
+      <c r="AG44" s="11">
         <v>0</v>
       </c>
       <c r="AH44" s="7"/>
@@ -3545,101 +3543,101 @@
       <c r="AL45" s="7"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>0</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="20">
         <v>0.1111</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="20">
         <v>0.22220000000000001</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="20">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="20">
         <v>0.44440000000000002</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="20">
         <v>0.55559999999999998</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="20">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="20">
         <v>0.77780000000000005</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="20">
         <v>0.88890000000000002</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>1</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="20">
         <v>1</v>
       </c>
-      <c r="O46" s="23">
+      <c r="O46" s="20">
         <v>1</v>
       </c>
-      <c r="P46" s="23">
+      <c r="P46" s="20">
         <v>1</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="Q46" s="20">
         <v>1</v>
       </c>
-      <c r="R46" s="23">
+      <c r="R46" s="20">
         <v>1</v>
       </c>
-      <c r="S46" s="23">
+      <c r="S46" s="20">
         <v>1</v>
       </c>
-      <c r="T46" s="23">
+      <c r="T46" s="20">
         <v>1</v>
       </c>
-      <c r="U46" s="23">
+      <c r="U46" s="20">
         <v>1</v>
       </c>
-      <c r="V46" s="23">
+      <c r="V46" s="20">
         <v>1</v>
       </c>
-      <c r="W46" s="23">
+      <c r="W46" s="20">
         <v>1</v>
       </c>
-      <c r="X46" s="23">
+      <c r="X46" s="20">
         <v>1</v>
       </c>
-      <c r="Y46" s="23">
+      <c r="Y46" s="20">
         <v>1</v>
       </c>
-      <c r="Z46" s="23">
+      <c r="Z46" s="20">
         <v>1</v>
       </c>
-      <c r="AA46" s="23">
+      <c r="AA46" s="20">
         <v>1</v>
       </c>
-      <c r="AB46" s="23">
+      <c r="AB46" s="20">
         <v>1</v>
       </c>
-      <c r="AC46" s="23">
+      <c r="AC46" s="20">
         <v>1</v>
       </c>
-      <c r="AD46" s="23">
+      <c r="AD46" s="20">
         <v>1</v>
       </c>
-      <c r="AE46" s="23">
+      <c r="AE46" s="20">
         <v>1</v>
       </c>
-      <c r="AF46" s="23">
+      <c r="AF46" s="20">
         <v>1</v>
       </c>
-      <c r="AG46" s="23">
+      <c r="AG46" s="20">
         <v>1</v>
       </c>
       <c r="AH46" s="7"/>
@@ -3649,101 +3647,101 @@
       <c r="AL46" s="7"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>0</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="20">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="20">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="20">
         <v>0.10340000000000001</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="20">
         <v>0.13789999999999999</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="20">
         <v>0.1724</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="20">
         <v>0.20680000000000001</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="20">
         <v>0.24129999999999999</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="20">
         <v>0.27579999999999999</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="U47" s="23">
+      <c r="U47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="V47" s="23">
+      <c r="V47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="W47" s="23">
+      <c r="W47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="X47" s="23">
+      <c r="X47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Y47" s="23">
+      <c r="Y47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Z47" s="23">
+      <c r="Z47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AA47" s="23">
+      <c r="AA47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AB47" s="23">
+      <c r="AB47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AC47" s="23">
+      <c r="AC47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AD47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AE47" s="23">
+      <c r="AE47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AF47" s="23">
+      <c r="AF47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AG47" s="23">
+      <c r="AG47" s="20">
         <v>0.31030000000000002</v>
       </c>
       <c r="AH47" s="7"/>
@@ -3753,101 +3751,101 @@
       <c r="AL47" s="7"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>0</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="20">
         <v>0</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="20">
         <v>0</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="20">
         <v>0</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="20">
         <v>0</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="20">
         <v>0</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="20">
         <v>0</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="20">
         <v>0</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="20">
         <v>0</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>0</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="20">
         <v>0</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="20">
         <v>0</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="20">
         <v>0</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="20">
         <v>0</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="20">
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="20">
         <v>0</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T48" s="20">
         <v>0</v>
       </c>
-      <c r="U48" s="23">
+      <c r="U48" s="20">
         <v>0</v>
       </c>
-      <c r="V48" s="23">
+      <c r="V48" s="20">
         <v>0</v>
       </c>
-      <c r="W48" s="23">
+      <c r="W48" s="20">
         <v>0</v>
       </c>
-      <c r="X48" s="23">
+      <c r="X48" s="20">
         <v>0</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="20">
         <v>0</v>
       </c>
-      <c r="Z48" s="23">
+      <c r="Z48" s="20">
         <v>0</v>
       </c>
-      <c r="AA48" s="23">
+      <c r="AA48" s="20">
         <v>0</v>
       </c>
-      <c r="AB48" s="23">
+      <c r="AB48" s="20">
         <v>0</v>
       </c>
-      <c r="AC48" s="23">
+      <c r="AC48" s="20">
         <v>0</v>
       </c>
-      <c r="AD48" s="23">
+      <c r="AD48" s="20">
         <v>0</v>
       </c>
-      <c r="AE48" s="23">
+      <c r="AE48" s="20">
         <v>0</v>
       </c>
-      <c r="AF48" s="23">
+      <c r="AF48" s="20">
         <v>0</v>
       </c>
-      <c r="AG48" s="23">
+      <c r="AG48" s="20">
         <v>0</v>
       </c>
       <c r="AH48" s="7"/>
@@ -3941,97 +3939,97 @@
         <v>69</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>0</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="20">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="20">
         <v>0.1721</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="20">
         <v>0.25719999999999998</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="20">
         <v>0.3417</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="20">
         <v>0.42599999999999999</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="20">
         <v>0.51039999999999996</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="20">
         <v>0.59379999999999999</v>
       </c>
-      <c r="L51" s="23">
+      <c r="L51" s="20">
         <v>0.67730000000000001</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="20">
         <v>0.76</v>
       </c>
-      <c r="N51" s="23">
+      <c r="N51" s="20">
         <v>0.7571</v>
       </c>
-      <c r="O51" s="23">
+      <c r="O51" s="20">
         <v>0.75560000000000005</v>
       </c>
-      <c r="P51" s="23">
+      <c r="P51" s="20">
         <v>0.75419999999999998</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="20">
         <v>0.75260000000000005</v>
       </c>
-      <c r="R51" s="23">
+      <c r="R51" s="20">
         <v>0.75009999999999999</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="20">
         <v>0.74850000000000005</v>
       </c>
-      <c r="T51" s="23">
+      <c r="T51" s="20">
         <v>0.74709999999999999</v>
       </c>
-      <c r="U51" s="23">
+      <c r="U51" s="20">
         <v>0.74550000000000005</v>
       </c>
-      <c r="V51" s="23">
+      <c r="V51" s="20">
         <v>0.74439999999999995</v>
       </c>
-      <c r="W51" s="23">
+      <c r="W51" s="20">
         <v>0.74350000000000005</v>
       </c>
-      <c r="X51" s="23">
+      <c r="X51" s="20">
         <v>0.74299999999999999</v>
       </c>
-      <c r="Y51" s="23">
+      <c r="Y51" s="20">
         <v>0.74199999999999999</v>
       </c>
-      <c r="Z51" s="23">
+      <c r="Z51" s="20">
         <v>0.73929999999999996</v>
       </c>
-      <c r="AA51" s="23">
+      <c r="AA51" s="20">
         <v>0.73809999999999998</v>
       </c>
-      <c r="AB51" s="23">
+      <c r="AB51" s="20">
         <v>0.73570000000000002</v>
       </c>
-      <c r="AC51" s="23">
+      <c r="AC51" s="20">
         <v>0.73440000000000005</v>
       </c>
-      <c r="AD51" s="23">
+      <c r="AD51" s="20">
         <v>0.73409999999999997</v>
       </c>
-      <c r="AE51" s="23">
+      <c r="AE51" s="20">
         <v>0.73260000000000003</v>
       </c>
-      <c r="AF51" s="23">
+      <c r="AF51" s="20">
         <v>0.73099999999999998</v>
       </c>
-      <c r="AG51" s="23">
+      <c r="AG51" s="20">
         <v>0.72960000000000003</v>
       </c>
       <c r="AH51" s="7"/>
@@ -39548,8 +39546,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="B2:AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39656,123 +39654,123 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>0.05</v>
       </c>
-      <c r="C2" s="30">
-        <f>$B2</f>
+      <c r="C2" s="27">
+        <f t="shared" ref="C2:AE2" si="0">$B2</f>
         <v>0.05</v>
       </c>
-      <c r="D2" s="30">
-        <f>$B2</f>
+      <c r="D2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E2" s="30">
-        <f>$B2</f>
+      <c r="E2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F2" s="30">
-        <f>$B2</f>
+      <c r="F2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G2" s="30">
-        <f>$B2</f>
+      <c r="G2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H2" s="30">
-        <f>$B2</f>
+      <c r="H2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I2" s="30">
-        <f>$B2</f>
+      <c r="I2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J2" s="30">
-        <f>$B2</f>
+      <c r="J2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K2" s="30">
-        <f>$B2</f>
+      <c r="K2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L2" s="30">
-        <f>$B2</f>
+      <c r="L2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M2" s="30">
-        <f>$B2</f>
+      <c r="M2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="N2" s="30">
-        <f>$B2</f>
+      <c r="N2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="O2" s="30">
-        <f>$B2</f>
+      <c r="O2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="P2" s="30">
-        <f>$B2</f>
+      <c r="P2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Q2" s="30">
-        <f>$B2</f>
+      <c r="Q2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="R2" s="30">
-        <f>$B2</f>
+      <c r="R2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="S2" s="30">
-        <f>$B2</f>
+      <c r="S2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="T2" s="30">
-        <f>$B2</f>
+      <c r="T2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="U2" s="30">
-        <f>$B2</f>
+      <c r="U2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="V2" s="30">
-        <f>$B2</f>
+      <c r="V2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="W2" s="30">
-        <f>$B2</f>
+      <c r="W2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="X2" s="30">
-        <f>$B2</f>
+      <c r="X2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Y2" s="30">
-        <f>$B2</f>
+      <c r="Y2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z2" s="30">
-        <f>$B2</f>
+      <c r="Z2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AA2" s="30">
-        <f>$B2</f>
+      <c r="AA2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AB2" s="30">
-        <f>$B2</f>
+      <c r="AB2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AC2" s="30">
-        <f>$B2</f>
+      <c r="AC2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AD2" s="30">
-        <f>$B2</f>
+      <c r="AD2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AE2" s="30">
-        <f>$B2</f>
+      <c r="AE2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
@@ -39780,123 +39778,123 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <f>0.95-IRA!D51</f>
         <v>0.95</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="27">
         <f>0.95-IRA!E51</f>
         <v>0.86309999999999998</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <f>0.95-IRA!F51</f>
         <v>0.77789999999999992</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <f>0.95-IRA!G51</f>
         <v>0.69279999999999997</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <f>0.95-IRA!H51</f>
         <v>0.60829999999999995</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <f>0.95-IRA!I51</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <f>0.95-IRA!J51</f>
         <v>0.43959999999999999</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="27">
         <f>0.95-IRA!K51</f>
         <v>0.35619999999999996</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="27">
         <f>0.95-IRA!L51</f>
         <v>0.27269999999999994</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="27">
         <f>0.95-IRA!M51</f>
         <v>0.18999999999999995</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="27">
         <f>0.95-IRA!N51</f>
         <v>0.19289999999999996</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="27">
         <f>0.95-IRA!O51</f>
         <v>0.19439999999999991</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="27">
         <f>0.95-IRA!P51</f>
         <v>0.19579999999999997</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="27">
         <f>0.95-IRA!Q51</f>
         <v>0.19739999999999991</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="27">
         <f>0.95-IRA!R51</f>
         <v>0.19989999999999997</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="27">
         <f>0.95-IRA!S51</f>
         <v>0.2014999999999999</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="27">
         <f>0.95-IRA!T51</f>
         <v>0.20289999999999997</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="27">
         <f>0.95-IRA!U51</f>
         <v>0.2044999999999999</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="27">
         <f>0.95-IRA!V51</f>
         <v>0.2056</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="27">
         <f>0.95-IRA!W51</f>
         <v>0.20649999999999991</v>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="27">
         <f>0.95-IRA!X51</f>
         <v>0.20699999999999996</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="27">
         <f>0.95-IRA!Y51</f>
         <v>0.20799999999999996</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="27">
         <f>0.95-IRA!Z51</f>
         <v>0.2107</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="27">
         <f>0.95-IRA!AA51</f>
         <v>0.21189999999999998</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="27">
         <f>0.95-IRA!AB51</f>
         <v>0.21429999999999993</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="27">
         <f>0.95-IRA!AC51</f>
         <v>0.2155999999999999</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3" s="27">
         <f>0.95-IRA!AD51</f>
         <v>0.21589999999999998</v>
       </c>
-      <c r="AC3" s="30">
+      <c r="AC3" s="27">
         <f>0.95-IRA!AE51</f>
         <v>0.21739999999999993</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="27">
         <f>0.95-IRA!AF51</f>
         <v>0.21899999999999997</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AE3" s="27">
         <f>0.95-IRA!AG51</f>
         <v>0.22039999999999993</v>
       </c>
@@ -39905,94 +39903,94 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>0</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="27">
         <v>0</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="27">
         <v>0</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="27">
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <v>0</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="27">
         <v>0</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="27">
         <v>0</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="27">
         <v>0</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="27">
         <v>0</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="27">
         <v>0</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="27">
         <v>0</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="27">
         <v>0</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="27">
         <v>0</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="27">
         <v>0</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="27">
         <v>0</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="27">
         <v>0</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="27">
         <v>0</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="27">
         <v>0</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40000,94 +39998,94 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>0</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="27">
         <v>0</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="27">
         <v>0</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="27">
         <v>0</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="27">
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="27">
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <v>0</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="27">
         <v>0</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="27">
         <v>0</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="27">
         <v>0</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="27">
         <v>0</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="27">
         <v>0</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="27">
         <v>0</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="27">
         <v>0</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="27">
         <v>0</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="27">
         <v>0</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="27">
         <v>0</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="27">
         <v>0</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40095,94 +40093,94 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>0</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="27">
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="27">
         <v>0</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="27">
         <v>0</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="27">
         <v>0</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <v>0</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="27">
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="27">
         <v>0</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="27">
         <v>0</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="27">
         <v>0</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="27">
         <v>0</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="27">
         <v>0</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="27">
         <v>0</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="27">
         <v>0</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="27">
         <v>0</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="27">
         <v>0</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="27">
         <v>0</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="27">
         <v>0</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="27">
         <v>0</v>
       </c>
-      <c r="AC6" s="30">
+      <c r="AC6" s="27">
         <v>0</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="27">
         <v>0</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40190,123 +40188,123 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <f>IRA!D51</f>
         <v>0</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <f>IRA!E51</f>
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <f>IRA!F51</f>
         <v>0.1721</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <f>IRA!G51</f>
         <v>0.25719999999999998</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <f>IRA!H51</f>
         <v>0.3417</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <f>IRA!I51</f>
         <v>0.42599999999999999</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <f>IRA!J51</f>
         <v>0.51039999999999996</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <f>IRA!K51</f>
         <v>0.59379999999999999</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="27">
         <f>IRA!L51</f>
         <v>0.67730000000000001</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="27">
         <f>IRA!M51</f>
         <v>0.76</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="27">
         <f>IRA!N51</f>
         <v>0.7571</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="27">
         <f>IRA!O51</f>
         <v>0.75560000000000005</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="27">
         <f>IRA!P51</f>
         <v>0.75419999999999998</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="27">
         <f>IRA!Q51</f>
         <v>0.75260000000000005</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="27">
         <f>IRA!R51</f>
         <v>0.75009999999999999</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="27">
         <f>IRA!S51</f>
         <v>0.74850000000000005</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="27">
         <f>IRA!T51</f>
         <v>0.74709999999999999</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="27">
         <f>IRA!U51</f>
         <v>0.74550000000000005</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="27">
         <f>IRA!V51</f>
         <v>0.74439999999999995</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="27">
         <f>IRA!W51</f>
         <v>0.74350000000000005</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="27">
         <f>IRA!X51</f>
         <v>0.74299999999999999</v>
       </c>
-      <c r="W7" s="30">
+      <c r="W7" s="27">
         <f>IRA!Y51</f>
         <v>0.74199999999999999</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="27">
         <f>IRA!Z51</f>
         <v>0.73929999999999996</v>
       </c>
-      <c r="Y7" s="30">
+      <c r="Y7" s="27">
         <f>IRA!AA51</f>
         <v>0.73809999999999998</v>
       </c>
-      <c r="Z7" s="30">
+      <c r="Z7" s="27">
         <f>IRA!AB51</f>
         <v>0.73570000000000002</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="27">
         <f>IRA!AC51</f>
         <v>0.73440000000000005</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AB7" s="27">
         <f>IRA!AD51</f>
         <v>0.73409999999999997</v>
       </c>
-      <c r="AC7" s="30">
+      <c r="AC7" s="27">
         <f>IRA!AE51</f>
         <v>0.73260000000000003</v>
       </c>
-      <c r="AD7" s="30">
+      <c r="AD7" s="27">
         <f>IRA!AF51</f>
         <v>0.73099999999999998</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="27">
         <f>IRA!AG51</f>
         <v>0.72960000000000003</v>
       </c>
@@ -40315,94 +40313,94 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>0</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>0</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <v>0</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="27">
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="27">
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <v>0</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="27">
         <v>0</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="27">
         <v>0</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="27">
         <v>0</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="27">
         <v>0</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="27">
         <v>0</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="27">
         <v>0</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="27">
         <v>0</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="27">
         <v>0</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="27">
         <v>0</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="27">
         <v>0</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="27">
         <v>0</v>
       </c>
-      <c r="AC8" s="30">
+      <c r="AC8" s="27">
         <v>0</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="27">
         <v>0</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="27">
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artelys778.sharepoint.com/sites/Agora-EPStool-Artelys/Documents partages/Artelys/3 - Livrables/1. all data/2. A checker par Paul/13. BAU Hydrogen Production Shares by Pathway/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3AAC4F-0371-4D6C-B880-6C2E22425AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{50744115-75AC-4525-8E2A-8202EB70A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2807D661-327B-4E8F-8E14-AAA950F03467}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2985" windowWidth="22755" windowHeight="13815" firstSheet="5" activeTab="5" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
+    <workbookView xWindow="28680" yWindow="-12855" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,7 +1195,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1407,9 +1407,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4594,24 +4591,24 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="2" width="10.85546875" style="3"/>
     <col min="3" max="3" width="62.140625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -4622,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4">
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -4631,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4">
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -4640,37 +4637,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4">
       <c r="B16" s="6"/>
       <c r="C16" s="95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="6"/>
       <c r="C17" s="96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="6"/>
       <c r="C18" s="95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="7"/>
       <c r="C19" s="95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="C20" s="95" t="s">
         <v>13</v>
       </c>
@@ -4692,12 +4689,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="10.15"/>
   <cols>
     <col min="1" max="1" width="72" style="18" customWidth="1"/>
     <col min="2" max="9" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
@@ -4708,7 +4705,7 @@
     <col min="16" max="16384" width="9.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4731,7 +4728,7 @@
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36"/>
       <c r="B2" s="37">
         <v>2005</v>
@@ -4778,7 +4775,7 @@
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4798,7 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="11.25" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
@@ -4850,7 +4847,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
@@ -4899,7 +4896,7 @@
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>21</v>
       </c>
@@ -4948,7 +4945,7 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1">
       <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
@@ -4997,7 +4994,7 @@
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>23</v>
       </c>
@@ -5046,7 +5043,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="11.25" customHeight="1">
       <c r="A9" s="43"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5067,7 +5064,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1">
       <c r="A10" s="45" t="s">
         <v>24</v>
       </c>
@@ -5090,7 +5087,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="11.45">
       <c r="A11" s="47" t="s">
         <v>25</v>
       </c>
@@ -5139,7 +5136,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +5185,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="49" t="s">
         <v>27</v>
       </c>
@@ -5237,7 +5234,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="49" t="s">
         <v>28</v>
       </c>
@@ -5286,7 +5283,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="11.45">
       <c r="A15" s="51" t="s">
         <v>29</v>
       </c>
@@ -5331,7 +5328,7 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="11.45">
       <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
@@ -5380,7 +5377,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="11.45">
       <c r="A17" s="52" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5426,7 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="11.45">
       <c r="A18" s="47" t="s">
         <v>33</v>
       </c>
@@ -5478,7 +5475,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1">
       <c r="A19" s="40" t="s">
         <v>35</v>
       </c>
@@ -5527,7 +5524,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="12" customHeight="1">
       <c r="A20" s="43"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -5548,7 +5545,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
@@ -5571,7 +5568,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1">
       <c r="A22" s="54" t="s">
         <v>37</v>
       </c>
@@ -5620,7 +5617,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="12.75" customHeight="1">
       <c r="A23" s="49" t="s">
         <v>38</v>
       </c>
@@ -5669,7 +5666,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="12.75" customHeight="1">
       <c r="A24" s="49" t="s">
         <v>39</v>
       </c>
@@ -5718,7 +5715,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="12.75" customHeight="1">
       <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
@@ -5767,7 +5764,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="12.75" customHeight="1">
       <c r="A26" s="49" t="s">
         <v>41</v>
       </c>
@@ -5816,7 +5813,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="12.75" customHeight="1">
       <c r="A27" s="51" t="s">
         <v>42</v>
       </c>
@@ -5865,7 +5862,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="49" t="s">
         <v>43</v>
       </c>
@@ -5914,7 +5911,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="49" t="s">
         <v>44</v>
       </c>
@@ -5963,7 +5960,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="12.75" customHeight="1">
       <c r="A30" s="49" t="s">
         <v>45</v>
       </c>
@@ -6012,7 +6009,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1">
       <c r="A31" s="49" t="s">
         <v>46</v>
       </c>
@@ -6061,7 +6058,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="12.75" customHeight="1">
       <c r="A32" s="49" t="s">
         <v>47</v>
       </c>
@@ -6110,7 +6107,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="12.75" customHeight="1">
       <c r="A33" s="49" t="s">
         <v>48</v>
       </c>
@@ -6159,7 +6156,7 @@
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="12" customHeight="1">
       <c r="A34" s="59"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -6180,7 +6177,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="12.75" customHeight="1">
       <c r="A35" s="40" t="s">
         <v>49</v>
       </c>
@@ -6229,7 +6226,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="12.75" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>50</v>
       </c>
@@ -6252,7 +6249,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1">
       <c r="A37" s="49" t="s">
         <v>51</v>
       </c>
@@ -6301,7 +6298,7 @@
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="12.75" customHeight="1">
       <c r="A38" s="61" t="s">
         <v>52</v>
       </c>
@@ -6350,7 +6347,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="12.75" customHeight="1">
       <c r="A39" s="62" t="s">
         <v>53</v>
       </c>
@@ -6399,7 +6396,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1">
       <c r="A40" s="49" t="s">
         <v>54</v>
       </c>
@@ -6448,7 +6445,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1">
       <c r="A41" s="51" t="s">
         <v>55</v>
       </c>
@@ -6497,7 +6494,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="12.75" customHeight="1">
       <c r="A42" s="51" t="s">
         <v>56</v>
       </c>
@@ -6546,7 +6543,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="12.75" customHeight="1">
       <c r="A43" s="60" t="s">
         <v>57</v>
       </c>
@@ -6569,7 +6566,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="12.75" customHeight="1">
       <c r="A44" s="49" t="s">
         <v>38</v>
       </c>
@@ -6618,7 +6615,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="12.75" customHeight="1">
       <c r="A45" s="49" t="s">
         <v>58</v>
       </c>
@@ -6667,7 +6664,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="17"/>
     </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="12.75" customHeight="1">
       <c r="A46" s="49" t="s">
         <v>40</v>
       </c>
@@ -6716,7 +6713,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="12.75" customHeight="1">
       <c r="A47" s="49" t="s">
         <v>59</v>
       </c>
@@ -6765,7 +6762,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
     </row>
-    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="12.75" customHeight="1">
       <c r="A48" s="49" t="s">
         <v>60</v>
       </c>
@@ -6814,7 +6811,7 @@
       <c r="R48" s="17"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="12.75" customHeight="1">
       <c r="A49" s="49" t="s">
         <v>61</v>
       </c>
@@ -6863,7 +6860,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="11.45">
       <c r="A50" s="61" t="s">
         <v>62</v>
       </c>
@@ -6912,7 +6909,7 @@
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="62" t="s">
         <v>63</v>
       </c>
@@ -6961,7 +6958,7 @@
       <c r="R51" s="17"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="12.75" customHeight="1">
       <c r="A52" s="62" t="s">
         <v>64</v>
       </c>
@@ -7010,7 +7007,7 @@
       <c r="R52" s="17"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="12.75" customHeight="1">
       <c r="A53" s="49" t="s">
         <v>65</v>
       </c>
@@ -7059,7 +7056,7 @@
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="12.75" customHeight="1">
       <c r="A54" s="49" t="s">
         <v>66</v>
       </c>
@@ -7108,7 +7105,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="12" customHeight="1">
       <c r="A55" s="49"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -7129,7 +7126,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="12.75" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>67</v>
       </c>
@@ -7178,7 +7175,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="12" customHeight="1">
       <c r="A57" s="63"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -7202,7 +7199,7 @@
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
     </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="12.75" customHeight="1">
       <c r="A58" s="40" t="s">
         <v>68</v>
       </c>
@@ -7254,7 +7251,7 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
     </row>
-    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="12.75" customHeight="1">
       <c r="A59" s="66" t="s">
         <v>69</v>
       </c>
@@ -7303,7 +7300,7 @@
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
     </row>
-    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="12.75" customHeight="1">
       <c r="A60" s="49" t="s">
         <v>38</v>
       </c>
@@ -7355,7 +7352,7 @@
       <c r="U60" s="27"/>
       <c r="V60" s="27"/>
     </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="12.75" customHeight="1">
       <c r="A61" s="49" t="s">
         <v>58</v>
       </c>
@@ -7407,7 +7404,7 @@
       <c r="U61" s="27"/>
       <c r="V61" s="27"/>
     </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="12.75" customHeight="1">
       <c r="A62" s="49" t="s">
         <v>40</v>
       </c>
@@ -7456,7 +7453,7 @@
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
     </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="12.75" customHeight="1">
       <c r="A63" s="49" t="s">
         <v>41</v>
       </c>
@@ -7505,7 +7502,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="12.75" customHeight="1">
       <c r="A64" s="49" t="s">
         <v>70</v>
       </c>
@@ -7554,7 +7551,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="12.75" customHeight="1">
       <c r="A65" s="51" t="s">
         <v>42</v>
       </c>
@@ -7603,7 +7600,7 @@
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
     </row>
-    <row r="66" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="12.75" customHeight="1">
       <c r="A66" s="49" t="s">
         <v>71</v>
       </c>
@@ -7652,7 +7649,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="12.75" customHeight="1">
       <c r="A67" s="49" t="s">
         <v>65</v>
       </c>
@@ -7701,7 +7698,7 @@
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
     </row>
-    <row r="68" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="12.75" customHeight="1">
       <c r="A68" s="49" t="s">
         <v>66</v>
       </c>
@@ -7750,7 +7747,7 @@
       <c r="R68" s="25"/>
       <c r="S68" s="25"/>
     </row>
-    <row r="69" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="12.75" customHeight="1">
       <c r="A69" s="49" t="s">
         <v>59</v>
       </c>
@@ -7799,7 +7796,7 @@
       <c r="R69" s="25"/>
       <c r="S69" s="25"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="66" t="s">
         <v>72</v>
       </c>
@@ -7848,7 +7845,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="12.75" customHeight="1">
       <c r="A71" s="66" t="s">
         <v>73</v>
       </c>
@@ -7897,7 +7894,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="49" t="s">
         <v>65</v>
       </c>
@@ -7946,7 +7943,7 @@
       <c r="R72" s="17"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="49" t="s">
         <v>59</v>
       </c>
@@ -7995,7 +7992,7 @@
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="12" customHeight="1" thickBot="1">
       <c r="A74" s="63"/>
       <c r="B74" s="63"/>
       <c r="C74" s="63"/>
@@ -8034,7 +8031,7 @@
       <c r="Z74" s="81"/>
       <c r="AA74" s="81"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="12" customHeight="1" thickBot="1">
       <c r="A75" s="79" t="s">
         <v>76</v>
       </c>
@@ -8089,7 +8086,7 @@
       <c r="R75" s="17"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" s="40" t="s">
         <v>78</v>
       </c>
@@ -8138,7 +8135,7 @@
       <c r="R76" s="17"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="66" t="s">
         <v>79</v>
       </c>
@@ -8187,7 +8184,7 @@
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="49" t="s">
         <v>59</v>
       </c>
@@ -8231,7 +8228,7 @@
         <v>0.78568541307690865</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="49" t="s">
         <v>80</v>
       </c>
@@ -8275,7 +8272,7 @@
         <v>-0.22262296039353702</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="66" t="s">
         <v>81</v>
       </c>
@@ -8319,7 +8316,7 @@
         <v>7.0438645968828872E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="66" t="s">
         <v>82</v>
       </c>
@@ -8363,7 +8360,7 @@
         <v>19.360960664325887</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="49" t="s">
         <v>83</v>
       </c>
@@ -8417,7 +8414,7 @@
       <c r="R82" s="93"/>
       <c r="S82" s="93"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="49" t="s">
         <v>66</v>
       </c>
@@ -8461,7 +8458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="49"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -8477,7 +8474,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="40" t="s">
         <v>85</v>
       </c>
@@ -8521,7 +8518,7 @@
         <v>-1.5118135951797562</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="49" t="s">
         <v>38</v>
       </c>
@@ -8565,7 +8562,7 @@
         <v>-4.3467157152702995</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="49" t="s">
         <v>39</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>-2.5140555801019593</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="49" t="s">
         <v>40</v>
       </c>
@@ -8653,7 +8650,7 @@
         <v>-0.5307788461428764</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="11.45">
       <c r="A89" s="51" t="s">
         <v>86</v>
       </c>
@@ -8697,7 +8694,7 @@
         <v>-0.96420094272123835</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="49" t="s">
         <v>65</v>
       </c>
@@ -8741,7 +8738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="49" t="s">
         <v>66</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="49" t="s">
         <v>59</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>-1.6348708093032016</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="49" t="s">
         <v>80</v>
       </c>
@@ -8873,7 +8870,7 @@
         <v>-0.1333028156052074</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="49"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -8889,7 +8886,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="38" t="s">
         <v>87</v>
       </c>
@@ -8907,7 +8904,7 @@
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="40" t="s">
         <v>88</v>
       </c>
@@ -8951,7 +8948,7 @@
         <v>-9.581053715541632E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="49" t="s">
         <v>38</v>
       </c>
@@ -8995,7 +8992,7 @@
         <v>-5.7355997823842264</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="49" t="s">
         <v>39</v>
       </c>
@@ -9039,7 +9036,7 @@
         <v>-3.5654348703811789</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="49" t="s">
         <v>89</v>
       </c>
@@ -9083,7 +9080,7 @@
         <v>0.31873885819930781</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="49" t="s">
         <v>41</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>-1.2463893333830467</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="49" t="s">
         <v>90</v>
       </c>
@@ -9171,7 +9168,7 @@
         <v>1.036021818121502</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="40" t="s">
         <v>91</v>
       </c>
@@ -9215,7 +9212,7 @@
         <v>-1.0240600077349837</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="49" t="s">
         <v>38</v>
       </c>
@@ -9259,7 +9256,7 @@
         <v>-4.9019654919539191</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="49" t="s">
         <v>39</v>
       </c>
@@ -9303,7 +9300,7 @@
         <v>-1.2013597695918476</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="49" t="s">
         <v>89</v>
       </c>
@@ -9347,7 +9344,7 @@
         <v>-0.1536100133290752</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="49" t="s">
         <v>59</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>1.5797403375073849</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="49" t="s">
         <v>92</v>
       </c>
@@ -9435,7 +9432,7 @@
         <v>-8.4811639946390631</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="49" t="s">
         <v>65</v>
       </c>
@@ -9479,7 +9476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="11.45">
       <c r="A109" s="47" t="s">
         <v>93</v>
       </c>
@@ -9523,7 +9520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="12" customHeight="1">
       <c r="A110" s="49"/>
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
@@ -9539,7 +9536,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="23"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="38" t="s">
         <v>94</v>
       </c>
@@ -9557,7 +9554,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="11.45">
       <c r="A112" s="47" t="s">
         <v>95</v>
       </c>
@@ -9601,7 +9598,7 @@
         <v>0.2796780289620715</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="49" t="s">
         <v>96</v>
       </c>
@@ -9645,7 +9642,7 @@
         <v>-1.0805630850672099</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="40" t="s">
         <v>97</v>
       </c>
@@ -9663,7 +9660,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="23"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="11.45">
       <c r="A115" s="49" t="s">
         <v>98</v>
       </c>
@@ -9707,7 +9704,7 @@
         <v>-1.2228498427479972</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="62" t="s">
         <v>99</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>-1.4081959051479576</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="62" t="s">
         <v>100</v>
       </c>
@@ -9795,7 +9792,7 @@
         <v>-1.036664372257412</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="49" t="s">
         <v>101</v>
       </c>
@@ -9839,7 +9836,7 @@
         <v>-0.11695786118455231</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="11.45">
       <c r="A119" s="49" t="s">
         <v>102</v>
       </c>
@@ -9883,7 +9880,7 @@
         <v>0.13339716097287013</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="40" t="s">
         <v>103</v>
       </c>
@@ -9901,7 +9898,7 @@
       <c r="M120" s="23"/>
       <c r="N120" s="23"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="75" t="s">
         <v>104</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>-1.922623547071578</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A122" s="103" t="s">
         <v>105</v>
       </c>
@@ -9963,7 +9960,7 @@
       <c r="M122" s="104"/>
       <c r="N122" s="104"/>
     </row>
-    <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1">
       <c r="A123" s="101" t="s">
         <v>106</v>
       </c>
@@ -9981,7 +9978,7 @@
       <c r="M123" s="101"/>
       <c r="N123" s="101"/>
     </row>
-    <row r="124" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A124" s="101" t="s">
         <v>107</v>
       </c>
@@ -9999,7 +9996,7 @@
       <c r="M124" s="102"/>
       <c r="N124" s="102"/>
     </row>
-    <row r="125" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A125" s="101" t="s">
         <v>108</v>
       </c>
@@ -10017,7 +10014,7 @@
       <c r="M125" s="102"/>
       <c r="N125" s="102"/>
     </row>
-    <row r="126" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A126" s="101" t="s">
         <v>109</v>
       </c>
@@ -10035,7 +10032,7 @@
       <c r="M126" s="102"/>
       <c r="N126" s="102"/>
     </row>
-    <row r="127" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A127" s="101" t="s">
         <v>110</v>
       </c>
@@ -10053,7 +10050,7 @@
       <c r="M127" s="102"/>
       <c r="N127" s="102"/>
     </row>
-    <row r="128" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A128" s="101" t="s">
         <v>111</v>
       </c>
@@ -10071,7 +10068,7 @@
       <c r="M128" s="102"/>
       <c r="N128" s="102"/>
     </row>
-    <row r="129" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A129" s="101" t="s">
         <v>112</v>
       </c>
@@ -10089,7 +10086,7 @@
       <c r="M129" s="102"/>
       <c r="N129" s="102"/>
     </row>
-    <row r="130" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A130" s="101" t="s">
         <v>113</v>
       </c>
@@ -10107,7 +10104,7 @@
       <c r="M130" s="102"/>
       <c r="N130" s="102"/>
     </row>
-    <row r="131" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A131" s="101" t="s">
         <v>114</v>
       </c>
@@ -10125,7 +10122,7 @@
       <c r="M131" s="102"/>
       <c r="N131" s="102"/>
     </row>
-    <row r="132" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A132" s="101" t="s">
         <v>115</v>
       </c>
@@ -10143,7 +10140,7 @@
       <c r="M132" s="102"/>
       <c r="N132" s="102"/>
     </row>
-    <row r="133" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="34" customFormat="1" ht="10.9">
       <c r="A133" s="101" t="s">
         <v>116</v>
       </c>
@@ -10161,7 +10158,7 @@
       <c r="M133" s="102"/>
       <c r="N133" s="102"/>
     </row>
-    <row r="134" spans="1:14" s="34" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="34" customFormat="1" ht="11.45" thickBot="1">
       <c r="A134" s="105" t="s">
         <v>117</v>
       </c>
@@ -10179,7 +10176,7 @@
       <c r="M134" s="106"/>
       <c r="N134" s="106"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="35" t="s">
         <v>118</v>
       </c>
@@ -10222,18 +10219,18 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="82" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1"/>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="83" t="s">
         <v>120</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -10249,7 +10246,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -10257,7 +10254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -10282,7 +10279,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
@@ -10290,7 +10287,7 @@
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6">
       <c r="A1" s="108" t="s">
         <v>124</v>
       </c>
@@ -10306,7 +10303,7 @@
       <c r="K1" s="108"/>
       <c r="L1" s="108"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="107" t="s">
@@ -10325,7 +10322,7 @@
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>128</v>
@@ -10358,7 +10355,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="9" t="s">
         <v>129</v>
       </c>
@@ -10389,7 +10386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -10420,7 +10417,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
         <v>131</v>
       </c>
@@ -10451,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>132</v>
       </c>
@@ -10482,7 +10479,7 @@
         <v>138.37484564921732</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
@@ -10517,7 +10514,7 @@
         <v>1391.2172148280033</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>134</v>
       </c>
@@ -10548,7 +10545,7 @@
         <v>35.20825</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
         <v>135</v>
       </c>
@@ -10579,7 +10576,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
         <v>136</v>
       </c>
@@ -10614,7 +10611,7 @@
         <v>22.988256601844338</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>137</v>
       </c>
@@ -10635,11 +10632,11 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="H14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -10656,7 +10653,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>1407.4461100019494</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -10698,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -10719,7 +10716,7 @@
         <v>0.98478601926509657</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -10740,7 +10737,7 @@
         <v>1.5213980734903397E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -10761,8 +10758,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" thickBot="1"/>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -10800,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -10821,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -10842,15 +10839,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="B26" s="90"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="B27" s="97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="97" t="s">
         <v>148</v>
       </c>
@@ -10875,12 +10872,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="8" t="s">
         <v>149</v>
       </c>
@@ -10978,7 +10975,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
@@ -11107,7 +11104,7 @@
         <v>0.16555189491787298</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
@@ -11236,7 +11233,7 @@
         <v>0.62632340757933302</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
@@ -11334,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
@@ -11432,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>154</v>
       </c>
@@ -11530,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="7" t="s">
         <v>155</v>
       </c>
@@ -11659,7 +11656,7 @@
         <v>0.20812469750279411</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="7" t="s">
         <v>156</v>
       </c>
@@ -11788,17 +11785,17 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32">
       <c r="B12" s="87" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32">
       <c r="B13" s="92" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32">
       <c r="B14" s="91" t="s">
         <v>159</v>
       </c>
@@ -11813,18 +11810,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="8" t="s">
         <v>149</v>
       </c>
@@ -11922,7 +11919,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
@@ -12051,7 +12048,7 @@
         <v>0.16555189491787298</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
@@ -12180,7 +12177,7 @@
         <v>0.62632340757933302</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
@@ -12309,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
@@ -12438,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="7" t="s">
         <v>154</v>
       </c>
@@ -12567,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -12665,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="15">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -12763,46 +12760,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-    </row>
+    <row r="15" spans="1:32" ht="15"/>
+    <row r="16" spans="1:32" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -12813,7 +12787,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -13042,49 +13016,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96DCF2-3D6F-413B-88E1-2B27BC1128F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96DCF2-3D6F-413B-88E1-2B27BC1128F2}"/>
 </file>
--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artelys778.sharepoint.com/sites/Agora-EPStool-Artelys/Documents partages/Artelys/3 - Livrables/1. all data/2. A checker par Paul/13. BAU Hydrogen Production Shares by Pathway/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{50744115-75AC-4525-8E2A-8202EB70A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2807D661-327B-4E8F-8E14-AAA950F03467}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE88A35-2775-4540-8644-26B5F73E5862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12855" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
+    <workbookView xWindow="35595" yWindow="2730" windowWidth="21600" windowHeight="11175" activeTab="5" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -749,6 +749,9 @@
   <si>
     <t>natural gas reforming with CCS</t>
   </si>
+  <si>
+    <t>EI Note: byproduct H2 is accounted for in the industry sector, not demanded by H2 producers, so it is excluded from production pathways here in the final BHPSbP tab</t>
+  </si>
 </sst>
 </file>
 
@@ -765,7 +768,7 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +961,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1195,7 +1207,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1383,6 +1395,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1395,18 +1413,13 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -4289,9 +4302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4329,7 +4342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4435,7 +4448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4577,7 +4590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4591,24 +4604,24 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" style="3"/>
     <col min="3" max="3" width="62.140625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
@@ -4619,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -4628,7 +4641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -4637,37 +4650,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="95" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="96" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="95" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="95" t="s">
         <v>13</v>
       </c>
@@ -4688,13 +4701,13 @@
   <dimension ref="A1:AA135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="10.15"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72" style="18" customWidth="1"/>
     <col min="2" max="9" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
@@ -4705,7 +4718,7 @@
     <col min="16" max="16384" width="9.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" customHeight="1">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4728,7 +4741,7 @@
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37">
         <v>2005</v>
@@ -4775,7 +4788,7 @@
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>18</v>
       </c>
@@ -4798,7 +4811,7 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" ht="11.25" customHeight="1">
+    <row r="4" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
@@ -4847,7 +4860,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
@@ -4896,7 +4909,7 @@
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>21</v>
       </c>
@@ -4945,7 +4958,7 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>22</v>
       </c>
@@ -4994,7 +5007,7 @@
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>23</v>
       </c>
@@ -5043,7 +5056,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="11.25" customHeight="1">
+    <row r="9" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -5064,7 +5077,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>24</v>
       </c>
@@ -5087,7 +5100,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="11.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>25</v>
       </c>
@@ -5136,7 +5149,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
@@ -5185,7 +5198,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>27</v>
       </c>
@@ -5234,7 +5247,7 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>28</v>
       </c>
@@ -5283,7 +5296,7 @@
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" ht="11.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>29</v>
       </c>
@@ -5328,7 +5341,7 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" ht="11.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
@@ -5377,7 +5390,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" ht="11.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>32</v>
       </c>
@@ -5426,7 +5439,7 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="11.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>33</v>
       </c>
@@ -5475,7 +5488,7 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>35</v>
       </c>
@@ -5524,7 +5537,7 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1">
+    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -5545,7 +5558,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" ht="12.75" customHeight="1">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>36</v>
       </c>
@@ -5568,7 +5581,7 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="12.75" customHeight="1">
+    <row r="22" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>37</v>
       </c>
@@ -5617,7 +5630,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="12.75" customHeight="1">
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>38</v>
       </c>
@@ -5666,7 +5679,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="12.75" customHeight="1">
+    <row r="24" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>39</v>
       </c>
@@ -5715,7 +5728,7 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1">
+    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
@@ -5764,7 +5777,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="12.75" customHeight="1">
+    <row r="26" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>41</v>
       </c>
@@ -5813,7 +5826,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" ht="12.75" customHeight="1">
+    <row r="27" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>42</v>
       </c>
@@ -5862,7 +5875,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>43</v>
       </c>
@@ -5911,7 +5924,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>44</v>
       </c>
@@ -5960,7 +5973,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="12.75" customHeight="1">
+    <row r="30" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>45</v>
       </c>
@@ -6009,7 +6022,7 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="12.75" customHeight="1">
+    <row r="31" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>46</v>
       </c>
@@ -6058,7 +6071,7 @@
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="12.75" customHeight="1">
+    <row r="32" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>47</v>
       </c>
@@ -6107,7 +6120,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="12.75" customHeight="1">
+    <row r="33" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>48</v>
       </c>
@@ -6156,7 +6169,7 @@
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1">
+    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -6177,7 +6190,7 @@
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" ht="12.75" customHeight="1">
+    <row r="35" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>49</v>
       </c>
@@ -6226,7 +6239,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="12.75" customHeight="1">
+    <row r="36" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
         <v>50</v>
       </c>
@@ -6249,7 +6262,7 @@
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="12.75" customHeight="1">
+    <row r="37" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>51</v>
       </c>
@@ -6298,7 +6311,7 @@
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="12.75" customHeight="1">
+    <row r="38" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>52</v>
       </c>
@@ -6347,7 +6360,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="12.75" customHeight="1">
+    <row r="39" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>53</v>
       </c>
@@ -6396,7 +6409,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" ht="12.75" customHeight="1">
+    <row r="40" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6458,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" ht="12.75" customHeight="1">
+    <row r="41" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>55</v>
       </c>
@@ -6494,7 +6507,7 @@
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="12.75" customHeight="1">
+    <row r="42" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
         <v>56</v>
       </c>
@@ -6543,7 +6556,7 @@
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="12.75" customHeight="1">
+    <row r="43" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>57</v>
       </c>
@@ -6566,7 +6579,7 @@
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="12.75" customHeight="1">
+    <row r="44" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>38</v>
       </c>
@@ -6615,7 +6628,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="12.75" customHeight="1">
+    <row r="45" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>58</v>
       </c>
@@ -6664,7 +6677,7 @@
       <c r="R45" s="17"/>
       <c r="S45" s="17"/>
     </row>
-    <row r="46" spans="1:19" ht="12.75" customHeight="1">
+    <row r="46" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>40</v>
       </c>
@@ -6713,7 +6726,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" ht="12.75" customHeight="1">
+    <row r="47" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>59</v>
       </c>
@@ -6762,7 +6775,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
     </row>
-    <row r="48" spans="1:19" ht="12.75" customHeight="1">
+    <row r="48" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>60</v>
       </c>
@@ -6811,7 +6824,7 @@
       <c r="R48" s="17"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:22" ht="12.75" customHeight="1">
+    <row r="49" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>61</v>
       </c>
@@ -6860,7 +6873,7 @@
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:22" ht="11.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>62</v>
       </c>
@@ -6909,7 +6922,7 @@
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="62" t="s">
         <v>63</v>
       </c>
@@ -6958,7 +6971,7 @@
       <c r="R51" s="17"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:22" ht="12.75" customHeight="1">
+    <row r="52" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="62" t="s">
         <v>64</v>
       </c>
@@ -7007,7 +7020,7 @@
       <c r="R52" s="17"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:22" ht="12.75" customHeight="1">
+    <row r="53" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>65</v>
       </c>
@@ -7056,7 +7069,7 @@
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:22" ht="12.75" customHeight="1">
+    <row r="54" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>66</v>
       </c>
@@ -7105,7 +7118,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:22" ht="12" customHeight="1">
+    <row r="55" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -7126,7 +7139,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:22" ht="12.75" customHeight="1">
+    <row r="56" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>67</v>
       </c>
@@ -7175,7 +7188,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:22" ht="12" customHeight="1">
+    <row r="57" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -7199,7 +7212,7 @@
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
     </row>
-    <row r="58" spans="1:22" ht="12.75" customHeight="1">
+    <row r="58" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="s">
         <v>68</v>
       </c>
@@ -7251,7 +7264,7 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
     </row>
-    <row r="59" spans="1:22" ht="12.75" customHeight="1">
+    <row r="59" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
         <v>69</v>
       </c>
@@ -7300,7 +7313,7 @@
       <c r="R59" s="25"/>
       <c r="S59" s="25"/>
     </row>
-    <row r="60" spans="1:22" ht="12.75" customHeight="1">
+    <row r="60" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>38</v>
       </c>
@@ -7352,7 +7365,7 @@
       <c r="U60" s="27"/>
       <c r="V60" s="27"/>
     </row>
-    <row r="61" spans="1:22" ht="12.75" customHeight="1">
+    <row r="61" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>58</v>
       </c>
@@ -7404,7 +7417,7 @@
       <c r="U61" s="27"/>
       <c r="V61" s="27"/>
     </row>
-    <row r="62" spans="1:22" ht="12.75" customHeight="1">
+    <row r="62" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
         <v>40</v>
       </c>
@@ -7453,7 +7466,7 @@
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
     </row>
-    <row r="63" spans="1:22" ht="12.75" customHeight="1">
+    <row r="63" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
         <v>41</v>
       </c>
@@ -7502,7 +7515,7 @@
       <c r="R63" s="25"/>
       <c r="S63" s="25"/>
     </row>
-    <row r="64" spans="1:22" ht="12.75" customHeight="1">
+    <row r="64" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
         <v>70</v>
       </c>
@@ -7551,7 +7564,7 @@
       <c r="R64" s="25"/>
       <c r="S64" s="25"/>
     </row>
-    <row r="65" spans="1:27" ht="12.75" customHeight="1">
+    <row r="65" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51" t="s">
         <v>42</v>
       </c>
@@ -7600,7 +7613,7 @@
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
     </row>
-    <row r="66" spans="1:27" ht="12.75" customHeight="1">
+    <row r="66" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>71</v>
       </c>
@@ -7649,7 +7662,7 @@
       <c r="R66" s="17"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:27" ht="12.75" customHeight="1">
+    <row r="67" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
         <v>65</v>
       </c>
@@ -7698,7 +7711,7 @@
       <c r="R67" s="25"/>
       <c r="S67" s="25"/>
     </row>
-    <row r="68" spans="1:27" ht="12.75" customHeight="1">
+    <row r="68" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
         <v>66</v>
       </c>
@@ -7747,7 +7760,7 @@
       <c r="R68" s="25"/>
       <c r="S68" s="25"/>
     </row>
-    <row r="69" spans="1:27" ht="12.75" customHeight="1">
+    <row r="69" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
         <v>59</v>
       </c>
@@ -7796,7 +7809,7 @@
       <c r="R69" s="25"/>
       <c r="S69" s="25"/>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
         <v>72</v>
       </c>
@@ -7845,7 +7858,7 @@
       <c r="R70" s="17"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:27" ht="12.75" customHeight="1">
+    <row r="71" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
         <v>73</v>
       </c>
@@ -7894,7 +7907,7 @@
       <c r="R71" s="17"/>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
         <v>65</v>
       </c>
@@ -7943,7 +7956,7 @@
       <c r="R72" s="17"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
         <v>59</v>
       </c>
@@ -7992,7 +8005,7 @@
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:27" ht="12" customHeight="1" thickBot="1">
+    <row r="74" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63"/>
       <c r="B74" s="63"/>
       <c r="C74" s="63"/>
@@ -8031,7 +8044,7 @@
       <c r="Z74" s="81"/>
       <c r="AA74" s="81"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1" thickBot="1">
+    <row r="75" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="79" t="s">
         <v>76</v>
       </c>
@@ -8086,7 +8099,7 @@
       <c r="R75" s="17"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
         <v>78</v>
       </c>
@@ -8135,7 +8148,7 @@
       <c r="R76" s="17"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="66" t="s">
         <v>79</v>
       </c>
@@ -8184,7 +8197,7 @@
       <c r="R77" s="17"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>59</v>
       </c>
@@ -8228,7 +8241,7 @@
         <v>0.78568541307690865</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>80</v>
       </c>
@@ -8272,7 +8285,7 @@
         <v>-0.22262296039353702</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
         <v>81</v>
       </c>
@@ -8316,7 +8329,7 @@
         <v>7.0438645968828872E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="66" t="s">
         <v>82</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>19.360960664325887</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>83</v>
       </c>
@@ -8414,7 +8427,7 @@
       <c r="R82" s="93"/>
       <c r="S82" s="93"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>66</v>
       </c>
@@ -8458,7 +8471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1">
+    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -8474,7 +8487,7 @@
       <c r="M84" s="23"/>
       <c r="N84" s="23"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="s">
         <v>85</v>
       </c>
@@ -8518,7 +8531,7 @@
         <v>-1.5118135951797562</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
         <v>38</v>
       </c>
@@ -8562,7 +8575,7 @@
         <v>-4.3467157152702995</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="s">
         <v>39</v>
       </c>
@@ -8606,7 +8619,7 @@
         <v>-2.5140555801019593</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
         <v>40</v>
       </c>
@@ -8650,7 +8663,7 @@
         <v>-0.5307788461428764</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="11.45">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="51" t="s">
         <v>86</v>
       </c>
@@ -8694,7 +8707,7 @@
         <v>-0.96420094272123835</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
         <v>65</v>
       </c>
@@ -8738,7 +8751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
         <v>66</v>
       </c>
@@ -8782,7 +8795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
         <v>59</v>
       </c>
@@ -8826,7 +8839,7 @@
         <v>-1.6348708093032016</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
         <v>80</v>
       </c>
@@ -8870,7 +8883,7 @@
         <v>-0.1333028156052074</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1">
+    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -8886,7 +8899,7 @@
       <c r="M94" s="23"/>
       <c r="N94" s="23"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
         <v>87</v>
       </c>
@@ -8904,7 +8917,7 @@
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>88</v>
       </c>
@@ -8948,7 +8961,7 @@
         <v>-9.581053715541632E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="49" t="s">
         <v>38</v>
       </c>
@@ -8992,7 +9005,7 @@
         <v>-5.7355997823842264</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>39</v>
       </c>
@@ -9036,7 +9049,7 @@
         <v>-3.5654348703811789</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>89</v>
       </c>
@@ -9080,7 +9093,7 @@
         <v>0.31873885819930781</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
         <v>41</v>
       </c>
@@ -9124,7 +9137,7 @@
         <v>-1.2463893333830467</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>90</v>
       </c>
@@ -9168,7 +9181,7 @@
         <v>1.036021818121502</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>91</v>
       </c>
@@ -9212,7 +9225,7 @@
         <v>-1.0240600077349837</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="49" t="s">
         <v>38</v>
       </c>
@@ -9256,7 +9269,7 @@
         <v>-4.9019654919539191</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
         <v>39</v>
       </c>
@@ -9300,7 +9313,7 @@
         <v>-1.2013597695918476</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
         <v>89</v>
       </c>
@@ -9344,7 +9357,7 @@
         <v>-0.1536100133290752</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="49" t="s">
         <v>59</v>
       </c>
@@ -9388,7 +9401,7 @@
         <v>1.5797403375073849</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="49" t="s">
         <v>92</v>
       </c>
@@ -9432,7 +9445,7 @@
         <v>-8.4811639946390631</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
         <v>65</v>
       </c>
@@ -9476,7 +9489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="11.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>93</v>
       </c>
@@ -9520,7 +9533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="12" customHeight="1">
+    <row r="110" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49"/>
       <c r="B110" s="49"/>
       <c r="C110" s="49"/>
@@ -9536,7 +9549,7 @@
       <c r="M110" s="23"/>
       <c r="N110" s="23"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
         <v>94</v>
       </c>
@@ -9554,7 +9567,7 @@
       <c r="M111" s="30"/>
       <c r="N111" s="30"/>
     </row>
-    <row r="112" spans="1:14" ht="11.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>95</v>
       </c>
@@ -9598,7 +9611,7 @@
         <v>0.2796780289620715</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="49" t="s">
         <v>96</v>
       </c>
@@ -9642,7 +9655,7 @@
         <v>-1.0805630850672099</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="40" t="s">
         <v>97</v>
       </c>
@@ -9660,7 +9673,7 @@
       <c r="M114" s="23"/>
       <c r="N114" s="23"/>
     </row>
-    <row r="115" spans="1:14" ht="11.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="49" t="s">
         <v>98</v>
       </c>
@@ -9704,7 +9717,7 @@
         <v>-1.2228498427479972</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="62" t="s">
         <v>99</v>
       </c>
@@ -9748,7 +9761,7 @@
         <v>-1.4081959051479576</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="62" t="s">
         <v>100</v>
       </c>
@@ -9792,7 +9805,7 @@
         <v>-1.036664372257412</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="49" t="s">
         <v>101</v>
       </c>
@@ -9836,7 +9849,7 @@
         <v>-0.11695786118455231</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="11.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="49" t="s">
         <v>102</v>
       </c>
@@ -9880,7 +9893,7 @@
         <v>0.13339716097287013</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="40" t="s">
         <v>103</v>
       </c>
@@ -9898,7 +9911,7 @@
       <c r="M120" s="23"/>
       <c r="N120" s="23"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="75" t="s">
         <v>104</v>
       </c>
@@ -9942,241 +9955,241 @@
         <v>-1.922623547071578</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A122" s="103" t="s">
+    <row r="122" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A122" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="104"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="104"/>
-      <c r="E122" s="104"/>
-      <c r="F122" s="104"/>
-      <c r="G122" s="104"/>
-      <c r="H122" s="104"/>
-      <c r="I122" s="104"/>
-      <c r="J122" s="104"/>
-      <c r="K122" s="104"/>
-      <c r="L122" s="104"/>
-      <c r="M122" s="104"/>
-      <c r="N122" s="104"/>
-    </row>
-    <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A123" s="101" t="s">
+      <c r="B122" s="106"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="106"/>
+      <c r="F122" s="106"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="106"/>
+      <c r="I122" s="106"/>
+      <c r="J122" s="106"/>
+      <c r="K122" s="106"/>
+      <c r="L122" s="106"/>
+      <c r="M122" s="106"/>
+      <c r="N122" s="106"/>
+    </row>
+    <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B123" s="101"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="101"/>
-      <c r="K123" s="101"/>
-      <c r="L123" s="101"/>
-      <c r="M123" s="101"/>
-      <c r="N123" s="101"/>
-    </row>
-    <row r="124" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A124" s="101" t="s">
+      <c r="B123" s="103"/>
+      <c r="C123" s="103"/>
+      <c r="D123" s="103"/>
+      <c r="E123" s="103"/>
+      <c r="F123" s="103"/>
+      <c r="G123" s="103"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="103"/>
+      <c r="J123" s="103"/>
+      <c r="K123" s="103"/>
+      <c r="L123" s="103"/>
+      <c r="M123" s="103"/>
+      <c r="N123" s="103"/>
+    </row>
+    <row r="124" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="102"/>
-      <c r="C124" s="102"/>
-      <c r="D124" s="102"/>
-      <c r="E124" s="102"/>
-      <c r="F124" s="102"/>
-      <c r="G124" s="102"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="102"/>
-      <c r="J124" s="102"/>
-      <c r="K124" s="102"/>
-      <c r="L124" s="102"/>
-      <c r="M124" s="102"/>
-      <c r="N124" s="102"/>
-    </row>
-    <row r="125" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A125" s="101" t="s">
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
+      <c r="D124" s="104"/>
+      <c r="E124" s="104"/>
+      <c r="F124" s="104"/>
+      <c r="G124" s="104"/>
+      <c r="H124" s="104"/>
+      <c r="I124" s="104"/>
+      <c r="J124" s="104"/>
+      <c r="K124" s="104"/>
+      <c r="L124" s="104"/>
+      <c r="M124" s="104"/>
+      <c r="N124" s="104"/>
+    </row>
+    <row r="125" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A125" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="102"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="102"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="102"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
-      <c r="L125" s="102"/>
-      <c r="M125" s="102"/>
-      <c r="N125" s="102"/>
-    </row>
-    <row r="126" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A126" s="101" t="s">
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="104"/>
+      <c r="E125" s="104"/>
+      <c r="F125" s="104"/>
+      <c r="G125" s="104"/>
+      <c r="H125" s="104"/>
+      <c r="I125" s="104"/>
+      <c r="J125" s="104"/>
+      <c r="K125" s="104"/>
+      <c r="L125" s="104"/>
+      <c r="M125" s="104"/>
+      <c r="N125" s="104"/>
+    </row>
+    <row r="126" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="B126" s="102"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="102"/>
-      <c r="E126" s="102"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="102"/>
-      <c r="M126" s="102"/>
-      <c r="N126" s="102"/>
-    </row>
-    <row r="127" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A127" s="101" t="s">
+      <c r="B126" s="104"/>
+      <c r="C126" s="104"/>
+      <c r="D126" s="104"/>
+      <c r="E126" s="104"/>
+      <c r="F126" s="104"/>
+      <c r="G126" s="104"/>
+      <c r="H126" s="104"/>
+      <c r="I126" s="104"/>
+      <c r="J126" s="104"/>
+      <c r="K126" s="104"/>
+      <c r="L126" s="104"/>
+      <c r="M126" s="104"/>
+      <c r="N126" s="104"/>
+    </row>
+    <row r="127" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="102"/>
-      <c r="C127" s="102"/>
-      <c r="D127" s="102"/>
-      <c r="E127" s="102"/>
-      <c r="F127" s="102"/>
-      <c r="G127" s="102"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="102"/>
-      <c r="J127" s="102"/>
-      <c r="K127" s="102"/>
-      <c r="L127" s="102"/>
-      <c r="M127" s="102"/>
-      <c r="N127" s="102"/>
-    </row>
-    <row r="128" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A128" s="101" t="s">
+      <c r="B127" s="104"/>
+      <c r="C127" s="104"/>
+      <c r="D127" s="104"/>
+      <c r="E127" s="104"/>
+      <c r="F127" s="104"/>
+      <c r="G127" s="104"/>
+      <c r="H127" s="104"/>
+      <c r="I127" s="104"/>
+      <c r="J127" s="104"/>
+      <c r="K127" s="104"/>
+      <c r="L127" s="104"/>
+      <c r="M127" s="104"/>
+      <c r="N127" s="104"/>
+    </row>
+    <row r="128" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="102"/>
-      <c r="C128" s="102"/>
-      <c r="D128" s="102"/>
-      <c r="E128" s="102"/>
-      <c r="F128" s="102"/>
-      <c r="G128" s="102"/>
-      <c r="H128" s="102"/>
-      <c r="I128" s="102"/>
-      <c r="J128" s="102"/>
-      <c r="K128" s="102"/>
-      <c r="L128" s="102"/>
-      <c r="M128" s="102"/>
-      <c r="N128" s="102"/>
-    </row>
-    <row r="129" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A129" s="101" t="s">
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="104"/>
+      <c r="E128" s="104"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
+      <c r="H128" s="104"/>
+      <c r="I128" s="104"/>
+      <c r="J128" s="104"/>
+      <c r="K128" s="104"/>
+      <c r="L128" s="104"/>
+      <c r="M128" s="104"/>
+      <c r="N128" s="104"/>
+    </row>
+    <row r="129" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="102"/>
-      <c r="C129" s="102"/>
-      <c r="D129" s="102"/>
-      <c r="E129" s="102"/>
-      <c r="F129" s="102"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="102"/>
-      <c r="J129" s="102"/>
-      <c r="K129" s="102"/>
-      <c r="L129" s="102"/>
-      <c r="M129" s="102"/>
-      <c r="N129" s="102"/>
-    </row>
-    <row r="130" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A130" s="101" t="s">
+      <c r="B129" s="104"/>
+      <c r="C129" s="104"/>
+      <c r="D129" s="104"/>
+      <c r="E129" s="104"/>
+      <c r="F129" s="104"/>
+      <c r="G129" s="104"/>
+      <c r="H129" s="104"/>
+      <c r="I129" s="104"/>
+      <c r="J129" s="104"/>
+      <c r="K129" s="104"/>
+      <c r="L129" s="104"/>
+      <c r="M129" s="104"/>
+      <c r="N129" s="104"/>
+    </row>
+    <row r="130" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="B130" s="102"/>
-      <c r="C130" s="102"/>
-      <c r="D130" s="102"/>
-      <c r="E130" s="102"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="102"/>
-      <c r="H130" s="102"/>
-      <c r="I130" s="102"/>
-      <c r="J130" s="102"/>
-      <c r="K130" s="102"/>
-      <c r="L130" s="102"/>
-      <c r="M130" s="102"/>
-      <c r="N130" s="102"/>
-    </row>
-    <row r="131" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A131" s="101" t="s">
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="104"/>
+      <c r="E130" s="104"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="104"/>
+      <c r="I130" s="104"/>
+      <c r="J130" s="104"/>
+      <c r="K130" s="104"/>
+      <c r="L130" s="104"/>
+      <c r="M130" s="104"/>
+      <c r="N130" s="104"/>
+    </row>
+    <row r="131" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A131" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="B131" s="102"/>
-      <c r="C131" s="102"/>
-      <c r="D131" s="102"/>
-      <c r="E131" s="102"/>
-      <c r="F131" s="102"/>
-      <c r="G131" s="102"/>
-      <c r="H131" s="102"/>
-      <c r="I131" s="102"/>
-      <c r="J131" s="102"/>
-      <c r="K131" s="102"/>
-      <c r="L131" s="102"/>
-      <c r="M131" s="102"/>
-      <c r="N131" s="102"/>
-    </row>
-    <row r="132" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A132" s="101" t="s">
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="104"/>
+      <c r="E131" s="104"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="104"/>
+      <c r="H131" s="104"/>
+      <c r="I131" s="104"/>
+      <c r="J131" s="104"/>
+      <c r="K131" s="104"/>
+      <c r="L131" s="104"/>
+      <c r="M131" s="104"/>
+      <c r="N131" s="104"/>
+    </row>
+    <row r="132" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A132" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="102"/>
-      <c r="C132" s="102"/>
-      <c r="D132" s="102"/>
-      <c r="E132" s="102"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="102"/>
-      <c r="H132" s="102"/>
-      <c r="I132" s="102"/>
-      <c r="J132" s="102"/>
-      <c r="K132" s="102"/>
-      <c r="L132" s="102"/>
-      <c r="M132" s="102"/>
-      <c r="N132" s="102"/>
-    </row>
-    <row r="133" spans="1:14" s="34" customFormat="1" ht="10.9">
-      <c r="A133" s="101" t="s">
+      <c r="B132" s="104"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="104"/>
+      <c r="E132" s="104"/>
+      <c r="F132" s="104"/>
+      <c r="G132" s="104"/>
+      <c r="H132" s="104"/>
+      <c r="I132" s="104"/>
+      <c r="J132" s="104"/>
+      <c r="K132" s="104"/>
+      <c r="L132" s="104"/>
+      <c r="M132" s="104"/>
+      <c r="N132" s="104"/>
+    </row>
+    <row r="133" spans="1:14" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="B133" s="102"/>
-      <c r="C133" s="102"/>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="102"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-      <c r="I133" s="102"/>
-      <c r="J133" s="102"/>
-      <c r="K133" s="102"/>
-      <c r="L133" s="102"/>
-      <c r="M133" s="102"/>
-      <c r="N133" s="102"/>
-    </row>
-    <row r="134" spans="1:14" s="34" customFormat="1" ht="11.45" thickBot="1">
-      <c r="A134" s="105" t="s">
+      <c r="B133" s="104"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="104"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="104"/>
+      <c r="G133" s="104"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="104"/>
+      <c r="J133" s="104"/>
+      <c r="K133" s="104"/>
+      <c r="L133" s="104"/>
+      <c r="M133" s="104"/>
+      <c r="N133" s="104"/>
+    </row>
+    <row r="134" spans="1:14" s="34" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="106"/>
-      <c r="C134" s="106"/>
-      <c r="D134" s="106"/>
-      <c r="E134" s="106"/>
-      <c r="F134" s="106"/>
-      <c r="G134" s="106"/>
-      <c r="H134" s="106"/>
-      <c r="I134" s="106"/>
-      <c r="J134" s="106"/>
-      <c r="K134" s="106"/>
-      <c r="L134" s="106"/>
-      <c r="M134" s="106"/>
-      <c r="N134" s="106"/>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="B134" s="102"/>
+      <c r="C134" s="102"/>
+      <c r="D134" s="102"/>
+      <c r="E134" s="102"/>
+      <c r="F134" s="102"/>
+      <c r="G134" s="102"/>
+      <c r="H134" s="102"/>
+      <c r="I134" s="102"/>
+      <c r="J134" s="102"/>
+      <c r="K134" s="102"/>
+      <c r="L134" s="102"/>
+      <c r="M134" s="102"/>
+      <c r="N134" s="102"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
         <v>118</v>
       </c>
@@ -10193,6 +10206,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A127:N127"/>
+    <mergeCell ref="A122:N122"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:N125"/>
+    <mergeCell ref="A126:N126"/>
     <mergeCell ref="A134:N134"/>
     <mergeCell ref="A128:N128"/>
     <mergeCell ref="A129:N129"/>
@@ -10200,12 +10219,6 @@
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="A132:N132"/>
     <mergeCell ref="A133:N133"/>
-    <mergeCell ref="A127:N127"/>
-    <mergeCell ref="A122:N122"/>
-    <mergeCell ref="A123:N123"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:N125"/>
-    <mergeCell ref="A126:N126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10216,21 +10229,21 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1"/>
-    <row r="3" spans="1:2" ht="15" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>120</v>
       </c>
@@ -10238,7 +10251,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -10246,7 +10259,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -10254,7 +10267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -10275,11 +10288,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85806999-68DD-4706-A5C4-8DE674DA542A}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
@@ -10287,7 +10300,7 @@
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
         <v>124</v>
       </c>
@@ -10303,7 +10316,7 @@
       <c r="K1" s="108"/>
       <c r="L1" s="108"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="107" t="s">
@@ -10322,7 +10335,7 @@
       <c r="J3" s="107"/>
       <c r="K3" s="107"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>128</v>
@@ -10355,7 +10368,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>129</v>
       </c>
@@ -10386,7 +10399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -10417,7 +10430,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>131</v>
       </c>
@@ -10448,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>132</v>
       </c>
@@ -10479,7 +10492,7 @@
         <v>138.37484564921732</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
@@ -10514,7 +10527,7 @@
         <v>1391.2172148280033</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>134</v>
       </c>
@@ -10545,7 +10558,7 @@
         <v>35.20825</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>135</v>
       </c>
@@ -10576,7 +10589,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>136</v>
       </c>
@@ -10611,7 +10624,7 @@
         <v>22.988256601844338</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>137</v>
       </c>
@@ -10632,11 +10645,11 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H14" s="11"/>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -10653,7 +10666,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -10674,7 +10687,7 @@
         <v>1407.4461100019494</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -10695,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -10716,7 +10729,7 @@
         <v>0.98478601926509657</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -10737,7 +10750,7 @@
         <v>1.5213980734903397E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -10758,8 +10771,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1"/>
-    <row r="22" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -10776,7 +10789,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -10797,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -10818,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -10839,15 +10852,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="90"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="97" t="s">
         <v>148</v>
       </c>
@@ -10866,18 +10879,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB41427-AB65-4280-A83C-90CCC833C195}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>149</v>
       </c>
@@ -10975,7 +10988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
@@ -11104,7 +11117,7 @@
         <v>0.16555189491787298</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
@@ -11233,7 +11246,7 @@
         <v>0.62632340757933302</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
@@ -11331,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
@@ -11429,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>154</v>
       </c>
@@ -11527,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>155</v>
       </c>
@@ -11656,7 +11669,7 @@
         <v>0.20812469750279411</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>156</v>
       </c>
@@ -11785,19 +11798,24 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" s="87" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="92" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" s="91" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="109" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -11810,18 +11828,18 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>149</v>
       </c>
@@ -11919,652 +11937,652 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="99">
-        <f>Calculations!B2</f>
-        <v>3.9941983335235649E-5</v>
+        <f>Calculations!B2/SUM(Calculations!B$2:B$6)</f>
+        <v>5.3213834166182343E-5</v>
       </c>
       <c r="C2" s="99">
-        <f>Calculations!C2</f>
-        <v>5.1644186997708698E-4</v>
+        <f>Calculations!C2/SUM(Calculations!C$2:C$6)</f>
+        <v>6.8793532593692858E-4</v>
       </c>
       <c r="D2" s="99">
-        <f>Calculations!D2</f>
-        <v>9.929417566189383E-4</v>
+        <f>Calculations!D2/SUM(Calculations!D$2:D$6)</f>
+        <v>1.3224558817292863E-3</v>
       </c>
       <c r="E2" s="99">
-        <f>Calculations!E2</f>
-        <v>1.4694416432607898E-3</v>
+        <f>Calculations!E2/SUM(Calculations!E$2:E$6)</f>
+        <v>1.9567755969446513E-3</v>
       </c>
       <c r="F2" s="99">
-        <f>Calculations!F2</f>
-        <v>1.9459415299026412E-3</v>
+        <f>Calculations!F2/SUM(Calculations!F$2:F$6)</f>
+        <v>2.5908945669240349E-3</v>
       </c>
       <c r="G2" s="99">
-        <f>Calculations!G2</f>
-        <v>2.4224414165444925E-3</v>
+        <f>Calculations!G2/SUM(Calculations!G$2:G$6)</f>
+        <v>3.2248128869481136E-3</v>
       </c>
       <c r="H2" s="99">
-        <f>Calculations!H2</f>
-        <v>2.898941303186344E-3</v>
+        <f>Calculations!H2/SUM(Calculations!H$2:H$6)</f>
+        <v>3.8585306522372744E-3</v>
       </c>
       <c r="I2" s="99">
-        <f>Calculations!I2</f>
-        <v>3.3754411898281951E-3</v>
+        <f>Calculations!I2/SUM(Calculations!I$2:I$6)</f>
+        <v>4.4920479579516632E-3</v>
       </c>
       <c r="J2" s="99">
-        <f>Calculations!J2</f>
-        <v>3.8519410764700467E-3</v>
+        <f>Calculations!J2/SUM(Calculations!J$2:J$6)</f>
+        <v>5.1253648991912339E-3</v>
       </c>
       <c r="K2" s="99">
-        <f>Calculations!K2</f>
-        <v>4.3284409631118978E-3</v>
+        <f>Calculations!K2/SUM(Calculations!K$2:K$6)</f>
+        <v>5.7584815709957942E-3</v>
       </c>
       <c r="L2" s="99">
-        <f>Calculations!L2</f>
-        <v>4.8049408497537489E-3</v>
+        <f>Calculations!L2/SUM(Calculations!L$2:L$6)</f>
+        <v>6.3913980683450514E-3</v>
       </c>
       <c r="M2" s="99">
-        <f>Calculations!M2</f>
-        <v>1.2232538513214927E-2</v>
+        <f>Calculations!M2/SUM(Calculations!M$2:M$6)</f>
+        <v>1.6231383162068E-2</v>
       </c>
       <c r="N2" s="99">
-        <f>Calculations!N2</f>
-        <v>1.9660136176676106E-2</v>
+        <f>Calculations!N2/SUM(Calculations!N$2:N$6)</f>
+        <v>2.6023110205325765E-2</v>
       </c>
       <c r="O2" s="99">
-        <f>Calculations!O2</f>
-        <v>2.7087733840137282E-2</v>
+        <f>Calculations!O2/SUM(Calculations!O$2:O$6)</f>
+        <v>3.576693333627104E-2</v>
       </c>
       <c r="P2" s="99">
-        <f>Calculations!P2</f>
-        <v>3.4515331503598465E-2</v>
+        <f>Calculations!P2/SUM(Calculations!P$2:P$6)</f>
+        <v>4.546320323642291E-2</v>
       </c>
       <c r="Q2" s="99">
-        <f>Calculations!Q2</f>
-        <v>4.1942929167059641E-2</v>
+        <f>Calculations!Q2/SUM(Calculations!Q$2:Q$6)</f>
+        <v>5.5112267172738066E-2</v>
       </c>
       <c r="R2" s="99">
-        <f>Calculations!R2</f>
-        <v>4.9370526830520817E-2</v>
+        <f>Calculations!R2/SUM(Calculations!R$2:R$6)</f>
+        <v>6.4714469039069161E-2</v>
       </c>
       <c r="S2" s="99">
-        <f>Calculations!S2</f>
-        <v>5.6798124493982E-2</v>
+        <f>Calculations!S2/SUM(Calculations!S$2:S$6)</f>
+        <v>7.4270149397020507E-2</v>
       </c>
       <c r="T2" s="99">
-        <f>Calculations!T2</f>
-        <v>6.4225722157443182E-2</v>
+        <f>Calculations!T2/SUM(Calculations!T$2:T$6)</f>
+        <v>8.3779645516211296E-2</v>
       </c>
       <c r="U2" s="99">
-        <f>Calculations!U2</f>
-        <v>7.1653319820904351E-2</v>
+        <f>Calculations!U2/SUM(Calculations!U$2:U$6)</f>
+        <v>9.3243291413956611E-2</v>
       </c>
       <c r="V2" s="99">
-        <f>Calculations!V2</f>
-        <v>7.9080917484365534E-2</v>
+        <f>Calculations!V2/SUM(Calculations!V$2:V$6)</f>
+        <v>0.10266141789437581</v>
       </c>
       <c r="W2" s="99">
-        <f>Calculations!W2</f>
-        <v>8.7728015227716283E-2</v>
+        <f>Calculations!W2/SUM(Calculations!W$2:W$6)</f>
+        <v>0.1135689512148802</v>
       </c>
       <c r="X2" s="99">
-        <f>Calculations!X2</f>
-        <v>9.6375112971067017E-2</v>
+        <f>Calculations!X2/SUM(Calculations!X$2:X$6)</f>
+        <v>0.12441574637303589</v>
       </c>
       <c r="Y2" s="99">
-        <f>Calculations!Y2</f>
-        <v>0.10502221071441777</v>
+        <f>Calculations!Y2/SUM(Calculations!Y$2:Y$6)</f>
+        <v>0.13520230928728549</v>
       </c>
       <c r="Z2" s="99">
-        <f>Calculations!Z2</f>
-        <v>0.11366930845776851</v>
+        <f>Calculations!Z2/SUM(Calculations!Z$2:Z$6)</f>
+        <v>0.14592914027289947</v>
       </c>
       <c r="AA2" s="99">
-        <f>Calculations!AA2</f>
-        <v>0.12231640620111926</v>
+        <f>Calculations!AA2/SUM(Calculations!AA$2:AA$6)</f>
+        <v>0.15659673411933259</v>
       </c>
       <c r="AB2" s="99">
-        <f>Calculations!AB2</f>
-        <v>0.13096350394447001</v>
+        <f>Calculations!AB2/SUM(Calculations!AB$2:AB$6)</f>
+        <v>0.16720558016630246</v>
       </c>
       <c r="AC2" s="99">
-        <f>Calculations!AC2</f>
-        <v>0.13961060168782075</v>
+        <f>Calculations!AC2/SUM(Calculations!AC$2:AC$6)</f>
+        <v>0.17775616237861439</v>
       </c>
       <c r="AD2" s="99">
-        <f>Calculations!AD2</f>
-        <v>0.14825769943117151</v>
+        <f>Calculations!AD2/SUM(Calculations!AD$2:AD$6)</f>
+        <v>0.18824895941975692</v>
       </c>
       <c r="AE2" s="99">
-        <f>Calculations!AE2</f>
-        <v>0.15690479717452224</v>
+        <f>Calculations!AE2/SUM(Calculations!AE$2:AE$6)</f>
+        <v>0.19868444472429142</v>
       </c>
       <c r="AF2" s="99">
-        <f>Calculations!AF2</f>
-        <v>0.16555189491787298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
+        <f>Calculations!AF2/SUM(Calculations!AF$2:AF$6)</f>
+        <v>0.20906308656905875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="99">
-        <f>Calculations!B3</f>
-        <v>0.75055403345734029</v>
+        <f>Calculations!B3/SUM(Calculations!B$2:B$6)</f>
+        <v>0.99994678616583377</v>
       </c>
       <c r="C3" s="99">
-        <f>Calculations!C3</f>
-        <v>0.75019638026010127</v>
+        <f>Calculations!C3/SUM(Calculations!C$2:C$6)</f>
+        <v>0.99931206467406297</v>
       </c>
       <c r="D3" s="99">
-        <f>Calculations!D3</f>
-        <v>0.74983872706286214</v>
+        <f>Calculations!D3/SUM(Calculations!D$2:D$6)</f>
+        <v>0.99867754411827081</v>
       </c>
       <c r="E3" s="99">
-        <f>Calculations!E3</f>
-        <v>0.74948107386562313</v>
+        <f>Calculations!E3/SUM(Calculations!E$2:E$6)</f>
+        <v>0.99804322440305537</v>
       </c>
       <c r="F3" s="99">
-        <f>Calculations!F3</f>
-        <v>0.749123420668384</v>
+        <f>Calculations!F3/SUM(Calculations!F$2:F$6)</f>
+        <v>0.99740910543307593</v>
       </c>
       <c r="G3" s="99">
-        <f>Calculations!G3</f>
-        <v>0.74876576747114498</v>
+        <f>Calculations!G3/SUM(Calculations!G$2:G$6)</f>
+        <v>0.99677518711305191</v>
       </c>
       <c r="H3" s="99">
-        <f>Calculations!H3</f>
-        <v>0.74840811427390597</v>
+        <f>Calculations!H3/SUM(Calculations!H$2:H$6)</f>
+        <v>0.99614146934776271</v>
       </c>
       <c r="I3" s="99">
-        <f>Calculations!I3</f>
-        <v>0.74805046107666684</v>
+        <f>Calculations!I3/SUM(Calculations!I$2:I$6)</f>
+        <v>0.99550795204204823</v>
       </c>
       <c r="J3" s="99">
-        <f>Calculations!J3</f>
-        <v>0.74769280787942782</v>
+        <f>Calculations!J3/SUM(Calculations!J$2:J$6)</f>
+        <v>0.99487463510080876</v>
       </c>
       <c r="K3" s="99">
-        <f>Calculations!K3</f>
-        <v>0.7473351546821887</v>
+        <f>Calculations!K3/SUM(Calculations!K$2:K$6)</f>
+        <v>0.99424151842900421</v>
       </c>
       <c r="L3" s="99">
-        <f>Calculations!L3</f>
-        <v>0.74697750148494968</v>
+        <f>Calculations!L3/SUM(Calculations!L$2:L$6)</f>
+        <v>0.9936086019316549</v>
       </c>
       <c r="M3" s="99">
-        <f>Calculations!M3</f>
-        <v>0.74140246542174304</v>
+        <f>Calculations!M3/SUM(Calculations!M$2:M$6)</f>
+        <v>0.98376861683793204</v>
       </c>
       <c r="N3" s="99">
-        <f>Calculations!N3</f>
-        <v>0.7358274293585364</v>
+        <f>Calculations!N3/SUM(Calculations!N$2:N$6)</f>
+        <v>0.97397688979467434</v>
       </c>
       <c r="O3" s="99">
-        <f>Calculations!O3</f>
-        <v>0.73025239329532976</v>
+        <f>Calculations!O3/SUM(Calculations!O$2:O$6)</f>
+        <v>0.96423306666372899</v>
       </c>
       <c r="P3" s="99">
-        <f>Calculations!P3</f>
-        <v>0.72467735723212312</v>
+        <f>Calculations!P3/SUM(Calculations!P$2:P$6)</f>
+        <v>0.95453679676357717</v>
       </c>
       <c r="Q3" s="99">
-        <f>Calculations!Q3</f>
-        <v>0.71910232116891648</v>
+        <f>Calculations!Q3/SUM(Calculations!Q$2:Q$6)</f>
+        <v>0.94488773282726191</v>
       </c>
       <c r="R3" s="99">
-        <f>Calculations!R3</f>
-        <v>0.71352728510570995</v>
+        <f>Calculations!R3/SUM(Calculations!R$2:R$6)</f>
+        <v>0.93528553096093092</v>
       </c>
       <c r="S3" s="99">
-        <f>Calculations!S3</f>
-        <v>0.70795224904250331</v>
+        <f>Calculations!S3/SUM(Calculations!S$2:S$6)</f>
+        <v>0.92572985060297941</v>
       </c>
       <c r="T3" s="99">
-        <f>Calculations!T3</f>
-        <v>0.70237721297929667</v>
+        <f>Calculations!T3/SUM(Calculations!T$2:T$6)</f>
+        <v>0.91622035448378869</v>
       </c>
       <c r="U3" s="99">
-        <f>Calculations!U3</f>
-        <v>0.69680217691609003</v>
+        <f>Calculations!U3/SUM(Calculations!U$2:U$6)</f>
+        <v>0.90675670858604329</v>
       </c>
       <c r="V3" s="99">
-        <f>Calculations!V3</f>
-        <v>0.69122714085288339</v>
+        <f>Calculations!V3/SUM(Calculations!V$2:V$6)</f>
+        <v>0.89733858210562423</v>
       </c>
       <c r="W3" s="99">
-        <f>Calculations!W3</f>
-        <v>0.68473676752552837</v>
+        <f>Calculations!W3/SUM(Calculations!W$2:W$6)</f>
+        <v>0.88643104878511969</v>
       </c>
       <c r="X3" s="99">
-        <f>Calculations!X3</f>
-        <v>0.67824639419817334</v>
+        <f>Calculations!X3/SUM(Calculations!X$2:X$6)</f>
+        <v>0.87558425362696402</v>
       </c>
       <c r="Y3" s="99">
-        <f>Calculations!Y3</f>
-        <v>0.67175602087081832</v>
+        <f>Calculations!Y3/SUM(Calculations!Y$2:Y$6)</f>
+        <v>0.86479769071271451</v>
       </c>
       <c r="Z3" s="99">
-        <f>Calculations!Z3</f>
-        <v>0.66526564754346329</v>
+        <f>Calculations!Z3/SUM(Calculations!Z$2:Z$6)</f>
+        <v>0.85407085972710062</v>
       </c>
       <c r="AA3" s="99">
-        <f>Calculations!AA3</f>
-        <v>0.65877527421610815</v>
+        <f>Calculations!AA3/SUM(Calculations!AA$2:AA$6)</f>
+        <v>0.84340326588066739</v>
       </c>
       <c r="AB3" s="99">
-        <f>Calculations!AB3</f>
-        <v>0.65228490088875313</v>
+        <f>Calculations!AB3/SUM(Calculations!AB$2:AB$6)</f>
+        <v>0.83279441983369762</v>
       </c>
       <c r="AC3" s="99">
-        <f>Calculations!AC3</f>
-        <v>0.6457945275613981</v>
+        <f>Calculations!AC3/SUM(Calculations!AC$2:AC$6)</f>
+        <v>0.82224383762138564</v>
       </c>
       <c r="AD3" s="99">
-        <f>Calculations!AD3</f>
-        <v>0.63930415423404308</v>
+        <f>Calculations!AD3/SUM(Calculations!AD$2:AD$6)</f>
+        <v>0.81175104058024306</v>
       </c>
       <c r="AE3" s="99">
-        <f>Calculations!AE3</f>
-        <v>0.63281378090668805</v>
+        <f>Calculations!AE3/SUM(Calculations!AE$2:AE$6)</f>
+        <v>0.80131555527570864</v>
       </c>
       <c r="AF3" s="99">
-        <f>Calculations!AF3</f>
-        <v>0.62632340757933302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+        <f>Calculations!AF3/SUM(Calculations!AF$2:AF$6)</f>
+        <v>0.79093691343094119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="99">
-        <f>Calculations!B4</f>
+        <f>Calculations!B4/SUM(Calculations!B$2:B$6)</f>
         <v>0</v>
       </c>
       <c r="C4" s="99">
-        <f>Calculations!C4</f>
+        <f>Calculations!C4/SUM(Calculations!C$2:C$6)</f>
         <v>0</v>
       </c>
       <c r="D4" s="99">
-        <f>Calculations!D4</f>
+        <f>Calculations!D4/SUM(Calculations!D$2:D$6)</f>
         <v>0</v>
       </c>
       <c r="E4" s="99">
-        <f>Calculations!E4</f>
+        <f>Calculations!E4/SUM(Calculations!E$2:E$6)</f>
         <v>0</v>
       </c>
       <c r="F4" s="99">
-        <f>Calculations!F4</f>
+        <f>Calculations!F4/SUM(Calculations!F$2:F$6)</f>
         <v>0</v>
       </c>
       <c r="G4" s="99">
-        <f>Calculations!G4</f>
+        <f>Calculations!G4/SUM(Calculations!G$2:G$6)</f>
         <v>0</v>
       </c>
       <c r="H4" s="99">
-        <f>Calculations!H4</f>
+        <f>Calculations!H4/SUM(Calculations!H$2:H$6)</f>
         <v>0</v>
       </c>
       <c r="I4" s="99">
-        <f>Calculations!I4</f>
+        <f>Calculations!I4/SUM(Calculations!I$2:I$6)</f>
         <v>0</v>
       </c>
       <c r="J4" s="99">
-        <f>Calculations!J4</f>
+        <f>Calculations!J4/SUM(Calculations!J$2:J$6)</f>
         <v>0</v>
       </c>
       <c r="K4" s="99">
-        <f>Calculations!K4</f>
+        <f>Calculations!K4/SUM(Calculations!K$2:K$6)</f>
         <v>0</v>
       </c>
       <c r="L4" s="99">
-        <f>Calculations!L4</f>
+        <f>Calculations!L4/SUM(Calculations!L$2:L$6)</f>
         <v>0</v>
       </c>
       <c r="M4" s="99">
-        <f>Calculations!M4</f>
+        <f>Calculations!M4/SUM(Calculations!M$2:M$6)</f>
         <v>0</v>
       </c>
       <c r="N4" s="99">
-        <f>Calculations!N4</f>
+        <f>Calculations!N4/SUM(Calculations!N$2:N$6)</f>
         <v>0</v>
       </c>
       <c r="O4" s="99">
-        <f>Calculations!O4</f>
+        <f>Calculations!O4/SUM(Calculations!O$2:O$6)</f>
         <v>0</v>
       </c>
       <c r="P4" s="99">
-        <f>Calculations!P4</f>
+        <f>Calculations!P4/SUM(Calculations!P$2:P$6)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="99">
-        <f>Calculations!Q4</f>
+        <f>Calculations!Q4/SUM(Calculations!Q$2:Q$6)</f>
         <v>0</v>
       </c>
       <c r="R4" s="99">
-        <f>Calculations!R4</f>
+        <f>Calculations!R4/SUM(Calculations!R$2:R$6)</f>
         <v>0</v>
       </c>
       <c r="S4" s="99">
-        <f>Calculations!S4</f>
+        <f>Calculations!S4/SUM(Calculations!S$2:S$6)</f>
         <v>0</v>
       </c>
       <c r="T4" s="99">
-        <f>Calculations!T4</f>
+        <f>Calculations!T4/SUM(Calculations!T$2:T$6)</f>
         <v>0</v>
       </c>
       <c r="U4" s="99">
-        <f>Calculations!U4</f>
+        <f>Calculations!U4/SUM(Calculations!U$2:U$6)</f>
         <v>0</v>
       </c>
       <c r="V4" s="99">
-        <f>Calculations!V4</f>
+        <f>Calculations!V4/SUM(Calculations!V$2:V$6)</f>
         <v>0</v>
       </c>
       <c r="W4" s="99">
-        <f>Calculations!W4</f>
+        <f>Calculations!W4/SUM(Calculations!W$2:W$6)</f>
         <v>0</v>
       </c>
       <c r="X4" s="99">
-        <f>Calculations!X4</f>
+        <f>Calculations!X4/SUM(Calculations!X$2:X$6)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="99">
-        <f>Calculations!Y4</f>
+        <f>Calculations!Y4/SUM(Calculations!Y$2:Y$6)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="99">
-        <f>Calculations!Z4</f>
+        <f>Calculations!Z4/SUM(Calculations!Z$2:Z$6)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="99">
-        <f>Calculations!AA4</f>
+        <f>Calculations!AA4/SUM(Calculations!AA$2:AA$6)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="99">
-        <f>Calculations!AB4</f>
+        <f>Calculations!AB4/SUM(Calculations!AB$2:AB$6)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="99">
-        <f>Calculations!AC4</f>
+        <f>Calculations!AC4/SUM(Calculations!AC$2:AC$6)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="99">
-        <f>Calculations!AD4</f>
+        <f>Calculations!AD4/SUM(Calculations!AD$2:AD$6)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="99">
-        <f>Calculations!AE4</f>
+        <f>Calculations!AE4/SUM(Calculations!AE$2:AE$6)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="99">
-        <f>Calculations!AF4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <f>Calculations!AF4/SUM(Calculations!AF$2:AF$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="99">
-        <f>Calculations!B5</f>
+        <f>Calculations!B5/SUM(Calculations!B$2:B$6)</f>
         <v>0</v>
       </c>
       <c r="C5" s="99">
-        <f>Calculations!C5</f>
+        <f>Calculations!C5/SUM(Calculations!C$2:C$6)</f>
         <v>0</v>
       </c>
       <c r="D5" s="99">
-        <f>Calculations!D5</f>
+        <f>Calculations!D5/SUM(Calculations!D$2:D$6)</f>
         <v>0</v>
       </c>
       <c r="E5" s="99">
-        <f>Calculations!E5</f>
+        <f>Calculations!E5/SUM(Calculations!E$2:E$6)</f>
         <v>0</v>
       </c>
       <c r="F5" s="99">
-        <f>Calculations!F5</f>
+        <f>Calculations!F5/SUM(Calculations!F$2:F$6)</f>
         <v>0</v>
       </c>
       <c r="G5" s="99">
-        <f>Calculations!G5</f>
+        <f>Calculations!G5/SUM(Calculations!G$2:G$6)</f>
         <v>0</v>
       </c>
       <c r="H5" s="99">
-        <f>Calculations!H5</f>
+        <f>Calculations!H5/SUM(Calculations!H$2:H$6)</f>
         <v>0</v>
       </c>
       <c r="I5" s="99">
-        <f>Calculations!I5</f>
+        <f>Calculations!I5/SUM(Calculations!I$2:I$6)</f>
         <v>0</v>
       </c>
       <c r="J5" s="99">
-        <f>Calculations!J5</f>
+        <f>Calculations!J5/SUM(Calculations!J$2:J$6)</f>
         <v>0</v>
       </c>
       <c r="K5" s="99">
-        <f>Calculations!K5</f>
+        <f>Calculations!K5/SUM(Calculations!K$2:K$6)</f>
         <v>0</v>
       </c>
       <c r="L5" s="99">
-        <f>Calculations!L5</f>
+        <f>Calculations!L5/SUM(Calculations!L$2:L$6)</f>
         <v>0</v>
       </c>
       <c r="M5" s="99">
-        <f>Calculations!M5</f>
+        <f>Calculations!M5/SUM(Calculations!M$2:M$6)</f>
         <v>0</v>
       </c>
       <c r="N5" s="99">
-        <f>Calculations!N5</f>
+        <f>Calculations!N5/SUM(Calculations!N$2:N$6)</f>
         <v>0</v>
       </c>
       <c r="O5" s="99">
-        <f>Calculations!O5</f>
+        <f>Calculations!O5/SUM(Calculations!O$2:O$6)</f>
         <v>0</v>
       </c>
       <c r="P5" s="99">
-        <f>Calculations!P5</f>
+        <f>Calculations!P5/SUM(Calculations!P$2:P$6)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="99">
-        <f>Calculations!Q5</f>
+        <f>Calculations!Q5/SUM(Calculations!Q$2:Q$6)</f>
         <v>0</v>
       </c>
       <c r="R5" s="99">
-        <f>Calculations!R5</f>
+        <f>Calculations!R5/SUM(Calculations!R$2:R$6)</f>
         <v>0</v>
       </c>
       <c r="S5" s="99">
-        <f>Calculations!S5</f>
+        <f>Calculations!S5/SUM(Calculations!S$2:S$6)</f>
         <v>0</v>
       </c>
       <c r="T5" s="99">
-        <f>Calculations!T5</f>
+        <f>Calculations!T5/SUM(Calculations!T$2:T$6)</f>
         <v>0</v>
       </c>
       <c r="U5" s="99">
-        <f>Calculations!U5</f>
+        <f>Calculations!U5/SUM(Calculations!U$2:U$6)</f>
         <v>0</v>
       </c>
       <c r="V5" s="99">
-        <f>Calculations!V5</f>
+        <f>Calculations!V5/SUM(Calculations!V$2:V$6)</f>
         <v>0</v>
       </c>
       <c r="W5" s="99">
-        <f>Calculations!W5</f>
+        <f>Calculations!W5/SUM(Calculations!W$2:W$6)</f>
         <v>0</v>
       </c>
       <c r="X5" s="99">
-        <f>Calculations!X5</f>
+        <f>Calculations!X5/SUM(Calculations!X$2:X$6)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="99">
-        <f>Calculations!Y5</f>
+        <f>Calculations!Y5/SUM(Calculations!Y$2:Y$6)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="99">
-        <f>Calculations!Z5</f>
+        <f>Calculations!Z5/SUM(Calculations!Z$2:Z$6)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="99">
-        <f>Calculations!AA5</f>
+        <f>Calculations!AA5/SUM(Calculations!AA$2:AA$6)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="99">
-        <f>Calculations!AB5</f>
+        <f>Calculations!AB5/SUM(Calculations!AB$2:AB$6)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="99">
-        <f>Calculations!AC5</f>
+        <f>Calculations!AC5/SUM(Calculations!AC$2:AC$6)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="99">
-        <f>Calculations!AD5</f>
+        <f>Calculations!AD5/SUM(Calculations!AD$2:AD$6)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="99">
-        <f>Calculations!AE5</f>
+        <f>Calculations!AE5/SUM(Calculations!AE$2:AE$6)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="99">
-        <f>Calculations!AF5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+        <f>Calculations!AF5/SUM(Calculations!AF$2:AF$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="99">
-        <f>Calculations!B6</f>
+        <f>Calculations!B6/SUM(Calculations!B$2:B$6)</f>
         <v>0</v>
       </c>
       <c r="C6" s="99">
-        <f>Calculations!C6</f>
+        <f>Calculations!C6/SUM(Calculations!C$2:C$6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="99">
-        <f>Calculations!D6</f>
+        <f>Calculations!D6/SUM(Calculations!D$2:D$6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="99">
-        <f>Calculations!E6</f>
+        <f>Calculations!E6/SUM(Calculations!E$2:E$6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="99">
-        <f>Calculations!F6</f>
+        <f>Calculations!F6/SUM(Calculations!F$2:F$6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="99">
-        <f>Calculations!G6</f>
+        <f>Calculations!G6/SUM(Calculations!G$2:G$6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="99">
-        <f>Calculations!H6</f>
+        <f>Calculations!H6/SUM(Calculations!H$2:H$6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="99">
-        <f>Calculations!I6</f>
+        <f>Calculations!I6/SUM(Calculations!I$2:I$6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="99">
-        <f>Calculations!J6</f>
+        <f>Calculations!J6/SUM(Calculations!J$2:J$6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="99">
-        <f>Calculations!K6</f>
+        <f>Calculations!K6/SUM(Calculations!K$2:K$6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="99">
-        <f>Calculations!L6</f>
+        <f>Calculations!L6/SUM(Calculations!L$2:L$6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="99">
-        <f>Calculations!M6</f>
+        <f>Calculations!M6/SUM(Calculations!M$2:M$6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="99">
-        <f>Calculations!N6</f>
+        <f>Calculations!N6/SUM(Calculations!N$2:N$6)</f>
         <v>0</v>
       </c>
       <c r="O6" s="99">
-        <f>Calculations!O6</f>
+        <f>Calculations!O6/SUM(Calculations!O$2:O$6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="99">
-        <f>Calculations!P6</f>
+        <f>Calculations!P6/SUM(Calculations!P$2:P$6)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="99">
-        <f>Calculations!Q6</f>
+        <f>Calculations!Q6/SUM(Calculations!Q$2:Q$6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="99">
-        <f>Calculations!R6</f>
+        <f>Calculations!R6/SUM(Calculations!R$2:R$6)</f>
         <v>0</v>
       </c>
       <c r="S6" s="99">
-        <f>Calculations!S6</f>
+        <f>Calculations!S6/SUM(Calculations!S$2:S$6)</f>
         <v>0</v>
       </c>
       <c r="T6" s="99">
-        <f>Calculations!T6</f>
+        <f>Calculations!T6/SUM(Calculations!T$2:T$6)</f>
         <v>0</v>
       </c>
       <c r="U6" s="99">
-        <f>Calculations!U6</f>
+        <f>Calculations!U6/SUM(Calculations!U$2:U$6)</f>
         <v>0</v>
       </c>
       <c r="V6" s="99">
-        <f>Calculations!V6</f>
+        <f>Calculations!V6/SUM(Calculations!V$2:V$6)</f>
         <v>0</v>
       </c>
       <c r="W6" s="99">
-        <f>Calculations!W6</f>
+        <f>Calculations!W6/SUM(Calculations!W$2:W$6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="99">
-        <f>Calculations!X6</f>
+        <f>Calculations!X6/SUM(Calculations!X$2:X$6)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="99">
-        <f>Calculations!Y6</f>
+        <f>Calculations!Y6/SUM(Calculations!Y$2:Y$6)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="99">
-        <f>Calculations!Z6</f>
+        <f>Calculations!Z6/SUM(Calculations!Z$2:Z$6)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="99">
-        <f>Calculations!AA6</f>
+        <f>Calculations!AA6/SUM(Calculations!AA$2:AA$6)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="99">
-        <f>Calculations!AB6</f>
+        <f>Calculations!AB6/SUM(Calculations!AB$2:AB$6)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="99">
-        <f>Calculations!AC6</f>
+        <f>Calculations!AC6/SUM(Calculations!AC$2:AC$6)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="99">
-        <f>Calculations!AD6</f>
+        <f>Calculations!AD6/SUM(Calculations!AD$2:AD$6)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="99">
-        <f>Calculations!AE6</f>
+        <f>Calculations!AE6/SUM(Calculations!AE$2:AE$6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="99">
-        <f>Calculations!AF6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="15">
+        <f>Calculations!AF6/SUM(Calculations!AF$2:AF$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -12662,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -12760,34 +12778,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15"/>
-    <row r="16" spans="1:32" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -13016,14 +13012,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96DCF2-3D6F-413B-88E1-2B27BC1128F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC96DCF2-3D6F-413B-88E1-2B27BC1128F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5E899-2AC2-40FF-8FAB-92AFAAF5C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C3566-9C15-4586-89A0-57DFADDC63C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -262,13 +262,19 @@
     <t>We assume all non-by product H2 is replaced, covering ammonia and all non-by product refinery demand. The credit is applicable through 2032 before it expires. We model government outlays through 2032, but continue to assume the same level of hydrogen production through electrolysis once the tax credits expire (considering producers will have already invested in the production process).
 We assume the shift in production pathway will require new, clean electricity resources.</t>
   </si>
+  <si>
+    <t>total refining</t>
+  </si>
+  <si>
+    <t>total chemicals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -381,80 +387,82 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -853,18 +861,21 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AL938"/>
+  <dimension ref="A1:AL944"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="114.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -992,7 +1003,7 @@
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6"/>
@@ -1035,7 +1046,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7"/>
@@ -1077,9 +1088,9 @@
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11">
-        <f>O51</f>
-        <v>0.75560000000000005</v>
+      <c r="B6" s="10">
+        <f>O57</f>
+        <v>0.78237687666619893</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1117,7 +1128,7 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1157,7 +1168,7 @@
       <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
@@ -1281,7 +1292,7 @@
       <c r="AL10" s="7"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="6"/>
@@ -1323,73 +1334,73 @@
       <c r="AL11" s="7"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="28" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7"/>
@@ -1421,27 +1432,27 @@
       <c r="AL13" s="7"/>
     </row>
     <row r="14" spans="1:38" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1480,32 +1491,32 @@
       <c r="C15" s="7">
         <v>4.7230394679999996</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>636000000000000</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>488000000000000</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>3.5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>472000000000000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>165000000000000</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>488000000000000</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>61493</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -1546,32 +1557,32 @@
       <c r="C16" s="7">
         <v>2.7</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>292000000000000</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>292000000000000</v>
       </c>
       <c r="G16" s="7">
         <v>1.65</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>69600000000000</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>69600000000000</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>135568.85889999999</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1612,32 +1623,32 @@
       <c r="C17" s="7">
         <v>1.6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>173000000000000</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>173000000000000</v>
       </c>
       <c r="G17" s="7">
         <v>0.27</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>137000000000000</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>137000000000000</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>4110000000</v>
       </c>
       <c r="N17" s="7" t="s">
@@ -1678,38 +1689,38 @@
       <c r="C18" s="7">
         <v>0.2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>20800000000000</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>20800000000000</v>
       </c>
       <c r="G18" s="7">
         <v>9.3333333000000004E-2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>8210000000000</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>8210000000000</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>50</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>0.79465919630000004</v>
       </c>
       <c r="P18" s="7"/>
@@ -1746,32 +1757,32 @@
       <c r="C19" s="7">
         <v>0.4</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>43300000000000</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>43300000000000</v>
       </c>
       <c r="G19" s="7">
         <v>0.18666666700000001</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>18100000000000</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>18100000000000</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>206000000</v>
       </c>
       <c r="N19" s="7" t="s">
@@ -1806,16 +1817,16 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1843,67 +1854,64 @@
       <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-    </row>
-    <row r="22" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>75161</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="30">
+        <f>K15</f>
+        <v>488000000000000</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1930,26 +1938,25 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
     </row>
-    <row r="23" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>6.2869999999999999</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="30">
+        <f>SUM(K16,K17,K19)</f>
+        <v>224700000000000</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1977,12 +1984,8 @@
       <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>473000000000000</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2020,60 +2023,58 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
     </row>
-    <row r="25" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>199050</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-    </row>
-    <row r="26" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>1037000000</v>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+    </row>
+    <row r="26" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>75161</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>56</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2110,14 +2111,16 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>206000000000000</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>6.2869999999999999</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>58</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2154,16 +2157,14 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
     </row>
-    <row r="28" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>0.72</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>65</v>
-      </c>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>473000000000000</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2200,14 +2201,16 @@
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
     </row>
-    <row r="29" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>149000000000000</v>
+    <row r="29" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>199050</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2245,11 +2248,11 @@
       <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>0.23930000000000001</v>
+      <c r="A30" s="11">
+        <v>1037000000</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2289,8 +2292,12 @@
       <c r="AL30" s="7"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="18">
+        <v>206000000000000</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2328,145 +2335,89 @@
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="27">
-        <v>2020</v>
-      </c>
-      <c r="C33" s="27">
-        <v>2021</v>
-      </c>
-      <c r="D33" s="27">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="27">
-        <v>2023</v>
-      </c>
-      <c r="F33" s="27">
-        <v>2024</v>
-      </c>
-      <c r="G33" s="27">
-        <v>2025</v>
-      </c>
-      <c r="H33" s="27">
-        <v>2026</v>
-      </c>
-      <c r="I33" s="27">
-        <v>2027</v>
-      </c>
-      <c r="J33" s="27">
-        <v>2028</v>
-      </c>
-      <c r="K33" s="27">
-        <v>2029</v>
-      </c>
-      <c r="L33" s="12">
-        <v>2030</v>
-      </c>
-      <c r="M33" s="12">
-        <v>2031</v>
-      </c>
-      <c r="N33" s="12">
-        <v>2032</v>
-      </c>
-      <c r="O33" s="12">
-        <v>2033</v>
-      </c>
-      <c r="P33" s="12">
-        <v>2034</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>2035</v>
-      </c>
-      <c r="R33" s="12">
-        <v>2036</v>
-      </c>
-      <c r="S33" s="12">
-        <v>2037</v>
-      </c>
-      <c r="T33" s="12">
-        <v>2038</v>
-      </c>
-      <c r="U33" s="12">
-        <v>2039</v>
-      </c>
-      <c r="V33" s="12">
-        <v>2040</v>
-      </c>
-      <c r="W33" s="12">
-        <v>2041</v>
-      </c>
-      <c r="X33" s="12">
-        <v>2042</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>2043</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>2044</v>
-      </c>
-      <c r="AA33" s="12">
-        <v>2045</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>2046</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>2047</v>
-      </c>
-      <c r="AD33" s="12">
-        <v>2048</v>
-      </c>
-      <c r="AE33" s="12">
-        <v>2049</v>
-      </c>
-      <c r="AF33" s="12">
-        <v>2050</v>
-      </c>
+    <row r="32" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>0.72</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+    </row>
+    <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>149000000000000</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
@@ -2474,103 +2425,43 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="18">
-        <v>488000000000000</v>
-      </c>
-      <c r="C34" s="18">
-        <v>553000000000000</v>
-      </c>
-      <c r="D34" s="18">
-        <v>572000000000000</v>
-      </c>
-      <c r="E34" s="18">
-        <v>582000000000000</v>
-      </c>
-      <c r="F34" s="18">
-        <v>588000000000000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>590000000000000</v>
-      </c>
-      <c r="H34" s="18">
-        <v>591000000000000</v>
-      </c>
-      <c r="I34" s="18">
-        <v>590000000000000</v>
-      </c>
-      <c r="J34" s="18">
-        <v>588000000000000</v>
-      </c>
-      <c r="K34" s="18">
-        <v>588000000000000</v>
-      </c>
-      <c r="L34" s="21">
-        <v>588000000000000</v>
-      </c>
-      <c r="M34" s="21">
-        <v>583000000000000</v>
-      </c>
-      <c r="N34" s="21">
-        <v>583000000000000</v>
-      </c>
-      <c r="O34" s="21">
-        <v>581000000000000</v>
-      </c>
-      <c r="P34" s="21">
-        <v>581000000000000</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>580000000000000</v>
-      </c>
-      <c r="R34" s="21">
-        <v>580000000000000</v>
-      </c>
-      <c r="S34" s="21">
-        <v>581000000000000</v>
-      </c>
-      <c r="T34" s="21">
-        <v>581000000000000</v>
-      </c>
-      <c r="U34" s="21">
-        <v>582000000000000</v>
-      </c>
-      <c r="V34" s="21">
-        <v>580000000000000</v>
-      </c>
-      <c r="W34" s="21">
-        <v>581000000000000</v>
-      </c>
-      <c r="X34" s="21">
-        <v>580000000000000</v>
-      </c>
-      <c r="Y34" s="21">
-        <v>578000000000000</v>
-      </c>
-      <c r="Z34" s="21">
-        <v>578000000000000</v>
-      </c>
-      <c r="AA34" s="21">
-        <v>577000000000000</v>
-      </c>
-      <c r="AB34" s="21">
-        <v>575000000000000</v>
-      </c>
-      <c r="AC34" s="21">
-        <v>576000000000000</v>
-      </c>
-      <c r="AD34" s="21">
-        <v>573000000000000</v>
-      </c>
-      <c r="AE34" s="21">
-        <v>572000000000000</v>
-      </c>
-      <c r="AF34" s="21">
-        <v>574000000000000</v>
-      </c>
+    <row r="34" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
@@ -2579,102 +2470,38 @@
       <c r="AL34" s="7"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="18">
-        <v>224000000000000</v>
-      </c>
-      <c r="C35" s="18">
-        <v>227000000000000</v>
-      </c>
-      <c r="D35" s="18">
-        <v>252000000000000</v>
-      </c>
-      <c r="E35" s="18">
-        <v>270000000000000</v>
-      </c>
-      <c r="F35" s="18">
-        <v>278000000000000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>284000000000000</v>
-      </c>
-      <c r="H35" s="18">
-        <v>288000000000000</v>
-      </c>
-      <c r="I35" s="18">
-        <v>290000000000000</v>
-      </c>
-      <c r="J35" s="18">
-        <v>294000000000000</v>
-      </c>
-      <c r="K35" s="18">
-        <v>297000000000000</v>
-      </c>
-      <c r="L35" s="21">
-        <v>301000000000000</v>
-      </c>
-      <c r="M35" s="21">
-        <v>305000000000000</v>
-      </c>
-      <c r="N35" s="21">
-        <v>308000000000000</v>
-      </c>
-      <c r="O35" s="21">
-        <v>311000000000000</v>
-      </c>
-      <c r="P35" s="21">
-        <v>315000000000000</v>
-      </c>
-      <c r="Q35" s="21">
-        <v>319000000000000</v>
-      </c>
-      <c r="R35" s="21">
-        <v>323000000000000</v>
-      </c>
-      <c r="S35" s="21">
-        <v>326000000000000</v>
-      </c>
-      <c r="T35" s="21">
-        <v>329000000000000</v>
-      </c>
-      <c r="U35" s="21">
-        <v>332000000000000</v>
-      </c>
-      <c r="V35" s="21">
-        <v>333000000000000</v>
-      </c>
-      <c r="W35" s="21">
-        <v>334000000000000</v>
-      </c>
-      <c r="X35" s="21">
-        <v>336000000000000</v>
-      </c>
-      <c r="Y35" s="21">
-        <v>340000000000000</v>
-      </c>
-      <c r="Z35" s="21">
-        <v>343000000000000</v>
-      </c>
-      <c r="AA35" s="21">
-        <v>347000000000000</v>
-      </c>
-      <c r="AB35" s="21">
-        <v>349000000000000</v>
-      </c>
-      <c r="AC35" s="21">
-        <v>351000000000000</v>
-      </c>
-      <c r="AD35" s="21">
-        <v>352000000000000</v>
-      </c>
-      <c r="AE35" s="21">
-        <v>355000000000000</v>
-      </c>
-      <c r="AF35" s="21">
-        <v>359000000000000</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
@@ -2683,142 +2510,144 @@
       <c r="AL35" s="7"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="18">
-        <v>8210000000000</v>
-      </c>
-      <c r="C36" s="18">
-        <v>7150000000000</v>
-      </c>
-      <c r="D36" s="18">
-        <v>7970000000000</v>
-      </c>
-      <c r="E36" s="18">
-        <v>7740000000000</v>
-      </c>
-      <c r="F36" s="18">
-        <v>7940000000000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>8320000000000</v>
-      </c>
-      <c r="H36" s="18">
-        <v>8170000000000</v>
-      </c>
-      <c r="I36" s="18">
-        <v>8030000000000</v>
-      </c>
-      <c r="J36" s="18">
-        <v>7900000000000</v>
-      </c>
-      <c r="K36" s="18">
-        <v>7820000000000</v>
-      </c>
-      <c r="L36" s="21">
-        <v>7780000000000</v>
-      </c>
-      <c r="M36" s="21">
-        <v>7300000000000</v>
-      </c>
-      <c r="N36" s="21">
-        <v>6840000000000</v>
-      </c>
-      <c r="O36" s="21">
-        <v>6400000000000</v>
-      </c>
-      <c r="P36" s="21">
-        <v>6120000000000</v>
-      </c>
-      <c r="Q36" s="21">
-        <v>6040000000000</v>
-      </c>
-      <c r="R36" s="21">
-        <v>5980000000000</v>
-      </c>
-      <c r="S36" s="21">
-        <v>5960000000000</v>
-      </c>
-      <c r="T36" s="21">
-        <v>6000000000000</v>
-      </c>
-      <c r="U36" s="21">
-        <v>6050000000000</v>
-      </c>
-      <c r="V36" s="21">
-        <v>6000000000000</v>
-      </c>
-      <c r="W36" s="21">
-        <v>6000000000000</v>
-      </c>
-      <c r="X36" s="21">
-        <v>6090000000000</v>
-      </c>
-      <c r="Y36" s="21">
-        <v>6260000000000</v>
-      </c>
-      <c r="Z36" s="21">
-        <v>6270000000000</v>
-      </c>
-      <c r="AA36" s="21">
-        <v>6340000000000</v>
-      </c>
-      <c r="AB36" s="21">
-        <v>6340000000000</v>
-      </c>
-      <c r="AC36" s="21">
-        <v>6300000000000</v>
-      </c>
-      <c r="AD36" s="21">
-        <v>6340000000000</v>
-      </c>
-      <c r="AE36" s="21">
-        <v>6390000000000</v>
-      </c>
-      <c r="AF36" s="21">
-        <v>6540000000000</v>
-      </c>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
+      <c r="A36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
+      <c r="A37" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="24">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="24">
+        <v>2022</v>
+      </c>
+      <c r="E37" s="24">
+        <v>2023</v>
+      </c>
+      <c r="F37" s="24">
+        <v>2024</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2025</v>
+      </c>
+      <c r="H37" s="24">
+        <v>2026</v>
+      </c>
+      <c r="I37" s="24">
+        <v>2027</v>
+      </c>
+      <c r="J37" s="24">
+        <v>2028</v>
+      </c>
+      <c r="K37" s="24">
+        <v>2029</v>
+      </c>
+      <c r="L37" s="11">
+        <v>2030</v>
+      </c>
+      <c r="M37" s="11">
+        <v>2031</v>
+      </c>
+      <c r="N37" s="11">
+        <v>2032</v>
+      </c>
+      <c r="O37" s="11">
+        <v>2033</v>
+      </c>
+      <c r="P37" s="11">
+        <v>2034</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>2035</v>
+      </c>
+      <c r="R37" s="11">
+        <v>2036</v>
+      </c>
+      <c r="S37" s="11">
+        <v>2037</v>
+      </c>
+      <c r="T37" s="11">
+        <v>2038</v>
+      </c>
+      <c r="U37" s="11">
+        <v>2039</v>
+      </c>
+      <c r="V37" s="11">
+        <v>2040</v>
+      </c>
+      <c r="W37" s="11">
+        <v>2041</v>
+      </c>
+      <c r="X37" s="11">
+        <v>2042</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>2043</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>2044</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>2045</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>2046</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>2047</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>2049</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>2050</v>
+      </c>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
@@ -2827,359 +2656,351 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
+      <c r="A38" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="15">
+        <v>488000000000000</v>
+      </c>
+      <c r="C38" s="15">
+        <v>553000000000000</v>
+      </c>
+      <c r="D38" s="15">
+        <v>572000000000000</v>
+      </c>
+      <c r="E38" s="15">
+        <v>582000000000000</v>
+      </c>
+      <c r="F38" s="15">
+        <v>588000000000000</v>
+      </c>
+      <c r="G38" s="15">
+        <v>590000000000000</v>
+      </c>
+      <c r="H38" s="15">
+        <v>591000000000000</v>
+      </c>
+      <c r="I38" s="15">
+        <v>590000000000000</v>
+      </c>
+      <c r="J38" s="15">
+        <v>588000000000000</v>
+      </c>
+      <c r="K38" s="15">
+        <v>588000000000000</v>
+      </c>
+      <c r="L38" s="18">
+        <v>588000000000000</v>
+      </c>
+      <c r="M38" s="18">
+        <v>583000000000000</v>
+      </c>
+      <c r="N38" s="18">
+        <v>583000000000000</v>
+      </c>
+      <c r="O38" s="18">
+        <v>581000000000000</v>
+      </c>
+      <c r="P38" s="18">
+        <v>581000000000000</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>580000000000000</v>
+      </c>
+      <c r="R38" s="18">
+        <v>580000000000000</v>
+      </c>
+      <c r="S38" s="18">
+        <v>581000000000000</v>
+      </c>
+      <c r="T38" s="18">
+        <v>581000000000000</v>
+      </c>
+      <c r="U38" s="18">
+        <v>582000000000000</v>
+      </c>
+      <c r="V38" s="18">
+        <v>580000000000000</v>
+      </c>
+      <c r="W38" s="18">
+        <v>581000000000000</v>
+      </c>
+      <c r="X38" s="18">
+        <v>580000000000000</v>
+      </c>
+      <c r="Y38" s="18">
+        <v>578000000000000</v>
+      </c>
+      <c r="Z38" s="18">
+        <v>578000000000000</v>
+      </c>
+      <c r="AA38" s="18">
+        <v>577000000000000</v>
+      </c>
+      <c r="AB38" s="18">
+        <v>575000000000000</v>
+      </c>
+      <c r="AC38" s="18">
+        <v>576000000000000</v>
+      </c>
+      <c r="AD38" s="18">
+        <v>573000000000000</v>
+      </c>
+      <c r="AE38" s="18">
+        <v>572000000000000</v>
+      </c>
+      <c r="AF38" s="18">
+        <v>574000000000000</v>
+      </c>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="28">
-        <v>2020</v>
-      </c>
-      <c r="D39" s="28">
-        <v>2021</v>
-      </c>
-      <c r="E39" s="28">
-        <v>2022</v>
-      </c>
-      <c r="F39" s="28">
-        <v>2023</v>
-      </c>
-      <c r="G39" s="28">
-        <v>2024</v>
-      </c>
-      <c r="H39" s="28">
-        <v>2025</v>
-      </c>
-      <c r="I39" s="28">
-        <v>2026</v>
-      </c>
-      <c r="J39" s="28">
-        <v>2027</v>
-      </c>
-      <c r="K39" s="28">
-        <v>2028</v>
-      </c>
-      <c r="L39" s="28">
-        <v>2029</v>
-      </c>
-      <c r="M39" s="28">
-        <v>2030</v>
-      </c>
-      <c r="N39" s="28">
-        <v>2031</v>
-      </c>
-      <c r="O39" s="28">
-        <v>2032</v>
-      </c>
-      <c r="P39" s="28">
-        <v>2033</v>
-      </c>
-      <c r="Q39" s="28">
-        <v>2034</v>
-      </c>
-      <c r="R39" s="28">
-        <v>2035</v>
-      </c>
-      <c r="S39" s="28">
-        <v>2036</v>
-      </c>
-      <c r="T39" s="28">
-        <v>2037</v>
-      </c>
-      <c r="U39" s="28">
-        <v>2038</v>
-      </c>
-      <c r="V39" s="28">
-        <v>2039</v>
-      </c>
-      <c r="W39" s="28">
-        <v>2040</v>
-      </c>
-      <c r="X39" s="28">
-        <v>2041</v>
-      </c>
-      <c r="Y39" s="28">
-        <v>2042</v>
-      </c>
-      <c r="Z39" s="28">
-        <v>2043</v>
-      </c>
-      <c r="AA39" s="28">
-        <v>2044</v>
-      </c>
-      <c r="AB39" s="28">
-        <v>2045</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>2046</v>
-      </c>
-      <c r="AD39" s="28">
-        <v>2047</v>
-      </c>
-      <c r="AE39" s="28">
-        <v>2048</v>
-      </c>
-      <c r="AF39" s="28">
-        <v>2049</v>
-      </c>
-      <c r="AG39" s="28">
-        <v>2050</v>
-      </c>
+      <c r="A39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="15">
+        <v>224000000000000</v>
+      </c>
+      <c r="C39" s="15">
+        <v>227000000000000</v>
+      </c>
+      <c r="D39" s="15">
+        <v>252000000000000</v>
+      </c>
+      <c r="E39" s="15">
+        <v>270000000000000</v>
+      </c>
+      <c r="F39" s="15">
+        <v>278000000000000</v>
+      </c>
+      <c r="G39" s="15">
+        <v>284000000000000</v>
+      </c>
+      <c r="H39" s="15">
+        <v>288000000000000</v>
+      </c>
+      <c r="I39" s="15">
+        <v>290000000000000</v>
+      </c>
+      <c r="J39" s="15">
+        <v>294000000000000</v>
+      </c>
+      <c r="K39" s="15">
+        <v>297000000000000</v>
+      </c>
+      <c r="L39" s="18">
+        <v>301000000000000</v>
+      </c>
+      <c r="M39" s="18">
+        <v>305000000000000</v>
+      </c>
+      <c r="N39" s="18">
+        <v>308000000000000</v>
+      </c>
+      <c r="O39" s="18">
+        <v>311000000000000</v>
+      </c>
+      <c r="P39" s="18">
+        <v>315000000000000</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>319000000000000</v>
+      </c>
+      <c r="R39" s="18">
+        <v>323000000000000</v>
+      </c>
+      <c r="S39" s="18">
+        <v>326000000000000</v>
+      </c>
+      <c r="T39" s="18">
+        <v>329000000000000</v>
+      </c>
+      <c r="U39" s="18">
+        <v>332000000000000</v>
+      </c>
+      <c r="V39" s="18">
+        <v>333000000000000</v>
+      </c>
+      <c r="W39" s="18">
+        <v>334000000000000</v>
+      </c>
+      <c r="X39" s="18">
+        <v>336000000000000</v>
+      </c>
+      <c r="Y39" s="18">
+        <v>340000000000000</v>
+      </c>
+      <c r="Z39" s="18">
+        <v>343000000000000</v>
+      </c>
+      <c r="AA39" s="18">
+        <v>347000000000000</v>
+      </c>
+      <c r="AB39" s="18">
+        <v>349000000000000</v>
+      </c>
+      <c r="AC39" s="18">
+        <v>351000000000000</v>
+      </c>
+      <c r="AD39" s="18">
+        <v>352000000000000</v>
+      </c>
+      <c r="AE39" s="18">
+        <v>355000000000000</v>
+      </c>
+      <c r="AF39" s="18">
+        <v>359000000000000</v>
+      </c>
+      <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
     </row>
-    <row r="40" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="12">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="22">
-        <v>0.11</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="G40" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0.44</v>
-      </c>
-      <c r="I40" s="22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J40" s="22">
-        <v>0.67</v>
-      </c>
-      <c r="K40" s="22">
-        <v>0.78</v>
-      </c>
-      <c r="L40" s="22">
-        <v>0.89</v>
-      </c>
-      <c r="M40" s="22">
-        <v>1</v>
-      </c>
-      <c r="N40" s="22">
-        <v>1</v>
-      </c>
-      <c r="O40" s="22">
-        <v>1</v>
-      </c>
-      <c r="P40" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="22">
-        <v>1</v>
-      </c>
-      <c r="R40" s="22">
-        <v>1</v>
-      </c>
-      <c r="S40" s="22">
-        <v>1</v>
-      </c>
-      <c r="T40" s="22">
-        <v>1</v>
-      </c>
-      <c r="U40" s="22">
-        <v>1</v>
-      </c>
-      <c r="V40" s="22">
-        <v>1</v>
-      </c>
-      <c r="W40" s="22">
-        <v>1</v>
-      </c>
-      <c r="X40" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="22">
-        <v>1</v>
-      </c>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="15">
+        <v>8210000000000</v>
+      </c>
+      <c r="C40" s="15">
+        <v>7150000000000</v>
+      </c>
+      <c r="D40" s="15">
+        <v>7970000000000</v>
+      </c>
+      <c r="E40" s="15">
+        <v>7740000000000</v>
+      </c>
+      <c r="F40" s="15">
+        <v>7940000000000</v>
+      </c>
+      <c r="G40" s="15">
+        <v>8320000000000</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8170000000000</v>
+      </c>
+      <c r="I40" s="15">
+        <v>8030000000000</v>
+      </c>
+      <c r="J40" s="15">
+        <v>7900000000000</v>
+      </c>
+      <c r="K40" s="15">
+        <v>7820000000000</v>
+      </c>
+      <c r="L40" s="18">
+        <v>7780000000000</v>
+      </c>
+      <c r="M40" s="18">
+        <v>7300000000000</v>
+      </c>
+      <c r="N40" s="18">
+        <v>6840000000000</v>
+      </c>
+      <c r="O40" s="18">
+        <v>6400000000000</v>
+      </c>
+      <c r="P40" s="18">
+        <v>6120000000000</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>6040000000000</v>
+      </c>
+      <c r="R40" s="18">
+        <v>5980000000000</v>
+      </c>
+      <c r="S40" s="18">
+        <v>5960000000000</v>
+      </c>
+      <c r="T40" s="18">
+        <v>6000000000000</v>
+      </c>
+      <c r="U40" s="18">
+        <v>6050000000000</v>
+      </c>
+      <c r="V40" s="18">
+        <v>6000000000000</v>
+      </c>
+      <c r="W40" s="18">
+        <v>6000000000000</v>
+      </c>
+      <c r="X40" s="18">
+        <v>6090000000000</v>
+      </c>
+      <c r="Y40" s="18">
+        <v>6260000000000</v>
+      </c>
+      <c r="Z40" s="18">
+        <v>6270000000000</v>
+      </c>
+      <c r="AA40" s="18">
+        <v>6340000000000</v>
+      </c>
+      <c r="AB40" s="18">
+        <v>6340000000000</v>
+      </c>
+      <c r="AC40" s="18">
+        <v>6300000000000</v>
+      </c>
+      <c r="AD40" s="18">
+        <v>6340000000000</v>
+      </c>
+      <c r="AE40" s="18">
+        <v>6390000000000</v>
+      </c>
+      <c r="AF40" s="18">
+        <v>6540000000000</v>
+      </c>
+      <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41" spans="1:38" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="22">
-        <v>0.11</v>
-      </c>
-      <c r="F41" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="G41" s="22">
-        <v>0.33</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0.44</v>
-      </c>
-      <c r="I41" s="22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J41" s="22">
-        <v>0.67</v>
-      </c>
-      <c r="K41" s="22">
-        <v>0.78</v>
-      </c>
-      <c r="L41" s="22">
-        <v>0.89</v>
-      </c>
-      <c r="M41" s="29">
-        <v>1</v>
-      </c>
-      <c r="N41" s="22">
-        <v>1</v>
-      </c>
-      <c r="O41" s="22">
-        <v>1</v>
-      </c>
-      <c r="P41" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>1</v>
-      </c>
-      <c r="R41" s="22">
-        <v>1</v>
-      </c>
-      <c r="S41" s="22">
-        <v>1</v>
-      </c>
-      <c r="T41" s="22">
-        <v>1</v>
-      </c>
-      <c r="U41" s="22">
-        <v>1</v>
-      </c>
-      <c r="V41" s="22">
-        <v>1</v>
-      </c>
-      <c r="W41" s="22">
-        <v>1</v>
-      </c>
-      <c r="X41" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="22">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="22">
-        <v>1</v>
-      </c>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
@@ -3187,210 +3008,146 @@
       <c r="AL41" s="7"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="12">
-        <v>0</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0</v>
-      </c>
-      <c r="F42" s="22">
-        <v>0</v>
-      </c>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0</v>
-      </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="22">
-        <v>0</v>
-      </c>
-      <c r="K42" s="22">
-        <v>0</v>
-      </c>
-      <c r="L42" s="22">
-        <v>0</v>
-      </c>
-      <c r="M42" s="12">
-        <v>0</v>
-      </c>
-      <c r="N42" s="12">
-        <v>0</v>
-      </c>
-      <c r="O42" s="12">
-        <v>0</v>
-      </c>
-      <c r="P42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>0</v>
-      </c>
-      <c r="R42" s="12">
-        <v>0</v>
-      </c>
-      <c r="S42" s="12">
-        <v>0</v>
-      </c>
-      <c r="T42" s="12">
-        <v>0</v>
-      </c>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
-      <c r="V42" s="12">
-        <v>0</v>
-      </c>
-      <c r="W42" s="12">
-        <v>0</v>
-      </c>
-      <c r="X42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="7"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-    </row>
-    <row r="43" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
-        <v>0</v>
-      </c>
-      <c r="E43" s="22">
-        <v>0</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="22">
-        <v>0</v>
-      </c>
-      <c r="K43" s="22">
-        <v>0</v>
-      </c>
-      <c r="L43" s="22">
-        <v>0</v>
-      </c>
-      <c r="M43" s="12">
-        <v>0</v>
-      </c>
-      <c r="N43" s="12">
-        <v>0</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>0</v>
-      </c>
-      <c r="R43" s="12">
-        <v>0</v>
-      </c>
-      <c r="S43" s="12">
-        <v>0</v>
-      </c>
-      <c r="T43" s="12">
-        <v>0</v>
-      </c>
-      <c r="U43" s="12">
-        <v>0</v>
-      </c>
-      <c r="V43" s="12">
-        <v>0</v>
-      </c>
-      <c r="W43" s="12">
-        <v>0</v>
-      </c>
-      <c r="X43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="12">
-        <v>0</v>
+      <c r="A42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="25">
+        <v>2021</v>
+      </c>
+      <c r="E43" s="25">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="25">
+        <v>2023</v>
+      </c>
+      <c r="G43" s="25">
+        <v>2024</v>
+      </c>
+      <c r="H43" s="25">
+        <v>2025</v>
+      </c>
+      <c r="I43" s="25">
+        <v>2026</v>
+      </c>
+      <c r="J43" s="25">
+        <v>2027</v>
+      </c>
+      <c r="K43" s="25">
+        <v>2028</v>
+      </c>
+      <c r="L43" s="25">
+        <v>2029</v>
+      </c>
+      <c r="M43" s="25">
+        <v>2030</v>
+      </c>
+      <c r="N43" s="25">
+        <v>2031</v>
+      </c>
+      <c r="O43" s="25">
+        <v>2032</v>
+      </c>
+      <c r="P43" s="25">
+        <v>2033</v>
+      </c>
+      <c r="Q43" s="25">
+        <v>2034</v>
+      </c>
+      <c r="R43" s="25">
+        <v>2035</v>
+      </c>
+      <c r="S43" s="25">
+        <v>2036</v>
+      </c>
+      <c r="T43" s="25">
+        <v>2037</v>
+      </c>
+      <c r="U43" s="25">
+        <v>2038</v>
+      </c>
+      <c r="V43" s="25">
+        <v>2039</v>
+      </c>
+      <c r="W43" s="25">
+        <v>2040</v>
+      </c>
+      <c r="X43" s="25">
+        <v>2041</v>
+      </c>
+      <c r="Y43" s="25">
+        <v>2042</v>
+      </c>
+      <c r="Z43" s="25">
+        <v>2043</v>
+      </c>
+      <c r="AA43" s="25">
+        <v>2044</v>
+      </c>
+      <c r="AB43" s="25">
+        <v>2045</v>
+      </c>
+      <c r="AC43" s="25">
+        <v>2046</v>
+      </c>
+      <c r="AD43" s="25">
+        <v>2047</v>
+      </c>
+      <c r="AE43" s="25">
+        <v>2048</v>
+      </c>
+      <c r="AF43" s="25">
+        <v>2049</v>
+      </c>
+      <c r="AG43" s="25">
+        <v>2050</v>
       </c>
       <c r="AH43" s="7"/>
       <c r="AI43" s="7"/>
@@ -3398,105 +3155,105 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="12">
+        <v>42</v>
+      </c>
+      <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="11">
         <v>0</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="11">
         <v>0</v>
       </c>
-      <c r="G44" s="22">
-        <v>0</v>
-      </c>
-      <c r="H44" s="22">
-        <v>0</v>
-      </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22">
-        <v>0</v>
-      </c>
-      <c r="K44" s="22">
-        <v>0</v>
-      </c>
-      <c r="L44" s="22">
-        <v>0</v>
-      </c>
-      <c r="M44" s="12">
-        <v>0</v>
-      </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="12">
-        <v>0</v>
-      </c>
-      <c r="P44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>0</v>
-      </c>
-      <c r="R44" s="12">
-        <v>0</v>
-      </c>
-      <c r="S44" s="12">
-        <v>0</v>
-      </c>
-      <c r="T44" s="12">
-        <v>0</v>
-      </c>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="12">
-        <v>0</v>
-      </c>
-      <c r="W44" s="12">
-        <v>0</v>
-      </c>
-      <c r="X44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="12">
-        <v>0</v>
+      <c r="G44" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="J44" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="K44" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L44" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="M44" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="N44" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="O44" s="19">
+        <v>1</v>
+      </c>
+      <c r="P44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>1</v>
+      </c>
+      <c r="R44" s="19">
+        <v>1</v>
+      </c>
+      <c r="S44" s="19">
+        <v>1</v>
+      </c>
+      <c r="T44" s="19">
+        <v>1</v>
+      </c>
+      <c r="U44" s="19">
+        <v>1</v>
+      </c>
+      <c r="V44" s="19">
+        <v>1</v>
+      </c>
+      <c r="W44" s="19">
+        <v>1</v>
+      </c>
+      <c r="X44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="19">
+        <v>1</v>
       </c>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
@@ -3504,40 +3261,106 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
+    <row r="45" spans="1:38" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="H45" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="J45" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="K45" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L45" s="19">
+        <v>0.67</v>
+      </c>
+      <c r="M45" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="N45" s="19">
+        <v>0.89</v>
+      </c>
+      <c r="O45" s="26">
+        <v>1</v>
+      </c>
+      <c r="P45" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>1</v>
+      </c>
+      <c r="R45" s="19">
+        <v>1</v>
+      </c>
+      <c r="S45" s="19">
+        <v>1</v>
+      </c>
+      <c r="T45" s="19">
+        <v>1</v>
+      </c>
+      <c r="U45" s="19">
+        <v>1</v>
+      </c>
+      <c r="V45" s="19">
+        <v>1</v>
+      </c>
+      <c r="W45" s="19">
+        <v>1</v>
+      </c>
+      <c r="X45" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="19">
+        <v>1</v>
+      </c>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
@@ -3545,102 +3368,104 @@
       <c r="AL45" s="7"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="23">
+      <c r="A46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="11">
         <v>0</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="11">
         <v>0</v>
       </c>
-      <c r="E46" s="23">
-        <v>0.1111</v>
-      </c>
-      <c r="F46" s="23">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="G46" s="23">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="H46" s="23">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="I46" s="23">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="K46" s="23">
-        <v>0.77780000000000005</v>
-      </c>
-      <c r="L46" s="23">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="M46" s="23">
-        <v>1</v>
-      </c>
-      <c r="N46" s="23">
-        <v>1</v>
-      </c>
-      <c r="O46" s="23">
-        <v>1</v>
-      </c>
-      <c r="P46" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="23">
-        <v>1</v>
-      </c>
-      <c r="R46" s="23">
-        <v>1</v>
-      </c>
-      <c r="S46" s="23">
-        <v>1</v>
-      </c>
-      <c r="T46" s="23">
-        <v>1</v>
-      </c>
-      <c r="U46" s="23">
-        <v>1</v>
-      </c>
-      <c r="V46" s="23">
-        <v>1</v>
-      </c>
-      <c r="W46" s="23">
-        <v>1</v>
-      </c>
-      <c r="X46" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="23">
-        <v>1</v>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19">
+        <v>0</v>
+      </c>
+      <c r="K46" s="19">
+        <v>0</v>
+      </c>
+      <c r="L46" s="19">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>0</v>
       </c>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
@@ -3648,103 +3473,105 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="23">
+    <row r="47" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="11">
         <v>0</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="11">
         <v>0</v>
       </c>
-      <c r="E47" s="23">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="F47" s="23">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="G47" s="23">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="H47" s="23">
-        <v>0.13789999999999999</v>
-      </c>
-      <c r="I47" s="23">
-        <v>0.1724</v>
-      </c>
-      <c r="J47" s="23">
-        <v>0.20680000000000001</v>
-      </c>
-      <c r="K47" s="23">
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="L47" s="23">
-        <v>0.27579999999999999</v>
-      </c>
-      <c r="M47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="N47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="O47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="P47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="R47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="S47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="T47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="U47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="V47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="W47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="X47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="Y47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="Z47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AA47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AB47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AC47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AD47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AE47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AF47" s="23">
-        <v>0.31030000000000002</v>
-      </c>
-      <c r="AG47" s="23">
-        <v>0.31030000000000002</v>
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
+        <v>0</v>
+      </c>
+      <c r="L47" s="19">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>0</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>0</v>
+      </c>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>0</v>
       </c>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
@@ -3753,101 +3580,103 @@
       <c r="AL47" s="7"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="23">
+      <c r="A48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="11">
         <v>0</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="11">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="11">
         <v>0</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="11">
         <v>0</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="19">
         <v>0</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="19">
         <v>0</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="19">
         <v>0</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="19">
         <v>0</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="19">
         <v>0</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="11">
         <v>0</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="11">
         <v>0</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="11">
         <v>0</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="11">
         <v>0</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="11">
         <v>0</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="11">
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="11">
         <v>0</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T48" s="11">
         <v>0</v>
       </c>
-      <c r="U48" s="23">
+      <c r="U48" s="11">
         <v>0</v>
       </c>
-      <c r="V48" s="23">
+      <c r="V48" s="11">
         <v>0</v>
       </c>
-      <c r="W48" s="23">
+      <c r="W48" s="11">
         <v>0</v>
       </c>
-      <c r="X48" s="23">
+      <c r="X48" s="11">
         <v>0</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="11">
         <v>0</v>
       </c>
-      <c r="Z48" s="23">
+      <c r="Z48" s="11">
         <v>0</v>
       </c>
-      <c r="AA48" s="23">
+      <c r="AA48" s="11">
         <v>0</v>
       </c>
-      <c r="AB48" s="23">
+      <c r="AB48" s="11">
         <v>0</v>
       </c>
-      <c r="AC48" s="23">
+      <c r="AC48" s="11">
         <v>0</v>
       </c>
-      <c r="AD48" s="23">
+      <c r="AD48" s="11">
         <v>0</v>
       </c>
-      <c r="AE48" s="23">
+      <c r="AE48" s="11">
         <v>0</v>
       </c>
-      <c r="AF48" s="23">
+      <c r="AF48" s="11">
         <v>0</v>
       </c>
-      <c r="AG48" s="23">
+      <c r="AG48" s="11">
         <v>0</v>
       </c>
       <c r="AH48" s="7"/>
@@ -3897,39 +3726,130 @@
       <c r="AL49" s="7"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="7"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="7"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <f>G44</f>
+        <v>0.11</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" ref="H50:AG50" si="0">H44</f>
+        <v>0.22</v>
+      </c>
+      <c r="I50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="J50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+      <c r="M50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="N50" s="20">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="O50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AG50" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
@@ -3937,102 +3857,133 @@
       <c r="AL50" s="7"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>69</v>
+      <c r="A51" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
+        <f>C44*($K$16/SUM($K$16,$K$17,$K$19))</f>
         <v>0</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
+        <f t="shared" ref="D51:AG51" si="1">D44*($K$16/SUM($K$16,$K$17,$K$19))</f>
         <v>0</v>
       </c>
-      <c r="E51" s="23">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0.1721</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0.25719999999999998</v>
-      </c>
-      <c r="H51" s="23">
-        <v>0.3417</v>
-      </c>
-      <c r="I51" s="23">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="J51" s="23">
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="K51" s="23">
-        <v>0.59379999999999999</v>
-      </c>
-      <c r="L51" s="23">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="M51" s="23">
-        <v>0.76</v>
-      </c>
-      <c r="N51" s="23">
-        <v>0.7571</v>
-      </c>
-      <c r="O51" s="23">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="P51" s="23">
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="Q51" s="23">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="R51" s="23">
-        <v>0.75009999999999999</v>
-      </c>
-      <c r="S51" s="23">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="T51" s="23">
-        <v>0.74709999999999999</v>
-      </c>
-      <c r="U51" s="23">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="V51" s="23">
-        <v>0.74439999999999995</v>
-      </c>
-      <c r="W51" s="23">
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="X51" s="23">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="Y51" s="23">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="Z51" s="23">
-        <v>0.73929999999999996</v>
-      </c>
-      <c r="AA51" s="23">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="AB51" s="23">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="AC51" s="23">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="AD51" s="23">
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="AE51" s="23">
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="AF51" s="23">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AG51" s="23">
-        <v>0.72960000000000003</v>
+      <c r="E51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="20">
+        <f t="shared" si="1"/>
+        <v>3.4072096128170894E-2</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="1"/>
+        <v>6.8144192256341787E-2</v>
+      </c>
+      <c r="I51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.10221628838451269</v>
+      </c>
+      <c r="J51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.13628838451268357</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.17345794392523367</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.20753004005340456</v>
+      </c>
+      <c r="M51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.24160213618157544</v>
+      </c>
+      <c r="N51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2756742323097463</v>
+      </c>
+      <c r="O51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="P51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="Q51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="R51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="S51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="T51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="U51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="V51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="W51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="X51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="Y51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="Z51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AA51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AB51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AC51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AD51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AE51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AF51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
+      </c>
+      <c r="AG51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.30974632843791722</v>
       </c>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
@@ -4041,46 +3992,141 @@
       <c r="AL51" s="7"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="7"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
+      <c r="C52" s="20">
+        <f>C46</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="20">
+        <f t="shared" ref="D52:AG52" si="2">D46</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4120,7 +4166,7 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4160,7 +4206,7 @@
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4241,39 +4287,134 @@
       <c r="AL56" s="7"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
+      <c r="C57" s="20">
+        <f>SUMPRODUCT(C50:C51,$B$22:$B$23)/SUM($B$22:$B$23)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="20">
+        <f t="shared" ref="D57:AG57" si="3">SUMPRODUCT(D50:D51,$B$22:$B$23)/SUM($B$22:$B$23)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="20">
+        <f t="shared" si="3"/>
+        <v>8.6061456433281891E-2</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.17212291286656378</v>
+      </c>
+      <c r="I57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.25818436929984567</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.34424582573312756</v>
+      </c>
+      <c r="K57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.43813105093307153</v>
+      </c>
+      <c r="L57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.52419250736635326</v>
+      </c>
+      <c r="M57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.61025396379963515</v>
+      </c>
+      <c r="N57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.69631542023291704</v>
+      </c>
+      <c r="O57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="P57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Q57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="R57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="S57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="T57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="U57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="V57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="W57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="X57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Y57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Z57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AA57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AB57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AC57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AD57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AE57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AF57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AG57" s="20">
+        <f t="shared" si="3"/>
+        <v>0.78237687666619893</v>
+      </c>
       <c r="AH57" s="7"/>
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
@@ -39520,6 +39661,246 @@
       <c r="AK938" s="7"/>
       <c r="AL938" s="7"/>
     </row>
+    <row r="939" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A939" s="7"/>
+      <c r="B939" s="7"/>
+      <c r="C939" s="7"/>
+      <c r="D939" s="7"/>
+      <c r="E939" s="7"/>
+      <c r="F939" s="7"/>
+      <c r="G939" s="7"/>
+      <c r="H939" s="7"/>
+      <c r="I939" s="7"/>
+      <c r="J939" s="7"/>
+      <c r="K939" s="7"/>
+      <c r="L939" s="7"/>
+      <c r="M939" s="7"/>
+      <c r="N939" s="7"/>
+      <c r="O939" s="7"/>
+      <c r="P939" s="7"/>
+      <c r="Q939" s="7"/>
+      <c r="R939" s="7"/>
+      <c r="S939" s="7"/>
+      <c r="T939" s="7"/>
+      <c r="U939" s="7"/>
+      <c r="V939" s="7"/>
+      <c r="W939" s="7"/>
+      <c r="X939" s="7"/>
+      <c r="Y939" s="7"/>
+      <c r="Z939" s="7"/>
+      <c r="AA939" s="7"/>
+      <c r="AB939" s="7"/>
+      <c r="AC939" s="7"/>
+      <c r="AD939" s="7"/>
+      <c r="AE939" s="7"/>
+      <c r="AF939" s="7"/>
+      <c r="AG939" s="7"/>
+      <c r="AH939" s="7"/>
+      <c r="AI939" s="7"/>
+      <c r="AJ939" s="7"/>
+      <c r="AK939" s="7"/>
+      <c r="AL939" s="7"/>
+    </row>
+    <row r="940" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A940" s="7"/>
+      <c r="B940" s="7"/>
+      <c r="C940" s="7"/>
+      <c r="D940" s="7"/>
+      <c r="E940" s="7"/>
+      <c r="F940" s="7"/>
+      <c r="G940" s="7"/>
+      <c r="H940" s="7"/>
+      <c r="I940" s="7"/>
+      <c r="J940" s="7"/>
+      <c r="K940" s="7"/>
+      <c r="L940" s="7"/>
+      <c r="M940" s="7"/>
+      <c r="N940" s="7"/>
+      <c r="O940" s="7"/>
+      <c r="P940" s="7"/>
+      <c r="Q940" s="7"/>
+      <c r="R940" s="7"/>
+      <c r="S940" s="7"/>
+      <c r="T940" s="7"/>
+      <c r="U940" s="7"/>
+      <c r="V940" s="7"/>
+      <c r="W940" s="7"/>
+      <c r="X940" s="7"/>
+      <c r="Y940" s="7"/>
+      <c r="Z940" s="7"/>
+      <c r="AA940" s="7"/>
+      <c r="AB940" s="7"/>
+      <c r="AC940" s="7"/>
+      <c r="AD940" s="7"/>
+      <c r="AE940" s="7"/>
+      <c r="AF940" s="7"/>
+      <c r="AG940" s="7"/>
+      <c r="AH940" s="7"/>
+      <c r="AI940" s="7"/>
+      <c r="AJ940" s="7"/>
+      <c r="AK940" s="7"/>
+      <c r="AL940" s="7"/>
+    </row>
+    <row r="941" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A941" s="7"/>
+      <c r="B941" s="7"/>
+      <c r="C941" s="7"/>
+      <c r="D941" s="7"/>
+      <c r="E941" s="7"/>
+      <c r="F941" s="7"/>
+      <c r="G941" s="7"/>
+      <c r="H941" s="7"/>
+      <c r="I941" s="7"/>
+      <c r="J941" s="7"/>
+      <c r="K941" s="7"/>
+      <c r="L941" s="7"/>
+      <c r="M941" s="7"/>
+      <c r="N941" s="7"/>
+      <c r="O941" s="7"/>
+      <c r="P941" s="7"/>
+      <c r="Q941" s="7"/>
+      <c r="R941" s="7"/>
+      <c r="S941" s="7"/>
+      <c r="T941" s="7"/>
+      <c r="U941" s="7"/>
+      <c r="V941" s="7"/>
+      <c r="W941" s="7"/>
+      <c r="X941" s="7"/>
+      <c r="Y941" s="7"/>
+      <c r="Z941" s="7"/>
+      <c r="AA941" s="7"/>
+      <c r="AB941" s="7"/>
+      <c r="AC941" s="7"/>
+      <c r="AD941" s="7"/>
+      <c r="AE941" s="7"/>
+      <c r="AF941" s="7"/>
+      <c r="AG941" s="7"/>
+      <c r="AH941" s="7"/>
+      <c r="AI941" s="7"/>
+      <c r="AJ941" s="7"/>
+      <c r="AK941" s="7"/>
+      <c r="AL941" s="7"/>
+    </row>
+    <row r="942" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A942" s="7"/>
+      <c r="B942" s="7"/>
+      <c r="C942" s="7"/>
+      <c r="D942" s="7"/>
+      <c r="E942" s="7"/>
+      <c r="F942" s="7"/>
+      <c r="G942" s="7"/>
+      <c r="H942" s="7"/>
+      <c r="I942" s="7"/>
+      <c r="J942" s="7"/>
+      <c r="K942" s="7"/>
+      <c r="L942" s="7"/>
+      <c r="M942" s="7"/>
+      <c r="N942" s="7"/>
+      <c r="O942" s="7"/>
+      <c r="P942" s="7"/>
+      <c r="Q942" s="7"/>
+      <c r="R942" s="7"/>
+      <c r="S942" s="7"/>
+      <c r="T942" s="7"/>
+      <c r="U942" s="7"/>
+      <c r="V942" s="7"/>
+      <c r="W942" s="7"/>
+      <c r="X942" s="7"/>
+      <c r="Y942" s="7"/>
+      <c r="Z942" s="7"/>
+      <c r="AA942" s="7"/>
+      <c r="AB942" s="7"/>
+      <c r="AC942" s="7"/>
+      <c r="AD942" s="7"/>
+      <c r="AE942" s="7"/>
+      <c r="AF942" s="7"/>
+      <c r="AG942" s="7"/>
+      <c r="AH942" s="7"/>
+      <c r="AI942" s="7"/>
+      <c r="AJ942" s="7"/>
+      <c r="AK942" s="7"/>
+      <c r="AL942" s="7"/>
+    </row>
+    <row r="943" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A943" s="7"/>
+      <c r="B943" s="7"/>
+      <c r="C943" s="7"/>
+      <c r="D943" s="7"/>
+      <c r="E943" s="7"/>
+      <c r="F943" s="7"/>
+      <c r="G943" s="7"/>
+      <c r="H943" s="7"/>
+      <c r="I943" s="7"/>
+      <c r="J943" s="7"/>
+      <c r="K943" s="7"/>
+      <c r="L943" s="7"/>
+      <c r="M943" s="7"/>
+      <c r="N943" s="7"/>
+      <c r="O943" s="7"/>
+      <c r="P943" s="7"/>
+      <c r="Q943" s="7"/>
+      <c r="R943" s="7"/>
+      <c r="S943" s="7"/>
+      <c r="T943" s="7"/>
+      <c r="U943" s="7"/>
+      <c r="V943" s="7"/>
+      <c r="W943" s="7"/>
+      <c r="X943" s="7"/>
+      <c r="Y943" s="7"/>
+      <c r="Z943" s="7"/>
+      <c r="AA943" s="7"/>
+      <c r="AB943" s="7"/>
+      <c r="AC943" s="7"/>
+      <c r="AD943" s="7"/>
+      <c r="AE943" s="7"/>
+      <c r="AF943" s="7"/>
+      <c r="AG943" s="7"/>
+      <c r="AH943" s="7"/>
+      <c r="AI943" s="7"/>
+      <c r="AJ943" s="7"/>
+      <c r="AK943" s="7"/>
+      <c r="AL943" s="7"/>
+    </row>
+    <row r="944" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A944" s="7"/>
+      <c r="B944" s="7"/>
+      <c r="C944" s="7"/>
+      <c r="D944" s="7"/>
+      <c r="E944" s="7"/>
+      <c r="F944" s="7"/>
+      <c r="G944" s="7"/>
+      <c r="H944" s="7"/>
+      <c r="I944" s="7"/>
+      <c r="J944" s="7"/>
+      <c r="K944" s="7"/>
+      <c r="L944" s="7"/>
+      <c r="M944" s="7"/>
+      <c r="N944" s="7"/>
+      <c r="O944" s="7"/>
+      <c r="P944" s="7"/>
+      <c r="Q944" s="7"/>
+      <c r="R944" s="7"/>
+      <c r="S944" s="7"/>
+      <c r="T944" s="7"/>
+      <c r="U944" s="7"/>
+      <c r="V944" s="7"/>
+      <c r="W944" s="7"/>
+      <c r="X944" s="7"/>
+      <c r="Y944" s="7"/>
+      <c r="Z944" s="7"/>
+      <c r="AA944" s="7"/>
+      <c r="AB944" s="7"/>
+      <c r="AC944" s="7"/>
+      <c r="AD944" s="7"/>
+      <c r="AE944" s="7"/>
+      <c r="AF944" s="7"/>
+      <c r="AG944" s="7"/>
+      <c r="AH944" s="7"/>
+      <c r="AI944" s="7"/>
+      <c r="AJ944" s="7"/>
+      <c r="AK944" s="7"/>
+      <c r="AL944" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J13:J14"/>
@@ -39532,10 +39913,10 @@
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{60150E08-15F8-4BC2-A4BC-8C2081E2364D}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{4857CA20-D42B-4141-B9E4-8E0C4575200B}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{89E2AE20-EEAD-4E23-AB46-9D1CDBABED75}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{47A0D9B8-7D9B-4FD4-B644-05B812D81BB6}"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{60150E08-15F8-4BC2-A4BC-8C2081E2364D}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{4857CA20-D42B-4141-B9E4-8E0C4575200B}"/>
+    <hyperlink ref="C29" r:id="rId3" xr:uid="{89E2AE20-EEAD-4E23-AB46-9D1CDBABED75}"/>
+    <hyperlink ref="C32" r:id="rId4" xr:uid="{47A0D9B8-7D9B-4FD4-B644-05B812D81BB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39548,8 +39929,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="B2:AE8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39656,123 +40037,123 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>0.05</v>
       </c>
-      <c r="C2" s="30">
-        <f>$B2</f>
+      <c r="C2" s="27">
+        <f t="shared" ref="C2:AE2" si="0">$B2</f>
         <v>0.05</v>
       </c>
-      <c r="D2" s="30">
-        <f>$B2</f>
+      <c r="D2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E2" s="30">
-        <f>$B2</f>
+      <c r="E2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F2" s="30">
-        <f>$B2</f>
+      <c r="F2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G2" s="30">
-        <f>$B2</f>
+      <c r="G2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H2" s="30">
-        <f>$B2</f>
+      <c r="H2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I2" s="30">
-        <f>$B2</f>
+      <c r="I2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J2" s="30">
-        <f>$B2</f>
+      <c r="J2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K2" s="30">
-        <f>$B2</f>
+      <c r="K2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L2" s="30">
-        <f>$B2</f>
+      <c r="L2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M2" s="30">
-        <f>$B2</f>
+      <c r="M2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="N2" s="30">
-        <f>$B2</f>
+      <c r="N2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="O2" s="30">
-        <f>$B2</f>
+      <c r="O2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="P2" s="30">
-        <f>$B2</f>
+      <c r="P2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Q2" s="30">
-        <f>$B2</f>
+      <c r="Q2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="R2" s="30">
-        <f>$B2</f>
+      <c r="R2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="S2" s="30">
-        <f>$B2</f>
+      <c r="S2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="T2" s="30">
-        <f>$B2</f>
+      <c r="T2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="U2" s="30">
-        <f>$B2</f>
+      <c r="U2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="V2" s="30">
-        <f>$B2</f>
+      <c r="V2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="W2" s="30">
-        <f>$B2</f>
+      <c r="W2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="X2" s="30">
-        <f>$B2</f>
+      <c r="X2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Y2" s="30">
-        <f>$B2</f>
+      <c r="Y2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z2" s="30">
-        <f>$B2</f>
+      <c r="Z2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AA2" s="30">
-        <f>$B2</f>
+      <c r="AA2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AB2" s="30">
-        <f>$B2</f>
+      <c r="AB2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AC2" s="30">
-        <f>$B2</f>
+      <c r="AC2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AD2" s="30">
-        <f>$B2</f>
+      <c r="AD2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AE2" s="30">
-        <f>$B2</f>
+      <c r="AE2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
@@ -39780,219 +40161,219 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30">
-        <f>0.95-IRA!D51</f>
+      <c r="B3" s="27">
+        <f>0.95-IRA!D57</f>
         <v>0.95</v>
       </c>
-      <c r="C3" s="30">
-        <f>0.95-IRA!E51</f>
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="D3" s="30">
-        <f>0.95-IRA!F51</f>
-        <v>0.77789999999999992</v>
-      </c>
-      <c r="E3" s="30">
-        <f>0.95-IRA!G51</f>
-        <v>0.69279999999999997</v>
-      </c>
-      <c r="F3" s="30">
-        <f>0.95-IRA!H51</f>
-        <v>0.60829999999999995</v>
-      </c>
-      <c r="G3" s="30">
-        <f>0.95-IRA!I51</f>
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H3" s="30">
-        <f>0.95-IRA!J51</f>
-        <v>0.43959999999999999</v>
-      </c>
-      <c r="I3" s="30">
-        <f>0.95-IRA!K51</f>
-        <v>0.35619999999999996</v>
-      </c>
-      <c r="J3" s="30">
-        <f>0.95-IRA!L51</f>
-        <v>0.27269999999999994</v>
-      </c>
-      <c r="K3" s="30">
-        <f>0.95-IRA!M51</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="L3" s="30">
-        <f>0.95-IRA!N51</f>
-        <v>0.19289999999999996</v>
-      </c>
-      <c r="M3" s="30">
-        <f>0.95-IRA!O51</f>
-        <v>0.19439999999999991</v>
-      </c>
-      <c r="N3" s="30">
-        <f>0.95-IRA!P51</f>
-        <v>0.19579999999999997</v>
-      </c>
-      <c r="O3" s="30">
-        <f>0.95-IRA!Q51</f>
-        <v>0.19739999999999991</v>
-      </c>
-      <c r="P3" s="30">
-        <f>0.95-IRA!R51</f>
-        <v>0.19989999999999997</v>
-      </c>
-      <c r="Q3" s="30">
-        <f>0.95-IRA!S51</f>
-        <v>0.2014999999999999</v>
-      </c>
-      <c r="R3" s="30">
-        <f>0.95-IRA!T51</f>
-        <v>0.20289999999999997</v>
-      </c>
-      <c r="S3" s="30">
-        <f>0.95-IRA!U51</f>
-        <v>0.2044999999999999</v>
-      </c>
-      <c r="T3" s="30">
-        <f>0.95-IRA!V51</f>
-        <v>0.2056</v>
-      </c>
-      <c r="U3" s="30">
-        <f>0.95-IRA!W51</f>
-        <v>0.20649999999999991</v>
-      </c>
-      <c r="V3" s="30">
-        <f>0.95-IRA!X51</f>
-        <v>0.20699999999999996</v>
-      </c>
-      <c r="W3" s="30">
-        <f>0.95-IRA!Y51</f>
-        <v>0.20799999999999996</v>
-      </c>
-      <c r="X3" s="30">
-        <f>0.95-IRA!Z51</f>
-        <v>0.2107</v>
-      </c>
-      <c r="Y3" s="30">
-        <f>0.95-IRA!AA51</f>
-        <v>0.21189999999999998</v>
-      </c>
-      <c r="Z3" s="30">
-        <f>0.95-IRA!AB51</f>
-        <v>0.21429999999999993</v>
-      </c>
-      <c r="AA3" s="30">
-        <f>0.95-IRA!AC51</f>
-        <v>0.2155999999999999</v>
-      </c>
-      <c r="AB3" s="30">
-        <f>0.95-IRA!AD51</f>
-        <v>0.21589999999999998</v>
-      </c>
-      <c r="AC3" s="30">
-        <f>0.95-IRA!AE51</f>
-        <v>0.21739999999999993</v>
-      </c>
-      <c r="AD3" s="30">
-        <f>0.95-IRA!AF51</f>
-        <v>0.21899999999999997</v>
-      </c>
-      <c r="AE3" s="30">
-        <f>0.95-IRA!AG51</f>
-        <v>0.22039999999999993</v>
+      <c r="C3" s="27">
+        <f>0.95-IRA!E57</f>
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="27">
+        <f>0.95-IRA!F57</f>
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="27">
+        <f>0.95-IRA!G57</f>
+        <v>0.86393854356671806</v>
+      </c>
+      <c r="F3" s="27">
+        <f>0.95-IRA!H57</f>
+        <v>0.77787708713343617</v>
+      </c>
+      <c r="G3" s="27">
+        <f>0.95-IRA!I57</f>
+        <v>0.69181563070015428</v>
+      </c>
+      <c r="H3" s="27">
+        <f>0.95-IRA!J57</f>
+        <v>0.60575417426687239</v>
+      </c>
+      <c r="I3" s="27">
+        <f>0.95-IRA!K57</f>
+        <v>0.51186894906692837</v>
+      </c>
+      <c r="J3" s="27">
+        <f>0.95-IRA!L57</f>
+        <v>0.4258074926336467</v>
+      </c>
+      <c r="K3" s="27">
+        <f>0.95-IRA!M57</f>
+        <v>0.33974603620036481</v>
+      </c>
+      <c r="L3" s="27">
+        <f>0.95-IRA!N57</f>
+        <v>0.25368457976708292</v>
+      </c>
+      <c r="M3" s="27">
+        <f>0.95-IRA!O57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="N3" s="27">
+        <f>0.95-IRA!P57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="O3" s="27">
+        <f>0.95-IRA!Q57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="P3" s="27">
+        <f>0.95-IRA!R57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="Q3" s="27">
+        <f>0.95-IRA!S57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="R3" s="27">
+        <f>0.95-IRA!T57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="S3" s="27">
+        <f>0.95-IRA!U57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="T3" s="27">
+        <f>0.95-IRA!V57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="U3" s="27">
+        <f>0.95-IRA!W57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="V3" s="27">
+        <f>0.95-IRA!X57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="W3" s="27">
+        <f>0.95-IRA!Y57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="X3" s="27">
+        <f>0.95-IRA!Z57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="Y3" s="27">
+        <f>0.95-IRA!AA57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="Z3" s="27">
+        <f>0.95-IRA!AB57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="AA3" s="27">
+        <f>0.95-IRA!AC57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="AB3" s="27">
+        <f>0.95-IRA!AD57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="AC3" s="27">
+        <f>0.95-IRA!AE57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="AD3" s="27">
+        <f>0.95-IRA!AF57</f>
+        <v>0.16762312333380103</v>
+      </c>
+      <c r="AE3" s="27">
+        <f>0.95-IRA!AG57</f>
+        <v>0.16762312333380103</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>0</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="27">
         <v>0</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="27">
         <v>0</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="27">
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <v>0</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="27">
         <v>0</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="27">
         <v>0</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="27">
         <v>0</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="27">
         <v>0</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="27">
         <v>0</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="27">
         <v>0</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="27">
         <v>0</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="27">
         <v>0</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="27">
         <v>0</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="27">
         <v>0</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="27">
         <v>0</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="27">
         <v>0</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="27">
         <v>0</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40000,94 +40381,94 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>0</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="27">
         <v>0</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="27">
         <v>0</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="27">
         <v>0</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="27">
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="27">
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <v>0</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="27">
         <v>0</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="27">
         <v>0</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="27">
         <v>0</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="27">
         <v>0</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="27">
         <v>0</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="27">
         <v>0</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="27">
         <v>0</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="27">
         <v>0</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="27">
         <v>0</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="27">
         <v>0</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="27">
         <v>0</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40095,94 +40476,94 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>0</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="27">
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="27">
         <v>0</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="27">
         <v>0</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="27">
         <v>0</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <v>0</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="27">
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="27">
         <v>0</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="27">
         <v>0</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="27">
         <v>0</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="27">
         <v>0</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="27">
         <v>0</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="27">
         <v>0</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="27">
         <v>0</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="27">
         <v>0</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="27">
         <v>0</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="27">
         <v>0</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="27">
         <v>0</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="27">
         <v>0</v>
       </c>
-      <c r="AC6" s="30">
+      <c r="AC6" s="27">
         <v>0</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="27">
         <v>0</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40190,219 +40571,219 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30">
-        <f>IRA!D51</f>
+      <c r="B7" s="27">
+        <f>IRA!D57</f>
         <v>0</v>
       </c>
-      <c r="C7" s="30">
-        <f>IRA!E51</f>
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="D7" s="30">
-        <f>IRA!F51</f>
-        <v>0.1721</v>
-      </c>
-      <c r="E7" s="30">
-        <f>IRA!G51</f>
-        <v>0.25719999999999998</v>
-      </c>
-      <c r="F7" s="30">
-        <f>IRA!H51</f>
-        <v>0.3417</v>
-      </c>
-      <c r="G7" s="30">
-        <f>IRA!I51</f>
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H7" s="30">
-        <f>IRA!J51</f>
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="I7" s="30">
-        <f>IRA!K51</f>
-        <v>0.59379999999999999</v>
-      </c>
-      <c r="J7" s="30">
-        <f>IRA!L51</f>
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="K7" s="30">
-        <f>IRA!M51</f>
-        <v>0.76</v>
-      </c>
-      <c r="L7" s="30">
-        <f>IRA!N51</f>
-        <v>0.7571</v>
-      </c>
-      <c r="M7" s="30">
-        <f>IRA!O51</f>
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="N7" s="30">
-        <f>IRA!P51</f>
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="O7" s="30">
-        <f>IRA!Q51</f>
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="P7" s="30">
-        <f>IRA!R51</f>
-        <v>0.75009999999999999</v>
-      </c>
-      <c r="Q7" s="30">
-        <f>IRA!S51</f>
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="R7" s="30">
-        <f>IRA!T51</f>
-        <v>0.74709999999999999</v>
-      </c>
-      <c r="S7" s="30">
-        <f>IRA!U51</f>
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="T7" s="30">
-        <f>IRA!V51</f>
-        <v>0.74439999999999995</v>
-      </c>
-      <c r="U7" s="30">
-        <f>IRA!W51</f>
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="V7" s="30">
-        <f>IRA!X51</f>
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="W7" s="30">
-        <f>IRA!Y51</f>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="X7" s="30">
-        <f>IRA!Z51</f>
-        <v>0.73929999999999996</v>
-      </c>
-      <c r="Y7" s="30">
-        <f>IRA!AA51</f>
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="Z7" s="30">
-        <f>IRA!AB51</f>
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="AA7" s="30">
-        <f>IRA!AC51</f>
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="AB7" s="30">
-        <f>IRA!AD51</f>
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="AC7" s="30">
-        <f>IRA!AE51</f>
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="AD7" s="30">
-        <f>IRA!AF51</f>
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AE7" s="30">
-        <f>IRA!AG51</f>
-        <v>0.72960000000000003</v>
+      <c r="C7" s="27">
+        <f>IRA!E57</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <f>IRA!F57</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <f>IRA!G57</f>
+        <v>8.6061456433281891E-2</v>
+      </c>
+      <c r="F7" s="27">
+        <f>IRA!H57</f>
+        <v>0.17212291286656378</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IRA!I57</f>
+        <v>0.25818436929984567</v>
+      </c>
+      <c r="H7" s="27">
+        <f>IRA!J57</f>
+        <v>0.34424582573312756</v>
+      </c>
+      <c r="I7" s="27">
+        <f>IRA!K57</f>
+        <v>0.43813105093307153</v>
+      </c>
+      <c r="J7" s="27">
+        <f>IRA!L57</f>
+        <v>0.52419250736635326</v>
+      </c>
+      <c r="K7" s="27">
+        <f>IRA!M57</f>
+        <v>0.61025396379963515</v>
+      </c>
+      <c r="L7" s="27">
+        <f>IRA!N57</f>
+        <v>0.69631542023291704</v>
+      </c>
+      <c r="M7" s="27">
+        <f>IRA!O57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="N7" s="27">
+        <f>IRA!P57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="O7" s="27">
+        <f>IRA!Q57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="P7" s="27">
+        <f>IRA!R57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Q7" s="27">
+        <f>IRA!S57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="R7" s="27">
+        <f>IRA!T57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="S7" s="27">
+        <f>IRA!U57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="T7" s="27">
+        <f>IRA!V57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="U7" s="27">
+        <f>IRA!W57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="V7" s="27">
+        <f>IRA!X57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="W7" s="27">
+        <f>IRA!Y57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="X7" s="27">
+        <f>IRA!Z57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Y7" s="27">
+        <f>IRA!AA57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="Z7" s="27">
+        <f>IRA!AB57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AA7" s="27">
+        <f>IRA!AC57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AB7" s="27">
+        <f>IRA!AD57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AC7" s="27">
+        <f>IRA!AE57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AD7" s="27">
+        <f>IRA!AF57</f>
+        <v>0.78237687666619893</v>
+      </c>
+      <c r="AE7" s="27">
+        <f>IRA!AG57</f>
+        <v>0.78237687666619893</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>0</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>0</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <v>0</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="27">
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="27">
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <v>0</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="27">
         <v>0</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="27">
         <v>0</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="27">
         <v>0</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="27">
         <v>0</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="27">
         <v>0</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="27">
         <v>0</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="27">
         <v>0</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="27">
         <v>0</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="27">
         <v>0</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="27">
         <v>0</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="27">
         <v>0</v>
       </c>
-      <c r="AC8" s="30">
+      <c r="AC8" s="27">
         <v>0</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="27">
         <v>0</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="27">
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784EFAA0-1301-4A9F-942B-D2E1B5B76375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF4CE2-64CA-4A07-95EF-AD8C17B102BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58875" yWindow="510" windowWidth="26355" windowHeight="13470" tabRatio="685" firstSheet="2" activeTab="7" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
+    <workbookView xWindow="30930" yWindow="3390" windowWidth="23025" windowHeight="13470" tabRatio="685" firstSheet="2" activeTab="7" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="REF2020" sheetId="4" r:id="rId3"/>
     <sheet name="Clean H2 monitor" sheetId="5" r:id="rId4"/>
     <sheet name="TYNDP Data" sheetId="2" r:id="rId5"/>
-    <sheet name="Historical Production" sheetId="8" r:id="rId6"/>
+    <sheet name="(BIFUbC) Historical Production" sheetId="8" r:id="rId6"/>
     <sheet name="Calculations" sheetId="6" r:id="rId7"/>
     <sheet name="BHPSbP" sheetId="3" r:id="rId8"/>
   </sheets>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="400">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -2538,9 +2538,6 @@
     <t>refined petroleum and coke 19</t>
   </si>
   <si>
-    <t>Production Pathway</t>
-  </si>
-  <si>
     <t>SMR</t>
   </si>
   <si>
@@ -2556,20 +2553,95 @@
     <t xml:space="preserve">  ** third-party SMR H2 imported by refineries -- (classify production under chemicals industry)</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Among the share of hydrogen not produced by electrolysis, the split between by-product hydrogen and fossil-fuel hydrogen is calculated by maintaining the same split as for the year 2020 in the TYNDP scenario.</t>
   </si>
   <si>
     <t xml:space="preserve">  * see Petrochemicals Europe section 4.2 for a breakdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gas as Feedstock </t>
+  </si>
+  <si>
+    <t>H2 Demand (MMT/year)</t>
+  </si>
+  <si>
+    <t>H2 Demand (BTU/year)</t>
+  </si>
+  <si>
+    <t>Natural Gas Feedstock Consumption (BTU/year)</t>
+  </si>
+  <si>
+    <t>POx Feedstock Consumption (BTU/yr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *** in the US model, we account for only merchant hydrogen, hence needing to classify on- vs off-site H2. Here we account for all non-byproduct H2</t>
+  </si>
+  <si>
+    <t>Hydrogen Demand [BTU] ****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  **** although the "dedicated production" category is made by the chemicals industry, we tie its growth to refining output, as the consumer is refineries</t>
+  </si>
+  <si>
+    <t>Hydrogen Demand [BTU]</t>
+  </si>
+  <si>
+    <t>non-byproduct BAU Production Shares (hydgn/BHPSbP)</t>
+  </si>
+  <si>
+    <t>fossil fueled (SMR/POx)</t>
+  </si>
+  <si>
+    <t>Reduction in Fuel Use by Industry [BTU]</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>POx heavy oils</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>btu/cubic foot natural gas</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/tools/faqs/faq.php?id=45&amp;t=8#:~:text=In%202020%2C%20the%20U.S.%20annual,103%2C700%20Btu%2C%20or%201.037%20therms.</t>
+  </si>
+  <si>
+    <t>cubic foot of gas per cubic meter of H2</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/default/files/2015-02/documents/subpartp-tsd_hydrogenproduction.pdf</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>SMR Conversion efficiency</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy14osti/60528.pdf</t>
+  </si>
+  <si>
+    <t>kg/lb</t>
+  </si>
+  <si>
+    <t>POX conversion efficiency</t>
+  </si>
+  <si>
+    <t>https://www.scirp.org/journal/paperinformation?paperid=90227</t>
+  </si>
+  <si>
+    <t>EU Reference Scenario 2020 Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="19">
+  <numFmts count="20">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
@@ -2589,8 +2661,9 @@
     <numFmt numFmtId="179" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="180" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="181" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="182" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2850,8 +2923,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2969,6 +3050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3281,7 +3368,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3291,8 +3378,12 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3800,7 +3891,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3813,24 +3910,36 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Comma 3" xfId="8" xr:uid="{B9F661CC-C210-43C5-BC46-232786BC9E89}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="9" xr:uid="{0729AC82-A207-44F0-8B65-21791DC14368}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="7" xr:uid="{ADE7148A-4666-4740-A804-9912FA344A8F}"/>
     <cellStyle name="Normal_AppendixAU" xfId="4" xr:uid="{45712ABA-7F3F-44EA-8DFB-330A7622A3A2}"/>
@@ -6718,8 +6827,8 @@
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>721860</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504145</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>93978</xdr:rowOff>
     </xdr:to>
@@ -6746,6 +6855,50 @@
         <a:xfrm>
           <a:off x="323022" y="2972628"/>
           <a:ext cx="4629993" cy="2931600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524342</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538BE97E-94D3-4344-BE65-BB1BE56299EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323022" y="3007101"/>
+          <a:ext cx="4632260" cy="2925250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,66 +6997,264 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14">
+        <row r="10">
+          <cell r="U10">
+            <v>86563.216203400429</v>
+          </cell>
+          <cell r="V10">
+            <v>87980.704967344122</v>
+          </cell>
+          <cell r="W10">
+            <v>89002.095577140513</v>
+          </cell>
+          <cell r="X10">
+            <v>90118.337849225034</v>
+          </cell>
+          <cell r="Y10">
+            <v>90978.758625674789</v>
+          </cell>
+          <cell r="Z10">
+            <v>91595.919758638003</v>
+          </cell>
+          <cell r="AA10">
+            <v>92319.838700444365</v>
+          </cell>
+          <cell r="AB10">
+            <v>93071.848750677222</v>
+          </cell>
+          <cell r="AC10">
+            <v>93823.116227001126</v>
+          </cell>
+          <cell r="AD10">
+            <v>94487.975320500467</v>
+          </cell>
+          <cell r="AE10">
+            <v>95065.44459655328</v>
+          </cell>
+          <cell r="AF10">
+            <v>95512.653836867568</v>
+          </cell>
+          <cell r="AG10">
+            <v>96096.330293404491</v>
+          </cell>
+          <cell r="AH10">
+            <v>96578.421854619053</v>
+          </cell>
+          <cell r="AI10">
+            <v>97072.034408886801</v>
+          </cell>
+          <cell r="AJ10">
+            <v>97488.674909536247</v>
+          </cell>
+          <cell r="AK10">
+            <v>97854.539018596683</v>
+          </cell>
+          <cell r="AL10">
+            <v>98368.522933807792</v>
+          </cell>
+          <cell r="AM10">
+            <v>98858.367092879547</v>
+          </cell>
+          <cell r="AN10">
+            <v>99390.070145926176</v>
+          </cell>
+          <cell r="AO10">
+            <v>99881.308812555872</v>
+          </cell>
+          <cell r="AP10">
+            <v>100426.20378037983</v>
+          </cell>
+          <cell r="AQ10">
+            <v>100979.30069996761</v>
+          </cell>
+          <cell r="AR10">
+            <v>101648.57934628554</v>
+          </cell>
+          <cell r="AS10">
+            <v>102188.18286545003</v>
+          </cell>
+          <cell r="AT10">
+            <v>102806.67983568038</v>
+          </cell>
+          <cell r="AU10">
+            <v>103244.21511497813</v>
+          </cell>
+          <cell r="AV10">
+            <v>103856.71827200546</v>
+          </cell>
+          <cell r="AW10">
+            <v>104433.77007672668</v>
+          </cell>
+          <cell r="AX10">
+            <v>105009.75292280481</v>
+          </cell>
+          <cell r="AY10">
+            <v>105515.43969476252</v>
+          </cell>
+          <cell r="AZ10">
+            <v>106009.78167926885</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47">
+        <row r="30">
+          <cell r="V30">
+            <v>651894.34513197211</v>
+          </cell>
+          <cell r="W30">
+            <v>648204.28012219537</v>
+          </cell>
+          <cell r="X30">
+            <v>646895.70690243959</v>
+          </cell>
+          <cell r="Y30">
+            <v>643145.98454149754</v>
+          </cell>
+          <cell r="Z30">
+            <v>638395.6513035713</v>
+          </cell>
+          <cell r="AA30">
+            <v>632396.38873996609</v>
+          </cell>
+          <cell r="AB30">
+            <v>627214.94411349483</v>
+          </cell>
+          <cell r="AC30">
+            <v>624050.02586222265</v>
+          </cell>
+          <cell r="AD30">
+            <v>619365.47656788444</v>
+          </cell>
+          <cell r="AE30">
+            <v>617147.78285624995</v>
+          </cell>
+          <cell r="AF30">
+            <v>614485.71161605953</v>
+          </cell>
+          <cell r="AG30">
+            <v>610472.47601501935</v>
+          </cell>
+          <cell r="AH30">
+            <v>608783.48174731946</v>
+          </cell>
+          <cell r="AI30">
+            <v>606236.20731856115</v>
+          </cell>
+          <cell r="AJ30">
+            <v>602782.8448292088</v>
+          </cell>
+          <cell r="AK30">
+            <v>599342.72632583429</v>
+          </cell>
+          <cell r="AL30">
+            <v>593185.37224966672</v>
+          </cell>
+          <cell r="AM30">
+            <v>591233.60941137746</v>
+          </cell>
+          <cell r="AN30">
+            <v>586201.76037421159</v>
+          </cell>
+          <cell r="AO30">
+            <v>582061.30265237053</v>
+          </cell>
+          <cell r="AP30">
+            <v>577655.61505247443</v>
+          </cell>
+          <cell r="AQ30">
+            <v>573020.72295503027</v>
+          </cell>
+          <cell r="AR30">
+            <v>566918.96191775461</v>
+          </cell>
+          <cell r="AS30">
+            <v>562444.5089238534</v>
+          </cell>
+          <cell r="AT30">
+            <v>556633.88911704498</v>
+          </cell>
+          <cell r="AU30">
+            <v>551794.56438368384</v>
+          </cell>
+          <cell r="AV30">
+            <v>547764.11823941546</v>
+          </cell>
+          <cell r="AW30">
+            <v>544037.40622568561</v>
+          </cell>
+          <cell r="AX30">
+            <v>538859.28197193414</v>
+          </cell>
+          <cell r="AY30">
+            <v>534872.47239469364</v>
+          </cell>
+          <cell r="AZ30">
+            <v>530798.01517638355</v>
+          </cell>
+          <cell r="BA30">
+            <v>525580.27738847013</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17031,238 +17382,238 @@
       </c>
     </row>
     <row r="122" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A122" s="266" t="s">
+      <c r="A122" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="267"/>
-      <c r="C122" s="267"/>
-      <c r="D122" s="267"/>
-      <c r="E122" s="267"/>
-      <c r="F122" s="267"/>
-      <c r="G122" s="267"/>
-      <c r="H122" s="267"/>
-      <c r="I122" s="267"/>
-      <c r="J122" s="267"/>
-      <c r="K122" s="267"/>
-      <c r="L122" s="267"/>
-      <c r="M122" s="267"/>
-      <c r="N122" s="267"/>
+      <c r="B122" s="269"/>
+      <c r="C122" s="269"/>
+      <c r="D122" s="269"/>
+      <c r="E122" s="269"/>
+      <c r="F122" s="269"/>
+      <c r="G122" s="269"/>
+      <c r="H122" s="269"/>
+      <c r="I122" s="269"/>
+      <c r="J122" s="269"/>
+      <c r="K122" s="269"/>
+      <c r="L122" s="269"/>
+      <c r="M122" s="269"/>
+      <c r="N122" s="269"/>
     </row>
     <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="264" t="s">
+      <c r="A123" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="B123" s="264"/>
-      <c r="C123" s="264"/>
-      <c r="D123" s="264"/>
-      <c r="E123" s="264"/>
-      <c r="F123" s="264"/>
-      <c r="G123" s="264"/>
-      <c r="H123" s="264"/>
-      <c r="I123" s="264"/>
-      <c r="J123" s="264"/>
-      <c r="K123" s="264"/>
-      <c r="L123" s="264"/>
-      <c r="M123" s="264"/>
-      <c r="N123" s="264"/>
+      <c r="B123" s="266"/>
+      <c r="C123" s="266"/>
+      <c r="D123" s="266"/>
+      <c r="E123" s="266"/>
+      <c r="F123" s="266"/>
+      <c r="G123" s="266"/>
+      <c r="H123" s="266"/>
+      <c r="I123" s="266"/>
+      <c r="J123" s="266"/>
+      <c r="K123" s="266"/>
+      <c r="L123" s="266"/>
+      <c r="M123" s="266"/>
+      <c r="N123" s="266"/>
     </row>
     <row r="124" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A124" s="264" t="s">
+      <c r="A124" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="265"/>
-      <c r="C124" s="265"/>
-      <c r="D124" s="265"/>
-      <c r="E124" s="265"/>
-      <c r="F124" s="265"/>
-      <c r="G124" s="265"/>
-      <c r="H124" s="265"/>
-      <c r="I124" s="265"/>
-      <c r="J124" s="265"/>
-      <c r="K124" s="265"/>
-      <c r="L124" s="265"/>
-      <c r="M124" s="265"/>
-      <c r="N124" s="265"/>
+      <c r="B124" s="267"/>
+      <c r="C124" s="267"/>
+      <c r="D124" s="267"/>
+      <c r="E124" s="267"/>
+      <c r="F124" s="267"/>
+      <c r="G124" s="267"/>
+      <c r="H124" s="267"/>
+      <c r="I124" s="267"/>
+      <c r="J124" s="267"/>
+      <c r="K124" s="267"/>
+      <c r="L124" s="267"/>
+      <c r="M124" s="267"/>
+      <c r="N124" s="267"/>
     </row>
     <row r="125" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A125" s="264" t="s">
+      <c r="A125" s="266" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="265"/>
-      <c r="C125" s="265"/>
-      <c r="D125" s="265"/>
-      <c r="E125" s="265"/>
-      <c r="F125" s="265"/>
-      <c r="G125" s="265"/>
-      <c r="H125" s="265"/>
-      <c r="I125" s="265"/>
-      <c r="J125" s="265"/>
-      <c r="K125" s="265"/>
-      <c r="L125" s="265"/>
-      <c r="M125" s="265"/>
-      <c r="N125" s="265"/>
+      <c r="B125" s="267"/>
+      <c r="C125" s="267"/>
+      <c r="D125" s="267"/>
+      <c r="E125" s="267"/>
+      <c r="F125" s="267"/>
+      <c r="G125" s="267"/>
+      <c r="H125" s="267"/>
+      <c r="I125" s="267"/>
+      <c r="J125" s="267"/>
+      <c r="K125" s="267"/>
+      <c r="L125" s="267"/>
+      <c r="M125" s="267"/>
+      <c r="N125" s="267"/>
     </row>
     <row r="126" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A126" s="264" t="s">
+      <c r="A126" s="266" t="s">
         <v>109</v>
       </c>
-      <c r="B126" s="265"/>
-      <c r="C126" s="265"/>
-      <c r="D126" s="265"/>
-      <c r="E126" s="265"/>
-      <c r="F126" s="265"/>
-      <c r="G126" s="265"/>
-      <c r="H126" s="265"/>
-      <c r="I126" s="265"/>
-      <c r="J126" s="265"/>
-      <c r="K126" s="265"/>
-      <c r="L126" s="265"/>
-      <c r="M126" s="265"/>
-      <c r="N126" s="265"/>
+      <c r="B126" s="267"/>
+      <c r="C126" s="267"/>
+      <c r="D126" s="267"/>
+      <c r="E126" s="267"/>
+      <c r="F126" s="267"/>
+      <c r="G126" s="267"/>
+      <c r="H126" s="267"/>
+      <c r="I126" s="267"/>
+      <c r="J126" s="267"/>
+      <c r="K126" s="267"/>
+      <c r="L126" s="267"/>
+      <c r="M126" s="267"/>
+      <c r="N126" s="267"/>
     </row>
     <row r="127" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A127" s="264" t="s">
+      <c r="A127" s="266" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="265"/>
-      <c r="C127" s="265"/>
-      <c r="D127" s="265"/>
-      <c r="E127" s="265"/>
-      <c r="F127" s="265"/>
-      <c r="G127" s="265"/>
-      <c r="H127" s="265"/>
-      <c r="I127" s="265"/>
-      <c r="J127" s="265"/>
-      <c r="K127" s="265"/>
-      <c r="L127" s="265"/>
-      <c r="M127" s="265"/>
-      <c r="N127" s="265"/>
+      <c r="B127" s="267"/>
+      <c r="C127" s="267"/>
+      <c r="D127" s="267"/>
+      <c r="E127" s="267"/>
+      <c r="F127" s="267"/>
+      <c r="G127" s="267"/>
+      <c r="H127" s="267"/>
+      <c r="I127" s="267"/>
+      <c r="J127" s="267"/>
+      <c r="K127" s="267"/>
+      <c r="L127" s="267"/>
+      <c r="M127" s="267"/>
+      <c r="N127" s="267"/>
     </row>
     <row r="128" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A128" s="264" t="s">
+      <c r="A128" s="266" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="265"/>
-      <c r="C128" s="265"/>
-      <c r="D128" s="265"/>
-      <c r="E128" s="265"/>
-      <c r="F128" s="265"/>
-      <c r="G128" s="265"/>
-      <c r="H128" s="265"/>
-      <c r="I128" s="265"/>
-      <c r="J128" s="265"/>
-      <c r="K128" s="265"/>
-      <c r="L128" s="265"/>
-      <c r="M128" s="265"/>
-      <c r="N128" s="265"/>
+      <c r="B128" s="267"/>
+      <c r="C128" s="267"/>
+      <c r="D128" s="267"/>
+      <c r="E128" s="267"/>
+      <c r="F128" s="267"/>
+      <c r="G128" s="267"/>
+      <c r="H128" s="267"/>
+      <c r="I128" s="267"/>
+      <c r="J128" s="267"/>
+      <c r="K128" s="267"/>
+      <c r="L128" s="267"/>
+      <c r="M128" s="267"/>
+      <c r="N128" s="267"/>
     </row>
     <row r="129" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A129" s="264" t="s">
+      <c r="A129" s="266" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="265"/>
-      <c r="C129" s="265"/>
-      <c r="D129" s="265"/>
-      <c r="E129" s="265"/>
-      <c r="F129" s="265"/>
-      <c r="G129" s="265"/>
-      <c r="H129" s="265"/>
-      <c r="I129" s="265"/>
-      <c r="J129" s="265"/>
-      <c r="K129" s="265"/>
-      <c r="L129" s="265"/>
-      <c r="M129" s="265"/>
-      <c r="N129" s="265"/>
+      <c r="B129" s="267"/>
+      <c r="C129" s="267"/>
+      <c r="D129" s="267"/>
+      <c r="E129" s="267"/>
+      <c r="F129" s="267"/>
+      <c r="G129" s="267"/>
+      <c r="H129" s="267"/>
+      <c r="I129" s="267"/>
+      <c r="J129" s="267"/>
+      <c r="K129" s="267"/>
+      <c r="L129" s="267"/>
+      <c r="M129" s="267"/>
+      <c r="N129" s="267"/>
     </row>
     <row r="130" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A130" s="264" t="s">
+      <c r="A130" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="B130" s="265"/>
-      <c r="C130" s="265"/>
-      <c r="D130" s="265"/>
-      <c r="E130" s="265"/>
-      <c r="F130" s="265"/>
-      <c r="G130" s="265"/>
-      <c r="H130" s="265"/>
-      <c r="I130" s="265"/>
-      <c r="J130" s="265"/>
-      <c r="K130" s="265"/>
-      <c r="L130" s="265"/>
-      <c r="M130" s="265"/>
-      <c r="N130" s="265"/>
+      <c r="B130" s="267"/>
+      <c r="C130" s="267"/>
+      <c r="D130" s="267"/>
+      <c r="E130" s="267"/>
+      <c r="F130" s="267"/>
+      <c r="G130" s="267"/>
+      <c r="H130" s="267"/>
+      <c r="I130" s="267"/>
+      <c r="J130" s="267"/>
+      <c r="K130" s="267"/>
+      <c r="L130" s="267"/>
+      <c r="M130" s="267"/>
+      <c r="N130" s="267"/>
     </row>
     <row r="131" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A131" s="264" t="s">
+      <c r="A131" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="B131" s="265"/>
-      <c r="C131" s="265"/>
-      <c r="D131" s="265"/>
-      <c r="E131" s="265"/>
-      <c r="F131" s="265"/>
-      <c r="G131" s="265"/>
-      <c r="H131" s="265"/>
-      <c r="I131" s="265"/>
-      <c r="J131" s="265"/>
-      <c r="K131" s="265"/>
-      <c r="L131" s="265"/>
-      <c r="M131" s="265"/>
-      <c r="N131" s="265"/>
+      <c r="B131" s="267"/>
+      <c r="C131" s="267"/>
+      <c r="D131" s="267"/>
+      <c r="E131" s="267"/>
+      <c r="F131" s="267"/>
+      <c r="G131" s="267"/>
+      <c r="H131" s="267"/>
+      <c r="I131" s="267"/>
+      <c r="J131" s="267"/>
+      <c r="K131" s="267"/>
+      <c r="L131" s="267"/>
+      <c r="M131" s="267"/>
+      <c r="N131" s="267"/>
     </row>
     <row r="132" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A132" s="264" t="s">
+      <c r="A132" s="266" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="265"/>
-      <c r="C132" s="265"/>
-      <c r="D132" s="265"/>
-      <c r="E132" s="265"/>
-      <c r="F132" s="265"/>
-      <c r="G132" s="265"/>
-      <c r="H132" s="265"/>
-      <c r="I132" s="265"/>
-      <c r="J132" s="265"/>
-      <c r="K132" s="265"/>
-      <c r="L132" s="265"/>
-      <c r="M132" s="265"/>
-      <c r="N132" s="265"/>
+      <c r="B132" s="267"/>
+      <c r="C132" s="267"/>
+      <c r="D132" s="267"/>
+      <c r="E132" s="267"/>
+      <c r="F132" s="267"/>
+      <c r="G132" s="267"/>
+      <c r="H132" s="267"/>
+      <c r="I132" s="267"/>
+      <c r="J132" s="267"/>
+      <c r="K132" s="267"/>
+      <c r="L132" s="267"/>
+      <c r="M132" s="267"/>
+      <c r="N132" s="267"/>
     </row>
     <row r="133" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A133" s="264" t="s">
+      <c r="A133" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="B133" s="265"/>
-      <c r="C133" s="265"/>
-      <c r="D133" s="265"/>
-      <c r="E133" s="265"/>
-      <c r="F133" s="265"/>
-      <c r="G133" s="265"/>
-      <c r="H133" s="265"/>
-      <c r="I133" s="265"/>
-      <c r="J133" s="265"/>
-      <c r="K133" s="265"/>
-      <c r="L133" s="265"/>
-      <c r="M133" s="265"/>
-      <c r="N133" s="265"/>
+      <c r="B133" s="267"/>
+      <c r="C133" s="267"/>
+      <c r="D133" s="267"/>
+      <c r="E133" s="267"/>
+      <c r="F133" s="267"/>
+      <c r="G133" s="267"/>
+      <c r="H133" s="267"/>
+      <c r="I133" s="267"/>
+      <c r="J133" s="267"/>
+      <c r="K133" s="267"/>
+      <c r="L133" s="267"/>
+      <c r="M133" s="267"/>
+      <c r="N133" s="267"/>
     </row>
     <row r="134" spans="1:14" s="34" customFormat="1" ht="9.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="268" t="s">
+      <c r="A134" s="264" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="269"/>
-      <c r="C134" s="269"/>
-      <c r="D134" s="269"/>
-      <c r="E134" s="269"/>
-      <c r="F134" s="269"/>
-      <c r="G134" s="269"/>
-      <c r="H134" s="269"/>
-      <c r="I134" s="269"/>
-      <c r="J134" s="269"/>
-      <c r="K134" s="269"/>
-      <c r="L134" s="269"/>
-      <c r="M134" s="269"/>
-      <c r="N134" s="269"/>
+      <c r="B134" s="265"/>
+      <c r="C134" s="265"/>
+      <c r="D134" s="265"/>
+      <c r="E134" s="265"/>
+      <c r="F134" s="265"/>
+      <c r="G134" s="265"/>
+      <c r="H134" s="265"/>
+      <c r="I134" s="265"/>
+      <c r="J134" s="265"/>
+      <c r="K134" s="265"/>
+      <c r="L134" s="265"/>
+      <c r="M134" s="265"/>
+      <c r="N134" s="265"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
@@ -17281,6 +17632,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A127:N127"/>
+    <mergeCell ref="A122:N122"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:N125"/>
+    <mergeCell ref="A126:N126"/>
     <mergeCell ref="A134:N134"/>
     <mergeCell ref="A128:N128"/>
     <mergeCell ref="A129:N129"/>
@@ -17288,12 +17645,6 @@
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="A132:N132"/>
     <mergeCell ref="A133:N133"/>
-    <mergeCell ref="A127:N127"/>
-    <mergeCell ref="A122:N122"/>
-    <mergeCell ref="A123:N123"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:N125"/>
-    <mergeCell ref="A126:N126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17954,31 +18305,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DBD0EC-6257-4000-BF23-E461F48BA153}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="63.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="258" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="257" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" s="261" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="259" t="s">
         <v>359</v>
       </c>
@@ -17991,11 +18358,9 @@
       <c r="D2" s="259" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="259" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="259"/>
+    </row>
+    <row r="3" spans="1:8" s="272" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="260" t="s">
         <v>363</v>
       </c>
@@ -18004,7 +18369,7 @@
       <c r="D3" s="260"/>
       <c r="E3" s="260"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="261" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="261" t="s">
         <v>364</v>
       </c>
@@ -18019,12 +18384,12 @@
         <v>403529411764705.94</v>
       </c>
       <c r="E4" s="259" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="261" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
         <v>366</v>
@@ -18037,12 +18402,12 @@
         <v>67254901960784.32</v>
       </c>
       <c r="E5" s="259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="261" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="261" t="s">
-        <v>370</v>
       </c>
       <c r="B6" t="s">
         <v>366</v>
@@ -18055,12 +18420,12 @@
         <v>80705882352941.188</v>
       </c>
       <c r="E6" s="259" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="261" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="261" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>365</v>
@@ -18073,68 +18438,2194 @@
         <v>188313725490196.09</v>
       </c>
       <c r="E7" s="259" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="262"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="262" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="262">
+        <f>SUM(C4:C7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H8" s="273"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="274"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" s="274"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="274"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="274"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="200"/>
+      <c r="H13" s="274"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="200"/>
+      <c r="H14" s="274"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="200"/>
+      <c r="H15" s="274"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="82"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="136"/>
+    </row>
+    <row r="34" spans="1:34" s="258" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="257" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" s="261" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="275" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="275" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="276" t="s">
         <v>375</v>
       </c>
-      <c r="C10" s="200"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="97" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="D35" s="276" t="s">
+        <v>376</v>
+      </c>
+      <c r="E35" s="276" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="276" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" s="276"/>
+      <c r="H35" s="276"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>A4</f>
+        <v>Fertilizers</v>
+      </c>
+      <c r="B36" t="str">
+        <f>B4</f>
+        <v>chemicals 20</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="0">C4</f>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>403529411764705.94</v>
+      </c>
+      <c r="E36">
+        <f>D36/A$69</f>
+        <v>560457516339869.38</v>
+      </c>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>A5</f>
+        <v>Refineries*</v>
+      </c>
+      <c r="B37" t="str">
+        <f>B5</f>
+        <v>refined petroleum and coke 19</v>
+      </c>
+      <c r="C37">
+        <v>0.6</v>
+      </c>
+      <c r="D37">
+        <f>D5</f>
+        <v>67254901960784.32</v>
+      </c>
+      <c r="E37">
+        <f>D37/A$69</f>
+        <v>93409586056644.891</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>A6</f>
+        <v>Refineries*</v>
+      </c>
+      <c r="B38" t="str">
+        <f>B5</f>
+        <v>refined petroleum and coke 19</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <f>D6</f>
+        <v>80705882352941.188</v>
+      </c>
+      <c r="F38">
+        <f>D38/A$71</f>
+        <v>119564270152505.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>A7</f>
+        <v>Dedicated production as listed in EUROSTAT**</v>
+      </c>
+      <c r="B39" t="str">
+        <f>B7</f>
+        <v>chemicals 20</v>
+      </c>
+      <c r="C39">
+        <f>C7</f>
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <f>D7</f>
+        <v>188313725490196.09</v>
+      </c>
+      <c r="E39">
+        <f>D39/A$69</f>
+        <v>261546840958605.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A40" s="97" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" s="97"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C41" s="97"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A42" s="277" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" s="97">
+        <v>2019</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="F42">
+        <v>2022</v>
+      </c>
+      <c r="G42">
+        <v>2023</v>
+      </c>
+      <c r="H42">
+        <v>2024</v>
+      </c>
+      <c r="I42">
+        <v>2025</v>
+      </c>
+      <c r="J42">
+        <v>2026</v>
+      </c>
+      <c r="K42">
+        <v>2027</v>
+      </c>
+      <c r="L42">
+        <v>2028</v>
+      </c>
+      <c r="M42">
+        <v>2029</v>
+      </c>
+      <c r="N42">
+        <v>2030</v>
+      </c>
+      <c r="O42">
+        <v>2031</v>
+      </c>
+      <c r="P42">
+        <v>2032</v>
+      </c>
+      <c r="Q42">
+        <v>2033</v>
+      </c>
+      <c r="R42">
+        <v>2034</v>
+      </c>
+      <c r="S42">
+        <v>2035</v>
+      </c>
+      <c r="T42">
+        <v>2036</v>
+      </c>
+      <c r="U42">
+        <v>2037</v>
+      </c>
+      <c r="V42">
+        <v>2038</v>
+      </c>
+      <c r="W42">
+        <v>2039</v>
+      </c>
+      <c r="X42">
+        <v>2040</v>
+      </c>
+      <c r="Y42">
+        <v>2041</v>
+      </c>
+      <c r="Z42">
+        <v>2042</v>
+      </c>
+      <c r="AA42">
+        <v>2043</v>
+      </c>
+      <c r="AB42">
+        <v>2044</v>
+      </c>
+      <c r="AC42">
+        <v>2045</v>
+      </c>
+      <c r="AD42">
+        <v>2046</v>
+      </c>
+      <c r="AE42">
+        <v>2047</v>
+      </c>
+      <c r="AF42">
+        <v>2048</v>
+      </c>
+      <c r="AG42">
+        <v>2049</v>
+      </c>
+      <c r="AH42">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>A36</f>
+        <v>Fertilizers</v>
+      </c>
+      <c r="B43" t="str">
+        <f>B36</f>
+        <v>chemicals 20</v>
+      </c>
+      <c r="C43" s="97">
+        <f>D36</f>
+        <v>403529411764705.94</v>
+      </c>
+      <c r="D43">
+        <f>C43*[1]CHI!V10/[1]CHI!U10</f>
+        <v>410137280928823.31</v>
+      </c>
+      <c r="E43">
+        <f>D43*[1]CHI!W10/[1]CHI!V10</f>
+        <v>414898670004116.69</v>
+      </c>
+      <c r="F43">
+        <f>E43*[1]CHI!X10/[1]CHI!W10</f>
+        <v>420102226516882.56</v>
+      </c>
+      <c r="G43">
+        <f>F43*[1]CHI!Y10/[1]CHI!X10</f>
+        <v>424113226858818.31</v>
+      </c>
+      <c r="H43">
+        <f>G43*[1]CHI!Z10/[1]CHI!Y10</f>
+        <v>426990230277493.31</v>
+      </c>
+      <c r="I43">
+        <f>H43*[1]CHI!AA10/[1]CHI!Z10</f>
+        <v>430364903696119.94</v>
+      </c>
+      <c r="J43">
+        <f>I43*[1]CHI!AB10/[1]CHI!AA10</f>
+        <v>433870528677735.25</v>
+      </c>
+      <c r="K43">
+        <f>J43*[1]CHI!AC10/[1]CHI!AB10</f>
+        <v>437372692022574.5</v>
+      </c>
+      <c r="L43">
+        <f>K43*[1]CHI!AD10/[1]CHI!AC10</f>
+        <v>440472047738237.75</v>
+      </c>
+      <c r="M43">
+        <f>L43*[1]CHI!AE10/[1]CHI!AD10</f>
+        <v>443164020697401.31</v>
+      </c>
+      <c r="N43">
+        <f>M43*[1]CHI!AF10/[1]CHI!AE10</f>
+        <v>445248763958970.19</v>
+      </c>
+      <c r="O43">
+        <f>N43*[1]CHI!AG10/[1]CHI!AF10</f>
+        <v>447969672764089.25</v>
+      </c>
+      <c r="P43">
+        <f>O43*[1]CHI!AH10/[1]CHI!AG10</f>
+        <v>450217026000786.56</v>
+      </c>
+      <c r="Q43">
+        <f>P43*[1]CHI!AI10/[1]CHI!AH10</f>
+        <v>452518086340264.94</v>
+      </c>
+      <c r="R43">
+        <f>Q43*[1]CHI!AJ10/[1]CHI!AI10</f>
+        <v>454460328132083</v>
+      </c>
+      <c r="S43">
+        <f>R43*[1]CHI!AK10/[1]CHI!AJ10</f>
+        <v>456165866987849</v>
+      </c>
+      <c r="T43">
+        <f>S43*[1]CHI!AL10/[1]CHI!AK10</f>
+        <v>458561891951550.75</v>
+      </c>
+      <c r="U43">
+        <f>T43*[1]CHI!AM10/[1]CHI!AL10</f>
+        <v>460845385264716.75</v>
+      </c>
+      <c r="V43">
+        <f>U43*[1]CHI!AN10/[1]CHI!AM10</f>
+        <v>463324011055667.63</v>
+      </c>
+      <c r="W43">
+        <f>V43*[1]CHI!AO10/[1]CHI!AN10</f>
+        <v>465614005107129.06</v>
+      </c>
+      <c r="X43">
+        <f>W43*[1]CHI!AP10/[1]CHI!AO10</f>
+        <v>468154127291624.75</v>
+      </c>
+      <c r="Y43">
+        <f>X43*[1]CHI!AQ10/[1]CHI!AP10</f>
+        <v>470732484293583.81</v>
+      </c>
+      <c r="Z43">
+        <f>Y43*[1]CHI!AR10/[1]CHI!AQ10</f>
+        <v>473852442519497.56</v>
+      </c>
+      <c r="AA43">
+        <f>Z43*[1]CHI!AS10/[1]CHI!AR10</f>
+        <v>476367897700402.19</v>
+      </c>
+      <c r="AB43">
+        <f>AA43*[1]CHI!AT10/[1]CHI!AS10</f>
+        <v>479251128355659.44</v>
+      </c>
+      <c r="AC43">
+        <f>AB43*[1]CHI!AU10/[1]CHI!AT10</f>
+        <v>481290774773907.88</v>
+      </c>
+      <c r="AD43">
+        <f>AC43*[1]CHI!AV10/[1]CHI!AU10</f>
+        <v>484146064231712.88</v>
+      </c>
+      <c r="AE43">
+        <f>AD43*[1]CHI!AW10/[1]CHI!AV10</f>
+        <v>486836091076022.44</v>
+      </c>
+      <c r="AF43">
+        <f>AE43*[1]CHI!AX10/[1]CHI!AW10</f>
+        <v>489521134784638</v>
+      </c>
+      <c r="AG43">
+        <f>AF43*[1]CHI!AY10/[1]CHI!AX10</f>
+        <v>491878481179275.25</v>
+      </c>
+      <c r="AH43">
+        <f>AG43*[1]CHI!AZ10/[1]CHI!AY10</f>
+        <v>494182941884035.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>A37&amp;" (SMR)"</f>
+        <v>Refineries* (SMR)</v>
+      </c>
+      <c r="B44" t="str">
+        <f>B37</f>
+        <v>refined petroleum and coke 19</v>
+      </c>
+      <c r="C44" s="97">
+        <f>D37</f>
+        <v>67254901960784.32</v>
+      </c>
+      <c r="D44">
+        <f>C44*[1]TOTOT!W30/[1]TOTOT!V30</f>
+        <v>66874203827237.516</v>
+      </c>
+      <c r="E44">
+        <f>D44*[1]TOTOT!X30/[1]TOTOT!W30</f>
+        <v>66739200411023.852</v>
+      </c>
+      <c r="F44">
+        <f>E44*[1]TOTOT!Y30/[1]TOTOT!X30</f>
+        <v>66352347523514.5</v>
+      </c>
+      <c r="G44">
+        <f>F44*[1]TOTOT!Z30/[1]TOTOT!Y30</f>
+        <v>65862263204508.617</v>
+      </c>
+      <c r="H44">
+        <f>G44*[1]TOTOT!AA30/[1]TOTOT!Z30</f>
+        <v>65243328834905.219</v>
+      </c>
+      <c r="I44">
+        <f>H44*[1]TOTOT!AB30/[1]TOTOT!AA30</f>
+        <v>64708767440147.289</v>
+      </c>
+      <c r="J44">
+        <f>I44*[1]TOTOT!AC30/[1]TOTOT!AB30</f>
+        <v>64382247861794.273</v>
+      </c>
+      <c r="K44">
+        <f>J44*[1]TOTOT!AD30/[1]TOTOT!AC30</f>
+        <v>63898950367539.438</v>
+      </c>
+      <c r="L44">
+        <f>K44*[1]TOTOT!AE30/[1]TOTOT!AD30</f>
+        <v>63670154437234.461</v>
+      </c>
+      <c r="M44">
+        <f>L44*[1]TOTOT!AF30/[1]TOTOT!AE30</f>
+        <v>63395512784628.336</v>
+      </c>
+      <c r="N44">
+        <f>M44*[1]TOTOT!AG30/[1]TOTOT!AF30</f>
+        <v>62981473655574.617</v>
+      </c>
+      <c r="O44">
+        <f>N44*[1]TOTOT!AH30/[1]TOTOT!AG30</f>
+        <v>62807222805364.391</v>
+      </c>
+      <c r="P44">
+        <f>O44*[1]TOTOT!AI30/[1]TOTOT!AH30</f>
+        <v>62544424557070.539</v>
+      </c>
+      <c r="Q44">
+        <f>P44*[1]TOTOT!AJ30/[1]TOTOT!AI30</f>
+        <v>62188146645794.242</v>
+      </c>
+      <c r="R44">
+        <f>Q44*[1]TOTOT!AK30/[1]TOTOT!AJ30</f>
+        <v>61833235095470.711</v>
+      </c>
+      <c r="S44">
+        <f>R44*[1]TOTOT!AL30/[1]TOTOT!AK30</f>
+        <v>61197990676152.039</v>
+      </c>
+      <c r="T44">
+        <f>S44*[1]TOTOT!AM30/[1]TOTOT!AL30</f>
+        <v>60996630410765.367</v>
+      </c>
+      <c r="U44">
+        <f>T44*[1]TOTOT!AN30/[1]TOTOT!AM30</f>
+        <v>60477502554843.336</v>
+      </c>
+      <c r="V44">
+        <f>U44*[1]TOTOT!AO30/[1]TOTOT!AN30</f>
+        <v>60050338122087.258</v>
+      </c>
+      <c r="W44">
+        <f>V44*[1]TOTOT!AP30/[1]TOTOT!AO30</f>
+        <v>59595810344981.18</v>
+      </c>
+      <c r="X44">
+        <f>W44*[1]TOTOT!AQ30/[1]TOTOT!AP30</f>
+        <v>59117635904690.07</v>
+      </c>
+      <c r="Y44">
+        <f>X44*[1]TOTOT!AR30/[1]TOTOT!AQ30</f>
+        <v>58488126930705.906</v>
+      </c>
+      <c r="Z44">
+        <f>Y44*[1]TOTOT!AS30/[1]TOTOT!AR30</f>
+        <v>58026504737354.867</v>
+      </c>
+      <c r="AA44">
+        <f>Z44*[1]TOTOT!AT30/[1]TOTOT!AS30</f>
+        <v>57427032340705.719</v>
+      </c>
+      <c r="AB44">
+        <f>AA44*[1]TOTOT!AU30/[1]TOTOT!AT30</f>
+        <v>56927766910764.445</v>
+      </c>
+      <c r="AC44">
+        <f>AB44*[1]TOTOT!AV30/[1]TOTOT!AU30</f>
+        <v>56511952197360.063</v>
+      </c>
+      <c r="AD44">
+        <f>AC44*[1]TOTOT!AW30/[1]TOTOT!AV30</f>
+        <v>56127473250746.813</v>
+      </c>
+      <c r="AE44">
+        <f>AD44*[1]TOTOT!AX30/[1]TOTOT!AW30</f>
+        <v>55593254413557.305</v>
+      </c>
+      <c r="AF44">
+        <f>AE44*[1]TOTOT!AY30/[1]TOTOT!AX30</f>
+        <v>55181941615316.438</v>
+      </c>
+      <c r="AG44">
+        <f>AF44*[1]TOTOT!AZ30/[1]TOTOT!AY30</f>
+        <v>54761586349456.016</v>
+      </c>
+      <c r="AH44">
+        <f>AG44*[1]TOTOT!BA30/[1]TOTOT!AZ30</f>
+        <v>54223280647000.273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>A38&amp;" (POx)"</f>
+        <v>Refineries* (POx)</v>
+      </c>
+      <c r="B45" t="str">
+        <f>B38</f>
+        <v>refined petroleum and coke 19</v>
+      </c>
+      <c r="C45" s="97">
+        <f>D38</f>
+        <v>80705882352941.188</v>
+      </c>
+      <c r="D45">
+        <f>C45*[1]TOTOT!W30/[1]TOTOT!V30</f>
+        <v>80249044592685.031</v>
+      </c>
+      <c r="E45">
+        <f>D45*[1]TOTOT!X30/[1]TOTOT!W30</f>
+        <v>80087040493228.641</v>
+      </c>
+      <c r="F45">
+        <f>E45*[1]TOTOT!Y30/[1]TOTOT!X30</f>
+        <v>79622817028217.422</v>
+      </c>
+      <c r="G45">
+        <f>F45*[1]TOTOT!Z30/[1]TOTOT!Y30</f>
+        <v>79034715845410.375</v>
+      </c>
+      <c r="H45">
+        <f>G45*[1]TOTOT!AA30/[1]TOTOT!Z30</f>
+        <v>78291994601886.313</v>
+      </c>
+      <c r="I45">
+        <f>H45*[1]TOTOT!AB30/[1]TOTOT!AA30</f>
+        <v>77650520928176.797</v>
+      </c>
+      <c r="J45">
+        <f>I45*[1]TOTOT!AC30/[1]TOTOT!AB30</f>
+        <v>77258697434153.188</v>
+      </c>
+      <c r="K45">
+        <f>J45*[1]TOTOT!AD30/[1]TOTOT!AC30</f>
+        <v>76678740441047.375</v>
+      </c>
+      <c r="L45">
+        <f>K45*[1]TOTOT!AE30/[1]TOTOT!AD30</f>
+        <v>76404185324681.391</v>
+      </c>
+      <c r="M45">
+        <f>L45*[1]TOTOT!AF30/[1]TOTOT!AE30</f>
+        <v>76074615341554.047</v>
+      </c>
+      <c r="N45">
+        <f>M45*[1]TOTOT!AG30/[1]TOTOT!AF30</f>
+        <v>75577768386689.594</v>
+      </c>
+      <c r="O45">
+        <f>N45*[1]TOTOT!AH30/[1]TOTOT!AG30</f>
+        <v>75368667366437.328</v>
+      </c>
+      <c r="P45">
+        <f>O45*[1]TOTOT!AI30/[1]TOTOT!AH30</f>
+        <v>75053309468484.703</v>
+      </c>
+      <c r="Q45">
+        <f>P45*[1]TOTOT!AJ30/[1]TOTOT!AI30</f>
+        <v>74625775974953.156</v>
+      </c>
+      <c r="R45">
+        <f>Q45*[1]TOTOT!AK30/[1]TOTOT!AJ30</f>
+        <v>74199882114564.922</v>
+      </c>
+      <c r="S45">
+        <f>R45*[1]TOTOT!AL30/[1]TOTOT!AK30</f>
+        <v>73437588811382.516</v>
+      </c>
+      <c r="T45">
+        <f>S45*[1]TOTOT!AM30/[1]TOTOT!AL30</f>
+        <v>73195956492918.516</v>
+      </c>
+      <c r="U45">
+        <f>T45*[1]TOTOT!AN30/[1]TOTOT!AM30</f>
+        <v>72573003065812.078</v>
+      </c>
+      <c r="V45">
+        <f>U45*[1]TOTOT!AO30/[1]TOTOT!AN30</f>
+        <v>72060405746504.781</v>
+      </c>
+      <c r="W45">
+        <f>V45*[1]TOTOT!AP30/[1]TOTOT!AO30</f>
+        <v>71514972413977.5</v>
+      </c>
+      <c r="X45">
+        <f>W45*[1]TOTOT!AQ30/[1]TOTOT!AP30</f>
+        <v>70941163085628.172</v>
+      </c>
+      <c r="Y45">
+        <f>X45*[1]TOTOT!AR30/[1]TOTOT!AQ30</f>
+        <v>70185752316847.164</v>
+      </c>
+      <c r="Z45">
+        <f>Y45*[1]TOTOT!AS30/[1]TOTOT!AR30</f>
+        <v>69631805684825.914</v>
+      </c>
+      <c r="AA45">
+        <f>Z45*[1]TOTOT!AT30/[1]TOTOT!AS30</f>
+        <v>68912438808846.938</v>
+      </c>
+      <c r="AB45">
+        <f>AA45*[1]TOTOT!AU30/[1]TOTOT!AT30</f>
+        <v>68313320292917.398</v>
+      </c>
+      <c r="AC45">
+        <f>AB45*[1]TOTOT!AV30/[1]TOTOT!AU30</f>
+        <v>67814342636832.133</v>
+      </c>
+      <c r="AD45">
+        <f>AC45*[1]TOTOT!AW30/[1]TOTOT!AV30</f>
+        <v>67352967900896.219</v>
+      </c>
+      <c r="AE45">
+        <f>AD45*[1]TOTOT!AX30/[1]TOTOT!AW30</f>
+        <v>66711905296268.813</v>
+      </c>
+      <c r="AF45">
+        <f>AE45*[1]TOTOT!AY30/[1]TOTOT!AX30</f>
+        <v>66218329938379.781</v>
+      </c>
+      <c r="AG45">
+        <f>AF45*[1]TOTOT!AZ30/[1]TOTOT!AY30</f>
+        <v>65713903619347.273</v>
+      </c>
+      <c r="AH45">
+        <f>AG45*[1]TOTOT!BA30/[1]TOTOT!AZ30</f>
+        <v>65067936776400.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46:B46" si="1">A39</f>
+        <v>Dedicated production as listed in EUROSTAT**</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>chemicals 20</v>
+      </c>
+      <c r="C46" s="97">
+        <f t="shared" ref="C46" si="2">D39</f>
+        <v>188313725490196.09</v>
+      </c>
+      <c r="D46">
+        <f>C46*[1]TOTOT!W30/[1]TOTOT!V30</f>
+        <v>187247770716265.06</v>
+      </c>
+      <c r="E46">
+        <f>D46*[1]TOTOT!X30/[1]TOTOT!W30</f>
+        <v>186869761150866.81</v>
+      </c>
+      <c r="F46">
+        <f>E46*[1]TOTOT!Y30/[1]TOTOT!X30</f>
+        <v>185786573065840.63</v>
+      </c>
+      <c r="G46">
+        <f>F46*[1]TOTOT!Z30/[1]TOTOT!Y30</f>
+        <v>184414336972624.19</v>
+      </c>
+      <c r="H46">
+        <f>G46*[1]TOTOT!AA30/[1]TOTOT!Z30</f>
+        <v>182681320737734.69</v>
+      </c>
+      <c r="I46">
+        <f>H46*[1]TOTOT!AB30/[1]TOTOT!AA30</f>
+        <v>181184548832412.47</v>
+      </c>
+      <c r="J46">
+        <f>I46*[1]TOTOT!AC30/[1]TOTOT!AB30</f>
+        <v>180270294013024.03</v>
+      </c>
+      <c r="K46">
+        <f>J46*[1]TOTOT!AD30/[1]TOTOT!AC30</f>
+        <v>178917061029110.5</v>
+      </c>
+      <c r="L46">
+        <f>K46*[1]TOTOT!AE30/[1]TOTOT!AD30</f>
+        <v>178276432424256.53</v>
+      </c>
+      <c r="M46">
+        <f>L46*[1]TOTOT!AF30/[1]TOTOT!AE30</f>
+        <v>177507435796959.41</v>
+      </c>
+      <c r="N46">
+        <f>M46*[1]TOTOT!AG30/[1]TOTOT!AF30</f>
+        <v>176348126235609</v>
+      </c>
+      <c r="O46">
+        <f>N46*[1]TOTOT!AH30/[1]TOTOT!AG30</f>
+        <v>175860223855020.38</v>
+      </c>
+      <c r="P46">
+        <f>O46*[1]TOTOT!AI30/[1]TOTOT!AH30</f>
+        <v>175124388759797.59</v>
+      </c>
+      <c r="Q46">
+        <f>P46*[1]TOTOT!AJ30/[1]TOTOT!AI30</f>
+        <v>174126810608223.97</v>
+      </c>
+      <c r="R46">
+        <f>Q46*[1]TOTOT!AK30/[1]TOTOT!AJ30</f>
+        <v>173133058267318.06</v>
+      </c>
+      <c r="S46">
+        <f>R46*[1]TOTOT!AL30/[1]TOTOT!AK30</f>
+        <v>171354373893225.78</v>
+      </c>
+      <c r="T46">
+        <f>S46*[1]TOTOT!AM30/[1]TOTOT!AL30</f>
+        <v>170790565150143.09</v>
+      </c>
+      <c r="U46">
+        <f>T46*[1]TOTOT!AN30/[1]TOTOT!AM30</f>
+        <v>169337007153561.41</v>
+      </c>
+      <c r="V46">
+        <f>U46*[1]TOTOT!AO30/[1]TOTOT!AN30</f>
+        <v>168140946741844.38</v>
+      </c>
+      <c r="W46">
+        <f>V46*[1]TOTOT!AP30/[1]TOTOT!AO30</f>
+        <v>166868268965947.38</v>
+      </c>
+      <c r="X46">
+        <f>W46*[1]TOTOT!AQ30/[1]TOTOT!AP30</f>
+        <v>165529380533132.25</v>
+      </c>
+      <c r="Y46">
+        <f>X46*[1]TOTOT!AR30/[1]TOTOT!AQ30</f>
+        <v>163766755405976.56</v>
+      </c>
+      <c r="Z46">
+        <f>Y46*[1]TOTOT!AS30/[1]TOTOT!AR30</f>
+        <v>162474213264593.66</v>
+      </c>
+      <c r="AA46">
+        <f>Z46*[1]TOTOT!AT30/[1]TOTOT!AS30</f>
+        <v>160795690553976.03</v>
+      </c>
+      <c r="AB46">
+        <f>AA46*[1]TOTOT!AU30/[1]TOTOT!AT30</f>
+        <v>159397747350140.47</v>
+      </c>
+      <c r="AC46">
+        <f>AB46*[1]TOTOT!AV30/[1]TOTOT!AU30</f>
+        <v>158233466152608.19</v>
+      </c>
+      <c r="AD46">
+        <f>AC46*[1]TOTOT!AW30/[1]TOTOT!AV30</f>
+        <v>157156925102091.09</v>
+      </c>
+      <c r="AE46">
+        <f>AD46*[1]TOTOT!AX30/[1]TOTOT!AW30</f>
+        <v>155661112357960.5</v>
+      </c>
+      <c r="AF46">
+        <f>AE46*[1]TOTOT!AY30/[1]TOTOT!AX30</f>
+        <v>154509436522886.06</v>
+      </c>
+      <c r="AG46">
+        <f>AF46*[1]TOTOT!AZ30/[1]TOTOT!AY30</f>
+        <v>153332441778476.88</v>
+      </c>
+      <c r="AH46">
+        <f>AG46*[1]TOTOT!BA30/[1]TOTOT!AZ30</f>
+        <v>151825185811600.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A47" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" s="97"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C48" s="97"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A49" s="277" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="97"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>2019</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2021</v>
+      </c>
+      <c r="F50">
+        <v>2022</v>
+      </c>
+      <c r="G50">
+        <v>2023</v>
+      </c>
+      <c r="H50">
+        <v>2024</v>
+      </c>
+      <c r="I50">
+        <v>2025</v>
+      </c>
+      <c r="J50">
+        <v>2026</v>
+      </c>
+      <c r="K50">
+        <v>2027</v>
+      </c>
+      <c r="L50">
+        <v>2028</v>
+      </c>
+      <c r="M50">
+        <v>2029</v>
+      </c>
+      <c r="N50">
+        <v>2030</v>
+      </c>
+      <c r="O50">
+        <v>2031</v>
+      </c>
+      <c r="P50">
+        <v>2032</v>
+      </c>
+      <c r="Q50">
+        <v>2033</v>
+      </c>
+      <c r="R50">
+        <v>2034</v>
+      </c>
+      <c r="S50">
+        <v>2035</v>
+      </c>
+      <c r="T50">
+        <v>2036</v>
+      </c>
+      <c r="U50">
+        <v>2037</v>
+      </c>
+      <c r="V50">
+        <v>2038</v>
+      </c>
+      <c r="W50">
+        <v>2039</v>
+      </c>
+      <c r="X50">
+        <v>2040</v>
+      </c>
+      <c r="Y50">
+        <v>2041</v>
+      </c>
+      <c r="Z50">
+        <v>2042</v>
+      </c>
+      <c r="AA50">
+        <v>2043</v>
+      </c>
+      <c r="AB50">
+        <v>2044</v>
+      </c>
+      <c r="AC50">
+        <v>2045</v>
+      </c>
+      <c r="AD50">
+        <v>2046</v>
+      </c>
+      <c r="AE50">
+        <v>2047</v>
+      </c>
+      <c r="AF50">
+        <v>2048</v>
+      </c>
+      <c r="AG50">
+        <v>2049</v>
+      </c>
+      <c r="AH50">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:R52" si="3">SUMIFS(C$43:C$46,$B$43:$B$46,$B51)</f>
+        <v>147960784313725.5</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>147123248419922.56</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>146826240904252.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>145975164551731.94</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>144896979049919</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>143535323436791.53</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>142359288368324.09</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>141640945295947.47</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>140577690808586.81</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>140074339761915.84</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>139470128126182.38</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>138559242042264.22</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>138175890171801.72</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>137597734025555.25</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="3"/>
+        <v>136813922620747.41</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>136033117210035.63</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ref="S51:AH52" si="4">SUMIFS(S$43:S$46,$B$43:$B$46,$B51)</f>
+        <v>134635579487534.56</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="4"/>
+        <v>134192586903683.88</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>133050505620655.41</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="4"/>
+        <v>132110743868592.03</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="4"/>
+        <v>131110782758958.69</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="4"/>
+        <v>130058798990318.25</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="4"/>
+        <v>128673879247553.06</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="4"/>
+        <v>127658310422180.78</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="4"/>
+        <v>126339471149552.66</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="4"/>
+        <v>125241087203681.84</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="4"/>
+        <v>124326294834192.19</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="4"/>
+        <v>123480441151643.03</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="4"/>
+        <v>122305159709826.13</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="4"/>
+        <v>121400271553696.22</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="4"/>
+        <v>120475489968803.28</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="4"/>
+        <v>119291217423400.66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="3"/>
+        <v>591843137254902</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>597385051645088.38</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>601768431154983.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>605888799582723.25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>608527563831442.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>609671551015228</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>611549452528532.38</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>614140822690759.25</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>616289753051685</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>618748480162494.25</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>620671456494360.75</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>621596890194579.25</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>623829896619109.63</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>625341414760584.13</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="3"/>
+        <v>626644896948488.88</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>627593386399401</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>627520240881074.75</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="4"/>
+        <v>629352457101693.88</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>630182392418278.13</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="4"/>
+        <v>631464957797512</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="4"/>
+        <v>632482274073076.5</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="4"/>
+        <v>633683507824757</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="4"/>
+        <v>634499239699560.38</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="4"/>
+        <v>636326655784091.25</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="4"/>
+        <v>637163588254378.25</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="4"/>
+        <v>638648875705799.88</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="4"/>
+        <v>639524240926516</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="4"/>
+        <v>641302989333804</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="4"/>
+        <v>642497203433983</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="4"/>
+        <v>644030571307524</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="4"/>
+        <v>645210922957752.13</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="4"/>
+        <v>646008127695636.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54">
+        <v>2021</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>2024</v>
+      </c>
+      <c r="G54">
+        <v>2025</v>
+      </c>
+      <c r="H54">
+        <v>2026</v>
+      </c>
+      <c r="I54">
+        <v>2027</v>
+      </c>
+      <c r="J54">
+        <v>2028</v>
+      </c>
+      <c r="K54">
+        <v>2029</v>
+      </c>
+      <c r="L54">
+        <v>2030</v>
+      </c>
+      <c r="M54">
+        <v>2031</v>
+      </c>
+      <c r="N54">
+        <v>2032</v>
+      </c>
+      <c r="O54">
+        <v>2033</v>
+      </c>
+      <c r="P54">
+        <v>2034</v>
+      </c>
+      <c r="Q54">
+        <v>2035</v>
+      </c>
+      <c r="R54">
+        <v>2036</v>
+      </c>
+      <c r="S54">
+        <v>2037</v>
+      </c>
+      <c r="T54">
+        <v>2038</v>
+      </c>
+      <c r="U54">
+        <v>2039</v>
+      </c>
+      <c r="V54">
+        <v>2040</v>
+      </c>
+      <c r="W54">
+        <v>2041</v>
+      </c>
+      <c r="X54">
+        <v>2042</v>
+      </c>
+      <c r="Y54">
+        <v>2043</v>
+      </c>
+      <c r="Z54">
+        <v>2044</v>
+      </c>
+      <c r="AA54">
+        <v>2045</v>
+      </c>
+      <c r="AB54">
+        <v>2046</v>
+      </c>
+      <c r="AC54">
+        <v>2047</v>
+      </c>
+      <c r="AD54">
+        <v>2048</v>
+      </c>
+      <c r="AE54">
+        <v>2049</v>
+      </c>
+      <c r="AF54">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12">
-        <f>SUMIFS(C4:C7,E4:E7,"SMR")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15">
-        <f>SUMIFS(C4:C7,E4:E7,"POx")</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17">
-        <f>SUM(E11:E16)</f>
-        <v>5.5</v>
+      <c r="B55" s="278">
+        <v>5.3213834166182343E-5</v>
+      </c>
+      <c r="C55" s="278">
+        <v>6.8793532593692858E-4</v>
+      </c>
+      <c r="D55" s="278">
+        <v>1.3224558817292863E-3</v>
+      </c>
+      <c r="E55" s="278">
+        <v>1.9567755969446513E-3</v>
+      </c>
+      <c r="F55" s="278">
+        <v>2.5908945669240349E-3</v>
+      </c>
+      <c r="G55" s="278">
+        <v>3.2248128869481136E-3</v>
+      </c>
+      <c r="H55" s="278">
+        <v>3.8585306522372744E-3</v>
+      </c>
+      <c r="I55" s="278">
+        <v>4.4920479579516632E-3</v>
+      </c>
+      <c r="J55" s="278">
+        <v>5.1253648991912339E-3</v>
+      </c>
+      <c r="K55" s="278">
+        <v>5.7584815709957942E-3</v>
+      </c>
+      <c r="L55" s="278">
+        <v>6.3913980683450514E-3</v>
+      </c>
+      <c r="M55" s="278">
+        <v>1.6231383162068E-2</v>
+      </c>
+      <c r="N55" s="278">
+        <v>2.6023110205325765E-2</v>
+      </c>
+      <c r="O55" s="278">
+        <v>3.576693333627104E-2</v>
+      </c>
+      <c r="P55" s="278">
+        <v>4.546320323642291E-2</v>
+      </c>
+      <c r="Q55" s="278">
+        <v>5.5112267172738066E-2</v>
+      </c>
+      <c r="R55" s="278">
+        <v>6.4714469039069161E-2</v>
+      </c>
+      <c r="S55" s="278">
+        <v>7.4270149397020507E-2</v>
+      </c>
+      <c r="T55" s="278">
+        <v>8.3779645516211296E-2</v>
+      </c>
+      <c r="U55" s="278">
+        <v>9.3243291413956611E-2</v>
+      </c>
+      <c r="V55" s="278">
+        <v>0.10266141789437581</v>
+      </c>
+      <c r="W55" s="278">
+        <v>0.1135689512148802</v>
+      </c>
+      <c r="X55" s="278">
+        <v>0.12441574637303589</v>
+      </c>
+      <c r="Y55" s="278">
+        <v>0.13520230928728549</v>
+      </c>
+      <c r="Z55" s="278">
+        <v>0.14592914027289947</v>
+      </c>
+      <c r="AA55" s="278">
+        <v>0.15659673411933259</v>
+      </c>
+      <c r="AB55" s="278">
+        <v>0.16720558016630246</v>
+      </c>
+      <c r="AC55" s="278">
+        <v>0.17775616237861439</v>
+      </c>
+      <c r="AD55" s="278">
+        <v>0.18824895941975692</v>
+      </c>
+      <c r="AE55" s="278">
+        <v>0.19868444472429142</v>
+      </c>
+      <c r="AF55" s="278">
+        <v>0.20906308656905875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" s="278">
+        <v>0.99994678616583377</v>
+      </c>
+      <c r="C56" s="278">
+        <v>0.99931206467406297</v>
+      </c>
+      <c r="D56" s="278">
+        <v>0.99867754411827081</v>
+      </c>
+      <c r="E56" s="278">
+        <v>0.99804322440305537</v>
+      </c>
+      <c r="F56" s="278">
+        <v>0.99740910543307593</v>
+      </c>
+      <c r="G56" s="278">
+        <v>0.99677518711305191</v>
+      </c>
+      <c r="H56" s="278">
+        <v>0.99614146934776271</v>
+      </c>
+      <c r="I56" s="278">
+        <v>0.99550795204204823</v>
+      </c>
+      <c r="J56" s="278">
+        <v>0.99487463510080876</v>
+      </c>
+      <c r="K56" s="278">
+        <v>0.99424151842900421</v>
+      </c>
+      <c r="L56" s="278">
+        <v>0.9936086019316549</v>
+      </c>
+      <c r="M56" s="278">
+        <v>0.98376861683793204</v>
+      </c>
+      <c r="N56" s="278">
+        <v>0.97397688979467434</v>
+      </c>
+      <c r="O56" s="278">
+        <v>0.96423306666372899</v>
+      </c>
+      <c r="P56" s="278">
+        <v>0.95453679676357717</v>
+      </c>
+      <c r="Q56" s="278">
+        <v>0.94488773282726191</v>
+      </c>
+      <c r="R56" s="278">
+        <v>0.93528553096093092</v>
+      </c>
+      <c r="S56" s="278">
+        <v>0.92572985060297941</v>
+      </c>
+      <c r="T56" s="278">
+        <v>0.91622035448378869</v>
+      </c>
+      <c r="U56" s="278">
+        <v>0.90675670858604329</v>
+      </c>
+      <c r="V56" s="278">
+        <v>0.89733858210562423</v>
+      </c>
+      <c r="W56" s="278">
+        <v>0.88643104878511969</v>
+      </c>
+      <c r="X56" s="278">
+        <v>0.87558425362696402</v>
+      </c>
+      <c r="Y56" s="278">
+        <v>0.86479769071271451</v>
+      </c>
+      <c r="Z56" s="278">
+        <v>0.85407085972710062</v>
+      </c>
+      <c r="AA56" s="278">
+        <v>0.84340326588066739</v>
+      </c>
+      <c r="AB56" s="278">
+        <v>0.83279441983369762</v>
+      </c>
+      <c r="AC56" s="278">
+        <v>0.82224383762138564</v>
+      </c>
+      <c r="AD56" s="278">
+        <v>0.81175104058024306</v>
+      </c>
+      <c r="AE56" s="278">
+        <v>0.80131555527570864</v>
+      </c>
+      <c r="AF56" s="278">
+        <v>0.79093691343094119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A58" s="277" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="97"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <f t="shared" ref="C59:AH59" si="5">C50</f>
+        <v>2019</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="5"/>
+        <v>2021</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>2022</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>2023</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>2024</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>2025</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>2026</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>2027</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>2028</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>2029</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>2030</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="5"/>
+        <v>2031</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="5"/>
+        <v>2032</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="5"/>
+        <v>2033</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>2034</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="5"/>
+        <v>2035</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="5"/>
+        <v>2036</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="5"/>
+        <v>2037</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="5"/>
+        <v>2038</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="5"/>
+        <v>2039</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="5"/>
+        <v>2040</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="5"/>
+        <v>2041</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="5"/>
+        <v>2042</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="5"/>
+        <v>2043</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="5"/>
+        <v>2044</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" si="5"/>
+        <v>2045</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="5"/>
+        <v>2046</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="5"/>
+        <v>2047</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="5"/>
+        <v>2048</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="5"/>
+        <v>2049</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="5"/>
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60">
+        <f>C44/$A$69</f>
+        <v>93409586056644.891</v>
+      </c>
+      <c r="D60">
+        <f>D44/$A$69*B56</f>
+        <v>92875896103395.922</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:AH60" si="6">E44/$A$69*C56</f>
+        <v>92629566885328.219</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>92034165932313.172</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>91296368798764.578</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>90380958678748.375</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>89583463573621.922</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>89074759701332.781</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="6"/>
+        <v>88349879469480.094</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="6"/>
+        <v>87977530086883.016</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>87542292906353.094</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>86915186092376.188</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="6"/>
+        <v>85816353759257.156</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="6"/>
+        <v>84606700144573.906</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="6"/>
+        <v>83283149097788.719</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>81975136335499.734</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>80312820366073.906</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="6"/>
+        <v>79235091473000.5</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="6"/>
+        <v>77758096395745.031</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="6"/>
+        <v>76415752890403</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="6"/>
+        <v>75054028936018.344</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="6"/>
+        <v>73678521639098.797</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="6"/>
+        <v>72007905134253.938</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="6"/>
+        <v>70565408112553.281</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="6"/>
+        <v>68976062434342.617</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="6"/>
+        <v>67528259483084.133</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="6"/>
+        <v>66197729228535.602</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="6"/>
+        <v>64920342392482.055</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="6"/>
+        <v>63487792853979.711</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="6"/>
+        <v>62213886843710.195</v>
+      </c>
+      <c r="AG60">
+        <f t="shared" si="6"/>
+        <v>60946265240823.625</v>
+      </c>
+      <c r="AH60">
+        <f t="shared" si="6"/>
+        <v>59565547543108.453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>386</v>
+      </c>
+      <c r="B61" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61">
+        <f>C52/$A$69</f>
+        <v>822004357298475</v>
+      </c>
+      <c r="D61">
+        <f>D52/$A$69*B56</f>
+        <v>829657309022245.5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:AH61" si="7">E52/$A$69*C56</f>
+        <v>835214518601608.75</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>840399358855612.88</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>843523349922873.63</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>844572161536242.38</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>846635166629183.75</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>849682140974467.75</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>852112986006920.25</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="7"/>
+        <v>854968289473391</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="7"/>
+        <v>857079626875687.38</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="7"/>
+        <v>857811134765694.88</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="7"/>
+        <v>852367047971016.13</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="7"/>
+        <v>845927897511548.88</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="7"/>
+        <v>839210737074747</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="7"/>
+        <v>832029139894014.25</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="7"/>
+        <v>823522469040744.5</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="7"/>
+        <v>817533676391561.5</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="7"/>
+        <v>810248127758334.38</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="7"/>
+        <v>803557010385176.63</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="7"/>
+        <v>796538257052109.25</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="7"/>
+        <v>789762028354424.5</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="7"/>
+        <v>781166425694781.13</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="7"/>
+        <v>773829999955077.25</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="7"/>
+        <v>765302221845296</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="7"/>
+        <v>757571381024720.5</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="7"/>
+        <v>749134490843442.13</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="7"/>
+        <v>741768820749807.38</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="7"/>
+        <v>733735230850786.63</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="7"/>
+        <v>726100675589404.25</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" si="7"/>
+        <v>718079929166449.5</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="7"/>
+        <v>709655103570678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" t="s">
+        <v>366</v>
+      </c>
+      <c r="C62" s="279">
+        <f>C45/$A$71</f>
+        <v>119564270152505.45</v>
+      </c>
+      <c r="D62" s="279">
+        <f>D45/$A$71*B56</f>
+        <v>118881147012346.78</v>
+      </c>
+      <c r="E62" s="279">
+        <f t="shared" ref="E62:AH62" si="8">E45/$A$71*C56</f>
+        <v>118565845613220.14</v>
+      </c>
+      <c r="F62" s="279">
+        <f t="shared" si="8"/>
+        <v>117803732393360.89</v>
+      </c>
+      <c r="G62" s="279">
+        <f t="shared" si="8"/>
+        <v>116859352062418.69</v>
+      </c>
+      <c r="H62" s="279">
+        <f t="shared" si="8"/>
+        <v>115687627108797.97</v>
+      </c>
+      <c r="I62" s="279">
+        <f t="shared" si="8"/>
+        <v>114666833374236.11</v>
+      </c>
+      <c r="J62" s="279">
+        <f t="shared" si="8"/>
+        <v>114015692417706.03</v>
+      </c>
+      <c r="K62" s="279">
+        <f t="shared" si="8"/>
+        <v>113087845720934.59</v>
+      </c>
+      <c r="L62" s="279">
+        <f t="shared" si="8"/>
+        <v>112611238511210.31</v>
+      </c>
+      <c r="M62" s="279">
+        <f t="shared" si="8"/>
+        <v>112054134920132.02</v>
+      </c>
+      <c r="N62" s="279">
+        <f t="shared" si="8"/>
+        <v>111251438198241.58</v>
+      </c>
+      <c r="O62" s="279">
+        <f t="shared" si="8"/>
+        <v>109844932811849.22</v>
+      </c>
+      <c r="P62" s="279">
+        <f t="shared" si="8"/>
+        <v>108296576185054.69</v>
+      </c>
+      <c r="Q62" s="279">
+        <f t="shared" si="8"/>
+        <v>106602430845169.64</v>
+      </c>
+      <c r="R62" s="279">
+        <f t="shared" si="8"/>
+        <v>104928174509439.75</v>
+      </c>
+      <c r="S62" s="279">
+        <f t="shared" si="8"/>
+        <v>102800410068574.69</v>
+      </c>
+      <c r="T62" s="279">
+        <f t="shared" si="8"/>
+        <v>101420917085440.73</v>
+      </c>
+      <c r="U62" s="279">
+        <f t="shared" si="8"/>
+        <v>99530363386553.75</v>
+      </c>
+      <c r="V62" s="279">
+        <f t="shared" si="8"/>
+        <v>97812163699715.938</v>
+      </c>
+      <c r="W62" s="279">
+        <f t="shared" si="8"/>
+        <v>96069157038103.578</v>
+      </c>
+      <c r="X62" s="279">
+        <f t="shared" si="8"/>
+        <v>94308507698046.563</v>
+      </c>
+      <c r="Y62" s="279">
+        <f t="shared" si="8"/>
+        <v>92170118571845.141</v>
+      </c>
+      <c r="Z62" s="279">
+        <f t="shared" si="8"/>
+        <v>90323722384068.266</v>
+      </c>
+      <c r="AA62" s="279">
+        <f t="shared" si="8"/>
+        <v>88289359915958.641</v>
+      </c>
+      <c r="AB62" s="279">
+        <f t="shared" si="8"/>
+        <v>86436172138347.781</v>
+      </c>
+      <c r="AC62" s="279">
+        <f t="shared" si="8"/>
+        <v>84733093412525.641</v>
+      </c>
+      <c r="AD62" s="279">
+        <f t="shared" si="8"/>
+        <v>83098038262377.063</v>
+      </c>
+      <c r="AE62" s="279">
+        <f t="shared" si="8"/>
+        <v>81264374853094.094</v>
+      </c>
+      <c r="AF62" s="279">
+        <f t="shared" si="8"/>
+        <v>79633775159949.109</v>
+      </c>
+      <c r="AG62" s="279">
+        <f t="shared" si="8"/>
+        <v>78011219508254.297</v>
+      </c>
+      <c r="AH62" s="279">
+        <f t="shared" si="8"/>
+        <v>76243900855178.875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="259" t="s">
+        <v>388</v>
+      </c>
+      <c r="B65" s="259"/>
+      <c r="C65" s="259"/>
+      <c r="D65" s="259"/>
+      <c r="E65" s="261"/>
+      <c r="F65" s="261"/>
+      <c r="G65" s="261"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1037</v>
+      </c>
+      <c r="B66" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>37.229999999999997</v>
+      </c>
+      <c r="B67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="B68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="280">
+        <v>0.453592</v>
+      </c>
+      <c r="B70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="139">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B71" t="s">
+        <v>397</v>
+      </c>
+      <c r="C71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="281"/>
+    </row>
+    <row r="73" spans="1:11" s="283" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="282" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>2005</v>
+      </c>
+      <c r="C74">
+        <v>2010</v>
+      </c>
+      <c r="D74">
+        <v>2015</v>
+      </c>
+      <c r="E74">
+        <v>2020</v>
+      </c>
+      <c r="F74">
+        <v>2025</v>
+      </c>
+      <c r="G74">
+        <v>2030</v>
+      </c>
+      <c r="H74">
+        <v>2035</v>
+      </c>
+      <c r="I74">
+        <v>2040</v>
+      </c>
+      <c r="J74">
+        <v>2045</v>
+      </c>
+      <c r="K74">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76">
+        <v>46835.295154510459</v>
+      </c>
+      <c r="C76">
+        <v>33980.781488610417</v>
+      </c>
+      <c r="D76">
+        <v>29621.706765974552</v>
+      </c>
+      <c r="E76">
+        <v>23932.177693517893</v>
+      </c>
+      <c r="F76">
+        <v>24486.08461506604</v>
+      </c>
+      <c r="G76">
+        <v>21577.737638818384</v>
+      </c>
+      <c r="H76">
+        <v>16282.07664384593</v>
+      </c>
+      <c r="I76">
+        <v>14073.406729601646</v>
+      </c>
+      <c r="J76">
+        <v>12240.111784348412</v>
+      </c>
+      <c r="K76">
+        <v>10439.036973317456</v>
       </c>
     </row>
   </sheetData>
@@ -18147,8 +20638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB41427-AB65-4280-A83C-90CCC833C195}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18388,128 +20879,128 @@
         <v>151</v>
       </c>
       <c r="B3" s="86">
-        <f>(1-B2)*'TYNDP Data'!$B24*'Historical Production'!$E$12/'Historical Production'!$E$17</f>
-        <v>0.68232184859758205</v>
+        <f>(1-B2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!D$60:D$61)/SUM('(BIFUbC) Historical Production'!D$60:D$62)</f>
+        <v>0.66487562484988016</v>
       </c>
       <c r="C3" s="14">
         <f>($L3-$B3)/10*(C$1-$B$1)+$B3</f>
-        <v>0.68199670932736467</v>
+        <v>0.66521610875975923</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" ref="D3:K3" si="3">($L3-$B3)/10*(D$1-$B$1)+$B3</f>
-        <v>0.6816715700571474</v>
+        <v>0.6655565926696384</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" si="3"/>
-        <v>0.68134643078693014</v>
+        <v>0.66589707657951747</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="3"/>
-        <v>0.68102129151671276</v>
+        <v>0.66623756048939664</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="3"/>
-        <v>0.68069615224649538</v>
+        <v>0.6665780443992757</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="3"/>
-        <v>0.68037101297627811</v>
+        <v>0.66691852830915477</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="3"/>
-        <v>0.68004587370606084</v>
+        <v>0.66725901221903394</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="3"/>
-        <v>0.67972073443584347</v>
+        <v>0.66759949612891301</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="3"/>
-        <v>0.67939559516562609</v>
+        <v>0.66793998003879218</v>
       </c>
       <c r="L3" s="86">
-        <f>(1-L2)*'TYNDP Data'!$B24*'Historical Production'!$E$12/'Historical Production'!$E$17</f>
-        <v>0.67907045589540882</v>
+        <f>(1-L2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!N$60:N$61)/SUM('(BIFUbC) Historical Production'!N$60:N$62)</f>
+        <v>0.66828046394867124</v>
       </c>
       <c r="M3" s="14">
         <f>($V3-$L3)/10*(M$1-$L$1)+$L3</f>
-        <v>0.67400224129249375</v>
+        <v>0.66376869318731835</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ref="N3:U3" si="4">($V3-$L3)/10*(N$1-$L$1)+$L3</f>
-        <v>0.66893402668957858</v>
+        <v>0.65925692242596556</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" si="4"/>
-        <v>0.66386581208666351</v>
+        <v>0.65474515166461267</v>
       </c>
       <c r="P3" s="14">
         <f t="shared" si="4"/>
-        <v>0.65879759748374833</v>
+        <v>0.65023338090325988</v>
       </c>
       <c r="Q3" s="14">
         <f t="shared" si="4"/>
-        <v>0.65372938288083327</v>
+        <v>0.64572161014190699</v>
       </c>
       <c r="R3" s="14">
         <f t="shared" si="4"/>
-        <v>0.6486611682779182</v>
+        <v>0.64120983938055409</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" si="4"/>
-        <v>0.64359295367500302</v>
+        <v>0.63669806861920131</v>
       </c>
       <c r="T3" s="14">
         <f t="shared" si="4"/>
-        <v>0.63852473907208795</v>
+        <v>0.63218629785784841</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="4"/>
-        <v>0.63345652446917278</v>
+        <v>0.62767452709649563</v>
       </c>
       <c r="V3" s="86">
-        <f>(1-V2)*'TYNDP Data'!$B24*'Historical Production'!$E$12/'Historical Production'!$E$17</f>
-        <v>0.62838830986625771</v>
+        <f>(1-V2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!X$60:X$61)/SUM('(BIFUbC) Historical Production'!X$60:X$62)</f>
+        <v>0.62316275633514273</v>
       </c>
       <c r="W3" s="14">
         <f>($AF3-$V3)/10*(W$1-$V$1)+$V3</f>
-        <v>0.62248797047775317</v>
+        <v>0.61783064381810471</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:AE3" si="5">($AF3-$V3)/10*(X$1-$V$1)+$V3</f>
-        <v>0.61658763108924852</v>
+        <v>0.61249853130106657</v>
       </c>
       <c r="Y3" s="14">
         <f t="shared" si="5"/>
-        <v>0.61068729170074398</v>
+        <v>0.60716641878402855</v>
       </c>
       <c r="Z3" s="14">
         <f t="shared" si="5"/>
-        <v>0.60478695231223933</v>
+        <v>0.60183430626699053</v>
       </c>
       <c r="AA3" s="14">
         <f t="shared" si="5"/>
-        <v>0.5988866129237348</v>
+        <v>0.59650219374995239</v>
       </c>
       <c r="AB3" s="14">
         <f t="shared" si="5"/>
-        <v>0.59298627353523026</v>
+        <v>0.59117008123291437</v>
       </c>
       <c r="AC3" s="14">
         <f t="shared" si="5"/>
-        <v>0.58708593414672561</v>
+        <v>0.58583796871587634</v>
       </c>
       <c r="AD3" s="14">
         <f t="shared" si="5"/>
-        <v>0.58118559475822107</v>
+        <v>0.58050585619883832</v>
       </c>
       <c r="AE3" s="14">
         <f t="shared" si="5"/>
-        <v>0.57528525536971642</v>
+        <v>0.57517374368180019</v>
       </c>
       <c r="AF3" s="86">
-        <f>(1-AF2)*'TYNDP Data'!$B24*'Historical Production'!$E$12/'Historical Production'!$E$17</f>
-        <v>0.56938491598121188</v>
+        <f>(1-AF2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!AH$60:AH$61)/SUM('(BIFUbC) Historical Production'!AH$60:AH$62)</f>
+        <v>0.56984163116476216</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -18712,129 +21203,129 @@
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="263">
-        <f>(1-B2)*'TYNDP Data'!$B24*'Historical Production'!$E$15/'Historical Production'!$E$17</f>
-        <v>6.823218485975821E-2</v>
+      <c r="B6" s="86">
+        <f>(1-B2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!D$62:D$62)/SUM('(BIFUbC) Historical Production'!D$60:D$62)</f>
+        <v>8.5678408607460135E-2</v>
       </c>
       <c r="C6" s="14">
         <f>($L6-$B6)/10*(C$1-$B$1)+$B6</f>
-        <v>6.8199670932736475E-2</v>
+        <v>8.4980271500341958E-2</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ref="D6:K6" si="6">($L6-$B6)/10*(D$1-$B$1)+$B6</f>
-        <v>6.816715700571474E-2</v>
+        <v>8.4282134393223782E-2</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="6"/>
-        <v>6.8134643078693005E-2</v>
+        <v>8.3583997286105619E-2</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="6"/>
-        <v>6.810212915167127E-2</v>
+        <v>8.2885860178987442E-2</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="6"/>
-        <v>6.8069615224649549E-2</v>
+        <v>8.2187723071869265E-2</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="6"/>
-        <v>6.8037101297627814E-2</v>
+        <v>8.1489585964751088E-2</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="6"/>
-        <v>6.8004587370606079E-2</v>
+        <v>8.0791448857632911E-2</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="6"/>
-        <v>6.7972073443584344E-2</v>
+        <v>8.0093311750514748E-2</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="6"/>
-        <v>6.7939559516562609E-2</v>
-      </c>
-      <c r="L6" s="263">
-        <f>(1-L2)*'TYNDP Data'!$B24*'Historical Production'!$E$15/'Historical Production'!$E$17</f>
-        <v>6.7907045589540874E-2</v>
+        <v>7.9395174643396571E-2</v>
+      </c>
+      <c r="L6" s="86">
+        <f>(1-L2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!N$62:N$62)/SUM('(BIFUbC) Historical Production'!N$60:N$62)</f>
+        <v>7.8697037536278394E-2</v>
       </c>
       <c r="M6" s="14">
         <f>($V6-$L6)/10*(M$1-$L$1)+$L6</f>
-        <v>6.740022412924937E-2</v>
+        <v>7.7633772234424636E-2</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" ref="N6:U6" si="7">($V6-$L6)/10*(N$1-$L$1)+$L6</f>
-        <v>6.6893402668957852E-2</v>
+        <v>7.6570506932570864E-2</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="7"/>
-        <v>6.6386581208666334E-2</v>
+        <v>7.5507241630717092E-2</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="7"/>
-        <v>6.587975974837483E-2</v>
+        <v>7.4443976328863334E-2</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="7"/>
-        <v>6.5372938288083327E-2</v>
+        <v>7.3380711027009576E-2</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="7"/>
-        <v>6.4866116827791809E-2</v>
+        <v>7.2317445725155804E-2</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="7"/>
-        <v>6.4359295367500291E-2</v>
+        <v>7.1254180423302033E-2</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="7"/>
-        <v>6.3852473907208787E-2</v>
+        <v>7.0190915121448275E-2</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="7"/>
-        <v>6.3345652446917283E-2</v>
-      </c>
-      <c r="V6" s="263">
-        <f>(1-V2)*'TYNDP Data'!$B24*'Historical Production'!$E$15/'Historical Production'!$E$17</f>
-        <v>6.2838830986625765E-2</v>
+        <v>6.9127649819594517E-2</v>
+      </c>
+      <c r="V6" s="86">
+        <f>(1-V2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!X$62:X$62)/SUM('(BIFUbC) Historical Production'!X$60:X$62)</f>
+        <v>6.8064384517740745E-2</v>
       </c>
       <c r="W6" s="14">
         <f>($AF6-$V6)/10*(W$1-$V$1)+$V6</f>
-        <v>6.2248797047775306E-2</v>
+        <v>6.6906123707423756E-2</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" ref="X6:AE6" si="8">($AF6-$V6)/10*(X$1-$V$1)+$V6</f>
-        <v>6.1658763108924847E-2</v>
+        <v>6.5747862897106768E-2</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="8"/>
-        <v>6.1068729170074394E-2</v>
+        <v>6.4589602086789794E-2</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="8"/>
-        <v>6.0478695231223935E-2</v>
+        <v>6.3431341276472805E-2</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="8"/>
-        <v>5.9888661292373475E-2</v>
+        <v>6.2273080466155817E-2</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="8"/>
-        <v>5.9298627353523016E-2</v>
+        <v>6.1114819655838828E-2</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="8"/>
-        <v>5.8708593414672557E-2</v>
+        <v>5.9956558845521847E-2</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="8"/>
-        <v>5.8118559475822104E-2</v>
+        <v>5.8798298035204859E-2</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="8"/>
-        <v>5.7528525536971645E-2</v>
-      </c>
-      <c r="AF6" s="263">
-        <f>(1-AF2)*'TYNDP Data'!$B24*'Historical Production'!$E$15/'Historical Production'!$E$17</f>
-        <v>5.6938491598121185E-2</v>
+        <v>5.7640037224887877E-2</v>
+      </c>
+      <c r="AF6" s="86">
+        <f>(1-AF2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!AH$62:AH$62)/SUM('(BIFUbC) Historical Production'!AH$60:AH$62)</f>
+        <v>5.6481776414570889E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -18992,7 +21483,7 @@
       </c>
       <c r="G9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="12"/>
@@ -19004,7 +21495,7 @@
       </c>
       <c r="J9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="12"/>
@@ -19028,7 +21519,7 @@
       </c>
       <c r="P9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="12"/>
@@ -19036,7 +21527,7 @@
       </c>
       <c r="R9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="12"/>
@@ -19048,7 +21539,7 @@
       </c>
       <c r="U9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="12"/>
@@ -19056,7 +21547,7 @@
       </c>
       <c r="W9" s="14">
         <f>SUM(W2:W7)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="12"/>
@@ -19064,15 +21555,15 @@
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AA9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="14">
         <f t="shared" si="12"/>
@@ -19092,12 +21583,12 @@
       </c>
       <c r="AF9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B12" s="87" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
@@ -19128,7 +21619,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19238,385 +21729,385 @@
       <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="272">
+      <c r="B2" s="263">
         <f>Calculations!B2/SUM(Calculations!B$2:B$6)</f>
         <v>5.3213834166182343E-5</v>
       </c>
-      <c r="C2" s="272">
+      <c r="C2" s="263">
         <f>Calculations!C2/SUM(Calculations!C$2:C$6)</f>
         <v>6.8793532593692868E-4</v>
       </c>
-      <c r="D2" s="272">
+      <c r="D2" s="263">
         <f>Calculations!D2/SUM(Calculations!D$2:D$6)</f>
         <v>1.3224558817292863E-3</v>
       </c>
-      <c r="E2" s="272">
+      <c r="E2" s="263">
         <f>Calculations!E2/SUM(Calculations!E$2:E$6)</f>
         <v>1.9567755969446513E-3</v>
       </c>
-      <c r="F2" s="272">
+      <c r="F2" s="263">
         <f>Calculations!F2/SUM(Calculations!F$2:F$6)</f>
-        <v>2.5908945669240349E-3</v>
-      </c>
-      <c r="G2" s="272">
+        <v>2.5908945669240345E-3</v>
+      </c>
+      <c r="G2" s="263">
         <f>Calculations!G2/SUM(Calculations!G$2:G$6)</f>
-        <v>3.224812886948114E-3</v>
-      </c>
-      <c r="H2" s="272">
+        <v>3.2248128869481136E-3</v>
+      </c>
+      <c r="H2" s="263">
         <f>Calculations!H2/SUM(Calculations!H$2:H$6)</f>
-        <v>3.8585306522372744E-3</v>
-      </c>
-      <c r="I2" s="272">
+        <v>3.8585306522372748E-3</v>
+      </c>
+      <c r="I2" s="263">
         <f>Calculations!I2/SUM(Calculations!I$2:I$6)</f>
-        <v>4.4920479579516623E-3</v>
-      </c>
-      <c r="J2" s="272">
+        <v>4.4920479579516632E-3</v>
+      </c>
+      <c r="J2" s="263">
         <f>Calculations!J2/SUM(Calculations!J$2:J$6)</f>
-        <v>5.1253648991912339E-3</v>
-      </c>
-      <c r="K2" s="272">
+        <v>5.1253648991912348E-3</v>
+      </c>
+      <c r="K2" s="263">
         <f>Calculations!K2/SUM(Calculations!K$2:K$6)</f>
         <v>5.7584815709957942E-3</v>
       </c>
-      <c r="L2" s="272">
+      <c r="L2" s="263">
         <f>Calculations!L2/SUM(Calculations!L$2:L$6)</f>
         <v>6.3913980683450514E-3</v>
       </c>
-      <c r="M2" s="272">
+      <c r="M2" s="263">
         <f>Calculations!M2/SUM(Calculations!M$2:M$6)</f>
-        <v>1.6231383162067996E-2</v>
-      </c>
-      <c r="N2" s="272">
+        <v>1.6231383162068E-2</v>
+      </c>
+      <c r="N2" s="263">
         <f>Calculations!N2/SUM(Calculations!N$2:N$6)</f>
         <v>2.6023110205325765E-2</v>
       </c>
-      <c r="O2" s="272">
+      <c r="O2" s="263">
         <f>Calculations!O2/SUM(Calculations!O$2:O$6)</f>
-        <v>3.5766933336271033E-2</v>
-      </c>
-      <c r="P2" s="272">
+        <v>3.576693333627104E-2</v>
+      </c>
+      <c r="P2" s="263">
         <f>Calculations!P2/SUM(Calculations!P$2:P$6)</f>
-        <v>4.546320323642291E-2</v>
-      </c>
-      <c r="Q2" s="272">
+        <v>4.5463203236422903E-2</v>
+      </c>
+      <c r="Q2" s="263">
         <f>Calculations!Q2/SUM(Calculations!Q$2:Q$6)</f>
         <v>5.5112267172738059E-2</v>
       </c>
-      <c r="R2" s="272">
+      <c r="R2" s="263">
         <f>Calculations!R2/SUM(Calculations!R$2:R$6)</f>
-        <v>6.4714469039069161E-2</v>
-      </c>
-      <c r="S2" s="272">
+        <v>6.4714469039069175E-2</v>
+      </c>
+      <c r="S2" s="263">
         <f>Calculations!S2/SUM(Calculations!S$2:S$6)</f>
         <v>7.4270149397020507E-2</v>
       </c>
-      <c r="T2" s="272">
+      <c r="T2" s="263">
         <f>Calculations!T2/SUM(Calculations!T$2:T$6)</f>
-        <v>8.3779645516211282E-2</v>
-      </c>
-      <c r="U2" s="272">
+        <v>8.3779645516211296E-2</v>
+      </c>
+      <c r="U2" s="263">
         <f>Calculations!U2/SUM(Calculations!U$2:U$6)</f>
-        <v>9.3243291413956611E-2</v>
-      </c>
-      <c r="V2" s="272">
+        <v>9.3243291413956597E-2</v>
+      </c>
+      <c r="V2" s="263">
         <f>Calculations!V2/SUM(Calculations!V$2:V$6)</f>
         <v>0.1026614178943758</v>
       </c>
-      <c r="W2" s="272">
+      <c r="W2" s="263">
         <f>Calculations!W2/SUM(Calculations!W$2:W$6)</f>
-        <v>0.11356895121488018</v>
-      </c>
-      <c r="X2" s="272">
+        <v>0.1135689512148802</v>
+      </c>
+      <c r="X2" s="263">
         <f>Calculations!X2/SUM(Calculations!X$2:X$6)</f>
         <v>0.12441574637303589</v>
       </c>
-      <c r="Y2" s="272">
+      <c r="Y2" s="263">
         <f>Calculations!Y2/SUM(Calculations!Y$2:Y$6)</f>
-        <v>0.13520230928728547</v>
-      </c>
-      <c r="Z2" s="272">
+        <v>0.13520230928728549</v>
+      </c>
+      <c r="Z2" s="263">
         <f>Calculations!Z2/SUM(Calculations!Z$2:Z$6)</f>
-        <v>0.14592914027289947</v>
-      </c>
-      <c r="AA2" s="272">
+        <v>0.14592914027289944</v>
+      </c>
+      <c r="AA2" s="263">
         <f>Calculations!AA2/SUM(Calculations!AA$2:AA$6)</f>
-        <v>0.15659673411933256</v>
-      </c>
-      <c r="AB2" s="272">
+        <v>0.15659673411933259</v>
+      </c>
+      <c r="AB2" s="263">
         <f>Calculations!AB2/SUM(Calculations!AB$2:AB$6)</f>
         <v>0.16720558016630244</v>
       </c>
-      <c r="AC2" s="272">
+      <c r="AC2" s="263">
         <f>Calculations!AC2/SUM(Calculations!AC$2:AC$6)</f>
         <v>0.17775616237861436</v>
       </c>
-      <c r="AD2" s="272">
+      <c r="AD2" s="263">
         <f>Calculations!AD2/SUM(Calculations!AD$2:AD$6)</f>
         <v>0.18824895941975689</v>
       </c>
-      <c r="AE2" s="272">
+      <c r="AE2" s="263">
         <f>Calculations!AE2/SUM(Calculations!AE$2:AE$6)</f>
         <v>0.19868444472429142</v>
       </c>
-      <c r="AF2" s="272">
+      <c r="AF2" s="263">
         <f>Calculations!AF2/SUM(Calculations!AF$2:AF$6)</f>
-        <v>0.20906308656905878</v>
+        <v>0.20906308656905875</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="272">
+      <c r="B3" s="263">
         <f>Calculations!B3/SUM(Calculations!B$2:B$6)</f>
-        <v>0.90904253287803072</v>
-      </c>
-      <c r="C3" s="272">
+        <v>0.88579930908655391</v>
+      </c>
+      <c r="C3" s="263">
         <f>Calculations!C3/SUM(Calculations!C$2:C$6)</f>
-        <v>0.90846551334005732</v>
-      </c>
-      <c r="D3" s="272">
+        <v>0.88611262409541636</v>
+      </c>
+      <c r="D3" s="263">
         <f>Calculations!D3/SUM(Calculations!D$2:D$6)</f>
-        <v>0.90788867647115523</v>
-      </c>
-      <c r="E3" s="272">
+        <v>0.88642583991706281</v>
+      </c>
+      <c r="E3" s="263">
         <f>Calculations!E3/SUM(Calculations!E$2:E$6)</f>
-        <v>0.90731202218459583</v>
-      </c>
-      <c r="F3" s="272">
+        <v>0.88673895659858526</v>
+      </c>
+      <c r="F3" s="263">
         <f>Calculations!F3/SUM(Calculations!F$2:F$6)</f>
-        <v>0.90673555039370546</v>
-      </c>
-      <c r="G3" s="272">
+        <v>0.88705197418704707</v>
+      </c>
+      <c r="G3" s="263">
         <f>Calculations!G3/SUM(Calculations!G$2:G$6)</f>
-        <v>0.90615926101186539</v>
-      </c>
-      <c r="H3" s="272">
+        <v>0.88736489272948127</v>
+      </c>
+      <c r="H3" s="263">
         <f>Calculations!H3/SUM(Calculations!H$2:H$6)</f>
-        <v>0.90558315395251154</v>
-      </c>
-      <c r="I3" s="272">
+        <v>0.88767771227289072</v>
+      </c>
+      <c r="I3" s="263">
         <f>Calculations!I3/SUM(Calculations!I$2:I$6)</f>
-        <v>0.90500722912913478</v>
-      </c>
-      <c r="J3" s="272">
+        <v>0.88799043286424917</v>
+      </c>
+      <c r="J3" s="263">
         <f>Calculations!J3/SUM(Calculations!J$2:J$6)</f>
-        <v>0.90443148645528071</v>
-      </c>
-      <c r="K3" s="272">
+        <v>0.88830305455050051</v>
+      </c>
+      <c r="K3" s="263">
         <f>Calculations!K3/SUM(Calculations!K$2:K$6)</f>
-        <v>0.90385592584454921</v>
-      </c>
-      <c r="L3" s="272">
+        <v>0.88861557737855856</v>
+      </c>
+      <c r="L3" s="263">
         <f>Calculations!L3/SUM(Calculations!L$2:L$6)</f>
-        <v>0.90328054721059536</v>
-      </c>
-      <c r="M3" s="272">
+        <v>0.88892800139530781</v>
+      </c>
+      <c r="M3" s="263">
         <f>Calculations!M3/SUM(Calculations!M$2:M$6)</f>
-        <v>0.89433510621630175</v>
-      </c>
-      <c r="N3" s="272">
+        <v>0.88075618797107325</v>
+      </c>
+      <c r="N3" s="263">
         <f>Calculations!N3/SUM(Calculations!N$2:N$6)</f>
-        <v>0.88543353617697662</v>
-      </c>
-      <c r="O3" s="272">
+        <v>0.87262445141492972</v>
+      </c>
+      <c r="O3" s="263">
         <f>Calculations!O3/SUM(Calculations!O$2:O$6)</f>
-        <v>0.87657551514884446</v>
-      </c>
-      <c r="P3" s="272">
+        <v>0.86453249762572926</v>
+      </c>
+      <c r="P3" s="263">
         <f>Calculations!P3/SUM(Calculations!P$2:P$6)</f>
-        <v>0.86776072433052476</v>
-      </c>
-      <c r="Q3" s="272">
+        <v>0.85648003537295525</v>
+      </c>
+      <c r="Q3" s="263">
         <f>Calculations!Q3/SUM(Calculations!Q$2:Q$6)</f>
-        <v>0.85898884802478359</v>
-      </c>
-      <c r="R3" s="272">
+        <v>0.84846677626178246</v>
+      </c>
+      <c r="R3" s="263">
         <f>Calculations!R3/SUM(Calculations!R$2:R$6)</f>
-        <v>0.85025957360084625</v>
-      </c>
-      <c r="S3" s="272">
+        <v>0.84049243469864843</v>
+      </c>
+      <c r="S3" s="263">
         <f>Calculations!S3/SUM(Calculations!S$2:S$6)</f>
-        <v>0.84157259145725405</v>
-      </c>
-      <c r="T3" s="272">
+        <v>0.83255672785732249</v>
+      </c>
+      <c r="T3" s="263">
         <f>Calculations!T3/SUM(Calculations!T$2:T$6)</f>
-        <v>0.83292759498526248</v>
-      </c>
-      <c r="U3" s="272">
+        <v>0.82465937564546976</v>
+      </c>
+      <c r="U3" s="263">
         <f>Calculations!U3/SUM(Calculations!U$2:U$6)</f>
-        <v>0.82432428053276674</v>
-      </c>
-      <c r="V3" s="272">
+        <v>0.81680010067169639</v>
+      </c>
+      <c r="V3" s="263">
         <f>Calculations!V3/SUM(Calculations!V$2:V$6)</f>
-        <v>0.81576234736874931</v>
-      </c>
-      <c r="W3" s="272">
+        <v>0.80897862821307198</v>
+      </c>
+      <c r="W3" s="263">
         <f>Calculations!W3/SUM(Calculations!W$2:W$6)</f>
-        <v>0.80584640798647256</v>
-      </c>
-      <c r="X3" s="272">
+        <v>0.79981723129954496</v>
+      </c>
+      <c r="X3" s="263">
         <f>Calculations!X3/SUM(Calculations!X$2:X$6)</f>
-        <v>0.79598568511542189</v>
-      </c>
-      <c r="Y3" s="272">
+        <v>0.79070684925773305</v>
+      </c>
+      <c r="Y3" s="263">
         <f>Calculations!Y3/SUM(Calculations!Y$2:Y$6)</f>
-        <v>0.78617971882974047</v>
-      </c>
-      <c r="Z3" s="272">
+        <v>0.78164705715933036</v>
+      </c>
+      <c r="Z3" s="263">
         <f>Calculations!Z3/SUM(Calculations!Z$2:Z$6)</f>
-        <v>0.77642805429736417</v>
-      </c>
-      <c r="AA3" s="272">
+        <v>0.77263743478221658</v>
+      </c>
+      <c r="AA3" s="263">
         <f>Calculations!AA3/SUM(Calculations!AA$2:AA$6)</f>
-        <v>0.76673024170969761</v>
-      </c>
-      <c r="AB3" s="272">
+        <v>0.76367756654548558</v>
+      </c>
+      <c r="AB3" s="263">
         <f>Calculations!AB3/SUM(Calculations!AB$2:AB$6)</f>
-        <v>0.7570858362124524</v>
-      </c>
-      <c r="AC3" s="272">
+        <v>0.75476704144554496</v>
+      </c>
+      <c r="AC3" s="263">
         <f>Calculations!AC3/SUM(Calculations!AC$2:AC$6)</f>
-        <v>0.74749439783762328</v>
-      </c>
-      <c r="AD3" s="272">
+        <v>0.74590545299326994</v>
+      </c>
+      <c r="AD3" s="263">
         <f>Calculations!AD3/SUM(Calculations!AD$2:AD$6)</f>
-        <v>0.73795549143658468</v>
-      </c>
-      <c r="AE3" s="272">
+        <v>0.73709239915218905</v>
+      </c>
+      <c r="AE3" s="263">
         <f>Calculations!AE3/SUM(Calculations!AE$2:AE$6)</f>
-        <v>0.72846868661428055</v>
-      </c>
-      <c r="AF3" s="272">
+        <v>0.72832748227768362</v>
+      </c>
+      <c r="AF3" s="263">
         <f>Calculations!AF3/SUM(Calculations!AF$2:AF$6)</f>
-        <v>0.71903355766449217</v>
+        <v>0.71961030905717971</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="272">
+      <c r="B4" s="263">
         <f>Calculations!B4/SUM(Calculations!B$2:B$6)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="272">
+      <c r="C4" s="263">
         <f>Calculations!C4/SUM(Calculations!C$2:C$6)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="272">
+      <c r="D4" s="263">
         <f>Calculations!D4/SUM(Calculations!D$2:D$6)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="272">
+      <c r="E4" s="263">
         <f>Calculations!E4/SUM(Calculations!E$2:E$6)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="272">
+      <c r="F4" s="263">
         <f>Calculations!F4/SUM(Calculations!F$2:F$6)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="272">
+      <c r="G4" s="263">
         <f>Calculations!G4/SUM(Calculations!G$2:G$6)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="272">
+      <c r="H4" s="263">
         <f>Calculations!H4/SUM(Calculations!H$2:H$6)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="272">
+      <c r="I4" s="263">
         <f>Calculations!I4/SUM(Calculations!I$2:I$6)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="272">
+      <c r="J4" s="263">
         <f>Calculations!J4/SUM(Calculations!J$2:J$6)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="272">
+      <c r="K4" s="263">
         <f>Calculations!K4/SUM(Calculations!K$2:K$6)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="272">
+      <c r="L4" s="263">
         <f>Calculations!L4/SUM(Calculations!L$2:L$6)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="272">
+      <c r="M4" s="263">
         <f>Calculations!M4/SUM(Calculations!M$2:M$6)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="272">
+      <c r="N4" s="263">
         <f>Calculations!N4/SUM(Calculations!N$2:N$6)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="272">
+      <c r="O4" s="263">
         <f>Calculations!O4/SUM(Calculations!O$2:O$6)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="272">
+      <c r="P4" s="263">
         <f>Calculations!P4/SUM(Calculations!P$2:P$6)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="272">
+      <c r="Q4" s="263">
         <f>Calculations!Q4/SUM(Calculations!Q$2:Q$6)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="272">
+      <c r="R4" s="263">
         <f>Calculations!R4/SUM(Calculations!R$2:R$6)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="272">
+      <c r="S4" s="263">
         <f>Calculations!S4/SUM(Calculations!S$2:S$6)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="272">
+      <c r="T4" s="263">
         <f>Calculations!T4/SUM(Calculations!T$2:T$6)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="272">
+      <c r="U4" s="263">
         <f>Calculations!U4/SUM(Calculations!U$2:U$6)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="272">
+      <c r="V4" s="263">
         <f>Calculations!V4/SUM(Calculations!V$2:V$6)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="272">
+      <c r="W4" s="263">
         <f>Calculations!W4/SUM(Calculations!W$2:W$6)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="272">
+      <c r="X4" s="263">
         <f>Calculations!X4/SUM(Calculations!X$2:X$6)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="272">
+      <c r="Y4" s="263">
         <f>Calculations!Y4/SUM(Calculations!Y$2:Y$6)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="272">
+      <c r="Z4" s="263">
         <f>Calculations!Z4/SUM(Calculations!Z$2:Z$6)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="272">
+      <c r="AA4" s="263">
         <f>Calculations!AA4/SUM(Calculations!AA$2:AA$6)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="272">
+      <c r="AB4" s="263">
         <f>Calculations!AB4/SUM(Calculations!AB$2:AB$6)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="272">
+      <c r="AC4" s="263">
         <f>Calculations!AC4/SUM(Calculations!AC$2:AC$6)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="272">
+      <c r="AD4" s="263">
         <f>Calculations!AD4/SUM(Calculations!AD$2:AD$6)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="272">
+      <c r="AE4" s="263">
         <f>Calculations!AE4/SUM(Calculations!AE$2:AE$6)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="272">
+      <c r="AF4" s="263">
         <f>Calculations!AF4/SUM(Calculations!AF$2:AF$6)</f>
         <v>0</v>
       </c>
@@ -19625,127 +22116,127 @@
       <c r="A5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="272">
+      <c r="B5" s="263">
         <f>Calculations!B5/SUM(Calculations!B$2:B$6)</f>
         <v>0</v>
       </c>
-      <c r="C5" s="272">
+      <c r="C5" s="263">
         <f>Calculations!C5/SUM(Calculations!C$2:C$6)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="272">
+      <c r="D5" s="263">
         <f>Calculations!D5/SUM(Calculations!D$2:D$6)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="272">
+      <c r="E5" s="263">
         <f>Calculations!E5/SUM(Calculations!E$2:E$6)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="272">
+      <c r="F5" s="263">
         <f>Calculations!F5/SUM(Calculations!F$2:F$6)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="263">
         <f>Calculations!G5/SUM(Calculations!G$2:G$6)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="272">
+      <c r="H5" s="263">
         <f>Calculations!H5/SUM(Calculations!H$2:H$6)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="272">
+      <c r="I5" s="263">
         <f>Calculations!I5/SUM(Calculations!I$2:I$6)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="272">
+      <c r="J5" s="263">
         <f>Calculations!J5/SUM(Calculations!J$2:J$6)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="272">
+      <c r="K5" s="263">
         <f>Calculations!K5/SUM(Calculations!K$2:K$6)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="272">
+      <c r="L5" s="263">
         <f>Calculations!L5/SUM(Calculations!L$2:L$6)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="272">
+      <c r="M5" s="263">
         <f>Calculations!M5/SUM(Calculations!M$2:M$6)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="272">
+      <c r="N5" s="263">
         <f>Calculations!N5/SUM(Calculations!N$2:N$6)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272">
+      <c r="O5" s="263">
         <f>Calculations!O5/SUM(Calculations!O$2:O$6)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="272">
+      <c r="P5" s="263">
         <f>Calculations!P5/SUM(Calculations!P$2:P$6)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="272">
+      <c r="Q5" s="263">
         <f>Calculations!Q5/SUM(Calculations!Q$2:Q$6)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="272">
+      <c r="R5" s="263">
         <f>Calculations!R5/SUM(Calculations!R$2:R$6)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="272">
+      <c r="S5" s="263">
         <f>Calculations!S5/SUM(Calculations!S$2:S$6)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="272">
+      <c r="T5" s="263">
         <f>Calculations!T5/SUM(Calculations!T$2:T$6)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="272">
+      <c r="U5" s="263">
         <f>Calculations!U5/SUM(Calculations!U$2:U$6)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="272">
+      <c r="V5" s="263">
         <f>Calculations!V5/SUM(Calculations!V$2:V$6)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="272">
+      <c r="W5" s="263">
         <f>Calculations!W5/SUM(Calculations!W$2:W$6)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="272">
+      <c r="X5" s="263">
         <f>Calculations!X5/SUM(Calculations!X$2:X$6)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="272">
+      <c r="Y5" s="263">
         <f>Calculations!Y5/SUM(Calculations!Y$2:Y$6)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="272">
+      <c r="Z5" s="263">
         <f>Calculations!Z5/SUM(Calculations!Z$2:Z$6)</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="272">
+      <c r="AA5" s="263">
         <f>Calculations!AA5/SUM(Calculations!AA$2:AA$6)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="272">
+      <c r="AB5" s="263">
         <f>Calculations!AB5/SUM(Calculations!AB$2:AB$6)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="272">
+      <c r="AC5" s="263">
         <f>Calculations!AC5/SUM(Calculations!AC$2:AC$6)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="272">
+      <c r="AD5" s="263">
         <f>Calculations!AD5/SUM(Calculations!AD$2:AD$6)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="272">
+      <c r="AE5" s="263">
         <f>Calculations!AE5/SUM(Calculations!AE$2:AE$6)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="272">
+      <c r="AF5" s="263">
         <f>Calculations!AF5/SUM(Calculations!AF$2:AF$6)</f>
         <v>0</v>
       </c>
@@ -19754,226 +22245,226 @@
       <c r="A6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="272">
+      <c r="B6" s="263">
         <f>Calculations!B6/SUM(Calculations!B$2:B$6)</f>
-        <v>9.0904253287803077E-2</v>
-      </c>
-      <c r="C6" s="272">
+        <v>0.11414747707927995</v>
+      </c>
+      <c r="C6" s="263">
         <f>Calculations!C6/SUM(Calculations!C$2:C$6)</f>
-        <v>9.0846551334005737E-2</v>
-      </c>
-      <c r="D6" s="272">
+        <v>0.11319944057864668</v>
+      </c>
+      <c r="D6" s="263">
         <f>Calculations!D6/SUM(Calculations!D$2:D$6)</f>
-        <v>9.0788867647115523E-2</v>
-      </c>
-      <c r="E6" s="272">
+        <v>0.11225170420120803</v>
+      </c>
+      <c r="E6" s="263">
         <f>Calculations!E6/SUM(Calculations!E$2:E$6)</f>
-        <v>9.0731202218459567E-2</v>
-      </c>
-      <c r="F6" s="272">
+        <v>0.11130426780447</v>
+      </c>
+      <c r="F6" s="263">
         <f>Calculations!F6/SUM(Calculations!F$2:F$6)</f>
-        <v>9.0673555039370538E-2</v>
-      </c>
-      <c r="G6" s="272">
+        <v>0.11035713124602875</v>
+      </c>
+      <c r="G6" s="263">
         <f>Calculations!G6/SUM(Calculations!G$2:G$6)</f>
-        <v>9.0615926101186559E-2</v>
-      </c>
-      <c r="H6" s="272">
+        <v>0.10941029438357065</v>
+      </c>
+      <c r="H6" s="263">
         <f>Calculations!H6/SUM(Calculations!H$2:H$6)</f>
-        <v>9.0558315395251152E-2</v>
-      </c>
-      <c r="I6" s="272">
+        <v>0.10846375707487201</v>
+      </c>
+      <c r="I6" s="263">
         <f>Calculations!I6/SUM(Calculations!I$2:I$6)</f>
-        <v>9.0500722912913473E-2</v>
-      </c>
-      <c r="J6" s="272">
+        <v>0.10751751917779914</v>
+      </c>
+      <c r="J6" s="263">
         <f>Calculations!J6/SUM(Calculations!J$2:J$6)</f>
-        <v>9.0443148645528063E-2</v>
-      </c>
-      <c r="K6" s="272">
+        <v>0.10657158055030838</v>
+      </c>
+      <c r="K6" s="263">
         <f>Calculations!K6/SUM(Calculations!K$2:K$6)</f>
-        <v>9.038559258445493E-2</v>
-      </c>
-      <c r="L6" s="272">
+        <v>0.10562594105044569</v>
+      </c>
+      <c r="L6" s="263">
         <f>Calculations!L6/SUM(Calculations!L$2:L$6)</f>
-        <v>9.0328054721059522E-2</v>
-      </c>
-      <c r="M6" s="272">
+        <v>0.10468060053634697</v>
+      </c>
+      <c r="M6" s="263">
         <f>Calculations!M6/SUM(Calculations!M$2:M$6)</f>
-        <v>8.9433510621630172E-2</v>
-      </c>
-      <c r="N6" s="272">
+        <v>0.1030124288668587</v>
+      </c>
+      <c r="N6" s="263">
         <f>Calculations!N6/SUM(Calculations!N$2:N$6)</f>
-        <v>8.8543353617697662E-2</v>
-      </c>
-      <c r="O6" s="272">
+        <v>0.10135243837974457</v>
+      </c>
+      <c r="O6" s="263">
         <f>Calculations!O6/SUM(Calculations!O$2:O$6)</f>
-        <v>8.7657551514884427E-2</v>
-      </c>
-      <c r="P6" s="272">
+        <v>9.970056903799969E-2</v>
+      </c>
+      <c r="P6" s="263">
         <f>Calculations!P6/SUM(Calculations!P$2:P$6)</f>
-        <v>8.6776072433052465E-2</v>
-      </c>
-      <c r="Q6" s="272">
+        <v>9.8056761390621888E-2</v>
+      </c>
+      <c r="Q6" s="263">
         <f>Calculations!Q6/SUM(Calculations!Q$2:Q$6)</f>
-        <v>8.5898884802478356E-2</v>
-      </c>
-      <c r="R6" s="272">
+        <v>9.6420956565479415E-2</v>
+      </c>
+      <c r="R6" s="263">
         <f>Calculations!R6/SUM(Calculations!R$2:R$6)</f>
-        <v>8.50259573600846E-2</v>
-      </c>
-      <c r="S6" s="272">
+        <v>9.4793096262282509E-2</v>
+      </c>
+      <c r="S6" s="263">
         <f>Calculations!S6/SUM(Calculations!S$2:S$6)</f>
-        <v>8.4157259145725388E-2</v>
-      </c>
-      <c r="T6" s="272">
+        <v>9.3173122745657061E-2</v>
+      </c>
+      <c r="T6" s="263">
         <f>Calculations!T6/SUM(Calculations!T$2:T$6)</f>
-        <v>8.3292759498526242E-2</v>
-      </c>
-      <c r="U6" s="272">
+        <v>9.1560978838319013E-2</v>
+      </c>
+      <c r="U6" s="263">
         <f>Calculations!U6/SUM(Calculations!U$2:U$6)</f>
-        <v>8.2432428053276677E-2</v>
-      </c>
-      <c r="V6" s="272">
+        <v>8.9956607914346925E-2</v>
+      </c>
+      <c r="V6" s="263">
         <f>Calculations!V6/SUM(Calculations!V$2:V$6)</f>
-        <v>8.157623473687492E-2</v>
-      </c>
-      <c r="W6" s="272">
+        <v>8.8359953892552218E-2</v>
+      </c>
+      <c r="W6" s="263">
         <f>Calculations!W6/SUM(Calculations!W$2:W$6)</f>
-        <v>8.0584640798647231E-2</v>
-      </c>
-      <c r="X6" s="272">
+        <v>8.661381748557484E-2</v>
+      </c>
+      <c r="X6" s="263">
         <f>Calculations!X6/SUM(Calculations!X$2:X$6)</f>
-        <v>7.9598568511542178E-2</v>
-      </c>
-      <c r="Y6" s="272">
+        <v>8.4877404369230983E-2</v>
+      </c>
+      <c r="Y6" s="263">
         <f>Calculations!Y6/SUM(Calculations!Y$2:Y$6)</f>
-        <v>7.8617971882974036E-2</v>
-      </c>
-      <c r="Z6" s="272">
+        <v>8.3150633553384229E-2</v>
+      </c>
+      <c r="Z6" s="263">
         <f>Calculations!Z6/SUM(Calculations!Z$2:Z$6)</f>
-        <v>7.7642805429736422E-2</v>
-      </c>
-      <c r="AA6" s="272">
+        <v>8.1433424944883967E-2</v>
+      </c>
+      <c r="AA6" s="263">
         <f>Calculations!AA6/SUM(Calculations!AA$2:AA$6)</f>
-        <v>7.6673024170969759E-2</v>
-      </c>
-      <c r="AB6" s="272">
+        <v>7.9725699335181838E-2</v>
+      </c>
+      <c r="AB6" s="263">
         <f>Calculations!AB6/SUM(Calculations!AB$2:AB$6)</f>
-        <v>7.5708583621245232E-2</v>
-      </c>
-      <c r="AC6" s="272">
+        <v>7.8027378388152588E-2</v>
+      </c>
+      <c r="AC6" s="263">
         <f>Calculations!AC6/SUM(Calculations!AC$2:AC$6)</f>
-        <v>7.4749439783762334E-2</v>
-      </c>
-      <c r="AD6" s="272">
+        <v>7.6338384628115763E-2</v>
+      </c>
+      <c r="AD6" s="263">
         <f>Calculations!AD6/SUM(Calculations!AD$2:AD$6)</f>
-        <v>7.3795549143658462E-2</v>
-      </c>
-      <c r="AE6" s="272">
+        <v>7.4658641428054076E-2</v>
+      </c>
+      <c r="AE6" s="263">
         <f>Calculations!AE6/SUM(Calculations!AE$2:AE$6)</f>
-        <v>7.284686866142806E-2</v>
-      </c>
-      <c r="AF6" s="272">
+        <v>7.2988072998024997E-2</v>
+      </c>
+      <c r="AF6" s="263">
         <f>Calculations!AF6/SUM(Calculations!AF$2:AF$6)</f>
-        <v>7.1903355766449212E-2</v>
+        <v>7.1326604373761454E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="272">
-        <v>0</v>
-      </c>
-      <c r="C7" s="272">
-        <v>0</v>
-      </c>
-      <c r="D7" s="272">
-        <v>0</v>
-      </c>
-      <c r="E7" s="272">
-        <v>0</v>
-      </c>
-      <c r="F7" s="272">
-        <v>0</v>
-      </c>
-      <c r="G7" s="272">
-        <v>0</v>
-      </c>
-      <c r="H7" s="272">
-        <v>0</v>
-      </c>
-      <c r="I7" s="272">
-        <v>0</v>
-      </c>
-      <c r="J7" s="272">
-        <v>0</v>
-      </c>
-      <c r="K7" s="272">
-        <v>0</v>
-      </c>
-      <c r="L7" s="272">
-        <v>0</v>
-      </c>
-      <c r="M7" s="272">
-        <v>0</v>
-      </c>
-      <c r="N7" s="272">
-        <v>0</v>
-      </c>
-      <c r="O7" s="272">
-        <v>0</v>
-      </c>
-      <c r="P7" s="272">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="272">
-        <v>0</v>
-      </c>
-      <c r="R7" s="272">
-        <v>0</v>
-      </c>
-      <c r="S7" s="272">
-        <v>0</v>
-      </c>
-      <c r="T7" s="272">
-        <v>0</v>
-      </c>
-      <c r="U7" s="272">
-        <v>0</v>
-      </c>
-      <c r="V7" s="272">
-        <v>0</v>
-      </c>
-      <c r="W7" s="272">
-        <v>0</v>
-      </c>
-      <c r="X7" s="272">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="272">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="272">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="272">
+      <c r="B7" s="263">
+        <v>0</v>
+      </c>
+      <c r="C7" s="263">
+        <v>0</v>
+      </c>
+      <c r="D7" s="263">
+        <v>0</v>
+      </c>
+      <c r="E7" s="263">
+        <v>0</v>
+      </c>
+      <c r="F7" s="263">
+        <v>0</v>
+      </c>
+      <c r="G7" s="263">
+        <v>0</v>
+      </c>
+      <c r="H7" s="263">
+        <v>0</v>
+      </c>
+      <c r="I7" s="263">
+        <v>0</v>
+      </c>
+      <c r="J7" s="263">
+        <v>0</v>
+      </c>
+      <c r="K7" s="263">
+        <v>0</v>
+      </c>
+      <c r="L7" s="263">
+        <v>0</v>
+      </c>
+      <c r="M7" s="263">
+        <v>0</v>
+      </c>
+      <c r="N7" s="263">
+        <v>0</v>
+      </c>
+      <c r="O7" s="263">
+        <v>0</v>
+      </c>
+      <c r="P7" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="263">
+        <v>0</v>
+      </c>
+      <c r="R7" s="263">
+        <v>0</v>
+      </c>
+      <c r="S7" s="263">
+        <v>0</v>
+      </c>
+      <c r="T7" s="263">
+        <v>0</v>
+      </c>
+      <c r="U7" s="263">
+        <v>0</v>
+      </c>
+      <c r="V7" s="263">
+        <v>0</v>
+      </c>
+      <c r="W7" s="263">
+        <v>0</v>
+      </c>
+      <c r="X7" s="263">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="263">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="263">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="263">
         <v>0</v>
       </c>
     </row>
@@ -19981,97 +22472,97 @@
       <c r="A8" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="272">
-        <v>0</v>
-      </c>
-      <c r="C8" s="272">
-        <v>0</v>
-      </c>
-      <c r="D8" s="272">
-        <v>0</v>
-      </c>
-      <c r="E8" s="272">
-        <v>0</v>
-      </c>
-      <c r="F8" s="272">
-        <v>0</v>
-      </c>
-      <c r="G8" s="272">
-        <v>0</v>
-      </c>
-      <c r="H8" s="272">
-        <v>0</v>
-      </c>
-      <c r="I8" s="272">
-        <v>0</v>
-      </c>
-      <c r="J8" s="272">
-        <v>0</v>
-      </c>
-      <c r="K8" s="272">
-        <v>0</v>
-      </c>
-      <c r="L8" s="272">
-        <v>0</v>
-      </c>
-      <c r="M8" s="272">
-        <v>0</v>
-      </c>
-      <c r="N8" s="272">
-        <v>0</v>
-      </c>
-      <c r="O8" s="272">
-        <v>0</v>
-      </c>
-      <c r="P8" s="272">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="272">
-        <v>0</v>
-      </c>
-      <c r="R8" s="272">
-        <v>0</v>
-      </c>
-      <c r="S8" s="272">
-        <v>0</v>
-      </c>
-      <c r="T8" s="272">
-        <v>0</v>
-      </c>
-      <c r="U8" s="272">
-        <v>0</v>
-      </c>
-      <c r="V8" s="272">
-        <v>0</v>
-      </c>
-      <c r="W8" s="272">
-        <v>0</v>
-      </c>
-      <c r="X8" s="272">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="272">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="272">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="272">
+      <c r="B8" s="263">
+        <v>0</v>
+      </c>
+      <c r="C8" s="263">
+        <v>0</v>
+      </c>
+      <c r="D8" s="263">
+        <v>0</v>
+      </c>
+      <c r="E8" s="263">
+        <v>0</v>
+      </c>
+      <c r="F8" s="263">
+        <v>0</v>
+      </c>
+      <c r="G8" s="263">
+        <v>0</v>
+      </c>
+      <c r="H8" s="263">
+        <v>0</v>
+      </c>
+      <c r="I8" s="263">
+        <v>0</v>
+      </c>
+      <c r="J8" s="263">
+        <v>0</v>
+      </c>
+      <c r="K8" s="263">
+        <v>0</v>
+      </c>
+      <c r="L8" s="263">
+        <v>0</v>
+      </c>
+      <c r="M8" s="263">
+        <v>0</v>
+      </c>
+      <c r="N8" s="263">
+        <v>0</v>
+      </c>
+      <c r="O8" s="263">
+        <v>0</v>
+      </c>
+      <c r="P8" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="263">
+        <v>0</v>
+      </c>
+      <c r="R8" s="263">
+        <v>0</v>
+      </c>
+      <c r="S8" s="263">
+        <v>0</v>
+      </c>
+      <c r="T8" s="263">
+        <v>0</v>
+      </c>
+      <c r="U8" s="263">
+        <v>0</v>
+      </c>
+      <c r="V8" s="263">
+        <v>0</v>
+      </c>
+      <c r="W8" s="263">
+        <v>0</v>
+      </c>
+      <c r="X8" s="263">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="263">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="263">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="263">
         <v>0</v>
       </c>
     </row>
@@ -20081,14 +22572,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20321,21 +22810,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20360,9 +22848,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7C3566-9C15-4586-89A0-57DFADDC63C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9B630-ACEB-4002-8CBF-CFEA5B248D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29430" yWindow="1755" windowWidth="21630" windowHeight="13245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>We assume today's shares are constant in the BAU case.</t>
-  </si>
-  <si>
-    <t>thermochemical water splitting</t>
   </si>
   <si>
     <t>Production Share (dimensionless)</t>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>total chemicals</t>
+  </si>
+  <si>
+    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -454,14 +454,14 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,19 +746,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -766,62 +768,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -829,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.76</v>
       </c>
@@ -837,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>0.22</f>
         <v>0.22</v>
@@ -863,24 +865,24 @@
   </sheetPr>
   <dimension ref="A1:AL944"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C57" sqref="C57:AG57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="114.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -920,9 +922,9 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -962,7 +964,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1002,9 +1004,9 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1044,10 +1046,10 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1084,9 +1086,9 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10">
         <f>O57</f>
@@ -1127,7 +1129,7 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1167,9 +1169,9 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1209,9 +1211,9 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1251,7 +1253,7 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1291,9 +1293,9 @@
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1333,9 +1335,9 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1375,33 +1377,33 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28" t="s">
+      <c r="K13" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1431,28 +1433,28 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:38" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+    <row r="14" spans="1:38" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1481,12 +1483,12 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
     </row>
-    <row r="15" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="7">
         <v>4.7230394679999996</v>
@@ -1520,7 +1522,7 @@
         <v>61493</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1547,12 +1549,12 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>2.7</v>
@@ -1586,7 +1588,7 @@
         <v>135568.85889999999</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1613,12 +1615,12 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7">
         <v>1.6</v>
@@ -1652,7 +1654,7 @@
         <v>4110000000</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1679,12 +1681,12 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C18" s="7">
         <v>0.2</v>
@@ -1718,7 +1720,7 @@
         <v>50</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="11">
         <v>0.79465919630000004</v>
@@ -1747,12 +1749,12 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>0.4</v>
@@ -1786,7 +1788,7 @@
         <v>206000000</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1813,7 +1815,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1853,7 +1855,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1893,11 +1895,11 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="30">
+        <v>73</v>
+      </c>
+      <c r="B22" s="28">
         <f>K15</f>
         <v>488000000000000</v>
       </c>
@@ -1938,11 +1940,11 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="30">
+        <v>74</v>
+      </c>
+      <c r="B23" s="28">
         <f>SUM(K16,K17,K19)</f>
         <v>224700000000000</v>
       </c>
@@ -1983,7 +1985,7 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2023,9 +2025,9 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2065,15 +2067,15 @@
       <c r="AK25" s="13"/>
       <c r="AL25" s="13"/>
     </row>
-    <row r="26" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>75161</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2111,15 +2113,15 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
     </row>
-    <row r="27" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="51" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>6.2869999999999999</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2157,12 +2159,12 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>473000000000000</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2201,15 +2203,15 @@
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
     </row>
-    <row r="29" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="76" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>199050</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -2247,12 +2249,12 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
     </row>
-    <row r="30" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>1037000000</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2291,12 +2293,12 @@
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>206000000000000</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2335,15 +2337,15 @@
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
     </row>
-    <row r="32" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>0.72</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2381,12 +2383,12 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
     </row>
-    <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A33" s="18">
         <v>149000000000000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2425,12 +2427,12 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
     </row>
-    <row r="34" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
         <v>0.23930000000000001</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2469,7 +2471,7 @@
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2509,9 +2511,9 @@
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2551,9 +2553,9 @@
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="24">
         <v>2020</v>
@@ -2655,9 +2657,9 @@
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="15">
         <v>488000000000000</v>
@@ -2759,9 +2761,9 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="15">
         <v>224000000000000</v>
@@ -2863,9 +2865,9 @@
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="15">
         <v>8210000000000</v>
@@ -2967,7 +2969,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3007,9 +3009,9 @@
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -3049,12 +3051,12 @@
       <c r="AK42" s="13"/>
       <c r="AL42" s="13"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>30</v>
       </c>
       <c r="C43" s="25">
         <v>2020</v>
@@ -3155,12 +3157,12 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" spans="1:38" ht="39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C44" s="11">
         <v>0</v>
@@ -3261,12 +3263,12 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" spans="1:38" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:38" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C45" s="11">
         <v>0</v>
@@ -3367,12 +3369,12 @@
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="11">
         <v>0</v>
@@ -3473,12 +3475,12 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
     </row>
-    <row r="47" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C47" s="11">
         <v>0</v>
@@ -3579,12 +3581,12 @@
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="11">
         <v>0</v>
@@ -3685,7 +3687,7 @@
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3725,9 +3727,9 @@
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="20">
@@ -3856,9 +3858,9 @@
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="20">
@@ -3991,9 +3993,9 @@
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="20">
@@ -4126,7 +4128,7 @@
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4166,7 +4168,7 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
     </row>
-    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4206,7 +4208,7 @@
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
     </row>
-    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4246,7 +4248,7 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4286,9 +4288,9 @@
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="20">
@@ -4421,7 +4423,7 @@
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4461,7 +4463,7 @@
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4501,7 +4503,7 @@
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4541,7 +4543,7 @@
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4581,7 +4583,7 @@
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4621,7 +4623,7 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -4661,7 +4663,7 @@
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4701,7 +4703,7 @@
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4741,7 +4743,7 @@
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4781,7 +4783,7 @@
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4821,7 +4823,7 @@
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4861,7 +4863,7 @@
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4901,7 +4903,7 @@
       <c r="AK69" s="7"/>
       <c r="AL69" s="7"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4941,7 +4943,7 @@
       <c r="AK70" s="7"/>
       <c r="AL70" s="7"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4981,7 +4983,7 @@
       <c r="AK71" s="7"/>
       <c r="AL71" s="7"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5021,7 +5023,7 @@
       <c r="AK72" s="7"/>
       <c r="AL72" s="7"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5061,7 +5063,7 @@
       <c r="AK73" s="7"/>
       <c r="AL73" s="7"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5101,7 +5103,7 @@
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5141,7 +5143,7 @@
       <c r="AK75" s="7"/>
       <c r="AL75" s="7"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5181,7 +5183,7 @@
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5221,7 +5223,7 @@
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5261,7 +5263,7 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5301,7 +5303,7 @@
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5341,7 +5343,7 @@
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5381,7 +5383,7 @@
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5421,7 +5423,7 @@
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5461,7 +5463,7 @@
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5501,7 +5503,7 @@
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5541,7 +5543,7 @@
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5581,7 +5583,7 @@
       <c r="AK86" s="7"/>
       <c r="AL86" s="7"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5621,7 +5623,7 @@
       <c r="AK87" s="7"/>
       <c r="AL87" s="7"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5661,7 +5663,7 @@
       <c r="AK88" s="7"/>
       <c r="AL88" s="7"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5701,7 +5703,7 @@
       <c r="AK89" s="7"/>
       <c r="AL89" s="7"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5741,7 +5743,7 @@
       <c r="AK90" s="7"/>
       <c r="AL90" s="7"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5781,7 +5783,7 @@
       <c r="AK91" s="7"/>
       <c r="AL91" s="7"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5821,7 +5823,7 @@
       <c r="AK92" s="7"/>
       <c r="AL92" s="7"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5861,7 +5863,7 @@
       <c r="AK93" s="7"/>
       <c r="AL93" s="7"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5901,7 +5903,7 @@
       <c r="AK94" s="7"/>
       <c r="AL94" s="7"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5941,7 +5943,7 @@
       <c r="AK95" s="7"/>
       <c r="AL95" s="7"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -5981,7 +5983,7 @@
       <c r="AK96" s="7"/>
       <c r="AL96" s="7"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -6021,7 +6023,7 @@
       <c r="AK97" s="7"/>
       <c r="AL97" s="7"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -6061,7 +6063,7 @@
       <c r="AK98" s="7"/>
       <c r="AL98" s="7"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -6101,7 +6103,7 @@
       <c r="AK99" s="7"/>
       <c r="AL99" s="7"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -6141,7 +6143,7 @@
       <c r="AK100" s="7"/>
       <c r="AL100" s="7"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -6181,7 +6183,7 @@
       <c r="AK101" s="7"/>
       <c r="AL101" s="7"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -6221,7 +6223,7 @@
       <c r="AK102" s="7"/>
       <c r="AL102" s="7"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -6261,7 +6263,7 @@
       <c r="AK103" s="7"/>
       <c r="AL103" s="7"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -6301,7 +6303,7 @@
       <c r="AK104" s="7"/>
       <c r="AL104" s="7"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -6341,7 +6343,7 @@
       <c r="AK105" s="7"/>
       <c r="AL105" s="7"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -6381,7 +6383,7 @@
       <c r="AK106" s="7"/>
       <c r="AL106" s="7"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -6421,7 +6423,7 @@
       <c r="AK107" s="7"/>
       <c r="AL107" s="7"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -6461,7 +6463,7 @@
       <c r="AK108" s="7"/>
       <c r="AL108" s="7"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -6501,7 +6503,7 @@
       <c r="AK109" s="7"/>
       <c r="AL109" s="7"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -6541,7 +6543,7 @@
       <c r="AK110" s="7"/>
       <c r="AL110" s="7"/>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -6581,7 +6583,7 @@
       <c r="AK111" s="7"/>
       <c r="AL111" s="7"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -6621,7 +6623,7 @@
       <c r="AK112" s="7"/>
       <c r="AL112" s="7"/>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -6661,7 +6663,7 @@
       <c r="AK113" s="7"/>
       <c r="AL113" s="7"/>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -6701,7 +6703,7 @@
       <c r="AK114" s="7"/>
       <c r="AL114" s="7"/>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -6741,7 +6743,7 @@
       <c r="AK115" s="7"/>
       <c r="AL115" s="7"/>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -6781,7 +6783,7 @@
       <c r="AK116" s="7"/>
       <c r="AL116" s="7"/>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -6821,7 +6823,7 @@
       <c r="AK117" s="7"/>
       <c r="AL117" s="7"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -6861,7 +6863,7 @@
       <c r="AK118" s="7"/>
       <c r="AL118" s="7"/>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -6901,7 +6903,7 @@
       <c r="AK119" s="7"/>
       <c r="AL119" s="7"/>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -6941,7 +6943,7 @@
       <c r="AK120" s="7"/>
       <c r="AL120" s="7"/>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -6981,7 +6983,7 @@
       <c r="AK121" s="7"/>
       <c r="AL121" s="7"/>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -7021,7 +7023,7 @@
       <c r="AK122" s="7"/>
       <c r="AL122" s="7"/>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -7061,7 +7063,7 @@
       <c r="AK123" s="7"/>
       <c r="AL123" s="7"/>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7101,7 +7103,7 @@
       <c r="AK124" s="7"/>
       <c r="AL124" s="7"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7141,7 +7143,7 @@
       <c r="AK125" s="7"/>
       <c r="AL125" s="7"/>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7181,7 +7183,7 @@
       <c r="AK126" s="7"/>
       <c r="AL126" s="7"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7221,7 +7223,7 @@
       <c r="AK127" s="7"/>
       <c r="AL127" s="7"/>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7261,7 +7263,7 @@
       <c r="AK128" s="7"/>
       <c r="AL128" s="7"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7301,7 +7303,7 @@
       <c r="AK129" s="7"/>
       <c r="AL129" s="7"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -7341,7 +7343,7 @@
       <c r="AK130" s="7"/>
       <c r="AL130" s="7"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -7381,7 +7383,7 @@
       <c r="AK131" s="7"/>
       <c r="AL131" s="7"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -7421,7 +7423,7 @@
       <c r="AK132" s="7"/>
       <c r="AL132" s="7"/>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -7461,7 +7463,7 @@
       <c r="AK133" s="7"/>
       <c r="AL133" s="7"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -7501,7 +7503,7 @@
       <c r="AK134" s="7"/>
       <c r="AL134" s="7"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -7541,7 +7543,7 @@
       <c r="AK135" s="7"/>
       <c r="AL135" s="7"/>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -7581,7 +7583,7 @@
       <c r="AK136" s="7"/>
       <c r="AL136" s="7"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -7621,7 +7623,7 @@
       <c r="AK137" s="7"/>
       <c r="AL137" s="7"/>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -7661,7 +7663,7 @@
       <c r="AK138" s="7"/>
       <c r="AL138" s="7"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -7701,7 +7703,7 @@
       <c r="AK139" s="7"/>
       <c r="AL139" s="7"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -7741,7 +7743,7 @@
       <c r="AK140" s="7"/>
       <c r="AL140" s="7"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -7781,7 +7783,7 @@
       <c r="AK141" s="7"/>
       <c r="AL141" s="7"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -7821,7 +7823,7 @@
       <c r="AK142" s="7"/>
       <c r="AL142" s="7"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7861,7 +7863,7 @@
       <c r="AK143" s="7"/>
       <c r="AL143" s="7"/>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -7901,7 +7903,7 @@
       <c r="AK144" s="7"/>
       <c r="AL144" s="7"/>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -7941,7 +7943,7 @@
       <c r="AK145" s="7"/>
       <c r="AL145" s="7"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -7981,7 +7983,7 @@
       <c r="AK146" s="7"/>
       <c r="AL146" s="7"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -8021,7 +8023,7 @@
       <c r="AK147" s="7"/>
       <c r="AL147" s="7"/>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -8061,7 +8063,7 @@
       <c r="AK148" s="7"/>
       <c r="AL148" s="7"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -8101,7 +8103,7 @@
       <c r="AK149" s="7"/>
       <c r="AL149" s="7"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -8141,7 +8143,7 @@
       <c r="AK150" s="7"/>
       <c r="AL150" s="7"/>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -8181,7 +8183,7 @@
       <c r="AK151" s="7"/>
       <c r="AL151" s="7"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -8221,7 +8223,7 @@
       <c r="AK152" s="7"/>
       <c r="AL152" s="7"/>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -8261,7 +8263,7 @@
       <c r="AK153" s="7"/>
       <c r="AL153" s="7"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -8301,7 +8303,7 @@
       <c r="AK154" s="7"/>
       <c r="AL154" s="7"/>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -8341,7 +8343,7 @@
       <c r="AK155" s="7"/>
       <c r="AL155" s="7"/>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -8381,7 +8383,7 @@
       <c r="AK156" s="7"/>
       <c r="AL156" s="7"/>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -8421,7 +8423,7 @@
       <c r="AK157" s="7"/>
       <c r="AL157" s="7"/>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -8461,7 +8463,7 @@
       <c r="AK158" s="7"/>
       <c r="AL158" s="7"/>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -8501,7 +8503,7 @@
       <c r="AK159" s="7"/>
       <c r="AL159" s="7"/>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -8541,7 +8543,7 @@
       <c r="AK160" s="7"/>
       <c r="AL160" s="7"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -8581,7 +8583,7 @@
       <c r="AK161" s="7"/>
       <c r="AL161" s="7"/>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -8621,7 +8623,7 @@
       <c r="AK162" s="7"/>
       <c r="AL162" s="7"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -8661,7 +8663,7 @@
       <c r="AK163" s="7"/>
       <c r="AL163" s="7"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -8701,7 +8703,7 @@
       <c r="AK164" s="7"/>
       <c r="AL164" s="7"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -8741,7 +8743,7 @@
       <c r="AK165" s="7"/>
       <c r="AL165" s="7"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -8781,7 +8783,7 @@
       <c r="AK166" s="7"/>
       <c r="AL166" s="7"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -8821,7 +8823,7 @@
       <c r="AK167" s="7"/>
       <c r="AL167" s="7"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -8861,7 +8863,7 @@
       <c r="AK168" s="7"/>
       <c r="AL168" s="7"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -8901,7 +8903,7 @@
       <c r="AK169" s="7"/>
       <c r="AL169" s="7"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -8941,7 +8943,7 @@
       <c r="AK170" s="7"/>
       <c r="AL170" s="7"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -8981,7 +8983,7 @@
       <c r="AK171" s="7"/>
       <c r="AL171" s="7"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -9021,7 +9023,7 @@
       <c r="AK172" s="7"/>
       <c r="AL172" s="7"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -9061,7 +9063,7 @@
       <c r="AK173" s="7"/>
       <c r="AL173" s="7"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -9101,7 +9103,7 @@
       <c r="AK174" s="7"/>
       <c r="AL174" s="7"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -9141,7 +9143,7 @@
       <c r="AK175" s="7"/>
       <c r="AL175" s="7"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -9181,7 +9183,7 @@
       <c r="AK176" s="7"/>
       <c r="AL176" s="7"/>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9221,7 +9223,7 @@
       <c r="AK177" s="7"/>
       <c r="AL177" s="7"/>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -9261,7 +9263,7 @@
       <c r="AK178" s="7"/>
       <c r="AL178" s="7"/>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -9301,7 +9303,7 @@
       <c r="AK179" s="7"/>
       <c r="AL179" s="7"/>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -9341,7 +9343,7 @@
       <c r="AK180" s="7"/>
       <c r="AL180" s="7"/>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -9381,7 +9383,7 @@
       <c r="AK181" s="7"/>
       <c r="AL181" s="7"/>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -9421,7 +9423,7 @@
       <c r="AK182" s="7"/>
       <c r="AL182" s="7"/>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -9461,7 +9463,7 @@
       <c r="AK183" s="7"/>
       <c r="AL183" s="7"/>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -9501,7 +9503,7 @@
       <c r="AK184" s="7"/>
       <c r="AL184" s="7"/>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -9541,7 +9543,7 @@
       <c r="AK185" s="7"/>
       <c r="AL185" s="7"/>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -9581,7 +9583,7 @@
       <c r="AK186" s="7"/>
       <c r="AL186" s="7"/>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -9621,7 +9623,7 @@
       <c r="AK187" s="7"/>
       <c r="AL187" s="7"/>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -9661,7 +9663,7 @@
       <c r="AK188" s="7"/>
       <c r="AL188" s="7"/>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -9701,7 +9703,7 @@
       <c r="AK189" s="7"/>
       <c r="AL189" s="7"/>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -9741,7 +9743,7 @@
       <c r="AK190" s="7"/>
       <c r="AL190" s="7"/>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -9781,7 +9783,7 @@
       <c r="AK191" s="7"/>
       <c r="AL191" s="7"/>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -9821,7 +9823,7 @@
       <c r="AK192" s="7"/>
       <c r="AL192" s="7"/>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -9861,7 +9863,7 @@
       <c r="AK193" s="7"/>
       <c r="AL193" s="7"/>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -9901,7 +9903,7 @@
       <c r="AK194" s="7"/>
       <c r="AL194" s="7"/>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -9941,7 +9943,7 @@
       <c r="AK195" s="7"/>
       <c r="AL195" s="7"/>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -9981,7 +9983,7 @@
       <c r="AK196" s="7"/>
       <c r="AL196" s="7"/>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -10021,7 +10023,7 @@
       <c r="AK197" s="7"/>
       <c r="AL197" s="7"/>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -10061,7 +10063,7 @@
       <c r="AK198" s="7"/>
       <c r="AL198" s="7"/>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -10101,7 +10103,7 @@
       <c r="AK199" s="7"/>
       <c r="AL199" s="7"/>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -10141,7 +10143,7 @@
       <c r="AK200" s="7"/>
       <c r="AL200" s="7"/>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -10181,7 +10183,7 @@
       <c r="AK201" s="7"/>
       <c r="AL201" s="7"/>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -10221,7 +10223,7 @@
       <c r="AK202" s="7"/>
       <c r="AL202" s="7"/>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -10261,7 +10263,7 @@
       <c r="AK203" s="7"/>
       <c r="AL203" s="7"/>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -10301,7 +10303,7 @@
       <c r="AK204" s="7"/>
       <c r="AL204" s="7"/>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -10341,7 +10343,7 @@
       <c r="AK205" s="7"/>
       <c r="AL205" s="7"/>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -10381,7 +10383,7 @@
       <c r="AK206" s="7"/>
       <c r="AL206" s="7"/>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -10421,7 +10423,7 @@
       <c r="AK207" s="7"/>
       <c r="AL207" s="7"/>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -10461,7 +10463,7 @@
       <c r="AK208" s="7"/>
       <c r="AL208" s="7"/>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -10501,7 +10503,7 @@
       <c r="AK209" s="7"/>
       <c r="AL209" s="7"/>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -10541,7 +10543,7 @@
       <c r="AK210" s="7"/>
       <c r="AL210" s="7"/>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -10581,7 +10583,7 @@
       <c r="AK211" s="7"/>
       <c r="AL211" s="7"/>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -10621,7 +10623,7 @@
       <c r="AK212" s="7"/>
       <c r="AL212" s="7"/>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -10661,7 +10663,7 @@
       <c r="AK213" s="7"/>
       <c r="AL213" s="7"/>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -10701,7 +10703,7 @@
       <c r="AK214" s="7"/>
       <c r="AL214" s="7"/>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -10741,7 +10743,7 @@
       <c r="AK215" s="7"/>
       <c r="AL215" s="7"/>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -10781,7 +10783,7 @@
       <c r="AK216" s="7"/>
       <c r="AL216" s="7"/>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -10821,7 +10823,7 @@
       <c r="AK217" s="7"/>
       <c r="AL217" s="7"/>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -10861,7 +10863,7 @@
       <c r="AK218" s="7"/>
       <c r="AL218" s="7"/>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -10901,7 +10903,7 @@
       <c r="AK219" s="7"/>
       <c r="AL219" s="7"/>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -10941,7 +10943,7 @@
       <c r="AK220" s="7"/>
       <c r="AL220" s="7"/>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -10981,7 +10983,7 @@
       <c r="AK221" s="7"/>
       <c r="AL221" s="7"/>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -11021,7 +11023,7 @@
       <c r="AK222" s="7"/>
       <c r="AL222" s="7"/>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -11061,7 +11063,7 @@
       <c r="AK223" s="7"/>
       <c r="AL223" s="7"/>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -11101,7 +11103,7 @@
       <c r="AK224" s="7"/>
       <c r="AL224" s="7"/>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -11141,7 +11143,7 @@
       <c r="AK225" s="7"/>
       <c r="AL225" s="7"/>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -11181,7 +11183,7 @@
       <c r="AK226" s="7"/>
       <c r="AL226" s="7"/>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -11221,7 +11223,7 @@
       <c r="AK227" s="7"/>
       <c r="AL227" s="7"/>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -11261,7 +11263,7 @@
       <c r="AK228" s="7"/>
       <c r="AL228" s="7"/>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -11301,7 +11303,7 @@
       <c r="AK229" s="7"/>
       <c r="AL229" s="7"/>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -11341,7 +11343,7 @@
       <c r="AK230" s="7"/>
       <c r="AL230" s="7"/>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -11381,7 +11383,7 @@
       <c r="AK231" s="7"/>
       <c r="AL231" s="7"/>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -11421,7 +11423,7 @@
       <c r="AK232" s="7"/>
       <c r="AL232" s="7"/>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -11461,7 +11463,7 @@
       <c r="AK233" s="7"/>
       <c r="AL233" s="7"/>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -11501,7 +11503,7 @@
       <c r="AK234" s="7"/>
       <c r="AL234" s="7"/>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -11541,7 +11543,7 @@
       <c r="AK235" s="7"/>
       <c r="AL235" s="7"/>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -11581,7 +11583,7 @@
       <c r="AK236" s="7"/>
       <c r="AL236" s="7"/>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -11621,7 +11623,7 @@
       <c r="AK237" s="7"/>
       <c r="AL237" s="7"/>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -11661,7 +11663,7 @@
       <c r="AK238" s="7"/>
       <c r="AL238" s="7"/>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -11701,7 +11703,7 @@
       <c r="AK239" s="7"/>
       <c r="AL239" s="7"/>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -11741,7 +11743,7 @@
       <c r="AK240" s="7"/>
       <c r="AL240" s="7"/>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -11781,7 +11783,7 @@
       <c r="AK241" s="7"/>
       <c r="AL241" s="7"/>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -11821,7 +11823,7 @@
       <c r="AK242" s="7"/>
       <c r="AL242" s="7"/>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -11861,7 +11863,7 @@
       <c r="AK243" s="7"/>
       <c r="AL243" s="7"/>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -11901,7 +11903,7 @@
       <c r="AK244" s="7"/>
       <c r="AL244" s="7"/>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -11941,7 +11943,7 @@
       <c r="AK245" s="7"/>
       <c r="AL245" s="7"/>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -11981,7 +11983,7 @@
       <c r="AK246" s="7"/>
       <c r="AL246" s="7"/>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -12021,7 +12023,7 @@
       <c r="AK247" s="7"/>
       <c r="AL247" s="7"/>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -12061,7 +12063,7 @@
       <c r="AK248" s="7"/>
       <c r="AL248" s="7"/>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -12101,7 +12103,7 @@
       <c r="AK249" s="7"/>
       <c r="AL249" s="7"/>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -12141,7 +12143,7 @@
       <c r="AK250" s="7"/>
       <c r="AL250" s="7"/>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -12181,7 +12183,7 @@
       <c r="AK251" s="7"/>
       <c r="AL251" s="7"/>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -12221,7 +12223,7 @@
       <c r="AK252" s="7"/>
       <c r="AL252" s="7"/>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -12261,7 +12263,7 @@
       <c r="AK253" s="7"/>
       <c r="AL253" s="7"/>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -12301,7 +12303,7 @@
       <c r="AK254" s="7"/>
       <c r="AL254" s="7"/>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -12341,7 +12343,7 @@
       <c r="AK255" s="7"/>
       <c r="AL255" s="7"/>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -12381,7 +12383,7 @@
       <c r="AK256" s="7"/>
       <c r="AL256" s="7"/>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -12421,7 +12423,7 @@
       <c r="AK257" s="7"/>
       <c r="AL257" s="7"/>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -12461,7 +12463,7 @@
       <c r="AK258" s="7"/>
       <c r="AL258" s="7"/>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -12501,7 +12503,7 @@
       <c r="AK259" s="7"/>
       <c r="AL259" s="7"/>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -12541,7 +12543,7 @@
       <c r="AK260" s="7"/>
       <c r="AL260" s="7"/>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -12581,7 +12583,7 @@
       <c r="AK261" s="7"/>
       <c r="AL261" s="7"/>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -12621,7 +12623,7 @@
       <c r="AK262" s="7"/>
       <c r="AL262" s="7"/>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -12661,7 +12663,7 @@
       <c r="AK263" s="7"/>
       <c r="AL263" s="7"/>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -12701,7 +12703,7 @@
       <c r="AK264" s="7"/>
       <c r="AL264" s="7"/>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -12741,7 +12743,7 @@
       <c r="AK265" s="7"/>
       <c r="AL265" s="7"/>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -12781,7 +12783,7 @@
       <c r="AK266" s="7"/>
       <c r="AL266" s="7"/>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -12821,7 +12823,7 @@
       <c r="AK267" s="7"/>
       <c r="AL267" s="7"/>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -12861,7 +12863,7 @@
       <c r="AK268" s="7"/>
       <c r="AL268" s="7"/>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -12901,7 +12903,7 @@
       <c r="AK269" s="7"/>
       <c r="AL269" s="7"/>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -12941,7 +12943,7 @@
       <c r="AK270" s="7"/>
       <c r="AL270" s="7"/>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -12981,7 +12983,7 @@
       <c r="AK271" s="7"/>
       <c r="AL271" s="7"/>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -13021,7 +13023,7 @@
       <c r="AK272" s="7"/>
       <c r="AL272" s="7"/>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -13061,7 +13063,7 @@
       <c r="AK273" s="7"/>
       <c r="AL273" s="7"/>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -13101,7 +13103,7 @@
       <c r="AK274" s="7"/>
       <c r="AL274" s="7"/>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -13141,7 +13143,7 @@
       <c r="AK275" s="7"/>
       <c r="AL275" s="7"/>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -13181,7 +13183,7 @@
       <c r="AK276" s="7"/>
       <c r="AL276" s="7"/>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -13221,7 +13223,7 @@
       <c r="AK277" s="7"/>
       <c r="AL277" s="7"/>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -13261,7 +13263,7 @@
       <c r="AK278" s="7"/>
       <c r="AL278" s="7"/>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -13301,7 +13303,7 @@
       <c r="AK279" s="7"/>
       <c r="AL279" s="7"/>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -13341,7 +13343,7 @@
       <c r="AK280" s="7"/>
       <c r="AL280" s="7"/>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -13381,7 +13383,7 @@
       <c r="AK281" s="7"/>
       <c r="AL281" s="7"/>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -13421,7 +13423,7 @@
       <c r="AK282" s="7"/>
       <c r="AL282" s="7"/>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -13461,7 +13463,7 @@
       <c r="AK283" s="7"/>
       <c r="AL283" s="7"/>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -13501,7 +13503,7 @@
       <c r="AK284" s="7"/>
       <c r="AL284" s="7"/>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -13541,7 +13543,7 @@
       <c r="AK285" s="7"/>
       <c r="AL285" s="7"/>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -13581,7 +13583,7 @@
       <c r="AK286" s="7"/>
       <c r="AL286" s="7"/>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -13621,7 +13623,7 @@
       <c r="AK287" s="7"/>
       <c r="AL287" s="7"/>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -13661,7 +13663,7 @@
       <c r="AK288" s="7"/>
       <c r="AL288" s="7"/>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -13701,7 +13703,7 @@
       <c r="AK289" s="7"/>
       <c r="AL289" s="7"/>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -13741,7 +13743,7 @@
       <c r="AK290" s="7"/>
       <c r="AL290" s="7"/>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -13781,7 +13783,7 @@
       <c r="AK291" s="7"/>
       <c r="AL291" s="7"/>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -13821,7 +13823,7 @@
       <c r="AK292" s="7"/>
       <c r="AL292" s="7"/>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -13861,7 +13863,7 @@
       <c r="AK293" s="7"/>
       <c r="AL293" s="7"/>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -13901,7 +13903,7 @@
       <c r="AK294" s="7"/>
       <c r="AL294" s="7"/>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -13941,7 +13943,7 @@
       <c r="AK295" s="7"/>
       <c r="AL295" s="7"/>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -13981,7 +13983,7 @@
       <c r="AK296" s="7"/>
       <c r="AL296" s="7"/>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -14021,7 +14023,7 @@
       <c r="AK297" s="7"/>
       <c r="AL297" s="7"/>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -14061,7 +14063,7 @@
       <c r="AK298" s="7"/>
       <c r="AL298" s="7"/>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -14101,7 +14103,7 @@
       <c r="AK299" s="7"/>
       <c r="AL299" s="7"/>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -14141,7 +14143,7 @@
       <c r="AK300" s="7"/>
       <c r="AL300" s="7"/>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -14181,7 +14183,7 @@
       <c r="AK301" s="7"/>
       <c r="AL301" s="7"/>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -14221,7 +14223,7 @@
       <c r="AK302" s="7"/>
       <c r="AL302" s="7"/>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -14261,7 +14263,7 @@
       <c r="AK303" s="7"/>
       <c r="AL303" s="7"/>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -14301,7 +14303,7 @@
       <c r="AK304" s="7"/>
       <c r="AL304" s="7"/>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -14341,7 +14343,7 @@
       <c r="AK305" s="7"/>
       <c r="AL305" s="7"/>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -14381,7 +14383,7 @@
       <c r="AK306" s="7"/>
       <c r="AL306" s="7"/>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -14421,7 +14423,7 @@
       <c r="AK307" s="7"/>
       <c r="AL307" s="7"/>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -14461,7 +14463,7 @@
       <c r="AK308" s="7"/>
       <c r="AL308" s="7"/>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -14501,7 +14503,7 @@
       <c r="AK309" s="7"/>
       <c r="AL309" s="7"/>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -14541,7 +14543,7 @@
       <c r="AK310" s="7"/>
       <c r="AL310" s="7"/>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -14581,7 +14583,7 @@
       <c r="AK311" s="7"/>
       <c r="AL311" s="7"/>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -14621,7 +14623,7 @@
       <c r="AK312" s="7"/>
       <c r="AL312" s="7"/>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -14661,7 +14663,7 @@
       <c r="AK313" s="7"/>
       <c r="AL313" s="7"/>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -14701,7 +14703,7 @@
       <c r="AK314" s="7"/>
       <c r="AL314" s="7"/>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -14741,7 +14743,7 @@
       <c r="AK315" s="7"/>
       <c r="AL315" s="7"/>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -14781,7 +14783,7 @@
       <c r="AK316" s="7"/>
       <c r="AL316" s="7"/>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -14821,7 +14823,7 @@
       <c r="AK317" s="7"/>
       <c r="AL317" s="7"/>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -14861,7 +14863,7 @@
       <c r="AK318" s="7"/>
       <c r="AL318" s="7"/>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -14901,7 +14903,7 @@
       <c r="AK319" s="7"/>
       <c r="AL319" s="7"/>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -14941,7 +14943,7 @@
       <c r="AK320" s="7"/>
       <c r="AL320" s="7"/>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -14981,7 +14983,7 @@
       <c r="AK321" s="7"/>
       <c r="AL321" s="7"/>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -15021,7 +15023,7 @@
       <c r="AK322" s="7"/>
       <c r="AL322" s="7"/>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -15061,7 +15063,7 @@
       <c r="AK323" s="7"/>
       <c r="AL323" s="7"/>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -15101,7 +15103,7 @@
       <c r="AK324" s="7"/>
       <c r="AL324" s="7"/>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -15141,7 +15143,7 @@
       <c r="AK325" s="7"/>
       <c r="AL325" s="7"/>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -15181,7 +15183,7 @@
       <c r="AK326" s="7"/>
       <c r="AL326" s="7"/>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -15221,7 +15223,7 @@
       <c r="AK327" s="7"/>
       <c r="AL327" s="7"/>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -15261,7 +15263,7 @@
       <c r="AK328" s="7"/>
       <c r="AL328" s="7"/>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -15301,7 +15303,7 @@
       <c r="AK329" s="7"/>
       <c r="AL329" s="7"/>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -15341,7 +15343,7 @@
       <c r="AK330" s="7"/>
       <c r="AL330" s="7"/>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -15381,7 +15383,7 @@
       <c r="AK331" s="7"/>
       <c r="AL331" s="7"/>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -15421,7 +15423,7 @@
       <c r="AK332" s="7"/>
       <c r="AL332" s="7"/>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -15461,7 +15463,7 @@
       <c r="AK333" s="7"/>
       <c r="AL333" s="7"/>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -15501,7 +15503,7 @@
       <c r="AK334" s="7"/>
       <c r="AL334" s="7"/>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -15541,7 +15543,7 @@
       <c r="AK335" s="7"/>
       <c r="AL335" s="7"/>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -15581,7 +15583,7 @@
       <c r="AK336" s="7"/>
       <c r="AL336" s="7"/>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -15621,7 +15623,7 @@
       <c r="AK337" s="7"/>
       <c r="AL337" s="7"/>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -15661,7 +15663,7 @@
       <c r="AK338" s="7"/>
       <c r="AL338" s="7"/>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -15701,7 +15703,7 @@
       <c r="AK339" s="7"/>
       <c r="AL339" s="7"/>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -15741,7 +15743,7 @@
       <c r="AK340" s="7"/>
       <c r="AL340" s="7"/>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -15781,7 +15783,7 @@
       <c r="AK341" s="7"/>
       <c r="AL341" s="7"/>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -15821,7 +15823,7 @@
       <c r="AK342" s="7"/>
       <c r="AL342" s="7"/>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -15861,7 +15863,7 @@
       <c r="AK343" s="7"/>
       <c r="AL343" s="7"/>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -15901,7 +15903,7 @@
       <c r="AK344" s="7"/>
       <c r="AL344" s="7"/>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -15941,7 +15943,7 @@
       <c r="AK345" s="7"/>
       <c r="AL345" s="7"/>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -15981,7 +15983,7 @@
       <c r="AK346" s="7"/>
       <c r="AL346" s="7"/>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -16021,7 +16023,7 @@
       <c r="AK347" s="7"/>
       <c r="AL347" s="7"/>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -16061,7 +16063,7 @@
       <c r="AK348" s="7"/>
       <c r="AL348" s="7"/>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -16101,7 +16103,7 @@
       <c r="AK349" s="7"/>
       <c r="AL349" s="7"/>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -16141,7 +16143,7 @@
       <c r="AK350" s="7"/>
       <c r="AL350" s="7"/>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -16181,7 +16183,7 @@
       <c r="AK351" s="7"/>
       <c r="AL351" s="7"/>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -16221,7 +16223,7 @@
       <c r="AK352" s="7"/>
       <c r="AL352" s="7"/>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -16261,7 +16263,7 @@
       <c r="AK353" s="7"/>
       <c r="AL353" s="7"/>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -16301,7 +16303,7 @@
       <c r="AK354" s="7"/>
       <c r="AL354" s="7"/>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -16341,7 +16343,7 @@
       <c r="AK355" s="7"/>
       <c r="AL355" s="7"/>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -16381,7 +16383,7 @@
       <c r="AK356" s="7"/>
       <c r="AL356" s="7"/>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -16421,7 +16423,7 @@
       <c r="AK357" s="7"/>
       <c r="AL357" s="7"/>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -16461,7 +16463,7 @@
       <c r="AK358" s="7"/>
       <c r="AL358" s="7"/>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -16501,7 +16503,7 @@
       <c r="AK359" s="7"/>
       <c r="AL359" s="7"/>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -16541,7 +16543,7 @@
       <c r="AK360" s="7"/>
       <c r="AL360" s="7"/>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -16581,7 +16583,7 @@
       <c r="AK361" s="7"/>
       <c r="AL361" s="7"/>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -16621,7 +16623,7 @@
       <c r="AK362" s="7"/>
       <c r="AL362" s="7"/>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -16661,7 +16663,7 @@
       <c r="AK363" s="7"/>
       <c r="AL363" s="7"/>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -16701,7 +16703,7 @@
       <c r="AK364" s="7"/>
       <c r="AL364" s="7"/>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -16741,7 +16743,7 @@
       <c r="AK365" s="7"/>
       <c r="AL365" s="7"/>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -16781,7 +16783,7 @@
       <c r="AK366" s="7"/>
       <c r="AL366" s="7"/>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -16821,7 +16823,7 @@
       <c r="AK367" s="7"/>
       <c r="AL367" s="7"/>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -16861,7 +16863,7 @@
       <c r="AK368" s="7"/>
       <c r="AL368" s="7"/>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -16901,7 +16903,7 @@
       <c r="AK369" s="7"/>
       <c r="AL369" s="7"/>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -16941,7 +16943,7 @@
       <c r="AK370" s="7"/>
       <c r="AL370" s="7"/>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -16981,7 +16983,7 @@
       <c r="AK371" s="7"/>
       <c r="AL371" s="7"/>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -17021,7 +17023,7 @@
       <c r="AK372" s="7"/>
       <c r="AL372" s="7"/>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -17061,7 +17063,7 @@
       <c r="AK373" s="7"/>
       <c r="AL373" s="7"/>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -17101,7 +17103,7 @@
       <c r="AK374" s="7"/>
       <c r="AL374" s="7"/>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -17141,7 +17143,7 @@
       <c r="AK375" s="7"/>
       <c r="AL375" s="7"/>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -17181,7 +17183,7 @@
       <c r="AK376" s="7"/>
       <c r="AL376" s="7"/>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -17221,7 +17223,7 @@
       <c r="AK377" s="7"/>
       <c r="AL377" s="7"/>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -17261,7 +17263,7 @@
       <c r="AK378" s="7"/>
       <c r="AL378" s="7"/>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -17301,7 +17303,7 @@
       <c r="AK379" s="7"/>
       <c r="AL379" s="7"/>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -17341,7 +17343,7 @@
       <c r="AK380" s="7"/>
       <c r="AL380" s="7"/>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -17381,7 +17383,7 @@
       <c r="AK381" s="7"/>
       <c r="AL381" s="7"/>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -17421,7 +17423,7 @@
       <c r="AK382" s="7"/>
       <c r="AL382" s="7"/>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -17461,7 +17463,7 @@
       <c r="AK383" s="7"/>
       <c r="AL383" s="7"/>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -17501,7 +17503,7 @@
       <c r="AK384" s="7"/>
       <c r="AL384" s="7"/>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -17541,7 +17543,7 @@
       <c r="AK385" s="7"/>
       <c r="AL385" s="7"/>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -17581,7 +17583,7 @@
       <c r="AK386" s="7"/>
       <c r="AL386" s="7"/>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -17621,7 +17623,7 @@
       <c r="AK387" s="7"/>
       <c r="AL387" s="7"/>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -17661,7 +17663,7 @@
       <c r="AK388" s="7"/>
       <c r="AL388" s="7"/>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -17701,7 +17703,7 @@
       <c r="AK389" s="7"/>
       <c r="AL389" s="7"/>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -17741,7 +17743,7 @@
       <c r="AK390" s="7"/>
       <c r="AL390" s="7"/>
     </row>
-    <row r="391" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -17781,7 +17783,7 @@
       <c r="AK391" s="7"/>
       <c r="AL391" s="7"/>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -17821,7 +17823,7 @@
       <c r="AK392" s="7"/>
       <c r="AL392" s="7"/>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -17861,7 +17863,7 @@
       <c r="AK393" s="7"/>
       <c r="AL393" s="7"/>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -17901,7 +17903,7 @@
       <c r="AK394" s="7"/>
       <c r="AL394" s="7"/>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -17941,7 +17943,7 @@
       <c r="AK395" s="7"/>
       <c r="AL395" s="7"/>
     </row>
-    <row r="396" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -17981,7 +17983,7 @@
       <c r="AK396" s="7"/>
       <c r="AL396" s="7"/>
     </row>
-    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -18021,7 +18023,7 @@
       <c r="AK397" s="7"/>
       <c r="AL397" s="7"/>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -18061,7 +18063,7 @@
       <c r="AK398" s="7"/>
       <c r="AL398" s="7"/>
     </row>
-    <row r="399" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -18101,7 +18103,7 @@
       <c r="AK399" s="7"/>
       <c r="AL399" s="7"/>
     </row>
-    <row r="400" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -18141,7 +18143,7 @@
       <c r="AK400" s="7"/>
       <c r="AL400" s="7"/>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -18181,7 +18183,7 @@
       <c r="AK401" s="7"/>
       <c r="AL401" s="7"/>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -18221,7 +18223,7 @@
       <c r="AK402" s="7"/>
       <c r="AL402" s="7"/>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -18261,7 +18263,7 @@
       <c r="AK403" s="7"/>
       <c r="AL403" s="7"/>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -18301,7 +18303,7 @@
       <c r="AK404" s="7"/>
       <c r="AL404" s="7"/>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -18341,7 +18343,7 @@
       <c r="AK405" s="7"/>
       <c r="AL405" s="7"/>
     </row>
-    <row r="406" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -18381,7 +18383,7 @@
       <c r="AK406" s="7"/>
       <c r="AL406" s="7"/>
     </row>
-    <row r="407" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -18421,7 +18423,7 @@
       <c r="AK407" s="7"/>
       <c r="AL407" s="7"/>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -18461,7 +18463,7 @@
       <c r="AK408" s="7"/>
       <c r="AL408" s="7"/>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -18501,7 +18503,7 @@
       <c r="AK409" s="7"/>
       <c r="AL409" s="7"/>
     </row>
-    <row r="410" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -18541,7 +18543,7 @@
       <c r="AK410" s="7"/>
       <c r="AL410" s="7"/>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -18581,7 +18583,7 @@
       <c r="AK411" s="7"/>
       <c r="AL411" s="7"/>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -18621,7 +18623,7 @@
       <c r="AK412" s="7"/>
       <c r="AL412" s="7"/>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -18661,7 +18663,7 @@
       <c r="AK413" s="7"/>
       <c r="AL413" s="7"/>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -18701,7 +18703,7 @@
       <c r="AK414" s="7"/>
       <c r="AL414" s="7"/>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -18741,7 +18743,7 @@
       <c r="AK415" s="7"/>
       <c r="AL415" s="7"/>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -18781,7 +18783,7 @@
       <c r="AK416" s="7"/>
       <c r="AL416" s="7"/>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -18821,7 +18823,7 @@
       <c r="AK417" s="7"/>
       <c r="AL417" s="7"/>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -18861,7 +18863,7 @@
       <c r="AK418" s="7"/>
       <c r="AL418" s="7"/>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -18901,7 +18903,7 @@
       <c r="AK419" s="7"/>
       <c r="AL419" s="7"/>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -18941,7 +18943,7 @@
       <c r="AK420" s="7"/>
       <c r="AL420" s="7"/>
     </row>
-    <row r="421" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -18981,7 +18983,7 @@
       <c r="AK421" s="7"/>
       <c r="AL421" s="7"/>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -19021,7 +19023,7 @@
       <c r="AK422" s="7"/>
       <c r="AL422" s="7"/>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -19061,7 +19063,7 @@
       <c r="AK423" s="7"/>
       <c r="AL423" s="7"/>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -19101,7 +19103,7 @@
       <c r="AK424" s="7"/>
       <c r="AL424" s="7"/>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -19141,7 +19143,7 @@
       <c r="AK425" s="7"/>
       <c r="AL425" s="7"/>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -19181,7 +19183,7 @@
       <c r="AK426" s="7"/>
       <c r="AL426" s="7"/>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -19221,7 +19223,7 @@
       <c r="AK427" s="7"/>
       <c r="AL427" s="7"/>
     </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -19261,7 +19263,7 @@
       <c r="AK428" s="7"/>
       <c r="AL428" s="7"/>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -19301,7 +19303,7 @@
       <c r="AK429" s="7"/>
       <c r="AL429" s="7"/>
     </row>
-    <row r="430" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -19341,7 +19343,7 @@
       <c r="AK430" s="7"/>
       <c r="AL430" s="7"/>
     </row>
-    <row r="431" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -19381,7 +19383,7 @@
       <c r="AK431" s="7"/>
       <c r="AL431" s="7"/>
     </row>
-    <row r="432" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -19421,7 +19423,7 @@
       <c r="AK432" s="7"/>
       <c r="AL432" s="7"/>
     </row>
-    <row r="433" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -19461,7 +19463,7 @@
       <c r="AK433" s="7"/>
       <c r="AL433" s="7"/>
     </row>
-    <row r="434" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -19501,7 +19503,7 @@
       <c r="AK434" s="7"/>
       <c r="AL434" s="7"/>
     </row>
-    <row r="435" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -19541,7 +19543,7 @@
       <c r="AK435" s="7"/>
       <c r="AL435" s="7"/>
     </row>
-    <row r="436" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -19581,7 +19583,7 @@
       <c r="AK436" s="7"/>
       <c r="AL436" s="7"/>
     </row>
-    <row r="437" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -19621,7 +19623,7 @@
       <c r="AK437" s="7"/>
       <c r="AL437" s="7"/>
     </row>
-    <row r="438" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -19661,7 +19663,7 @@
       <c r="AK438" s="7"/>
       <c r="AL438" s="7"/>
     </row>
-    <row r="439" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -19701,7 +19703,7 @@
       <c r="AK439" s="7"/>
       <c r="AL439" s="7"/>
     </row>
-    <row r="440" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -19741,7 +19743,7 @@
       <c r="AK440" s="7"/>
       <c r="AL440" s="7"/>
     </row>
-    <row r="441" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -19781,7 +19783,7 @@
       <c r="AK441" s="7"/>
       <c r="AL441" s="7"/>
     </row>
-    <row r="442" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -19821,7 +19823,7 @@
       <c r="AK442" s="7"/>
       <c r="AL442" s="7"/>
     </row>
-    <row r="443" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -19861,7 +19863,7 @@
       <c r="AK443" s="7"/>
       <c r="AL443" s="7"/>
     </row>
-    <row r="444" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -19901,7 +19903,7 @@
       <c r="AK444" s="7"/>
       <c r="AL444" s="7"/>
     </row>
-    <row r="445" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -19941,7 +19943,7 @@
       <c r="AK445" s="7"/>
       <c r="AL445" s="7"/>
     </row>
-    <row r="446" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -19981,7 +19983,7 @@
       <c r="AK446" s="7"/>
       <c r="AL446" s="7"/>
     </row>
-    <row r="447" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -20021,7 +20023,7 @@
       <c r="AK447" s="7"/>
       <c r="AL447" s="7"/>
     </row>
-    <row r="448" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -20061,7 +20063,7 @@
       <c r="AK448" s="7"/>
       <c r="AL448" s="7"/>
     </row>
-    <row r="449" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -20101,7 +20103,7 @@
       <c r="AK449" s="7"/>
       <c r="AL449" s="7"/>
     </row>
-    <row r="450" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -20141,7 +20143,7 @@
       <c r="AK450" s="7"/>
       <c r="AL450" s="7"/>
     </row>
-    <row r="451" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -20181,7 +20183,7 @@
       <c r="AK451" s="7"/>
       <c r="AL451" s="7"/>
     </row>
-    <row r="452" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -20221,7 +20223,7 @@
       <c r="AK452" s="7"/>
       <c r="AL452" s="7"/>
     </row>
-    <row r="453" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -20261,7 +20263,7 @@
       <c r="AK453" s="7"/>
       <c r="AL453" s="7"/>
     </row>
-    <row r="454" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -20301,7 +20303,7 @@
       <c r="AK454" s="7"/>
       <c r="AL454" s="7"/>
     </row>
-    <row r="455" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -20341,7 +20343,7 @@
       <c r="AK455" s="7"/>
       <c r="AL455" s="7"/>
     </row>
-    <row r="456" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -20381,7 +20383,7 @@
       <c r="AK456" s="7"/>
       <c r="AL456" s="7"/>
     </row>
-    <row r="457" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -20421,7 +20423,7 @@
       <c r="AK457" s="7"/>
       <c r="AL457" s="7"/>
     </row>
-    <row r="458" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -20461,7 +20463,7 @@
       <c r="AK458" s="7"/>
       <c r="AL458" s="7"/>
     </row>
-    <row r="459" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -20501,7 +20503,7 @@
       <c r="AK459" s="7"/>
       <c r="AL459" s="7"/>
     </row>
-    <row r="460" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -20541,7 +20543,7 @@
       <c r="AK460" s="7"/>
       <c r="AL460" s="7"/>
     </row>
-    <row r="461" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -20581,7 +20583,7 @@
       <c r="AK461" s="7"/>
       <c r="AL461" s="7"/>
     </row>
-    <row r="462" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -20621,7 +20623,7 @@
       <c r="AK462" s="7"/>
       <c r="AL462" s="7"/>
     </row>
-    <row r="463" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -20661,7 +20663,7 @@
       <c r="AK463" s="7"/>
       <c r="AL463" s="7"/>
     </row>
-    <row r="464" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -20701,7 +20703,7 @@
       <c r="AK464" s="7"/>
       <c r="AL464" s="7"/>
     </row>
-    <row r="465" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -20741,7 +20743,7 @@
       <c r="AK465" s="7"/>
       <c r="AL465" s="7"/>
     </row>
-    <row r="466" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -20781,7 +20783,7 @@
       <c r="AK466" s="7"/>
       <c r="AL466" s="7"/>
     </row>
-    <row r="467" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -20821,7 +20823,7 @@
       <c r="AK467" s="7"/>
       <c r="AL467" s="7"/>
     </row>
-    <row r="468" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -20861,7 +20863,7 @@
       <c r="AK468" s="7"/>
       <c r="AL468" s="7"/>
     </row>
-    <row r="469" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -20901,7 +20903,7 @@
       <c r="AK469" s="7"/>
       <c r="AL469" s="7"/>
     </row>
-    <row r="470" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -20941,7 +20943,7 @@
       <c r="AK470" s="7"/>
       <c r="AL470" s="7"/>
     </row>
-    <row r="471" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -20981,7 +20983,7 @@
       <c r="AK471" s="7"/>
       <c r="AL471" s="7"/>
     </row>
-    <row r="472" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -21021,7 +21023,7 @@
       <c r="AK472" s="7"/>
       <c r="AL472" s="7"/>
     </row>
-    <row r="473" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -21061,7 +21063,7 @@
       <c r="AK473" s="7"/>
       <c r="AL473" s="7"/>
     </row>
-    <row r="474" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -21101,7 +21103,7 @@
       <c r="AK474" s="7"/>
       <c r="AL474" s="7"/>
     </row>
-    <row r="475" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -21141,7 +21143,7 @@
       <c r="AK475" s="7"/>
       <c r="AL475" s="7"/>
     </row>
-    <row r="476" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -21181,7 +21183,7 @@
       <c r="AK476" s="7"/>
       <c r="AL476" s="7"/>
     </row>
-    <row r="477" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -21221,7 +21223,7 @@
       <c r="AK477" s="7"/>
       <c r="AL477" s="7"/>
     </row>
-    <row r="478" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -21261,7 +21263,7 @@
       <c r="AK478" s="7"/>
       <c r="AL478" s="7"/>
     </row>
-    <row r="479" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -21301,7 +21303,7 @@
       <c r="AK479" s="7"/>
       <c r="AL479" s="7"/>
     </row>
-    <row r="480" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -21341,7 +21343,7 @@
       <c r="AK480" s="7"/>
       <c r="AL480" s="7"/>
     </row>
-    <row r="481" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -21381,7 +21383,7 @@
       <c r="AK481" s="7"/>
       <c r="AL481" s="7"/>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -21421,7 +21423,7 @@
       <c r="AK482" s="7"/>
       <c r="AL482" s="7"/>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -21461,7 +21463,7 @@
       <c r="AK483" s="7"/>
       <c r="AL483" s="7"/>
     </row>
-    <row r="484" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -21501,7 +21503,7 @@
       <c r="AK484" s="7"/>
       <c r="AL484" s="7"/>
     </row>
-    <row r="485" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -21541,7 +21543,7 @@
       <c r="AK485" s="7"/>
       <c r="AL485" s="7"/>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -21581,7 +21583,7 @@
       <c r="AK486" s="7"/>
       <c r="AL486" s="7"/>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -21621,7 +21623,7 @@
       <c r="AK487" s="7"/>
       <c r="AL487" s="7"/>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -21661,7 +21663,7 @@
       <c r="AK488" s="7"/>
       <c r="AL488" s="7"/>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -21701,7 +21703,7 @@
       <c r="AK489" s="7"/>
       <c r="AL489" s="7"/>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -21741,7 +21743,7 @@
       <c r="AK490" s="7"/>
       <c r="AL490" s="7"/>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -21781,7 +21783,7 @@
       <c r="AK491" s="7"/>
       <c r="AL491" s="7"/>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -21821,7 +21823,7 @@
       <c r="AK492" s="7"/>
       <c r="AL492" s="7"/>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -21861,7 +21863,7 @@
       <c r="AK493" s="7"/>
       <c r="AL493" s="7"/>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -21901,7 +21903,7 @@
       <c r="AK494" s="7"/>
       <c r="AL494" s="7"/>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -21941,7 +21943,7 @@
       <c r="AK495" s="7"/>
       <c r="AL495" s="7"/>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -21981,7 +21983,7 @@
       <c r="AK496" s="7"/>
       <c r="AL496" s="7"/>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -22021,7 +22023,7 @@
       <c r="AK497" s="7"/>
       <c r="AL497" s="7"/>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -22061,7 +22063,7 @@
       <c r="AK498" s="7"/>
       <c r="AL498" s="7"/>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -22101,7 +22103,7 @@
       <c r="AK499" s="7"/>
       <c r="AL499" s="7"/>
     </row>
-    <row r="500" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -22141,7 +22143,7 @@
       <c r="AK500" s="7"/>
       <c r="AL500" s="7"/>
     </row>
-    <row r="501" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -22181,7 +22183,7 @@
       <c r="AK501" s="7"/>
       <c r="AL501" s="7"/>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -22221,7 +22223,7 @@
       <c r="AK502" s="7"/>
       <c r="AL502" s="7"/>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -22261,7 +22263,7 @@
       <c r="AK503" s="7"/>
       <c r="AL503" s="7"/>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -22301,7 +22303,7 @@
       <c r="AK504" s="7"/>
       <c r="AL504" s="7"/>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -22341,7 +22343,7 @@
       <c r="AK505" s="7"/>
       <c r="AL505" s="7"/>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -22381,7 +22383,7 @@
       <c r="AK506" s="7"/>
       <c r="AL506" s="7"/>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -22421,7 +22423,7 @@
       <c r="AK507" s="7"/>
       <c r="AL507" s="7"/>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -22461,7 +22463,7 @@
       <c r="AK508" s="7"/>
       <c r="AL508" s="7"/>
     </row>
-    <row r="509" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -22501,7 +22503,7 @@
       <c r="AK509" s="7"/>
       <c r="AL509" s="7"/>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -22541,7 +22543,7 @@
       <c r="AK510" s="7"/>
       <c r="AL510" s="7"/>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -22581,7 +22583,7 @@
       <c r="AK511" s="7"/>
       <c r="AL511" s="7"/>
     </row>
-    <row r="512" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -22621,7 +22623,7 @@
       <c r="AK512" s="7"/>
       <c r="AL512" s="7"/>
     </row>
-    <row r="513" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -22661,7 +22663,7 @@
       <c r="AK513" s="7"/>
       <c r="AL513" s="7"/>
     </row>
-    <row r="514" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -22701,7 +22703,7 @@
       <c r="AK514" s="7"/>
       <c r="AL514" s="7"/>
     </row>
-    <row r="515" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -22741,7 +22743,7 @@
       <c r="AK515" s="7"/>
       <c r="AL515" s="7"/>
     </row>
-    <row r="516" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -22781,7 +22783,7 @@
       <c r="AK516" s="7"/>
       <c r="AL516" s="7"/>
     </row>
-    <row r="517" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -22821,7 +22823,7 @@
       <c r="AK517" s="7"/>
       <c r="AL517" s="7"/>
     </row>
-    <row r="518" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -22861,7 +22863,7 @@
       <c r="AK518" s="7"/>
       <c r="AL518" s="7"/>
     </row>
-    <row r="519" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -22901,7 +22903,7 @@
       <c r="AK519" s="7"/>
       <c r="AL519" s="7"/>
     </row>
-    <row r="520" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -22941,7 +22943,7 @@
       <c r="AK520" s="7"/>
       <c r="AL520" s="7"/>
     </row>
-    <row r="521" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -22981,7 +22983,7 @@
       <c r="AK521" s="7"/>
       <c r="AL521" s="7"/>
     </row>
-    <row r="522" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -23021,7 +23023,7 @@
       <c r="AK522" s="7"/>
       <c r="AL522" s="7"/>
     </row>
-    <row r="523" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -23061,7 +23063,7 @@
       <c r="AK523" s="7"/>
       <c r="AL523" s="7"/>
     </row>
-    <row r="524" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -23101,7 +23103,7 @@
       <c r="AK524" s="7"/>
       <c r="AL524" s="7"/>
     </row>
-    <row r="525" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -23141,7 +23143,7 @@
       <c r="AK525" s="7"/>
       <c r="AL525" s="7"/>
     </row>
-    <row r="526" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -23181,7 +23183,7 @@
       <c r="AK526" s="7"/>
       <c r="AL526" s="7"/>
     </row>
-    <row r="527" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -23221,7 +23223,7 @@
       <c r="AK527" s="7"/>
       <c r="AL527" s="7"/>
     </row>
-    <row r="528" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -23261,7 +23263,7 @@
       <c r="AK528" s="7"/>
       <c r="AL528" s="7"/>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -23301,7 +23303,7 @@
       <c r="AK529" s="7"/>
       <c r="AL529" s="7"/>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -23341,7 +23343,7 @@
       <c r="AK530" s="7"/>
       <c r="AL530" s="7"/>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -23381,7 +23383,7 @@
       <c r="AK531" s="7"/>
       <c r="AL531" s="7"/>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -23421,7 +23423,7 @@
       <c r="AK532" s="7"/>
       <c r="AL532" s="7"/>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -23461,7 +23463,7 @@
       <c r="AK533" s="7"/>
       <c r="AL533" s="7"/>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -23501,7 +23503,7 @@
       <c r="AK534" s="7"/>
       <c r="AL534" s="7"/>
     </row>
-    <row r="535" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -23541,7 +23543,7 @@
       <c r="AK535" s="7"/>
       <c r="AL535" s="7"/>
     </row>
-    <row r="536" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -23581,7 +23583,7 @@
       <c r="AK536" s="7"/>
       <c r="AL536" s="7"/>
     </row>
-    <row r="537" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -23621,7 +23623,7 @@
       <c r="AK537" s="7"/>
       <c r="AL537" s="7"/>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -23661,7 +23663,7 @@
       <c r="AK538" s="7"/>
       <c r="AL538" s="7"/>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -23701,7 +23703,7 @@
       <c r="AK539" s="7"/>
       <c r="AL539" s="7"/>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -23741,7 +23743,7 @@
       <c r="AK540" s="7"/>
       <c r="AL540" s="7"/>
     </row>
-    <row r="541" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -23781,7 +23783,7 @@
       <c r="AK541" s="7"/>
       <c r="AL541" s="7"/>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -23821,7 +23823,7 @@
       <c r="AK542" s="7"/>
       <c r="AL542" s="7"/>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -23861,7 +23863,7 @@
       <c r="AK543" s="7"/>
       <c r="AL543" s="7"/>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -23901,7 +23903,7 @@
       <c r="AK544" s="7"/>
       <c r="AL544" s="7"/>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -23941,7 +23943,7 @@
       <c r="AK545" s="7"/>
       <c r="AL545" s="7"/>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -23981,7 +23983,7 @@
       <c r="AK546" s="7"/>
       <c r="AL546" s="7"/>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -24021,7 +24023,7 @@
       <c r="AK547" s="7"/>
       <c r="AL547" s="7"/>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -24061,7 +24063,7 @@
       <c r="AK548" s="7"/>
       <c r="AL548" s="7"/>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -24101,7 +24103,7 @@
       <c r="AK549" s="7"/>
       <c r="AL549" s="7"/>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -24141,7 +24143,7 @@
       <c r="AK550" s="7"/>
       <c r="AL550" s="7"/>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -24181,7 +24183,7 @@
       <c r="AK551" s="7"/>
       <c r="AL551" s="7"/>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -24221,7 +24223,7 @@
       <c r="AK552" s="7"/>
       <c r="AL552" s="7"/>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -24261,7 +24263,7 @@
       <c r="AK553" s="7"/>
       <c r="AL553" s="7"/>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -24301,7 +24303,7 @@
       <c r="AK554" s="7"/>
       <c r="AL554" s="7"/>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -24341,7 +24343,7 @@
       <c r="AK555" s="7"/>
       <c r="AL555" s="7"/>
     </row>
-    <row r="556" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -24381,7 +24383,7 @@
       <c r="AK556" s="7"/>
       <c r="AL556" s="7"/>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -24421,7 +24423,7 @@
       <c r="AK557" s="7"/>
       <c r="AL557" s="7"/>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -24461,7 +24463,7 @@
       <c r="AK558" s="7"/>
       <c r="AL558" s="7"/>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -24501,7 +24503,7 @@
       <c r="AK559" s="7"/>
       <c r="AL559" s="7"/>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -24541,7 +24543,7 @@
       <c r="AK560" s="7"/>
       <c r="AL560" s="7"/>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -24581,7 +24583,7 @@
       <c r="AK561" s="7"/>
       <c r="AL561" s="7"/>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -24621,7 +24623,7 @@
       <c r="AK562" s="7"/>
       <c r="AL562" s="7"/>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -24661,7 +24663,7 @@
       <c r="AK563" s="7"/>
       <c r="AL563" s="7"/>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -24701,7 +24703,7 @@
       <c r="AK564" s="7"/>
       <c r="AL564" s="7"/>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -24741,7 +24743,7 @@
       <c r="AK565" s="7"/>
       <c r="AL565" s="7"/>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -24781,7 +24783,7 @@
       <c r="AK566" s="7"/>
       <c r="AL566" s="7"/>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -24821,7 +24823,7 @@
       <c r="AK567" s="7"/>
       <c r="AL567" s="7"/>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -24861,7 +24863,7 @@
       <c r="AK568" s="7"/>
       <c r="AL568" s="7"/>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -24901,7 +24903,7 @@
       <c r="AK569" s="7"/>
       <c r="AL569" s="7"/>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -24941,7 +24943,7 @@
       <c r="AK570" s="7"/>
       <c r="AL570" s="7"/>
     </row>
-    <row r="571" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -24981,7 +24983,7 @@
       <c r="AK571" s="7"/>
       <c r="AL571" s="7"/>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -25021,7 +25023,7 @@
       <c r="AK572" s="7"/>
       <c r="AL572" s="7"/>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -25061,7 +25063,7 @@
       <c r="AK573" s="7"/>
       <c r="AL573" s="7"/>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -25101,7 +25103,7 @@
       <c r="AK574" s="7"/>
       <c r="AL574" s="7"/>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -25141,7 +25143,7 @@
       <c r="AK575" s="7"/>
       <c r="AL575" s="7"/>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -25181,7 +25183,7 @@
       <c r="AK576" s="7"/>
       <c r="AL576" s="7"/>
     </row>
-    <row r="577" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -25221,7 +25223,7 @@
       <c r="AK577" s="7"/>
       <c r="AL577" s="7"/>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -25261,7 +25263,7 @@
       <c r="AK578" s="7"/>
       <c r="AL578" s="7"/>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -25301,7 +25303,7 @@
       <c r="AK579" s="7"/>
       <c r="AL579" s="7"/>
     </row>
-    <row r="580" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -25341,7 +25343,7 @@
       <c r="AK580" s="7"/>
       <c r="AL580" s="7"/>
     </row>
-    <row r="581" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -25381,7 +25383,7 @@
       <c r="AK581" s="7"/>
       <c r="AL581" s="7"/>
     </row>
-    <row r="582" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -25421,7 +25423,7 @@
       <c r="AK582" s="7"/>
       <c r="AL582" s="7"/>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -25461,7 +25463,7 @@
       <c r="AK583" s="7"/>
       <c r="AL583" s="7"/>
     </row>
-    <row r="584" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -25501,7 +25503,7 @@
       <c r="AK584" s="7"/>
       <c r="AL584" s="7"/>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -25541,7 +25543,7 @@
       <c r="AK585" s="7"/>
       <c r="AL585" s="7"/>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -25581,7 +25583,7 @@
       <c r="AK586" s="7"/>
       <c r="AL586" s="7"/>
     </row>
-    <row r="587" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -25621,7 +25623,7 @@
       <c r="AK587" s="7"/>
       <c r="AL587" s="7"/>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -25661,7 +25663,7 @@
       <c r="AK588" s="7"/>
       <c r="AL588" s="7"/>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -25701,7 +25703,7 @@
       <c r="AK589" s="7"/>
       <c r="AL589" s="7"/>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -25741,7 +25743,7 @@
       <c r="AK590" s="7"/>
       <c r="AL590" s="7"/>
     </row>
-    <row r="591" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -25781,7 +25783,7 @@
       <c r="AK591" s="7"/>
       <c r="AL591" s="7"/>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -25821,7 +25823,7 @@
       <c r="AK592" s="7"/>
       <c r="AL592" s="7"/>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -25861,7 +25863,7 @@
       <c r="AK593" s="7"/>
       <c r="AL593" s="7"/>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -25901,7 +25903,7 @@
       <c r="AK594" s="7"/>
       <c r="AL594" s="7"/>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -25941,7 +25943,7 @@
       <c r="AK595" s="7"/>
       <c r="AL595" s="7"/>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -25981,7 +25983,7 @@
       <c r="AK596" s="7"/>
       <c r="AL596" s="7"/>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -26021,7 +26023,7 @@
       <c r="AK597" s="7"/>
       <c r="AL597" s="7"/>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -26061,7 +26063,7 @@
       <c r="AK598" s="7"/>
       <c r="AL598" s="7"/>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -26101,7 +26103,7 @@
       <c r="AK599" s="7"/>
       <c r="AL599" s="7"/>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -26141,7 +26143,7 @@
       <c r="AK600" s="7"/>
       <c r="AL600" s="7"/>
     </row>
-    <row r="601" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -26181,7 +26183,7 @@
       <c r="AK601" s="7"/>
       <c r="AL601" s="7"/>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -26221,7 +26223,7 @@
       <c r="AK602" s="7"/>
       <c r="AL602" s="7"/>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -26261,7 +26263,7 @@
       <c r="AK603" s="7"/>
       <c r="AL603" s="7"/>
     </row>
-    <row r="604" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -26301,7 +26303,7 @@
       <c r="AK604" s="7"/>
       <c r="AL604" s="7"/>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -26341,7 +26343,7 @@
       <c r="AK605" s="7"/>
       <c r="AL605" s="7"/>
     </row>
-    <row r="606" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -26381,7 +26383,7 @@
       <c r="AK606" s="7"/>
       <c r="AL606" s="7"/>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -26421,7 +26423,7 @@
       <c r="AK607" s="7"/>
       <c r="AL607" s="7"/>
     </row>
-    <row r="608" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -26461,7 +26463,7 @@
       <c r="AK608" s="7"/>
       <c r="AL608" s="7"/>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -26501,7 +26503,7 @@
       <c r="AK609" s="7"/>
       <c r="AL609" s="7"/>
     </row>
-    <row r="610" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -26541,7 +26543,7 @@
       <c r="AK610" s="7"/>
       <c r="AL610" s="7"/>
     </row>
-    <row r="611" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -26581,7 +26583,7 @@
       <c r="AK611" s="7"/>
       <c r="AL611" s="7"/>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -26621,7 +26623,7 @@
       <c r="AK612" s="7"/>
       <c r="AL612" s="7"/>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -26661,7 +26663,7 @@
       <c r="AK613" s="7"/>
       <c r="AL613" s="7"/>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -26701,7 +26703,7 @@
       <c r="AK614" s="7"/>
       <c r="AL614" s="7"/>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -26741,7 +26743,7 @@
       <c r="AK615" s="7"/>
       <c r="AL615" s="7"/>
     </row>
-    <row r="616" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -26781,7 +26783,7 @@
       <c r="AK616" s="7"/>
       <c r="AL616" s="7"/>
     </row>
-    <row r="617" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -26821,7 +26823,7 @@
       <c r="AK617" s="7"/>
       <c r="AL617" s="7"/>
     </row>
-    <row r="618" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -26861,7 +26863,7 @@
       <c r="AK618" s="7"/>
       <c r="AL618" s="7"/>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -26901,7 +26903,7 @@
       <c r="AK619" s="7"/>
       <c r="AL619" s="7"/>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -26941,7 +26943,7 @@
       <c r="AK620" s="7"/>
       <c r="AL620" s="7"/>
     </row>
-    <row r="621" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -26981,7 +26983,7 @@
       <c r="AK621" s="7"/>
       <c r="AL621" s="7"/>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -27021,7 +27023,7 @@
       <c r="AK622" s="7"/>
       <c r="AL622" s="7"/>
     </row>
-    <row r="623" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -27061,7 +27063,7 @@
       <c r="AK623" s="7"/>
       <c r="AL623" s="7"/>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -27101,7 +27103,7 @@
       <c r="AK624" s="7"/>
       <c r="AL624" s="7"/>
     </row>
-    <row r="625" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -27141,7 +27143,7 @@
       <c r="AK625" s="7"/>
       <c r="AL625" s="7"/>
     </row>
-    <row r="626" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -27181,7 +27183,7 @@
       <c r="AK626" s="7"/>
       <c r="AL626" s="7"/>
     </row>
-    <row r="627" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -27221,7 +27223,7 @@
       <c r="AK627" s="7"/>
       <c r="AL627" s="7"/>
     </row>
-    <row r="628" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -27261,7 +27263,7 @@
       <c r="AK628" s="7"/>
       <c r="AL628" s="7"/>
     </row>
-    <row r="629" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -27301,7 +27303,7 @@
       <c r="AK629" s="7"/>
       <c r="AL629" s="7"/>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -27341,7 +27343,7 @@
       <c r="AK630" s="7"/>
       <c r="AL630" s="7"/>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -27381,7 +27383,7 @@
       <c r="AK631" s="7"/>
       <c r="AL631" s="7"/>
     </row>
-    <row r="632" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -27421,7 +27423,7 @@
       <c r="AK632" s="7"/>
       <c r="AL632" s="7"/>
     </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -27461,7 +27463,7 @@
       <c r="AK633" s="7"/>
       <c r="AL633" s="7"/>
     </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -27501,7 +27503,7 @@
       <c r="AK634" s="7"/>
       <c r="AL634" s="7"/>
     </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -27541,7 +27543,7 @@
       <c r="AK635" s="7"/>
       <c r="AL635" s="7"/>
     </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -27581,7 +27583,7 @@
       <c r="AK636" s="7"/>
       <c r="AL636" s="7"/>
     </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -27621,7 +27623,7 @@
       <c r="AK637" s="7"/>
       <c r="AL637" s="7"/>
     </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -27661,7 +27663,7 @@
       <c r="AK638" s="7"/>
       <c r="AL638" s="7"/>
     </row>
-    <row r="639" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -27701,7 +27703,7 @@
       <c r="AK639" s="7"/>
       <c r="AL639" s="7"/>
     </row>
-    <row r="640" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -27741,7 +27743,7 @@
       <c r="AK640" s="7"/>
       <c r="AL640" s="7"/>
     </row>
-    <row r="641" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -27781,7 +27783,7 @@
       <c r="AK641" s="7"/>
       <c r="AL641" s="7"/>
     </row>
-    <row r="642" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -27821,7 +27823,7 @@
       <c r="AK642" s="7"/>
       <c r="AL642" s="7"/>
     </row>
-    <row r="643" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -27861,7 +27863,7 @@
       <c r="AK643" s="7"/>
       <c r="AL643" s="7"/>
     </row>
-    <row r="644" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -27901,7 +27903,7 @@
       <c r="AK644" s="7"/>
       <c r="AL644" s="7"/>
     </row>
-    <row r="645" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -27941,7 +27943,7 @@
       <c r="AK645" s="7"/>
       <c r="AL645" s="7"/>
     </row>
-    <row r="646" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -27981,7 +27983,7 @@
       <c r="AK646" s="7"/>
       <c r="AL646" s="7"/>
     </row>
-    <row r="647" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -28021,7 +28023,7 @@
       <c r="AK647" s="7"/>
       <c r="AL647" s="7"/>
     </row>
-    <row r="648" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -28061,7 +28063,7 @@
       <c r="AK648" s="7"/>
       <c r="AL648" s="7"/>
     </row>
-    <row r="649" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A649" s="7"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -28101,7 +28103,7 @@
       <c r="AK649" s="7"/>
       <c r="AL649" s="7"/>
     </row>
-    <row r="650" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A650" s="7"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -28141,7 +28143,7 @@
       <c r="AK650" s="7"/>
       <c r="AL650" s="7"/>
     </row>
-    <row r="651" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A651" s="7"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -28181,7 +28183,7 @@
       <c r="AK651" s="7"/>
       <c r="AL651" s="7"/>
     </row>
-    <row r="652" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A652" s="7"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -28221,7 +28223,7 @@
       <c r="AK652" s="7"/>
       <c r="AL652" s="7"/>
     </row>
-    <row r="653" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A653" s="7"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -28261,7 +28263,7 @@
       <c r="AK653" s="7"/>
       <c r="AL653" s="7"/>
     </row>
-    <row r="654" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -28301,7 +28303,7 @@
       <c r="AK654" s="7"/>
       <c r="AL654" s="7"/>
     </row>
-    <row r="655" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A655" s="7"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -28341,7 +28343,7 @@
       <c r="AK655" s="7"/>
       <c r="AL655" s="7"/>
     </row>
-    <row r="656" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A656" s="7"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -28381,7 +28383,7 @@
       <c r="AK656" s="7"/>
       <c r="AL656" s="7"/>
     </row>
-    <row r="657" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A657" s="7"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -28421,7 +28423,7 @@
       <c r="AK657" s="7"/>
       <c r="AL657" s="7"/>
     </row>
-    <row r="658" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A658" s="7"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -28461,7 +28463,7 @@
       <c r="AK658" s="7"/>
       <c r="AL658" s="7"/>
     </row>
-    <row r="659" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A659" s="7"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -28501,7 +28503,7 @@
       <c r="AK659" s="7"/>
       <c r="AL659" s="7"/>
     </row>
-    <row r="660" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A660" s="7"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -28541,7 +28543,7 @@
       <c r="AK660" s="7"/>
       <c r="AL660" s="7"/>
     </row>
-    <row r="661" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A661" s="7"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -28581,7 +28583,7 @@
       <c r="AK661" s="7"/>
       <c r="AL661" s="7"/>
     </row>
-    <row r="662" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A662" s="7"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -28621,7 +28623,7 @@
       <c r="AK662" s="7"/>
       <c r="AL662" s="7"/>
     </row>
-    <row r="663" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A663" s="7"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -28661,7 +28663,7 @@
       <c r="AK663" s="7"/>
       <c r="AL663" s="7"/>
     </row>
-    <row r="664" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A664" s="7"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -28701,7 +28703,7 @@
       <c r="AK664" s="7"/>
       <c r="AL664" s="7"/>
     </row>
-    <row r="665" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A665" s="7"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -28741,7 +28743,7 @@
       <c r="AK665" s="7"/>
       <c r="AL665" s="7"/>
     </row>
-    <row r="666" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A666" s="7"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -28781,7 +28783,7 @@
       <c r="AK666" s="7"/>
       <c r="AL666" s="7"/>
     </row>
-    <row r="667" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A667" s="7"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -28821,7 +28823,7 @@
       <c r="AK667" s="7"/>
       <c r="AL667" s="7"/>
     </row>
-    <row r="668" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A668" s="7"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -28861,7 +28863,7 @@
       <c r="AK668" s="7"/>
       <c r="AL668" s="7"/>
     </row>
-    <row r="669" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -28901,7 +28903,7 @@
       <c r="AK669" s="7"/>
       <c r="AL669" s="7"/>
     </row>
-    <row r="670" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A670" s="7"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -28941,7 +28943,7 @@
       <c r="AK670" s="7"/>
       <c r="AL670" s="7"/>
     </row>
-    <row r="671" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A671" s="7"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -28981,7 +28983,7 @@
       <c r="AK671" s="7"/>
       <c r="AL671" s="7"/>
     </row>
-    <row r="672" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A672" s="7"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -29021,7 +29023,7 @@
       <c r="AK672" s="7"/>
       <c r="AL672" s="7"/>
     </row>
-    <row r="673" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A673" s="7"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -29061,7 +29063,7 @@
       <c r="AK673" s="7"/>
       <c r="AL673" s="7"/>
     </row>
-    <row r="674" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A674" s="7"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -29101,7 +29103,7 @@
       <c r="AK674" s="7"/>
       <c r="AL674" s="7"/>
     </row>
-    <row r="675" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A675" s="7"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -29141,7 +29143,7 @@
       <c r="AK675" s="7"/>
       <c r="AL675" s="7"/>
     </row>
-    <row r="676" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A676" s="7"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -29181,7 +29183,7 @@
       <c r="AK676" s="7"/>
       <c r="AL676" s="7"/>
     </row>
-    <row r="677" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A677" s="7"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -29221,7 +29223,7 @@
       <c r="AK677" s="7"/>
       <c r="AL677" s="7"/>
     </row>
-    <row r="678" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A678" s="7"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -29261,7 +29263,7 @@
       <c r="AK678" s="7"/>
       <c r="AL678" s="7"/>
     </row>
-    <row r="679" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A679" s="7"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -29301,7 +29303,7 @@
       <c r="AK679" s="7"/>
       <c r="AL679" s="7"/>
     </row>
-    <row r="680" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A680" s="7"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -29341,7 +29343,7 @@
       <c r="AK680" s="7"/>
       <c r="AL680" s="7"/>
     </row>
-    <row r="681" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A681" s="7"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -29381,7 +29383,7 @@
       <c r="AK681" s="7"/>
       <c r="AL681" s="7"/>
     </row>
-    <row r="682" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A682" s="7"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -29421,7 +29423,7 @@
       <c r="AK682" s="7"/>
       <c r="AL682" s="7"/>
     </row>
-    <row r="683" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A683" s="7"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -29461,7 +29463,7 @@
       <c r="AK683" s="7"/>
       <c r="AL683" s="7"/>
     </row>
-    <row r="684" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A684" s="7"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -29501,7 +29503,7 @@
       <c r="AK684" s="7"/>
       <c r="AL684" s="7"/>
     </row>
-    <row r="685" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A685" s="7"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -29541,7 +29543,7 @@
       <c r="AK685" s="7"/>
       <c r="AL685" s="7"/>
     </row>
-    <row r="686" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A686" s="7"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -29581,7 +29583,7 @@
       <c r="AK686" s="7"/>
       <c r="AL686" s="7"/>
     </row>
-    <row r="687" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A687" s="7"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -29621,7 +29623,7 @@
       <c r="AK687" s="7"/>
       <c r="AL687" s="7"/>
     </row>
-    <row r="688" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A688" s="7"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -29661,7 +29663,7 @@
       <c r="AK688" s="7"/>
       <c r="AL688" s="7"/>
     </row>
-    <row r="689" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A689" s="7"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -29701,7 +29703,7 @@
       <c r="AK689" s="7"/>
       <c r="AL689" s="7"/>
     </row>
-    <row r="690" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A690" s="7"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -29741,7 +29743,7 @@
       <c r="AK690" s="7"/>
       <c r="AL690" s="7"/>
     </row>
-    <row r="691" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A691" s="7"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -29781,7 +29783,7 @@
       <c r="AK691" s="7"/>
       <c r="AL691" s="7"/>
     </row>
-    <row r="692" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A692" s="7"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -29821,7 +29823,7 @@
       <c r="AK692" s="7"/>
       <c r="AL692" s="7"/>
     </row>
-    <row r="693" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A693" s="7"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -29861,7 +29863,7 @@
       <c r="AK693" s="7"/>
       <c r="AL693" s="7"/>
     </row>
-    <row r="694" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A694" s="7"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -29901,7 +29903,7 @@
       <c r="AK694" s="7"/>
       <c r="AL694" s="7"/>
     </row>
-    <row r="695" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A695" s="7"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -29941,7 +29943,7 @@
       <c r="AK695" s="7"/>
       <c r="AL695" s="7"/>
     </row>
-    <row r="696" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A696" s="7"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -29981,7 +29983,7 @@
       <c r="AK696" s="7"/>
       <c r="AL696" s="7"/>
     </row>
-    <row r="697" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -30021,7 +30023,7 @@
       <c r="AK697" s="7"/>
       <c r="AL697" s="7"/>
     </row>
-    <row r="698" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A698" s="7"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -30061,7 +30063,7 @@
       <c r="AK698" s="7"/>
       <c r="AL698" s="7"/>
     </row>
-    <row r="699" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A699" s="7"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -30101,7 +30103,7 @@
       <c r="AK699" s="7"/>
       <c r="AL699" s="7"/>
     </row>
-    <row r="700" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A700" s="7"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -30141,7 +30143,7 @@
       <c r="AK700" s="7"/>
       <c r="AL700" s="7"/>
     </row>
-    <row r="701" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -30181,7 +30183,7 @@
       <c r="AK701" s="7"/>
       <c r="AL701" s="7"/>
     </row>
-    <row r="702" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A702" s="7"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -30221,7 +30223,7 @@
       <c r="AK702" s="7"/>
       <c r="AL702" s="7"/>
     </row>
-    <row r="703" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A703" s="7"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -30261,7 +30263,7 @@
       <c r="AK703" s="7"/>
       <c r="AL703" s="7"/>
     </row>
-    <row r="704" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A704" s="7"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -30301,7 +30303,7 @@
       <c r="AK704" s="7"/>
       <c r="AL704" s="7"/>
     </row>
-    <row r="705" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A705" s="7"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -30341,7 +30343,7 @@
       <c r="AK705" s="7"/>
       <c r="AL705" s="7"/>
     </row>
-    <row r="706" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A706" s="7"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -30381,7 +30383,7 @@
       <c r="AK706" s="7"/>
       <c r="AL706" s="7"/>
     </row>
-    <row r="707" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A707" s="7"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -30421,7 +30423,7 @@
       <c r="AK707" s="7"/>
       <c r="AL707" s="7"/>
     </row>
-    <row r="708" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A708" s="7"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -30461,7 +30463,7 @@
       <c r="AK708" s="7"/>
       <c r="AL708" s="7"/>
     </row>
-    <row r="709" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A709" s="7"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -30501,7 +30503,7 @@
       <c r="AK709" s="7"/>
       <c r="AL709" s="7"/>
     </row>
-    <row r="710" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A710" s="7"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -30541,7 +30543,7 @@
       <c r="AK710" s="7"/>
       <c r="AL710" s="7"/>
     </row>
-    <row r="711" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A711" s="7"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -30581,7 +30583,7 @@
       <c r="AK711" s="7"/>
       <c r="AL711" s="7"/>
     </row>
-    <row r="712" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A712" s="7"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -30621,7 +30623,7 @@
       <c r="AK712" s="7"/>
       <c r="AL712" s="7"/>
     </row>
-    <row r="713" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A713" s="7"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -30661,7 +30663,7 @@
       <c r="AK713" s="7"/>
       <c r="AL713" s="7"/>
     </row>
-    <row r="714" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A714" s="7"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -30701,7 +30703,7 @@
       <c r="AK714" s="7"/>
       <c r="AL714" s="7"/>
     </row>
-    <row r="715" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A715" s="7"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -30741,7 +30743,7 @@
       <c r="AK715" s="7"/>
       <c r="AL715" s="7"/>
     </row>
-    <row r="716" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -30781,7 +30783,7 @@
       <c r="AK716" s="7"/>
       <c r="AL716" s="7"/>
     </row>
-    <row r="717" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A717" s="7"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -30821,7 +30823,7 @@
       <c r="AK717" s="7"/>
       <c r="AL717" s="7"/>
     </row>
-    <row r="718" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A718" s="7"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -30861,7 +30863,7 @@
       <c r="AK718" s="7"/>
       <c r="AL718" s="7"/>
     </row>
-    <row r="719" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A719" s="7"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -30901,7 +30903,7 @@
       <c r="AK719" s="7"/>
       <c r="AL719" s="7"/>
     </row>
-    <row r="720" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A720" s="7"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -30941,7 +30943,7 @@
       <c r="AK720" s="7"/>
       <c r="AL720" s="7"/>
     </row>
-    <row r="721" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A721" s="7"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -30981,7 +30983,7 @@
       <c r="AK721" s="7"/>
       <c r="AL721" s="7"/>
     </row>
-    <row r="722" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A722" s="7"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -31021,7 +31023,7 @@
       <c r="AK722" s="7"/>
       <c r="AL722" s="7"/>
     </row>
-    <row r="723" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A723" s="7"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -31061,7 +31063,7 @@
       <c r="AK723" s="7"/>
       <c r="AL723" s="7"/>
     </row>
-    <row r="724" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A724" s="7"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -31101,7 +31103,7 @@
       <c r="AK724" s="7"/>
       <c r="AL724" s="7"/>
     </row>
-    <row r="725" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A725" s="7"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -31141,7 +31143,7 @@
       <c r="AK725" s="7"/>
       <c r="AL725" s="7"/>
     </row>
-    <row r="726" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A726" s="7"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -31181,7 +31183,7 @@
       <c r="AK726" s="7"/>
       <c r="AL726" s="7"/>
     </row>
-    <row r="727" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A727" s="7"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -31221,7 +31223,7 @@
       <c r="AK727" s="7"/>
       <c r="AL727" s="7"/>
     </row>
-    <row r="728" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A728" s="7"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -31261,7 +31263,7 @@
       <c r="AK728" s="7"/>
       <c r="AL728" s="7"/>
     </row>
-    <row r="729" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A729" s="7"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -31301,7 +31303,7 @@
       <c r="AK729" s="7"/>
       <c r="AL729" s="7"/>
     </row>
-    <row r="730" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A730" s="7"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -31341,7 +31343,7 @@
       <c r="AK730" s="7"/>
       <c r="AL730" s="7"/>
     </row>
-    <row r="731" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A731" s="7"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -31381,7 +31383,7 @@
       <c r="AK731" s="7"/>
       <c r="AL731" s="7"/>
     </row>
-    <row r="732" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A732" s="7"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -31421,7 +31423,7 @@
       <c r="AK732" s="7"/>
       <c r="AL732" s="7"/>
     </row>
-    <row r="733" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A733" s="7"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -31461,7 +31463,7 @@
       <c r="AK733" s="7"/>
       <c r="AL733" s="7"/>
     </row>
-    <row r="734" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A734" s="7"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -31501,7 +31503,7 @@
       <c r="AK734" s="7"/>
       <c r="AL734" s="7"/>
     </row>
-    <row r="735" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A735" s="7"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -31541,7 +31543,7 @@
       <c r="AK735" s="7"/>
       <c r="AL735" s="7"/>
     </row>
-    <row r="736" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A736" s="7"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -31581,7 +31583,7 @@
       <c r="AK736" s="7"/>
       <c r="AL736" s="7"/>
     </row>
-    <row r="737" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A737" s="7"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -31621,7 +31623,7 @@
       <c r="AK737" s="7"/>
       <c r="AL737" s="7"/>
     </row>
-    <row r="738" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A738" s="7"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -31661,7 +31663,7 @@
       <c r="AK738" s="7"/>
       <c r="AL738" s="7"/>
     </row>
-    <row r="739" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -31701,7 +31703,7 @@
       <c r="AK739" s="7"/>
       <c r="AL739" s="7"/>
     </row>
-    <row r="740" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -31741,7 +31743,7 @@
       <c r="AK740" s="7"/>
       <c r="AL740" s="7"/>
     </row>
-    <row r="741" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A741" s="7"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -31781,7 +31783,7 @@
       <c r="AK741" s="7"/>
       <c r="AL741" s="7"/>
     </row>
-    <row r="742" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A742" s="7"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -31821,7 +31823,7 @@
       <c r="AK742" s="7"/>
       <c r="AL742" s="7"/>
     </row>
-    <row r="743" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A743" s="7"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -31861,7 +31863,7 @@
       <c r="AK743" s="7"/>
       <c r="AL743" s="7"/>
     </row>
-    <row r="744" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A744" s="7"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -31901,7 +31903,7 @@
       <c r="AK744" s="7"/>
       <c r="AL744" s="7"/>
     </row>
-    <row r="745" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A745" s="7"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -31941,7 +31943,7 @@
       <c r="AK745" s="7"/>
       <c r="AL745" s="7"/>
     </row>
-    <row r="746" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A746" s="7"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -31981,7 +31983,7 @@
       <c r="AK746" s="7"/>
       <c r="AL746" s="7"/>
     </row>
-    <row r="747" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A747" s="7"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -32021,7 +32023,7 @@
       <c r="AK747" s="7"/>
       <c r="AL747" s="7"/>
     </row>
-    <row r="748" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A748" s="7"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -32061,7 +32063,7 @@
       <c r="AK748" s="7"/>
       <c r="AL748" s="7"/>
     </row>
-    <row r="749" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A749" s="7"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -32101,7 +32103,7 @@
       <c r="AK749" s="7"/>
       <c r="AL749" s="7"/>
     </row>
-    <row r="750" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A750" s="7"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -32141,7 +32143,7 @@
       <c r="AK750" s="7"/>
       <c r="AL750" s="7"/>
     </row>
-    <row r="751" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A751" s="7"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -32181,7 +32183,7 @@
       <c r="AK751" s="7"/>
       <c r="AL751" s="7"/>
     </row>
-    <row r="752" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A752" s="7"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -32221,7 +32223,7 @@
       <c r="AK752" s="7"/>
       <c r="AL752" s="7"/>
     </row>
-    <row r="753" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A753" s="7"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -32261,7 +32263,7 @@
       <c r="AK753" s="7"/>
       <c r="AL753" s="7"/>
     </row>
-    <row r="754" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A754" s="7"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -32301,7 +32303,7 @@
       <c r="AK754" s="7"/>
       <c r="AL754" s="7"/>
     </row>
-    <row r="755" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A755" s="7"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -32341,7 +32343,7 @@
       <c r="AK755" s="7"/>
       <c r="AL755" s="7"/>
     </row>
-    <row r="756" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A756" s="7"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -32381,7 +32383,7 @@
       <c r="AK756" s="7"/>
       <c r="AL756" s="7"/>
     </row>
-    <row r="757" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A757" s="7"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -32421,7 +32423,7 @@
       <c r="AK757" s="7"/>
       <c r="AL757" s="7"/>
     </row>
-    <row r="758" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A758" s="7"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -32461,7 +32463,7 @@
       <c r="AK758" s="7"/>
       <c r="AL758" s="7"/>
     </row>
-    <row r="759" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A759" s="7"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -32501,7 +32503,7 @@
       <c r="AK759" s="7"/>
       <c r="AL759" s="7"/>
     </row>
-    <row r="760" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A760" s="7"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -32541,7 +32543,7 @@
       <c r="AK760" s="7"/>
       <c r="AL760" s="7"/>
     </row>
-    <row r="761" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A761" s="7"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -32581,7 +32583,7 @@
       <c r="AK761" s="7"/>
       <c r="AL761" s="7"/>
     </row>
-    <row r="762" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A762" s="7"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -32621,7 +32623,7 @@
       <c r="AK762" s="7"/>
       <c r="AL762" s="7"/>
     </row>
-    <row r="763" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A763" s="7"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -32661,7 +32663,7 @@
       <c r="AK763" s="7"/>
       <c r="AL763" s="7"/>
     </row>
-    <row r="764" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A764" s="7"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -32701,7 +32703,7 @@
       <c r="AK764" s="7"/>
       <c r="AL764" s="7"/>
     </row>
-    <row r="765" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A765" s="7"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -32741,7 +32743,7 @@
       <c r="AK765" s="7"/>
       <c r="AL765" s="7"/>
     </row>
-    <row r="766" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -32781,7 +32783,7 @@
       <c r="AK766" s="7"/>
       <c r="AL766" s="7"/>
     </row>
-    <row r="767" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A767" s="7"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -32821,7 +32823,7 @@
       <c r="AK767" s="7"/>
       <c r="AL767" s="7"/>
     </row>
-    <row r="768" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A768" s="7"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -32861,7 +32863,7 @@
       <c r="AK768" s="7"/>
       <c r="AL768" s="7"/>
     </row>
-    <row r="769" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A769" s="7"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -32901,7 +32903,7 @@
       <c r="AK769" s="7"/>
       <c r="AL769" s="7"/>
     </row>
-    <row r="770" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A770" s="7"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -32941,7 +32943,7 @@
       <c r="AK770" s="7"/>
       <c r="AL770" s="7"/>
     </row>
-    <row r="771" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A771" s="7"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -32981,7 +32983,7 @@
       <c r="AK771" s="7"/>
       <c r="AL771" s="7"/>
     </row>
-    <row r="772" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A772" s="7"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -33021,7 +33023,7 @@
       <c r="AK772" s="7"/>
       <c r="AL772" s="7"/>
     </row>
-    <row r="773" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A773" s="7"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -33061,7 +33063,7 @@
       <c r="AK773" s="7"/>
       <c r="AL773" s="7"/>
     </row>
-    <row r="774" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A774" s="7"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -33101,7 +33103,7 @@
       <c r="AK774" s="7"/>
       <c r="AL774" s="7"/>
     </row>
-    <row r="775" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A775" s="7"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -33141,7 +33143,7 @@
       <c r="AK775" s="7"/>
       <c r="AL775" s="7"/>
     </row>
-    <row r="776" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A776" s="7"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -33181,7 +33183,7 @@
       <c r="AK776" s="7"/>
       <c r="AL776" s="7"/>
     </row>
-    <row r="777" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A777" s="7"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -33221,7 +33223,7 @@
       <c r="AK777" s="7"/>
       <c r="AL777" s="7"/>
     </row>
-    <row r="778" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A778" s="7"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -33261,7 +33263,7 @@
       <c r="AK778" s="7"/>
       <c r="AL778" s="7"/>
     </row>
-    <row r="779" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A779" s="7"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -33301,7 +33303,7 @@
       <c r="AK779" s="7"/>
       <c r="AL779" s="7"/>
     </row>
-    <row r="780" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A780" s="7"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -33341,7 +33343,7 @@
       <c r="AK780" s="7"/>
       <c r="AL780" s="7"/>
     </row>
-    <row r="781" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -33381,7 +33383,7 @@
       <c r="AK781" s="7"/>
       <c r="AL781" s="7"/>
     </row>
-    <row r="782" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -33421,7 +33423,7 @@
       <c r="AK782" s="7"/>
       <c r="AL782" s="7"/>
     </row>
-    <row r="783" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -33461,7 +33463,7 @@
       <c r="AK783" s="7"/>
       <c r="AL783" s="7"/>
     </row>
-    <row r="784" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -33501,7 +33503,7 @@
       <c r="AK784" s="7"/>
       <c r="AL784" s="7"/>
     </row>
-    <row r="785" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -33541,7 +33543,7 @@
       <c r="AK785" s="7"/>
       <c r="AL785" s="7"/>
     </row>
-    <row r="786" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -33581,7 +33583,7 @@
       <c r="AK786" s="7"/>
       <c r="AL786" s="7"/>
     </row>
-    <row r="787" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -33621,7 +33623,7 @@
       <c r="AK787" s="7"/>
       <c r="AL787" s="7"/>
     </row>
-    <row r="788" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -33661,7 +33663,7 @@
       <c r="AK788" s="7"/>
       <c r="AL788" s="7"/>
     </row>
-    <row r="789" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -33701,7 +33703,7 @@
       <c r="AK789" s="7"/>
       <c r="AL789" s="7"/>
     </row>
-    <row r="790" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -33741,7 +33743,7 @@
       <c r="AK790" s="7"/>
       <c r="AL790" s="7"/>
     </row>
-    <row r="791" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -33781,7 +33783,7 @@
       <c r="AK791" s="7"/>
       <c r="AL791" s="7"/>
     </row>
-    <row r="792" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -33821,7 +33823,7 @@
       <c r="AK792" s="7"/>
       <c r="AL792" s="7"/>
     </row>
-    <row r="793" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -33861,7 +33863,7 @@
       <c r="AK793" s="7"/>
       <c r="AL793" s="7"/>
     </row>
-    <row r="794" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -33901,7 +33903,7 @@
       <c r="AK794" s="7"/>
       <c r="AL794" s="7"/>
     </row>
-    <row r="795" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -33941,7 +33943,7 @@
       <c r="AK795" s="7"/>
       <c r="AL795" s="7"/>
     </row>
-    <row r="796" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -33981,7 +33983,7 @@
       <c r="AK796" s="7"/>
       <c r="AL796" s="7"/>
     </row>
-    <row r="797" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -34021,7 +34023,7 @@
       <c r="AK797" s="7"/>
       <c r="AL797" s="7"/>
     </row>
-    <row r="798" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -34061,7 +34063,7 @@
       <c r="AK798" s="7"/>
       <c r="AL798" s="7"/>
     </row>
-    <row r="799" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -34101,7 +34103,7 @@
       <c r="AK799" s="7"/>
       <c r="AL799" s="7"/>
     </row>
-    <row r="800" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -34141,7 +34143,7 @@
       <c r="AK800" s="7"/>
       <c r="AL800" s="7"/>
     </row>
-    <row r="801" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -34181,7 +34183,7 @@
       <c r="AK801" s="7"/>
       <c r="AL801" s="7"/>
     </row>
-    <row r="802" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -34221,7 +34223,7 @@
       <c r="AK802" s="7"/>
       <c r="AL802" s="7"/>
     </row>
-    <row r="803" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -34261,7 +34263,7 @@
       <c r="AK803" s="7"/>
       <c r="AL803" s="7"/>
     </row>
-    <row r="804" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -34301,7 +34303,7 @@
       <c r="AK804" s="7"/>
       <c r="AL804" s="7"/>
     </row>
-    <row r="805" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -34341,7 +34343,7 @@
       <c r="AK805" s="7"/>
       <c r="AL805" s="7"/>
     </row>
-    <row r="806" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -34381,7 +34383,7 @@
       <c r="AK806" s="7"/>
       <c r="AL806" s="7"/>
     </row>
-    <row r="807" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -34421,7 +34423,7 @@
       <c r="AK807" s="7"/>
       <c r="AL807" s="7"/>
     </row>
-    <row r="808" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -34461,7 +34463,7 @@
       <c r="AK808" s="7"/>
       <c r="AL808" s="7"/>
     </row>
-    <row r="809" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -34501,7 +34503,7 @@
       <c r="AK809" s="7"/>
       <c r="AL809" s="7"/>
     </row>
-    <row r="810" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -34541,7 +34543,7 @@
       <c r="AK810" s="7"/>
       <c r="AL810" s="7"/>
     </row>
-    <row r="811" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -34581,7 +34583,7 @@
       <c r="AK811" s="7"/>
       <c r="AL811" s="7"/>
     </row>
-    <row r="812" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -34621,7 +34623,7 @@
       <c r="AK812" s="7"/>
       <c r="AL812" s="7"/>
     </row>
-    <row r="813" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -34661,7 +34663,7 @@
       <c r="AK813" s="7"/>
       <c r="AL813" s="7"/>
     </row>
-    <row r="814" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -34701,7 +34703,7 @@
       <c r="AK814" s="7"/>
       <c r="AL814" s="7"/>
     </row>
-    <row r="815" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -34741,7 +34743,7 @@
       <c r="AK815" s="7"/>
       <c r="AL815" s="7"/>
     </row>
-    <row r="816" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -34781,7 +34783,7 @@
       <c r="AK816" s="7"/>
       <c r="AL816" s="7"/>
     </row>
-    <row r="817" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -34821,7 +34823,7 @@
       <c r="AK817" s="7"/>
       <c r="AL817" s="7"/>
     </row>
-    <row r="818" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -34861,7 +34863,7 @@
       <c r="AK818" s="7"/>
       <c r="AL818" s="7"/>
     </row>
-    <row r="819" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -34901,7 +34903,7 @@
       <c r="AK819" s="7"/>
       <c r="AL819" s="7"/>
     </row>
-    <row r="820" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -34941,7 +34943,7 @@
       <c r="AK820" s="7"/>
       <c r="AL820" s="7"/>
     </row>
-    <row r="821" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -34981,7 +34983,7 @@
       <c r="AK821" s="7"/>
       <c r="AL821" s="7"/>
     </row>
-    <row r="822" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -35021,7 +35023,7 @@
       <c r="AK822" s="7"/>
       <c r="AL822" s="7"/>
     </row>
-    <row r="823" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -35061,7 +35063,7 @@
       <c r="AK823" s="7"/>
       <c r="AL823" s="7"/>
     </row>
-    <row r="824" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -35101,7 +35103,7 @@
       <c r="AK824" s="7"/>
       <c r="AL824" s="7"/>
     </row>
-    <row r="825" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -35141,7 +35143,7 @@
       <c r="AK825" s="7"/>
       <c r="AL825" s="7"/>
     </row>
-    <row r="826" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -35181,7 +35183,7 @@
       <c r="AK826" s="7"/>
       <c r="AL826" s="7"/>
     </row>
-    <row r="827" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -35221,7 +35223,7 @@
       <c r="AK827" s="7"/>
       <c r="AL827" s="7"/>
     </row>
-    <row r="828" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -35261,7 +35263,7 @@
       <c r="AK828" s="7"/>
       <c r="AL828" s="7"/>
     </row>
-    <row r="829" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -35301,7 +35303,7 @@
       <c r="AK829" s="7"/>
       <c r="AL829" s="7"/>
     </row>
-    <row r="830" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -35341,7 +35343,7 @@
       <c r="AK830" s="7"/>
       <c r="AL830" s="7"/>
     </row>
-    <row r="831" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -35381,7 +35383,7 @@
       <c r="AK831" s="7"/>
       <c r="AL831" s="7"/>
     </row>
-    <row r="832" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -35421,7 +35423,7 @@
       <c r="AK832" s="7"/>
       <c r="AL832" s="7"/>
     </row>
-    <row r="833" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -35461,7 +35463,7 @@
       <c r="AK833" s="7"/>
       <c r="AL833" s="7"/>
     </row>
-    <row r="834" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -35501,7 +35503,7 @@
       <c r="AK834" s="7"/>
       <c r="AL834" s="7"/>
     </row>
-    <row r="835" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -35541,7 +35543,7 @@
       <c r="AK835" s="7"/>
       <c r="AL835" s="7"/>
     </row>
-    <row r="836" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -35581,7 +35583,7 @@
       <c r="AK836" s="7"/>
       <c r="AL836" s="7"/>
     </row>
-    <row r="837" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -35621,7 +35623,7 @@
       <c r="AK837" s="7"/>
       <c r="AL837" s="7"/>
     </row>
-    <row r="838" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -35661,7 +35663,7 @@
       <c r="AK838" s="7"/>
       <c r="AL838" s="7"/>
     </row>
-    <row r="839" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -35701,7 +35703,7 @@
       <c r="AK839" s="7"/>
       <c r="AL839" s="7"/>
     </row>
-    <row r="840" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -35741,7 +35743,7 @@
       <c r="AK840" s="7"/>
       <c r="AL840" s="7"/>
     </row>
-    <row r="841" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -35781,7 +35783,7 @@
       <c r="AK841" s="7"/>
       <c r="AL841" s="7"/>
     </row>
-    <row r="842" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -35821,7 +35823,7 @@
       <c r="AK842" s="7"/>
       <c r="AL842" s="7"/>
     </row>
-    <row r="843" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -35861,7 +35863,7 @@
       <c r="AK843" s="7"/>
       <c r="AL843" s="7"/>
     </row>
-    <row r="844" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -35901,7 +35903,7 @@
       <c r="AK844" s="7"/>
       <c r="AL844" s="7"/>
     </row>
-    <row r="845" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -35941,7 +35943,7 @@
       <c r="AK845" s="7"/>
       <c r="AL845" s="7"/>
     </row>
-    <row r="846" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -35981,7 +35983,7 @@
       <c r="AK846" s="7"/>
       <c r="AL846" s="7"/>
     </row>
-    <row r="847" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -36021,7 +36023,7 @@
       <c r="AK847" s="7"/>
       <c r="AL847" s="7"/>
     </row>
-    <row r="848" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -36061,7 +36063,7 @@
       <c r="AK848" s="7"/>
       <c r="AL848" s="7"/>
     </row>
-    <row r="849" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -36101,7 +36103,7 @@
       <c r="AK849" s="7"/>
       <c r="AL849" s="7"/>
     </row>
-    <row r="850" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -36141,7 +36143,7 @@
       <c r="AK850" s="7"/>
       <c r="AL850" s="7"/>
     </row>
-    <row r="851" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -36181,7 +36183,7 @@
       <c r="AK851" s="7"/>
       <c r="AL851" s="7"/>
     </row>
-    <row r="852" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -36221,7 +36223,7 @@
       <c r="AK852" s="7"/>
       <c r="AL852" s="7"/>
     </row>
-    <row r="853" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -36261,7 +36263,7 @@
       <c r="AK853" s="7"/>
       <c r="AL853" s="7"/>
     </row>
-    <row r="854" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -36301,7 +36303,7 @@
       <c r="AK854" s="7"/>
       <c r="AL854" s="7"/>
     </row>
-    <row r="855" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -36341,7 +36343,7 @@
       <c r="AK855" s="7"/>
       <c r="AL855" s="7"/>
     </row>
-    <row r="856" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -36381,7 +36383,7 @@
       <c r="AK856" s="7"/>
       <c r="AL856" s="7"/>
     </row>
-    <row r="857" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -36421,7 +36423,7 @@
       <c r="AK857" s="7"/>
       <c r="AL857" s="7"/>
     </row>
-    <row r="858" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -36461,7 +36463,7 @@
       <c r="AK858" s="7"/>
       <c r="AL858" s="7"/>
     </row>
-    <row r="859" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -36501,7 +36503,7 @@
       <c r="AK859" s="7"/>
       <c r="AL859" s="7"/>
     </row>
-    <row r="860" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -36541,7 +36543,7 @@
       <c r="AK860" s="7"/>
       <c r="AL860" s="7"/>
     </row>
-    <row r="861" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -36581,7 +36583,7 @@
       <c r="AK861" s="7"/>
       <c r="AL861" s="7"/>
     </row>
-    <row r="862" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -36621,7 +36623,7 @@
       <c r="AK862" s="7"/>
       <c r="AL862" s="7"/>
     </row>
-    <row r="863" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -36661,7 +36663,7 @@
       <c r="AK863" s="7"/>
       <c r="AL863" s="7"/>
     </row>
-    <row r="864" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -36701,7 +36703,7 @@
       <c r="AK864" s="7"/>
       <c r="AL864" s="7"/>
     </row>
-    <row r="865" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -36741,7 +36743,7 @@
       <c r="AK865" s="7"/>
       <c r="AL865" s="7"/>
     </row>
-    <row r="866" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -36781,7 +36783,7 @@
       <c r="AK866" s="7"/>
       <c r="AL866" s="7"/>
     </row>
-    <row r="867" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -36821,7 +36823,7 @@
       <c r="AK867" s="7"/>
       <c r="AL867" s="7"/>
     </row>
-    <row r="868" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -36861,7 +36863,7 @@
       <c r="AK868" s="7"/>
       <c r="AL868" s="7"/>
     </row>
-    <row r="869" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -36901,7 +36903,7 @@
       <c r="AK869" s="7"/>
       <c r="AL869" s="7"/>
     </row>
-    <row r="870" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -36941,7 +36943,7 @@
       <c r="AK870" s="7"/>
       <c r="AL870" s="7"/>
     </row>
-    <row r="871" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -36981,7 +36983,7 @@
       <c r="AK871" s="7"/>
       <c r="AL871" s="7"/>
     </row>
-    <row r="872" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -37021,7 +37023,7 @@
       <c r="AK872" s="7"/>
       <c r="AL872" s="7"/>
     </row>
-    <row r="873" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -37061,7 +37063,7 @@
       <c r="AK873" s="7"/>
       <c r="AL873" s="7"/>
     </row>
-    <row r="874" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -37101,7 +37103,7 @@
       <c r="AK874" s="7"/>
       <c r="AL874" s="7"/>
     </row>
-    <row r="875" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -37141,7 +37143,7 @@
       <c r="AK875" s="7"/>
       <c r="AL875" s="7"/>
     </row>
-    <row r="876" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -37181,7 +37183,7 @@
       <c r="AK876" s="7"/>
       <c r="AL876" s="7"/>
     </row>
-    <row r="877" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -37221,7 +37223,7 @@
       <c r="AK877" s="7"/>
       <c r="AL877" s="7"/>
     </row>
-    <row r="878" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -37261,7 +37263,7 @@
       <c r="AK878" s="7"/>
       <c r="AL878" s="7"/>
     </row>
-    <row r="879" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -37301,7 +37303,7 @@
       <c r="AK879" s="7"/>
       <c r="AL879" s="7"/>
     </row>
-    <row r="880" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -37341,7 +37343,7 @@
       <c r="AK880" s="7"/>
       <c r="AL880" s="7"/>
     </row>
-    <row r="881" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -37381,7 +37383,7 @@
       <c r="AK881" s="7"/>
       <c r="AL881" s="7"/>
     </row>
-    <row r="882" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -37421,7 +37423,7 @@
       <c r="AK882" s="7"/>
       <c r="AL882" s="7"/>
     </row>
-    <row r="883" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -37461,7 +37463,7 @@
       <c r="AK883" s="7"/>
       <c r="AL883" s="7"/>
     </row>
-    <row r="884" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -37501,7 +37503,7 @@
       <c r="AK884" s="7"/>
       <c r="AL884" s="7"/>
     </row>
-    <row r="885" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -37541,7 +37543,7 @@
       <c r="AK885" s="7"/>
       <c r="AL885" s="7"/>
     </row>
-    <row r="886" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -37581,7 +37583,7 @@
       <c r="AK886" s="7"/>
       <c r="AL886" s="7"/>
     </row>
-    <row r="887" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -37621,7 +37623,7 @@
       <c r="AK887" s="7"/>
       <c r="AL887" s="7"/>
     </row>
-    <row r="888" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -37661,7 +37663,7 @@
       <c r="AK888" s="7"/>
       <c r="AL888" s="7"/>
     </row>
-    <row r="889" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -37701,7 +37703,7 @@
       <c r="AK889" s="7"/>
       <c r="AL889" s="7"/>
     </row>
-    <row r="890" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -37741,7 +37743,7 @@
       <c r="AK890" s="7"/>
       <c r="AL890" s="7"/>
     </row>
-    <row r="891" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -37781,7 +37783,7 @@
       <c r="AK891" s="7"/>
       <c r="AL891" s="7"/>
     </row>
-    <row r="892" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -37821,7 +37823,7 @@
       <c r="AK892" s="7"/>
       <c r="AL892" s="7"/>
     </row>
-    <row r="893" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -37861,7 +37863,7 @@
       <c r="AK893" s="7"/>
       <c r="AL893" s="7"/>
     </row>
-    <row r="894" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -37901,7 +37903,7 @@
       <c r="AK894" s="7"/>
       <c r="AL894" s="7"/>
     </row>
-    <row r="895" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -37941,7 +37943,7 @@
       <c r="AK895" s="7"/>
       <c r="AL895" s="7"/>
     </row>
-    <row r="896" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -37981,7 +37983,7 @@
       <c r="AK896" s="7"/>
       <c r="AL896" s="7"/>
     </row>
-    <row r="897" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -38021,7 +38023,7 @@
       <c r="AK897" s="7"/>
       <c r="AL897" s="7"/>
     </row>
-    <row r="898" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -38061,7 +38063,7 @@
       <c r="AK898" s="7"/>
       <c r="AL898" s="7"/>
     </row>
-    <row r="899" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -38101,7 +38103,7 @@
       <c r="AK899" s="7"/>
       <c r="AL899" s="7"/>
     </row>
-    <row r="900" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -38141,7 +38143,7 @@
       <c r="AK900" s="7"/>
       <c r="AL900" s="7"/>
     </row>
-    <row r="901" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -38181,7 +38183,7 @@
       <c r="AK901" s="7"/>
       <c r="AL901" s="7"/>
     </row>
-    <row r="902" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -38221,7 +38223,7 @@
       <c r="AK902" s="7"/>
       <c r="AL902" s="7"/>
     </row>
-    <row r="903" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -38261,7 +38263,7 @@
       <c r="AK903" s="7"/>
       <c r="AL903" s="7"/>
     </row>
-    <row r="904" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -38301,7 +38303,7 @@
       <c r="AK904" s="7"/>
       <c r="AL904" s="7"/>
     </row>
-    <row r="905" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -38341,7 +38343,7 @@
       <c r="AK905" s="7"/>
       <c r="AL905" s="7"/>
     </row>
-    <row r="906" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -38381,7 +38383,7 @@
       <c r="AK906" s="7"/>
       <c r="AL906" s="7"/>
     </row>
-    <row r="907" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -38421,7 +38423,7 @@
       <c r="AK907" s="7"/>
       <c r="AL907" s="7"/>
     </row>
-    <row r="908" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -38461,7 +38463,7 @@
       <c r="AK908" s="7"/>
       <c r="AL908" s="7"/>
     </row>
-    <row r="909" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -38501,7 +38503,7 @@
       <c r="AK909" s="7"/>
       <c r="AL909" s="7"/>
     </row>
-    <row r="910" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -38541,7 +38543,7 @@
       <c r="AK910" s="7"/>
       <c r="AL910" s="7"/>
     </row>
-    <row r="911" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -38581,7 +38583,7 @@
       <c r="AK911" s="7"/>
       <c r="AL911" s="7"/>
     </row>
-    <row r="912" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -38621,7 +38623,7 @@
       <c r="AK912" s="7"/>
       <c r="AL912" s="7"/>
     </row>
-    <row r="913" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -38661,7 +38663,7 @@
       <c r="AK913" s="7"/>
       <c r="AL913" s="7"/>
     </row>
-    <row r="914" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -38701,7 +38703,7 @@
       <c r="AK914" s="7"/>
       <c r="AL914" s="7"/>
     </row>
-    <row r="915" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -38741,7 +38743,7 @@
       <c r="AK915" s="7"/>
       <c r="AL915" s="7"/>
     </row>
-    <row r="916" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -38781,7 +38783,7 @@
       <c r="AK916" s="7"/>
       <c r="AL916" s="7"/>
     </row>
-    <row r="917" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -38821,7 +38823,7 @@
       <c r="AK917" s="7"/>
       <c r="AL917" s="7"/>
     </row>
-    <row r="918" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -38861,7 +38863,7 @@
       <c r="AK918" s="7"/>
       <c r="AL918" s="7"/>
     </row>
-    <row r="919" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -38901,7 +38903,7 @@
       <c r="AK919" s="7"/>
       <c r="AL919" s="7"/>
     </row>
-    <row r="920" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -38941,7 +38943,7 @@
       <c r="AK920" s="7"/>
       <c r="AL920" s="7"/>
     </row>
-    <row r="921" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -38981,7 +38983,7 @@
       <c r="AK921" s="7"/>
       <c r="AL921" s="7"/>
     </row>
-    <row r="922" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -39021,7 +39023,7 @@
       <c r="AK922" s="7"/>
       <c r="AL922" s="7"/>
     </row>
-    <row r="923" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -39061,7 +39063,7 @@
       <c r="AK923" s="7"/>
       <c r="AL923" s="7"/>
     </row>
-    <row r="924" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -39101,7 +39103,7 @@
       <c r="AK924" s="7"/>
       <c r="AL924" s="7"/>
     </row>
-    <row r="925" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -39141,7 +39143,7 @@
       <c r="AK925" s="7"/>
       <c r="AL925" s="7"/>
     </row>
-    <row r="926" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -39181,7 +39183,7 @@
       <c r="AK926" s="7"/>
       <c r="AL926" s="7"/>
     </row>
-    <row r="927" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -39221,7 +39223,7 @@
       <c r="AK927" s="7"/>
       <c r="AL927" s="7"/>
     </row>
-    <row r="928" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -39261,7 +39263,7 @@
       <c r="AK928" s="7"/>
       <c r="AL928" s="7"/>
     </row>
-    <row r="929" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -39301,7 +39303,7 @@
       <c r="AK929" s="7"/>
       <c r="AL929" s="7"/>
     </row>
-    <row r="930" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -39341,7 +39343,7 @@
       <c r="AK930" s="7"/>
       <c r="AL930" s="7"/>
     </row>
-    <row r="931" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -39381,7 +39383,7 @@
       <c r="AK931" s="7"/>
       <c r="AL931" s="7"/>
     </row>
-    <row r="932" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -39421,7 +39423,7 @@
       <c r="AK932" s="7"/>
       <c r="AL932" s="7"/>
     </row>
-    <row r="933" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -39461,7 +39463,7 @@
       <c r="AK933" s="7"/>
       <c r="AL933" s="7"/>
     </row>
-    <row r="934" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -39501,7 +39503,7 @@
       <c r="AK934" s="7"/>
       <c r="AL934" s="7"/>
     </row>
-    <row r="935" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -39541,7 +39543,7 @@
       <c r="AK935" s="7"/>
       <c r="AL935" s="7"/>
     </row>
-    <row r="936" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -39581,7 +39583,7 @@
       <c r="AK936" s="7"/>
       <c r="AL936" s="7"/>
     </row>
-    <row r="937" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -39621,7 +39623,7 @@
       <c r="AK937" s="7"/>
       <c r="AL937" s="7"/>
     </row>
-    <row r="938" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -39661,7 +39663,7 @@
       <c r="AK938" s="7"/>
       <c r="AL938" s="7"/>
     </row>
-    <row r="939" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -39701,7 +39703,7 @@
       <c r="AK939" s="7"/>
       <c r="AL939" s="7"/>
     </row>
-    <row r="940" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -39741,7 +39743,7 @@
       <c r="AK940" s="7"/>
       <c r="AL940" s="7"/>
     </row>
-    <row r="941" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -39781,7 +39783,7 @@
       <c r="AK941" s="7"/>
       <c r="AL941" s="7"/>
     </row>
-    <row r="942" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -39821,7 +39823,7 @@
       <c r="AK942" s="7"/>
       <c r="AL942" s="7"/>
     </row>
-    <row r="943" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -39861,7 +39863,7 @@
       <c r="AK943" s="7"/>
       <c r="AL943" s="7"/>
     </row>
-    <row r="944" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -39929,18 +39931,18 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2">
         <v>2021</v>
@@ -40033,7 +40035,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -40157,7 +40159,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -40282,7 +40284,7 @@
         <v>0.16762312333380103</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40377,7 +40379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40472,9 +40474,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -40567,9 +40569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="27">
         <f>IRA!D57</f>
@@ -40692,9 +40694,9 @@
         <v>0.78237687666619893</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="27">
         <v>0</v>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF4CE2-64CA-4A07-95EF-AD8C17B102BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78824979-273D-4058-8BE3-8BBEA84B18F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="3390" windowWidth="23025" windowHeight="13470" tabRatio="685" firstSheet="2" activeTab="7" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
+    <workbookView xWindow="60930" yWindow="1635" windowWidth="23025" windowHeight="13440" tabRatio="685" firstSheet="2" activeTab="7" xr2:uid="{507E633D-E752-41BB-B866-72E946289DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3892,30 +3892,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3934,6 +3910,30 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -6991,11 +6991,6 @@
             <v>3412000000</v>
           </cell>
         </row>
-        <row r="188">
-          <cell r="C188">
-            <v>134509803921568.64</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
@@ -17382,238 +17377,238 @@
       </c>
     </row>
     <row r="122" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A122" s="268" t="s">
+      <c r="A122" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="269"/>
-      <c r="C122" s="269"/>
-      <c r="D122" s="269"/>
-      <c r="E122" s="269"/>
-      <c r="F122" s="269"/>
-      <c r="G122" s="269"/>
-      <c r="H122" s="269"/>
-      <c r="I122" s="269"/>
-      <c r="J122" s="269"/>
-      <c r="K122" s="269"/>
-      <c r="L122" s="269"/>
-      <c r="M122" s="269"/>
-      <c r="N122" s="269"/>
+      <c r="B122" s="279"/>
+      <c r="C122" s="279"/>
+      <c r="D122" s="279"/>
+      <c r="E122" s="279"/>
+      <c r="F122" s="279"/>
+      <c r="G122" s="279"/>
+      <c r="H122" s="279"/>
+      <c r="I122" s="279"/>
+      <c r="J122" s="279"/>
+      <c r="K122" s="279"/>
+      <c r="L122" s="279"/>
+      <c r="M122" s="279"/>
+      <c r="N122" s="279"/>
     </row>
     <row r="123" spans="1:14" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="266" t="s">
+      <c r="A123" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="B123" s="266"/>
-      <c r="C123" s="266"/>
-      <c r="D123" s="266"/>
-      <c r="E123" s="266"/>
-      <c r="F123" s="266"/>
-      <c r="G123" s="266"/>
-      <c r="H123" s="266"/>
-      <c r="I123" s="266"/>
-      <c r="J123" s="266"/>
-      <c r="K123" s="266"/>
-      <c r="L123" s="266"/>
-      <c r="M123" s="266"/>
-      <c r="N123" s="266"/>
+      <c r="B123" s="276"/>
+      <c r="C123" s="276"/>
+      <c r="D123" s="276"/>
+      <c r="E123" s="276"/>
+      <c r="F123" s="276"/>
+      <c r="G123" s="276"/>
+      <c r="H123" s="276"/>
+      <c r="I123" s="276"/>
+      <c r="J123" s="276"/>
+      <c r="K123" s="276"/>
+      <c r="L123" s="276"/>
+      <c r="M123" s="276"/>
+      <c r="N123" s="276"/>
     </row>
     <row r="124" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A124" s="266" t="s">
+      <c r="A124" s="276" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="267"/>
-      <c r="C124" s="267"/>
-      <c r="D124" s="267"/>
-      <c r="E124" s="267"/>
-      <c r="F124" s="267"/>
-      <c r="G124" s="267"/>
-      <c r="H124" s="267"/>
-      <c r="I124" s="267"/>
-      <c r="J124" s="267"/>
-      <c r="K124" s="267"/>
-      <c r="L124" s="267"/>
-      <c r="M124" s="267"/>
-      <c r="N124" s="267"/>
+      <c r="B124" s="277"/>
+      <c r="C124" s="277"/>
+      <c r="D124" s="277"/>
+      <c r="E124" s="277"/>
+      <c r="F124" s="277"/>
+      <c r="G124" s="277"/>
+      <c r="H124" s="277"/>
+      <c r="I124" s="277"/>
+      <c r="J124" s="277"/>
+      <c r="K124" s="277"/>
+      <c r="L124" s="277"/>
+      <c r="M124" s="277"/>
+      <c r="N124" s="277"/>
     </row>
     <row r="125" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A125" s="266" t="s">
+      <c r="A125" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="267"/>
-      <c r="C125" s="267"/>
-      <c r="D125" s="267"/>
-      <c r="E125" s="267"/>
-      <c r="F125" s="267"/>
-      <c r="G125" s="267"/>
-      <c r="H125" s="267"/>
-      <c r="I125" s="267"/>
-      <c r="J125" s="267"/>
-      <c r="K125" s="267"/>
-      <c r="L125" s="267"/>
-      <c r="M125" s="267"/>
-      <c r="N125" s="267"/>
+      <c r="B125" s="277"/>
+      <c r="C125" s="277"/>
+      <c r="D125" s="277"/>
+      <c r="E125" s="277"/>
+      <c r="F125" s="277"/>
+      <c r="G125" s="277"/>
+      <c r="H125" s="277"/>
+      <c r="I125" s="277"/>
+      <c r="J125" s="277"/>
+      <c r="K125" s="277"/>
+      <c r="L125" s="277"/>
+      <c r="M125" s="277"/>
+      <c r="N125" s="277"/>
     </row>
     <row r="126" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A126" s="266" t="s">
+      <c r="A126" s="276" t="s">
         <v>109</v>
       </c>
-      <c r="B126" s="267"/>
-      <c r="C126" s="267"/>
-      <c r="D126" s="267"/>
-      <c r="E126" s="267"/>
-      <c r="F126" s="267"/>
-      <c r="G126" s="267"/>
-      <c r="H126" s="267"/>
-      <c r="I126" s="267"/>
-      <c r="J126" s="267"/>
-      <c r="K126" s="267"/>
-      <c r="L126" s="267"/>
-      <c r="M126" s="267"/>
-      <c r="N126" s="267"/>
+      <c r="B126" s="277"/>
+      <c r="C126" s="277"/>
+      <c r="D126" s="277"/>
+      <c r="E126" s="277"/>
+      <c r="F126" s="277"/>
+      <c r="G126" s="277"/>
+      <c r="H126" s="277"/>
+      <c r="I126" s="277"/>
+      <c r="J126" s="277"/>
+      <c r="K126" s="277"/>
+      <c r="L126" s="277"/>
+      <c r="M126" s="277"/>
+      <c r="N126" s="277"/>
     </row>
     <row r="127" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A127" s="266" t="s">
+      <c r="A127" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="267"/>
-      <c r="C127" s="267"/>
-      <c r="D127" s="267"/>
-      <c r="E127" s="267"/>
-      <c r="F127" s="267"/>
-      <c r="G127" s="267"/>
-      <c r="H127" s="267"/>
-      <c r="I127" s="267"/>
-      <c r="J127" s="267"/>
-      <c r="K127" s="267"/>
-      <c r="L127" s="267"/>
-      <c r="M127" s="267"/>
-      <c r="N127" s="267"/>
+      <c r="B127" s="277"/>
+      <c r="C127" s="277"/>
+      <c r="D127" s="277"/>
+      <c r="E127" s="277"/>
+      <c r="F127" s="277"/>
+      <c r="G127" s="277"/>
+      <c r="H127" s="277"/>
+      <c r="I127" s="277"/>
+      <c r="J127" s="277"/>
+      <c r="K127" s="277"/>
+      <c r="L127" s="277"/>
+      <c r="M127" s="277"/>
+      <c r="N127" s="277"/>
     </row>
     <row r="128" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A128" s="266" t="s">
+      <c r="A128" s="276" t="s">
         <v>111</v>
       </c>
-      <c r="B128" s="267"/>
-      <c r="C128" s="267"/>
-      <c r="D128" s="267"/>
-      <c r="E128" s="267"/>
-      <c r="F128" s="267"/>
-      <c r="G128" s="267"/>
-      <c r="H128" s="267"/>
-      <c r="I128" s="267"/>
-      <c r="J128" s="267"/>
-      <c r="K128" s="267"/>
-      <c r="L128" s="267"/>
-      <c r="M128" s="267"/>
-      <c r="N128" s="267"/>
+      <c r="B128" s="277"/>
+      <c r="C128" s="277"/>
+      <c r="D128" s="277"/>
+      <c r="E128" s="277"/>
+      <c r="F128" s="277"/>
+      <c r="G128" s="277"/>
+      <c r="H128" s="277"/>
+      <c r="I128" s="277"/>
+      <c r="J128" s="277"/>
+      <c r="K128" s="277"/>
+      <c r="L128" s="277"/>
+      <c r="M128" s="277"/>
+      <c r="N128" s="277"/>
     </row>
     <row r="129" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A129" s="266" t="s">
+      <c r="A129" s="276" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="267"/>
-      <c r="C129" s="267"/>
-      <c r="D129" s="267"/>
-      <c r="E129" s="267"/>
-      <c r="F129" s="267"/>
-      <c r="G129" s="267"/>
-      <c r="H129" s="267"/>
-      <c r="I129" s="267"/>
-      <c r="J129" s="267"/>
-      <c r="K129" s="267"/>
-      <c r="L129" s="267"/>
-      <c r="M129" s="267"/>
-      <c r="N129" s="267"/>
+      <c r="B129" s="277"/>
+      <c r="C129" s="277"/>
+      <c r="D129" s="277"/>
+      <c r="E129" s="277"/>
+      <c r="F129" s="277"/>
+      <c r="G129" s="277"/>
+      <c r="H129" s="277"/>
+      <c r="I129" s="277"/>
+      <c r="J129" s="277"/>
+      <c r="K129" s="277"/>
+      <c r="L129" s="277"/>
+      <c r="M129" s="277"/>
+      <c r="N129" s="277"/>
     </row>
     <row r="130" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A130" s="266" t="s">
+      <c r="A130" s="276" t="s">
         <v>113</v>
       </c>
-      <c r="B130" s="267"/>
-      <c r="C130" s="267"/>
-      <c r="D130" s="267"/>
-      <c r="E130" s="267"/>
-      <c r="F130" s="267"/>
-      <c r="G130" s="267"/>
-      <c r="H130" s="267"/>
-      <c r="I130" s="267"/>
-      <c r="J130" s="267"/>
-      <c r="K130" s="267"/>
-      <c r="L130" s="267"/>
-      <c r="M130" s="267"/>
-      <c r="N130" s="267"/>
+      <c r="B130" s="277"/>
+      <c r="C130" s="277"/>
+      <c r="D130" s="277"/>
+      <c r="E130" s="277"/>
+      <c r="F130" s="277"/>
+      <c r="G130" s="277"/>
+      <c r="H130" s="277"/>
+      <c r="I130" s="277"/>
+      <c r="J130" s="277"/>
+      <c r="K130" s="277"/>
+      <c r="L130" s="277"/>
+      <c r="M130" s="277"/>
+      <c r="N130" s="277"/>
     </row>
     <row r="131" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A131" s="266" t="s">
+      <c r="A131" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="B131" s="267"/>
-      <c r="C131" s="267"/>
-      <c r="D131" s="267"/>
-      <c r="E131" s="267"/>
-      <c r="F131" s="267"/>
-      <c r="G131" s="267"/>
-      <c r="H131" s="267"/>
-      <c r="I131" s="267"/>
-      <c r="J131" s="267"/>
-      <c r="K131" s="267"/>
-      <c r="L131" s="267"/>
-      <c r="M131" s="267"/>
-      <c r="N131" s="267"/>
+      <c r="B131" s="277"/>
+      <c r="C131" s="277"/>
+      <c r="D131" s="277"/>
+      <c r="E131" s="277"/>
+      <c r="F131" s="277"/>
+      <c r="G131" s="277"/>
+      <c r="H131" s="277"/>
+      <c r="I131" s="277"/>
+      <c r="J131" s="277"/>
+      <c r="K131" s="277"/>
+      <c r="L131" s="277"/>
+      <c r="M131" s="277"/>
+      <c r="N131" s="277"/>
     </row>
     <row r="132" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A132" s="266" t="s">
+      <c r="A132" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="B132" s="267"/>
-      <c r="C132" s="267"/>
-      <c r="D132" s="267"/>
-      <c r="E132" s="267"/>
-      <c r="F132" s="267"/>
-      <c r="G132" s="267"/>
-      <c r="H132" s="267"/>
-      <c r="I132" s="267"/>
-      <c r="J132" s="267"/>
-      <c r="K132" s="267"/>
-      <c r="L132" s="267"/>
-      <c r="M132" s="267"/>
-      <c r="N132" s="267"/>
+      <c r="B132" s="277"/>
+      <c r="C132" s="277"/>
+      <c r="D132" s="277"/>
+      <c r="E132" s="277"/>
+      <c r="F132" s="277"/>
+      <c r="G132" s="277"/>
+      <c r="H132" s="277"/>
+      <c r="I132" s="277"/>
+      <c r="J132" s="277"/>
+      <c r="K132" s="277"/>
+      <c r="L132" s="277"/>
+      <c r="M132" s="277"/>
+      <c r="N132" s="277"/>
     </row>
     <row r="133" spans="1:14" s="34" customFormat="1" ht="9" x14ac:dyDescent="0.2">
-      <c r="A133" s="266" t="s">
+      <c r="A133" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="B133" s="267"/>
-      <c r="C133" s="267"/>
-      <c r="D133" s="267"/>
-      <c r="E133" s="267"/>
-      <c r="F133" s="267"/>
-      <c r="G133" s="267"/>
-      <c r="H133" s="267"/>
-      <c r="I133" s="267"/>
-      <c r="J133" s="267"/>
-      <c r="K133" s="267"/>
-      <c r="L133" s="267"/>
-      <c r="M133" s="267"/>
-      <c r="N133" s="267"/>
+      <c r="B133" s="277"/>
+      <c r="C133" s="277"/>
+      <c r="D133" s="277"/>
+      <c r="E133" s="277"/>
+      <c r="F133" s="277"/>
+      <c r="G133" s="277"/>
+      <c r="H133" s="277"/>
+      <c r="I133" s="277"/>
+      <c r="J133" s="277"/>
+      <c r="K133" s="277"/>
+      <c r="L133" s="277"/>
+      <c r="M133" s="277"/>
+      <c r="N133" s="277"/>
     </row>
     <row r="134" spans="1:14" s="34" customFormat="1" ht="9.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="264" t="s">
+      <c r="A134" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="265"/>
-      <c r="C134" s="265"/>
-      <c r="D134" s="265"/>
-      <c r="E134" s="265"/>
-      <c r="F134" s="265"/>
-      <c r="G134" s="265"/>
-      <c r="H134" s="265"/>
-      <c r="I134" s="265"/>
-      <c r="J134" s="265"/>
-      <c r="K134" s="265"/>
-      <c r="L134" s="265"/>
-      <c r="M134" s="265"/>
-      <c r="N134" s="265"/>
+      <c r="B134" s="281"/>
+      <c r="C134" s="281"/>
+      <c r="D134" s="281"/>
+      <c r="E134" s="281"/>
+      <c r="F134" s="281"/>
+      <c r="G134" s="281"/>
+      <c r="H134" s="281"/>
+      <c r="I134" s="281"/>
+      <c r="J134" s="281"/>
+      <c r="K134" s="281"/>
+      <c r="L134" s="281"/>
+      <c r="M134" s="281"/>
+      <c r="N134" s="281"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
@@ -17632,12 +17627,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A127:N127"/>
-    <mergeCell ref="A122:N122"/>
-    <mergeCell ref="A123:N123"/>
-    <mergeCell ref="A124:N124"/>
-    <mergeCell ref="A125:N125"/>
-    <mergeCell ref="A126:N126"/>
     <mergeCell ref="A134:N134"/>
     <mergeCell ref="A128:N128"/>
     <mergeCell ref="A129:N129"/>
@@ -17645,6 +17634,12 @@
     <mergeCell ref="A131:N131"/>
     <mergeCell ref="A132:N132"/>
     <mergeCell ref="A133:N133"/>
+    <mergeCell ref="A127:N127"/>
+    <mergeCell ref="A122:N122"/>
+    <mergeCell ref="A123:N123"/>
+    <mergeCell ref="A124:N124"/>
+    <mergeCell ref="A125:N125"/>
+    <mergeCell ref="A126:N126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17715,7 +17710,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17727,39 +17722,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="283" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="283"/>
+      <c r="K1" s="283"/>
+      <c r="L1" s="283"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="282" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270" t="s">
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270" t="s">
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="270"/>
-      <c r="K3" s="270"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
@@ -18308,7 +18303,7 @@
   <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18360,7 +18355,7 @@
       </c>
       <c r="E2" s="259"/>
     </row>
-    <row r="3" spans="1:8" s="272" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="264" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="260" t="s">
         <v>363</v>
       </c>
@@ -18380,7 +18375,6 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>C4*[1]About!C$188</f>
         <v>403529411764705.94</v>
       </c>
       <c r="E4" s="259" t="s">
@@ -18398,7 +18392,6 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <f>C5*[1]About!C$188</f>
         <v>67254901960784.32</v>
       </c>
       <c r="E5" s="259" t="s">
@@ -18416,7 +18409,6 @@
         <v>0.6</v>
       </c>
       <c r="D6">
-        <f>C6*[1]About!C$188</f>
         <v>80705882352941.188</v>
       </c>
       <c r="E6" s="259" t="s">
@@ -18434,7 +18426,6 @@
         <v>1.4</v>
       </c>
       <c r="D7">
-        <f>C7*[1]About!C$188</f>
         <v>188313725490196.09</v>
       </c>
       <c r="E7" s="259" t="s">
@@ -18446,37 +18437,37 @@
         <f>SUM(C4:C7)</f>
         <v>5.5</v>
       </c>
-      <c r="H8" s="273"/>
+      <c r="H8" s="265"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="97" t="s">
         <v>373</v>
       </c>
-      <c r="H9" s="274"/>
+      <c r="H9" s="266"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="97" t="s">
         <v>371</v>
       </c>
-      <c r="H10" s="274"/>
+      <c r="H10" s="266"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H11" s="274"/>
+      <c r="H11" s="266"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H12" s="274"/>
+      <c r="H12" s="266"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C13" s="200"/>
-      <c r="H13" s="274"/>
+      <c r="H13" s="266"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C14" s="200"/>
-      <c r="H14" s="274"/>
+      <c r="H14" s="266"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C15" s="200"/>
-      <c r="H15" s="274"/>
+      <c r="H15" s="266"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="82"/>
@@ -18490,26 +18481,26 @@
       </c>
     </row>
     <row r="35" spans="1:34" s="261" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="275" t="s">
+      <c r="A35" s="267" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="275" t="s">
+      <c r="B35" s="267" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="276" t="s">
+      <c r="C35" s="268" t="s">
         <v>375</v>
       </c>
-      <c r="D35" s="276" t="s">
+      <c r="D35" s="268" t="s">
         <v>376</v>
       </c>
-      <c r="E35" s="276" t="s">
+      <c r="E35" s="268" t="s">
         <v>377</v>
       </c>
-      <c r="F35" s="276" t="s">
+      <c r="F35" s="268" t="s">
         <v>378</v>
       </c>
-      <c r="G35" s="276"/>
-      <c r="H35" s="276"/>
+      <c r="G35" s="268"/>
+      <c r="H35" s="268"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
@@ -18608,7 +18599,7 @@
       <c r="C41" s="97"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="269" t="s">
         <v>380</v>
       </c>
       <c r="C42" s="97">
@@ -19132,7 +19123,7 @@
         <v>chemicals 20</v>
       </c>
       <c r="C46" s="97">
-        <f t="shared" ref="C46" si="2">D39</f>
+        <f>D39</f>
         <v>188313725490196.09</v>
       </c>
       <c r="D46">
@@ -19268,9 +19259,13 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C48" s="97"/>
+      <c r="F48">
+        <f>SUM(F43:F44,F46)</f>
+        <v>672241147106237.75</v>
+      </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="269" t="s">
         <v>382</v>
       </c>
       <c r="C49" s="97"/>
@@ -19378,131 +19373,131 @@
         <v>366</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:R52" si="3">SUMIFS(C$43:C$46,$B$43:$B$46,$B51)</f>
+        <f t="shared" ref="C51:R52" si="2">SUMIFS(C$43:C$46,$B$43:$B$46,$B51)</f>
         <v>147960784313725.5</v>
       </c>
       <c r="D51">
+        <f t="shared" si="2"/>
+        <v>147123248419922.56</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>146826240904252.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>145975164551731.94</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>144896979049919</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>143535323436791.53</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>142359288368324.09</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>141640945295947.47</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>140577690808586.81</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>140074339761915.84</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>139470128126182.38</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>138559242042264.22</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>138175890171801.72</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="2"/>
+        <v>137597734025555.25</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>136813922620747.41</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>136033117210035.63</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ref="S51:AH52" si="3">SUMIFS(S$43:S$46,$B$43:$B$46,$B51)</f>
+        <v>134635579487534.56</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="3"/>
-        <v>147123248419922.56</v>
-      </c>
-      <c r="E51">
+        <v>134192586903683.88</v>
+      </c>
+      <c r="U51">
         <f t="shared" si="3"/>
-        <v>146826240904252.5</v>
-      </c>
-      <c r="F51">
+        <v>133050505620655.41</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="3"/>
-        <v>145975164551731.94</v>
-      </c>
-      <c r="G51">
+        <v>132110743868592.03</v>
+      </c>
+      <c r="W51">
         <f t="shared" si="3"/>
-        <v>144896979049919</v>
-      </c>
-      <c r="H51">
+        <v>131110782758958.69</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="3"/>
-        <v>143535323436791.53</v>
-      </c>
-      <c r="I51">
+        <v>130058798990318.25</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="3"/>
-        <v>142359288368324.09</v>
-      </c>
-      <c r="J51">
+        <v>128673879247553.06</v>
+      </c>
+      <c r="Z51">
         <f t="shared" si="3"/>
-        <v>141640945295947.47</v>
-      </c>
-      <c r="K51">
+        <v>127658310422180.78</v>
+      </c>
+      <c r="AA51">
         <f t="shared" si="3"/>
-        <v>140577690808586.81</v>
-      </c>
-      <c r="L51">
+        <v>126339471149552.66</v>
+      </c>
+      <c r="AB51">
         <f t="shared" si="3"/>
-        <v>140074339761915.84</v>
-      </c>
-      <c r="M51">
+        <v>125241087203681.84</v>
+      </c>
+      <c r="AC51">
         <f t="shared" si="3"/>
-        <v>139470128126182.38</v>
-      </c>
-      <c r="N51">
+        <v>124326294834192.19</v>
+      </c>
+      <c r="AD51">
         <f t="shared" si="3"/>
-        <v>138559242042264.22</v>
-      </c>
-      <c r="O51">
+        <v>123480441151643.03</v>
+      </c>
+      <c r="AE51">
         <f t="shared" si="3"/>
-        <v>138175890171801.72</v>
-      </c>
-      <c r="P51">
+        <v>122305159709826.13</v>
+      </c>
+      <c r="AF51">
         <f t="shared" si="3"/>
-        <v>137597734025555.25</v>
-      </c>
-      <c r="Q51">
+        <v>121400271553696.22</v>
+      </c>
+      <c r="AG51">
         <f t="shared" si="3"/>
-        <v>136813922620747.41</v>
-      </c>
-      <c r="R51">
+        <v>120475489968803.28</v>
+      </c>
+      <c r="AH51">
         <f t="shared" si="3"/>
-        <v>136033117210035.63</v>
-      </c>
-      <c r="S51">
-        <f t="shared" ref="S51:AH52" si="4">SUMIFS(S$43:S$46,$B$43:$B$46,$B51)</f>
-        <v>134635579487534.56</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="4"/>
-        <v>134192586903683.88</v>
-      </c>
-      <c r="U51">
-        <f t="shared" si="4"/>
-        <v>133050505620655.41</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="4"/>
-        <v>132110743868592.03</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="4"/>
-        <v>131110782758958.69</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="4"/>
-        <v>130058798990318.25</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="4"/>
-        <v>128673879247553.06</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="4"/>
-        <v>127658310422180.78</v>
-      </c>
-      <c r="AA51">
-        <f t="shared" si="4"/>
-        <v>126339471149552.66</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="4"/>
-        <v>125241087203681.84</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="4"/>
-        <v>124326294834192.19</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="4"/>
-        <v>123480441151643.03</v>
-      </c>
-      <c r="AE51">
-        <f t="shared" si="4"/>
-        <v>122305159709826.13</v>
-      </c>
-      <c r="AF51">
-        <f t="shared" si="4"/>
-        <v>121400271553696.22</v>
-      </c>
-      <c r="AG51">
-        <f t="shared" si="4"/>
-        <v>120475489968803.28</v>
-      </c>
-      <c r="AH51">
-        <f t="shared" si="4"/>
         <v>119291217423400.66</v>
       </c>
     </row>
@@ -19511,131 +19506,131 @@
         <v>365</v>
       </c>
       <c r="C52">
+        <f>SUMIFS(C$43:C$46,$B$43:$B$46,$B52)</f>
+        <v>591843137254902</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>597385051645088.38</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>601768431154983.5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>605888799582723.25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>608527563831442.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>609671551015228</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>611549452528532.38</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>614140822690759.25</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>616289753051685</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>618748480162494.25</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>620671456494360.75</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>621596890194579.25</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>623829896619109.63</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="2"/>
+        <v>625341414760584.13</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>626644896948488.88</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>627593386399401</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="3"/>
-        <v>591843137254902</v>
-      </c>
-      <c r="D52">
+        <v>627520240881074.75</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="3"/>
-        <v>597385051645088.38</v>
-      </c>
-      <c r="E52">
+        <v>629352457101693.88</v>
+      </c>
+      <c r="U52">
         <f t="shared" si="3"/>
-        <v>601768431154983.5</v>
-      </c>
-      <c r="F52">
+        <v>630182392418278.13</v>
+      </c>
+      <c r="V52">
         <f t="shared" si="3"/>
-        <v>605888799582723.25</v>
-      </c>
-      <c r="G52">
+        <v>631464957797512</v>
+      </c>
+      <c r="W52">
         <f t="shared" si="3"/>
-        <v>608527563831442.5</v>
-      </c>
-      <c r="H52">
+        <v>632482274073076.5</v>
+      </c>
+      <c r="X52">
         <f t="shared" si="3"/>
-        <v>609671551015228</v>
-      </c>
-      <c r="I52">
+        <v>633683507824757</v>
+      </c>
+      <c r="Y52">
         <f t="shared" si="3"/>
-        <v>611549452528532.38</v>
-      </c>
-      <c r="J52">
+        <v>634499239699560.38</v>
+      </c>
+      <c r="Z52">
         <f t="shared" si="3"/>
-        <v>614140822690759.25</v>
-      </c>
-      <c r="K52">
+        <v>636326655784091.25</v>
+      </c>
+      <c r="AA52">
         <f t="shared" si="3"/>
-        <v>616289753051685</v>
-      </c>
-      <c r="L52">
+        <v>637163588254378.25</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="3"/>
-        <v>618748480162494.25</v>
-      </c>
-      <c r="M52">
+        <v>638648875705799.88</v>
+      </c>
+      <c r="AC52">
         <f t="shared" si="3"/>
-        <v>620671456494360.75</v>
-      </c>
-      <c r="N52">
+        <v>639524240926516</v>
+      </c>
+      <c r="AD52">
         <f t="shared" si="3"/>
-        <v>621596890194579.25</v>
-      </c>
-      <c r="O52">
+        <v>641302989333804</v>
+      </c>
+      <c r="AE52">
         <f t="shared" si="3"/>
-        <v>623829896619109.63</v>
-      </c>
-      <c r="P52">
+        <v>642497203433983</v>
+      </c>
+      <c r="AF52">
         <f t="shared" si="3"/>
-        <v>625341414760584.13</v>
-      </c>
-      <c r="Q52">
+        <v>644030571307524</v>
+      </c>
+      <c r="AG52">
         <f t="shared" si="3"/>
-        <v>626644896948488.88</v>
-      </c>
-      <c r="R52">
+        <v>645210922957752.13</v>
+      </c>
+      <c r="AH52">
         <f t="shared" si="3"/>
-        <v>627593386399401</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="4"/>
-        <v>627520240881074.75</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="4"/>
-        <v>629352457101693.88</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="4"/>
-        <v>630182392418278.13</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="4"/>
-        <v>631464957797512</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="4"/>
-        <v>632482274073076.5</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="4"/>
-        <v>633683507824757</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" si="4"/>
-        <v>634499239699560.38</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="4"/>
-        <v>636326655784091.25</v>
-      </c>
-      <c r="AA52">
-        <f t="shared" si="4"/>
-        <v>637163588254378.25</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="4"/>
-        <v>638648875705799.88</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="4"/>
-        <v>639524240926516</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="4"/>
-        <v>641302989333804</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="4"/>
-        <v>642497203433983</v>
-      </c>
-      <c r="AF52">
-        <f t="shared" si="4"/>
-        <v>644030571307524</v>
-      </c>
-      <c r="AG52">
-        <f t="shared" si="4"/>
-        <v>645210922957752.13</v>
-      </c>
-      <c r="AH52">
-        <f t="shared" si="4"/>
         <v>646008127695636.63</v>
       </c>
     </row>
@@ -19741,97 +19736,97 @@
       <c r="A55" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="278">
+      <c r="B55" s="270">
         <v>5.3213834166182343E-5</v>
       </c>
-      <c r="C55" s="278">
+      <c r="C55" s="270">
         <v>6.8793532593692858E-4</v>
       </c>
-      <c r="D55" s="278">
+      <c r="D55" s="270">
         <v>1.3224558817292863E-3</v>
       </c>
-      <c r="E55" s="278">
+      <c r="E55" s="270">
         <v>1.9567755969446513E-3</v>
       </c>
-      <c r="F55" s="278">
+      <c r="F55" s="270">
         <v>2.5908945669240349E-3</v>
       </c>
-      <c r="G55" s="278">
+      <c r="G55" s="270">
         <v>3.2248128869481136E-3</v>
       </c>
-      <c r="H55" s="278">
+      <c r="H55" s="270">
         <v>3.8585306522372744E-3</v>
       </c>
-      <c r="I55" s="278">
+      <c r="I55" s="270">
         <v>4.4920479579516632E-3</v>
       </c>
-      <c r="J55" s="278">
+      <c r="J55" s="270">
         <v>5.1253648991912339E-3</v>
       </c>
-      <c r="K55" s="278">
+      <c r="K55" s="270">
         <v>5.7584815709957942E-3</v>
       </c>
-      <c r="L55" s="278">
+      <c r="L55" s="270">
         <v>6.3913980683450514E-3</v>
       </c>
-      <c r="M55" s="278">
+      <c r="M55" s="270">
         <v>1.6231383162068E-2</v>
       </c>
-      <c r="N55" s="278">
+      <c r="N55" s="270">
         <v>2.6023110205325765E-2</v>
       </c>
-      <c r="O55" s="278">
+      <c r="O55" s="270">
         <v>3.576693333627104E-2</v>
       </c>
-      <c r="P55" s="278">
+      <c r="P55" s="270">
         <v>4.546320323642291E-2</v>
       </c>
-      <c r="Q55" s="278">
+      <c r="Q55" s="270">
         <v>5.5112267172738066E-2</v>
       </c>
-      <c r="R55" s="278">
+      <c r="R55" s="270">
         <v>6.4714469039069161E-2</v>
       </c>
-      <c r="S55" s="278">
+      <c r="S55" s="270">
         <v>7.4270149397020507E-2</v>
       </c>
-      <c r="T55" s="278">
+      <c r="T55" s="270">
         <v>8.3779645516211296E-2</v>
       </c>
-      <c r="U55" s="278">
+      <c r="U55" s="270">
         <v>9.3243291413956611E-2</v>
       </c>
-      <c r="V55" s="278">
+      <c r="V55" s="270">
         <v>0.10266141789437581</v>
       </c>
-      <c r="W55" s="278">
+      <c r="W55" s="270">
         <v>0.1135689512148802</v>
       </c>
-      <c r="X55" s="278">
+      <c r="X55" s="270">
         <v>0.12441574637303589</v>
       </c>
-      <c r="Y55" s="278">
+      <c r="Y55" s="270">
         <v>0.13520230928728549</v>
       </c>
-      <c r="Z55" s="278">
+      <c r="Z55" s="270">
         <v>0.14592914027289947</v>
       </c>
-      <c r="AA55" s="278">
+      <c r="AA55" s="270">
         <v>0.15659673411933259</v>
       </c>
-      <c r="AB55" s="278">
+      <c r="AB55" s="270">
         <v>0.16720558016630246</v>
       </c>
-      <c r="AC55" s="278">
+      <c r="AC55" s="270">
         <v>0.17775616237861439</v>
       </c>
-      <c r="AD55" s="278">
+      <c r="AD55" s="270">
         <v>0.18824895941975692</v>
       </c>
-      <c r="AE55" s="278">
+      <c r="AE55" s="270">
         <v>0.19868444472429142</v>
       </c>
-      <c r="AF55" s="278">
+      <c r="AF55" s="270">
         <v>0.20906308656905875</v>
       </c>
     </row>
@@ -19839,233 +19834,233 @@
       <c r="A56" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B56" s="278">
+      <c r="B56" s="270">
         <v>0.99994678616583377</v>
       </c>
-      <c r="C56" s="278">
+      <c r="C56" s="270">
         <v>0.99931206467406297</v>
       </c>
-      <c r="D56" s="278">
+      <c r="D56" s="270">
         <v>0.99867754411827081</v>
       </c>
-      <c r="E56" s="278">
+      <c r="E56" s="270">
         <v>0.99804322440305537</v>
       </c>
-      <c r="F56" s="278">
+      <c r="F56" s="270">
         <v>0.99740910543307593</v>
       </c>
-      <c r="G56" s="278">
+      <c r="G56" s="270">
         <v>0.99677518711305191</v>
       </c>
-      <c r="H56" s="278">
+      <c r="H56" s="270">
         <v>0.99614146934776271</v>
       </c>
-      <c r="I56" s="278">
+      <c r="I56" s="270">
         <v>0.99550795204204823</v>
       </c>
-      <c r="J56" s="278">
+      <c r="J56" s="270">
         <v>0.99487463510080876</v>
       </c>
-      <c r="K56" s="278">
+      <c r="K56" s="270">
         <v>0.99424151842900421</v>
       </c>
-      <c r="L56" s="278">
+      <c r="L56" s="270">
         <v>0.9936086019316549</v>
       </c>
-      <c r="M56" s="278">
+      <c r="M56" s="270">
         <v>0.98376861683793204</v>
       </c>
-      <c r="N56" s="278">
+      <c r="N56" s="270">
         <v>0.97397688979467434</v>
       </c>
-      <c r="O56" s="278">
+      <c r="O56" s="270">
         <v>0.96423306666372899</v>
       </c>
-      <c r="P56" s="278">
+      <c r="P56" s="270">
         <v>0.95453679676357717</v>
       </c>
-      <c r="Q56" s="278">
+      <c r="Q56" s="270">
         <v>0.94488773282726191</v>
       </c>
-      <c r="R56" s="278">
+      <c r="R56" s="270">
         <v>0.93528553096093092</v>
       </c>
-      <c r="S56" s="278">
+      <c r="S56" s="270">
         <v>0.92572985060297941</v>
       </c>
-      <c r="T56" s="278">
+      <c r="T56" s="270">
         <v>0.91622035448378869</v>
       </c>
-      <c r="U56" s="278">
+      <c r="U56" s="270">
         <v>0.90675670858604329</v>
       </c>
-      <c r="V56" s="278">
+      <c r="V56" s="270">
         <v>0.89733858210562423</v>
       </c>
-      <c r="W56" s="278">
+      <c r="W56" s="270">
         <v>0.88643104878511969</v>
       </c>
-      <c r="X56" s="278">
+      <c r="X56" s="270">
         <v>0.87558425362696402</v>
       </c>
-      <c r="Y56" s="278">
+      <c r="Y56" s="270">
         <v>0.86479769071271451</v>
       </c>
-      <c r="Z56" s="278">
+      <c r="Z56" s="270">
         <v>0.85407085972710062</v>
       </c>
-      <c r="AA56" s="278">
+      <c r="AA56" s="270">
         <v>0.84340326588066739</v>
       </c>
-      <c r="AB56" s="278">
+      <c r="AB56" s="270">
         <v>0.83279441983369762</v>
       </c>
-      <c r="AC56" s="278">
+      <c r="AC56" s="270">
         <v>0.82224383762138564</v>
       </c>
-      <c r="AD56" s="278">
+      <c r="AD56" s="270">
         <v>0.81175104058024306</v>
       </c>
-      <c r="AE56" s="278">
+      <c r="AE56" s="270">
         <v>0.80131555527570864</v>
       </c>
-      <c r="AF56" s="278">
+      <c r="AF56" s="270">
         <v>0.79093691343094119</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A58" s="277" t="s">
+      <c r="A58" s="269" t="s">
         <v>385</v>
       </c>
       <c r="C58" s="97"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C59">
-        <f t="shared" ref="C59:AH59" si="5">C50</f>
+        <f t="shared" ref="C59:AH59" si="4">C50</f>
         <v>2019</v>
       </c>
       <c r="D59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2020</v>
       </c>
       <c r="E59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2023</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2024</v>
       </c>
       <c r="I59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2025</v>
       </c>
       <c r="J59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2026</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2027</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2028</v>
       </c>
       <c r="M59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2029</v>
       </c>
       <c r="N59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2030</v>
       </c>
       <c r="O59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2031</v>
       </c>
       <c r="P59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2032</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2033</v>
       </c>
       <c r="R59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
       <c r="S59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2035</v>
       </c>
       <c r="T59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2036</v>
       </c>
       <c r="U59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2037</v>
       </c>
       <c r="V59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2038</v>
       </c>
       <c r="W59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2039</v>
       </c>
       <c r="X59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2040</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2041</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2042</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2043</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2044</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2045</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2046</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2047</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2048</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2049</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2050</v>
       </c>
     </row>
@@ -20085,123 +20080,123 @@
         <v>92875896103395.922</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:AH60" si="6">E44/$A$69*C56</f>
+        <f t="shared" ref="E60:AH60" si="5">E44/$A$69*C56</f>
         <v>92629566885328.219</v>
       </c>
       <c r="F60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>92034165932313.172</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91296368798764.578</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90380958678748.375</v>
       </c>
       <c r="I60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89583463573621.922</v>
       </c>
       <c r="J60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89074759701332.781</v>
       </c>
       <c r="K60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88349879469480.094</v>
       </c>
       <c r="L60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87977530086883.016</v>
       </c>
       <c r="M60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>87542292906353.094</v>
       </c>
       <c r="N60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>86915186092376.188</v>
       </c>
       <c r="O60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85816353759257.156</v>
       </c>
       <c r="P60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>84606700144573.906</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83283149097788.719</v>
       </c>
       <c r="R60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>81975136335499.734</v>
       </c>
       <c r="S60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>80312820366073.906</v>
       </c>
       <c r="T60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79235091473000.5</v>
       </c>
       <c r="U60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>77758096395745.031</v>
       </c>
       <c r="V60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>76415752890403</v>
       </c>
       <c r="W60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75054028936018.344</v>
       </c>
       <c r="X60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73678521639098.797</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72007905134253.938</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>70565408112553.281</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>68976062434342.617</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>67528259483084.133</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>66197729228535.602</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>64920342392482.055</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>63487792853979.711</v>
       </c>
       <c r="AF60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62213886843710.195</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60946265240823.625</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59565547543108.453</v>
       </c>
     </row>
@@ -20221,123 +20216,123 @@
         <v>829657309022245.5</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:AH61" si="7">E52/$A$69*C56</f>
+        <f t="shared" ref="E61:AH61" si="6">E52/$A$69*C56</f>
         <v>835214518601608.75</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>840399358855612.88</v>
       </c>
       <c r="G61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>843523349922873.63</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>844572161536242.38</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>846635166629183.75</v>
       </c>
       <c r="J61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>849682140974467.75</v>
       </c>
       <c r="K61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>852112986006920.25</v>
       </c>
       <c r="L61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>854968289473391</v>
       </c>
       <c r="M61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>857079626875687.38</v>
       </c>
       <c r="N61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>857811134765694.88</v>
       </c>
       <c r="O61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>852367047971016.13</v>
       </c>
       <c r="P61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>845927897511548.88</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>839210737074747</v>
       </c>
       <c r="R61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>832029139894014.25</v>
       </c>
       <c r="S61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>823522469040744.5</v>
       </c>
       <c r="T61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>817533676391561.5</v>
       </c>
       <c r="U61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>810248127758334.38</v>
       </c>
       <c r="V61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>803557010385176.63</v>
       </c>
       <c r="W61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>796538257052109.25</v>
       </c>
       <c r="X61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>789762028354424.5</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>781166425694781.13</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>773829999955077.25</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>765302221845296</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>757571381024720.5</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>749134490843442.13</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>741768820749807.38</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>733735230850786.63</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>726100675589404.25</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>718079929166449.5</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>709655103570678</v>
       </c>
     </row>
@@ -20348,134 +20343,137 @@
       <c r="B62" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="279">
+      <c r="C62" s="271">
         <f>C45/$A$71</f>
         <v>119564270152505.45</v>
       </c>
-      <c r="D62" s="279">
+      <c r="D62" s="271">
         <f>D45/$A$71*B56</f>
         <v>118881147012346.78</v>
       </c>
-      <c r="E62" s="279">
-        <f t="shared" ref="E62:AH62" si="8">E45/$A$71*C56</f>
+      <c r="E62" s="271">
+        <f t="shared" ref="E62:AH62" si="7">E45/$A$71*C56</f>
         <v>118565845613220.14</v>
       </c>
-      <c r="F62" s="279">
-        <f t="shared" si="8"/>
+      <c r="F62" s="271">
+        <f t="shared" si="7"/>
         <v>117803732393360.89</v>
       </c>
-      <c r="G62" s="279">
-        <f t="shared" si="8"/>
+      <c r="G62" s="271">
+        <f t="shared" si="7"/>
         <v>116859352062418.69</v>
       </c>
-      <c r="H62" s="279">
-        <f t="shared" si="8"/>
+      <c r="H62" s="271">
+        <f t="shared" si="7"/>
         <v>115687627108797.97</v>
       </c>
-      <c r="I62" s="279">
-        <f t="shared" si="8"/>
+      <c r="I62" s="271">
+        <f t="shared" si="7"/>
         <v>114666833374236.11</v>
       </c>
-      <c r="J62" s="279">
-        <f t="shared" si="8"/>
+      <c r="J62" s="271">
+        <f t="shared" si="7"/>
         <v>114015692417706.03</v>
       </c>
-      <c r="K62" s="279">
-        <f t="shared" si="8"/>
+      <c r="K62" s="271">
+        <f t="shared" si="7"/>
         <v>113087845720934.59</v>
       </c>
-      <c r="L62" s="279">
-        <f t="shared" si="8"/>
+      <c r="L62" s="271">
+        <f t="shared" si="7"/>
         <v>112611238511210.31</v>
       </c>
-      <c r="M62" s="279">
-        <f t="shared" si="8"/>
+      <c r="M62" s="271">
+        <f t="shared" si="7"/>
         <v>112054134920132.02</v>
       </c>
-      <c r="N62" s="279">
-        <f t="shared" si="8"/>
+      <c r="N62" s="271">
+        <f t="shared" si="7"/>
         <v>111251438198241.58</v>
       </c>
-      <c r="O62" s="279">
-        <f t="shared" si="8"/>
+      <c r="O62" s="271">
+        <f t="shared" si="7"/>
         <v>109844932811849.22</v>
       </c>
-      <c r="P62" s="279">
-        <f t="shared" si="8"/>
+      <c r="P62" s="271">
+        <f t="shared" si="7"/>
         <v>108296576185054.69</v>
       </c>
-      <c r="Q62" s="279">
-        <f t="shared" si="8"/>
+      <c r="Q62" s="271">
+        <f t="shared" si="7"/>
         <v>106602430845169.64</v>
       </c>
-      <c r="R62" s="279">
-        <f t="shared" si="8"/>
+      <c r="R62" s="271">
+        <f t="shared" si="7"/>
         <v>104928174509439.75</v>
       </c>
-      <c r="S62" s="279">
-        <f t="shared" si="8"/>
+      <c r="S62" s="271">
+        <f t="shared" si="7"/>
         <v>102800410068574.69</v>
       </c>
-      <c r="T62" s="279">
-        <f t="shared" si="8"/>
+      <c r="T62" s="271">
+        <f t="shared" si="7"/>
         <v>101420917085440.73</v>
       </c>
-      <c r="U62" s="279">
-        <f t="shared" si="8"/>
+      <c r="U62" s="271">
+        <f t="shared" si="7"/>
         <v>99530363386553.75</v>
       </c>
-      <c r="V62" s="279">
-        <f t="shared" si="8"/>
+      <c r="V62" s="271">
+        <f t="shared" si="7"/>
         <v>97812163699715.938</v>
       </c>
-      <c r="W62" s="279">
-        <f t="shared" si="8"/>
+      <c r="W62" s="271">
+        <f t="shared" si="7"/>
         <v>96069157038103.578</v>
       </c>
-      <c r="X62" s="279">
-        <f t="shared" si="8"/>
+      <c r="X62" s="271">
+        <f t="shared" si="7"/>
         <v>94308507698046.563</v>
       </c>
-      <c r="Y62" s="279">
-        <f t="shared" si="8"/>
+      <c r="Y62" s="271">
+        <f t="shared" si="7"/>
         <v>92170118571845.141</v>
       </c>
-      <c r="Z62" s="279">
-        <f t="shared" si="8"/>
+      <c r="Z62" s="271">
+        <f t="shared" si="7"/>
         <v>90323722384068.266</v>
       </c>
-      <c r="AA62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AA62" s="271">
+        <f t="shared" si="7"/>
         <v>88289359915958.641</v>
       </c>
-      <c r="AB62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AB62" s="271">
+        <f t="shared" si="7"/>
         <v>86436172138347.781</v>
       </c>
-      <c r="AC62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AC62" s="271">
+        <f t="shared" si="7"/>
         <v>84733093412525.641</v>
       </c>
-      <c r="AD62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AD62" s="271">
+        <f t="shared" si="7"/>
         <v>83098038262377.063</v>
       </c>
-      <c r="AE62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AE62" s="271">
+        <f t="shared" si="7"/>
         <v>81264374853094.094</v>
       </c>
-      <c r="AF62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AF62" s="271">
+        <f t="shared" si="7"/>
         <v>79633775159949.109</v>
       </c>
-      <c r="AG62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AG62" s="271">
+        <f t="shared" si="7"/>
         <v>78011219508254.297</v>
       </c>
-      <c r="AH62" s="279">
-        <f t="shared" si="8"/>
+      <c r="AH62" s="271">
+        <f t="shared" si="7"/>
         <v>76243900855178.875</v>
       </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C63" s="271"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="259" t="s">
@@ -20530,7 +20528,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="280">
+      <c r="A70" s="272">
         <v>0.453592</v>
       </c>
       <c r="B70" t="s">
@@ -20549,10 +20547,10 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="281"/>
-    </row>
-    <row r="73" spans="1:11" s="283" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="282" t="s">
+      <c r="A72" s="273"/>
+    </row>
+    <row r="73" spans="1:11" s="275" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="274" t="s">
         <v>399</v>
       </c>
     </row>
@@ -20639,7 +20637,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20879,128 +20877,128 @@
         <v>151</v>
       </c>
       <c r="B3" s="86">
-        <f>(1-B2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!D$60:D$61)/SUM('(BIFUbC) Historical Production'!D$60:D$62)</f>
-        <v>0.66487562484988016</v>
+        <f>(1-B2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!C43:C44,'(BIFUbC) Historical Production'!C46)/SUM('(BIFUbC) Historical Production'!C43:C46)</f>
+        <v>0.66867541162563049</v>
       </c>
       <c r="C3" s="14">
         <f>($L3-$B3)/10*(C$1-$B$1)+$B3</f>
-        <v>0.66521610875975923</v>
+        <v>0.66902990460759848</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" ref="D3:K3" si="3">($L3-$B3)/10*(D$1-$B$1)+$B3</f>
-        <v>0.6655565926696384</v>
+        <v>0.66938439758956658</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66589707657951747</v>
+        <v>0.66973889057153457</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66623756048939664</v>
+        <v>0.67009338355350268</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="3"/>
-        <v>0.6665780443992757</v>
+        <v>0.67044787653547067</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66691852830915477</v>
+        <v>0.67080236951743866</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66725901221903394</v>
+        <v>0.67115686249940676</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66759949612891301</v>
+        <v>0.67151135548137475</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="3"/>
-        <v>0.66793998003879218</v>
+        <v>0.67186584846334285</v>
       </c>
       <c r="L3" s="86">
-        <f>(1-L2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!N$60:N$61)/SUM('(BIFUbC) Historical Production'!N$60:N$62)</f>
-        <v>0.66828046394867124</v>
+        <f>(1-L2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!M43:M44,'(BIFUbC) Historical Production'!M46)/SUM('(BIFUbC) Historical Production'!M43:M46)</f>
+        <v>0.67222034144531084</v>
       </c>
       <c r="M3" s="14">
         <f>($V3-$L3)/10*(M$1-$L$1)+$L3</f>
-        <v>0.66376869318731835</v>
+        <v>0.66764727342992869</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" ref="N3:U3" si="4">($V3-$L3)/10*(N$1-$L$1)+$L3</f>
-        <v>0.65925692242596556</v>
+        <v>0.66307420541454654</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" si="4"/>
-        <v>0.65474515166461267</v>
+        <v>0.65850113739916427</v>
       </c>
       <c r="P3" s="14">
         <f t="shared" si="4"/>
-        <v>0.65023338090325988</v>
+        <v>0.65392806938378212</v>
       </c>
       <c r="Q3" s="14">
         <f t="shared" si="4"/>
-        <v>0.64572161014190699</v>
+        <v>0.64935500136839996</v>
       </c>
       <c r="R3" s="14">
         <f t="shared" si="4"/>
-        <v>0.64120983938055409</v>
+        <v>0.64478193335301781</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" si="4"/>
-        <v>0.63669806861920131</v>
+        <v>0.64020886533763566</v>
       </c>
       <c r="T3" s="14">
         <f t="shared" si="4"/>
-        <v>0.63218629785784841</v>
+        <v>0.63563579732225339</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="4"/>
-        <v>0.62767452709649563</v>
+        <v>0.63106272930687124</v>
       </c>
       <c r="V3" s="86">
-        <f>(1-V2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!X$60:X$61)/SUM('(BIFUbC) Historical Production'!X$60:X$62)</f>
-        <v>0.62316275633514273</v>
+        <f>(1-V2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!W43:W44,'(BIFUbC) Historical Production'!W46)/SUM('(BIFUbC) Historical Production'!W43:W46)</f>
+        <v>0.62648966129148909</v>
       </c>
       <c r="W3" s="14">
         <f>($AF3-$V3)/10*(W$1-$V$1)+$V3</f>
-        <v>0.61783064381810471</v>
+        <v>0.62109770793412089</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:AE3" si="5">($AF3-$V3)/10*(X$1-$V$1)+$V3</f>
-        <v>0.61249853130106657</v>
+        <v>0.61570575457675258</v>
       </c>
       <c r="Y3" s="14">
         <f t="shared" si="5"/>
-        <v>0.60716641878402855</v>
+        <v>0.61031380121938428</v>
       </c>
       <c r="Z3" s="14">
         <f t="shared" si="5"/>
-        <v>0.60183430626699053</v>
+        <v>0.60492184786201608</v>
       </c>
       <c r="AA3" s="14">
         <f t="shared" si="5"/>
-        <v>0.59650219374995239</v>
+        <v>0.59952989450464789</v>
       </c>
       <c r="AB3" s="14">
         <f t="shared" si="5"/>
-        <v>0.59117008123291437</v>
+        <v>0.59413794114727958</v>
       </c>
       <c r="AC3" s="14">
         <f t="shared" si="5"/>
-        <v>0.58583796871587634</v>
+        <v>0.58874598778991127</v>
       </c>
       <c r="AD3" s="14">
         <f t="shared" si="5"/>
-        <v>0.58050585619883832</v>
+        <v>0.58335403443254308</v>
       </c>
       <c r="AE3" s="14">
         <f t="shared" si="5"/>
-        <v>0.57517374368180019</v>
+        <v>0.57796208107517488</v>
       </c>
       <c r="AF3" s="86">
-        <f>(1-AF2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!AH$60:AH$61)/SUM('(BIFUbC) Historical Production'!AH$60:AH$62)</f>
-        <v>0.56984163116476216</v>
+        <f>(1-AF2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!AG43:AG44,'(BIFUbC) Historical Production'!AG46)/SUM('(BIFUbC) Historical Production'!AG43:AG46)</f>
+        <v>0.57257012771780658</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -21204,128 +21202,128 @@
         <v>161</v>
       </c>
       <c r="B6" s="86">
-        <f>(1-B2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!D$62:D$62)/SUM('(BIFUbC) Historical Production'!D$60:D$62)</f>
-        <v>8.5678408607460135E-2</v>
+        <f>(1-B2)*'TYNDP Data'!$B24*'(BIFUbC) Historical Production'!D45/SUM('(BIFUbC) Historical Production'!D43:D46)</f>
+        <v>8.0900701973206035E-2</v>
       </c>
       <c r="C6" s="14">
         <f>($L6-$B6)/10*(C$1-$B$1)+$B6</f>
-        <v>8.4980271500341958E-2</v>
+        <v>8.0237381387333398E-2</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ref="D6:K6" si="6">($L6-$B6)/10*(D$1-$B$1)+$B6</f>
-        <v>8.4282134393223782E-2</v>
+        <v>7.9574060801460747E-2</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="6"/>
-        <v>8.3583997286105619E-2</v>
+        <v>7.891074021558811E-2</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="6"/>
-        <v>8.2885860178987442E-2</v>
+        <v>7.8247419629715459E-2</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="6"/>
-        <v>8.2187723071869265E-2</v>
+        <v>7.7584099043842822E-2</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="6"/>
-        <v>8.1489585964751088E-2</v>
+        <v>7.6920778457970185E-2</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="6"/>
-        <v>8.0791448857632911E-2</v>
+        <v>7.6257457872097534E-2</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="6"/>
-        <v>8.0093311750514748E-2</v>
+        <v>7.5594137286224897E-2</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="6"/>
-        <v>7.9395174643396571E-2</v>
+        <v>7.4930816700352246E-2</v>
       </c>
       <c r="L6" s="86">
-        <f>(1-L2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!N$62:N$62)/SUM('(BIFUbC) Historical Production'!N$60:N$62)</f>
-        <v>7.8697037536278394E-2</v>
+        <f>(1-L2)*'TYNDP Data'!$B24*'(BIFUbC) Historical Production'!N45/SUM('(BIFUbC) Historical Production'!N43:N46)</f>
+        <v>7.4267496114479609E-2</v>
       </c>
       <c r="M6" s="14">
         <f>($V6-$L6)/10*(M$1-$L$1)+$L6</f>
-        <v>7.7633772234424636E-2</v>
+        <v>7.3261296587908642E-2</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" ref="N6:U6" si="7">($V6-$L6)/10*(N$1-$L$1)+$L6</f>
-        <v>7.6570506932570864E-2</v>
+        <v>7.2255097061337689E-2</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="7"/>
-        <v>7.5507241630717092E-2</v>
+        <v>7.1248897534766722E-2</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="7"/>
-        <v>7.4443976328863334E-2</v>
+        <v>7.024269800819577E-2</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="7"/>
-        <v>7.3380711027009576E-2</v>
+        <v>6.9236498481624803E-2</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="7"/>
-        <v>7.2317445725155804E-2</v>
+        <v>6.8230298955053836E-2</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="7"/>
-        <v>7.1254180423302033E-2</v>
+        <v>6.7224099428482884E-2</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="7"/>
-        <v>7.0190915121448275E-2</v>
+        <v>6.6217899901911917E-2</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="7"/>
-        <v>6.9127649819594517E-2</v>
+        <v>6.5211700375340964E-2</v>
       </c>
       <c r="V6" s="86">
-        <f>(1-V2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!X$62:X$62)/SUM('(BIFUbC) Historical Production'!X$60:X$62)</f>
-        <v>6.8064384517740745E-2</v>
+        <f>(1-V2)*'TYNDP Data'!$B24*'(BIFUbC) Historical Production'!X45/SUM('(BIFUbC) Historical Production'!X43:X46)</f>
+        <v>6.4205500848769997E-2</v>
       </c>
       <c r="W6" s="14">
         <f>($AF6-$V6)/10*(W$1-$V$1)+$V6</f>
-        <v>6.6906123707423756E-2</v>
+        <v>6.3110131315251339E-2</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" ref="X6:AE6" si="8">($AF6-$V6)/10*(X$1-$V$1)+$V6</f>
-        <v>6.5747862897106768E-2</v>
+        <v>6.2014761781732673E-2</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="8"/>
-        <v>6.4589602086789794E-2</v>
+        <v>6.0919392248214008E-2</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="8"/>
-        <v>6.3431341276472805E-2</v>
+        <v>5.9824022714695349E-2</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="8"/>
-        <v>6.2273080466155817E-2</v>
+        <v>5.8728653181176683E-2</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="8"/>
-        <v>6.1114819655838828E-2</v>
+        <v>5.7633283647658018E-2</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="8"/>
-        <v>5.9956558845521847E-2</v>
+        <v>5.6537914114139359E-2</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="8"/>
-        <v>5.8798298035204859E-2</v>
+        <v>5.5442544580620694E-2</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="8"/>
-        <v>5.7640037224887877E-2</v>
+        <v>5.4347175047102035E-2</v>
       </c>
       <c r="AF6" s="86">
-        <f>(1-AF2)*'TYNDP Data'!$B24*SUM('(BIFUbC) Historical Production'!AH$62:AH$62)/SUM('(BIFUbC) Historical Production'!AH$60:AH$62)</f>
-        <v>5.6481776414570889E-2</v>
+        <f>(1-AF2)*'TYNDP Data'!$B24*'(BIFUbC) Historical Production'!AH45/SUM('(BIFUbC) Historical Production'!AH43:AH46)</f>
+        <v>5.325180551358337E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -21463,127 +21461,127 @@
       </c>
       <c r="B9" s="14">
         <f>SUM(B2:B7)</f>
-        <v>1</v>
+        <v>0.9990220801414964</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" ref="C9:AF9" si="12">SUM(C2:C7)</f>
-        <v>1</v>
+        <v>0.99907090573483071</v>
       </c>
       <c r="D9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99911973132816523</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99916855692149964</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99921738251483416</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99926620810816846</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99931503370150288</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99936385929483751</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>0.99941268488817181</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>0.99946151048150633</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99951033607484074</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99950610459609424</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>0.99950187311734773</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99949764163860122</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99949341015985471</v>
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.9994891786811082</v>
       </c>
       <c r="R9" s="14">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>0.9994849472023617</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99948071572361519</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99947648424486868</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>0.99947225276612217</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99946802128737566</v>
       </c>
       <c r="W9" s="14">
         <f>SUM(W2:W7)</f>
-        <v>1</v>
+        <v>0.99947107172384386</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99947412216031206</v>
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99947717259677993</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>0.99948022303324824</v>
       </c>
       <c r="AA9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99948327346971644</v>
       </c>
       <c r="AB9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99948632390618442</v>
       </c>
       <c r="AC9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.9994893743426525</v>
       </c>
       <c r="AD9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>0.99949242477912081</v>
       </c>
       <c r="AE9" s="14">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99949547521558901</v>
       </c>
       <c r="AF9" s="14">
         <f t="shared" si="12"/>
-        <v>1.0000000000000002</v>
+        <v>0.99949852565205699</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
@@ -21619,7 +21617,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21731,127 +21729,127 @@
       </c>
       <c r="B2" s="263">
         <f>Calculations!B2/SUM(Calculations!B$2:B$6)</f>
-        <v>5.3213834166182343E-5</v>
+        <v>5.3283254858002796E-5</v>
       </c>
       <c r="C2" s="263">
         <f>Calculations!C2/SUM(Calculations!C$2:C$6)</f>
-        <v>6.8793532593692868E-4</v>
+        <v>6.8878778077474635E-4</v>
       </c>
       <c r="D2" s="263">
         <f>Calculations!D2/SUM(Calculations!D$2:D$6)</f>
-        <v>1.3224558817292863E-3</v>
+        <v>1.324008137625256E-3</v>
       </c>
       <c r="E2" s="263">
         <f>Calculations!E2/SUM(Calculations!E$2:E$6)</f>
-        <v>1.9567755969446513E-3</v>
+        <v>1.9589445159683828E-3</v>
       </c>
       <c r="F2" s="263">
         <f>Calculations!F2/SUM(Calculations!F$2:F$6)</f>
-        <v>2.5908945669240345E-3</v>
+        <v>2.5935971061926332E-3</v>
       </c>
       <c r="G2" s="263">
         <f>Calculations!G2/SUM(Calculations!G$2:G$6)</f>
-        <v>3.2248128869481136E-3</v>
+        <v>3.2279660985163649E-3</v>
       </c>
       <c r="H2" s="263">
         <f>Calculations!H2/SUM(Calculations!H$2:H$6)</f>
-        <v>3.8585306522372748E-3</v>
+        <v>3.8620516829879687E-3</v>
       </c>
       <c r="I2" s="263">
         <f>Calculations!I2/SUM(Calculations!I$2:I$6)</f>
-        <v>4.4920479579516632E-3</v>
+        <v>4.4958540494860659E-3</v>
       </c>
       <c r="J2" s="263">
         <f>Calculations!J2/SUM(Calculations!J$2:J$6)</f>
-        <v>5.1253648991912348E-3</v>
+        <v>5.1293733877196979E-3</v>
       </c>
       <c r="K2" s="263">
         <f>Calculations!K2/SUM(Calculations!K$2:K$6)</f>
-        <v>5.7584815709957942E-3</v>
+        <v>5.7626098872285043E-3</v>
       </c>
       <c r="L2" s="263">
         <f>Calculations!L2/SUM(Calculations!L$2:L$6)</f>
-        <v>6.3913980683450514E-3</v>
+        <v>6.3955637373829281E-3</v>
       </c>
       <c r="M2" s="263">
         <f>Calculations!M2/SUM(Calculations!M$2:M$6)</f>
-        <v>1.6231383162068E-2</v>
+        <v>1.6242027389891937E-2</v>
       </c>
       <c r="N2" s="263">
         <f>Calculations!N2/SUM(Calculations!N$2:N$6)</f>
-        <v>2.6023110205325765E-2</v>
+        <v>2.6040279731281823E-2</v>
       </c>
       <c r="O2" s="263">
         <f>Calculations!O2/SUM(Calculations!O$2:O$6)</f>
-        <v>3.576693333627104E-2</v>
+        <v>3.5790673982898875E-2</v>
       </c>
       <c r="P2" s="263">
         <f>Calculations!P2/SUM(Calculations!P$2:P$6)</f>
-        <v>4.5463203236422903E-2</v>
+        <v>4.5493559923982567E-2</v>
       </c>
       <c r="Q2" s="263">
         <f>Calculations!Q2/SUM(Calculations!Q$2:Q$6)</f>
-        <v>5.5112267172738059E-2</v>
+        <v>5.5149283933492305E-2</v>
       </c>
       <c r="R2" s="263">
         <f>Calculations!R2/SUM(Calculations!R$2:R$6)</f>
-        <v>6.4714469039069175E-2</v>
+        <v>6.4758189031325963E-2</v>
       </c>
       <c r="S2" s="263">
         <f>Calculations!S2/SUM(Calculations!S$2:S$6)</f>
-        <v>7.4270149397020507E-2</v>
+        <v>7.4320614918940001E-2</v>
       </c>
       <c r="T2" s="263">
         <f>Calculations!T2/SUM(Calculations!T$2:T$6)</f>
-        <v>8.3779645516211296E-2</v>
+        <v>8.3836898019381864E-2</v>
       </c>
       <c r="U2" s="263">
         <f>Calculations!U2/SUM(Calculations!U$2:U$6)</f>
-        <v>9.3243291413956597E-2</v>
+        <v>9.3307371516743912E-2</v>
       </c>
       <c r="V2" s="263">
         <f>Calculations!V2/SUM(Calculations!V$2:V$6)</f>
-        <v>0.1026614178943758</v>
+        <v>0.10273236539504935</v>
       </c>
       <c r="W2" s="263">
         <f>Calculations!W2/SUM(Calculations!W$2:W$6)</f>
-        <v>0.1135689512148802</v>
+        <v>0.11364676834080144</v>
       </c>
       <c r="X2" s="263">
         <f>Calculations!X2/SUM(Calculations!X$2:X$6)</f>
-        <v>0.12441574637303589</v>
+        <v>0.124500267563244</v>
       </c>
       <c r="Y2" s="263">
         <f>Calculations!Y2/SUM(Calculations!Y$2:Y$6)</f>
-        <v>0.13520230928728549</v>
+        <v>0.13529337141953374</v>
       </c>
       <c r="Z2" s="263">
         <f>Calculations!Z2/SUM(Calculations!Z$2:Z$6)</f>
-        <v>0.14592914027289944</v>
+        <v>0.14602658262491761</v>
       </c>
       <c r="AA2" s="263">
         <f>Calculations!AA2/SUM(Calculations!AA$2:AA$6)</f>
-        <v>0.15659673411933259</v>
+        <v>0.15670039833078631</v>
       </c>
       <c r="AB2" s="263">
         <f>Calculations!AB2/SUM(Calculations!AB$2:AB$6)</f>
-        <v>0.16720558016630244</v>
+        <v>0.16731531020143495</v>
       </c>
       <c r="AC2" s="263">
         <f>Calculations!AC2/SUM(Calculations!AC$2:AC$6)</f>
-        <v>0.17775616237861436</v>
+        <v>0.17787180448955639</v>
       </c>
       <c r="AD2" s="263">
         <f>Calculations!AD2/SUM(Calculations!AD$2:AD$6)</f>
-        <v>0.18824895941975689</v>
+        <v>0.1883703621104921</v>
       </c>
       <c r="AE2" s="263">
         <f>Calculations!AE2/SUM(Calculations!AE$2:AE$6)</f>
-        <v>0.19868444472429142</v>
+        <v>0.19881145871526335</v>
       </c>
       <c r="AF2" s="263">
         <f>Calculations!AF2/SUM(Calculations!AF$2:AF$6)</f>
-        <v>0.20906308656905875</v>
+        <v>0.20919556476240689</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
@@ -21860,127 +21858,127 @@
       </c>
       <c r="B3" s="263">
         <f>Calculations!B3/SUM(Calculations!B$2:B$6)</f>
-        <v>0.88579930908655391</v>
+        <v>0.89202386561253588</v>
       </c>
       <c r="C3" s="263">
         <f>Calculations!C3/SUM(Calculations!C$2:C$6)</f>
-        <v>0.88611262409541636</v>
+        <v>0.89229717816460774</v>
       </c>
       <c r="D3" s="263">
         <f>Calculations!D3/SUM(Calculations!D$2:D$6)</f>
-        <v>0.88642583991706281</v>
+        <v>0.89257036850358817</v>
       </c>
       <c r="E3" s="263">
         <f>Calculations!E3/SUM(Calculations!E$2:E$6)</f>
-        <v>0.88673895659858526</v>
+        <v>0.89284343671143129</v>
       </c>
       <c r="F3" s="263">
         <f>Calculations!F3/SUM(Calculations!F$2:F$6)</f>
-        <v>0.88705197418704707</v>
+        <v>0.89311638287001749</v>
       </c>
       <c r="G3" s="263">
         <f>Calculations!G3/SUM(Calculations!G$2:G$6)</f>
-        <v>0.88736489272948127</v>
+        <v>0.89338920706115477</v>
       </c>
       <c r="H3" s="263">
         <f>Calculations!H3/SUM(Calculations!H$2:H$6)</f>
-        <v>0.88767771227289072</v>
+        <v>0.89366190936657708</v>
       </c>
       <c r="I3" s="263">
         <f>Calculations!I3/SUM(Calculations!I$2:I$6)</f>
-        <v>0.88799043286424917</v>
+        <v>0.8939344898679461</v>
       </c>
       <c r="J3" s="263">
         <f>Calculations!J3/SUM(Calculations!J$2:J$6)</f>
-        <v>0.88830305455050051</v>
+        <v>0.89420694864685069</v>
       </c>
       <c r="K3" s="263">
         <f>Calculations!K3/SUM(Calculations!K$2:K$6)</f>
-        <v>0.88861557737855856</v>
+        <v>0.89447928578480584</v>
       </c>
       <c r="L3" s="263">
         <f>Calculations!L3/SUM(Calculations!L$2:L$6)</f>
-        <v>0.88892800139530781</v>
+        <v>0.89475150136325488</v>
       </c>
       <c r="M3" s="263">
         <f>Calculations!M3/SUM(Calculations!M$2:M$6)</f>
-        <v>0.88075618797107325</v>
+        <v>0.88648364279587244</v>
       </c>
       <c r="N3" s="263">
         <f>Calculations!N3/SUM(Calculations!N$2:N$6)</f>
-        <v>0.87262445141492972</v>
+        <v>0.87825626620412589</v>
       </c>
       <c r="O3" s="263">
         <f>Calculations!O3/SUM(Calculations!O$2:O$6)</f>
-        <v>0.86453249762572926</v>
+        <v>0.87006907499583375</v>
       </c>
       <c r="P3" s="263">
         <f>Calculations!P3/SUM(Calculations!P$2:P$6)</f>
-        <v>0.85648003537295525</v>
+        <v>0.86192177546907589</v>
       </c>
       <c r="Q3" s="263">
         <f>Calculations!Q3/SUM(Calculations!Q$2:Q$6)</f>
-        <v>0.84846677626178246</v>
+        <v>0.85381407677707255</v>
       </c>
       <c r="R3" s="263">
         <f>Calculations!R3/SUM(Calculations!R$2:R$6)</f>
-        <v>0.84049243469864843</v>
+        <v>0.84574569089357365</v>
       </c>
       <c r="S3" s="263">
         <f>Calculations!S3/SUM(Calculations!S$2:S$6)</f>
-        <v>0.83255672785732249</v>
+        <v>0.83771633257875122</v>
       </c>
       <c r="T3" s="263">
         <f>Calculations!T3/SUM(Calculations!T$2:T$6)</f>
-        <v>0.82465937564546976</v>
+        <v>0.82972571934558526</v>
       </c>
       <c r="U3" s="263">
         <f>Calculations!U3/SUM(Calculations!U$2:U$6)</f>
-        <v>0.81680010067169639</v>
+        <v>0.82177357142673502</v>
       </c>
       <c r="V3" s="263">
         <f>Calculations!V3/SUM(Calculations!V$2:V$6)</f>
-        <v>0.80897862821307198</v>
+        <v>0.81385961174188726</v>
       </c>
       <c r="W3" s="263">
         <f>Calculations!W3/SUM(Calculations!W$2:W$6)</f>
-        <v>0.79981723129954496</v>
+        <v>0.80459756381552483</v>
       </c>
       <c r="X3" s="263">
         <f>Calculations!X3/SUM(Calculations!X$2:X$6)</f>
-        <v>0.79070684925773305</v>
+        <v>0.7953871992663466</v>
       </c>
       <c r="Y3" s="263">
         <f>Calculations!Y3/SUM(Calculations!Y$2:Y$6)</f>
-        <v>0.78164705715933036</v>
+        <v>0.78622808669848332</v>
       </c>
       <c r="Z3" s="263">
         <f>Calculations!Z3/SUM(Calculations!Z$2:Z$6)</f>
-        <v>0.77263743478221658</v>
+        <v>0.77711979950383392</v>
       </c>
       <c r="AA3" s="263">
         <f>Calculations!AA3/SUM(Calculations!AA$2:AA$6)</f>
-        <v>0.76367756654548558</v>
+        <v>0.76806191579583016</v>
       </c>
       <c r="AB3" s="263">
         <f>Calculations!AB3/SUM(Calculations!AB$2:AB$6)</f>
-        <v>0.75476704144554496</v>
+        <v>0.75905401834429576</v>
       </c>
       <c r="AC3" s="263">
         <f>Calculations!AC3/SUM(Calculations!AC$2:AC$6)</f>
-        <v>0.74590545299326994</v>
+        <v>0.75009569451138225</v>
       </c>
       <c r="AD3" s="263">
         <f>Calculations!AD3/SUM(Calculations!AD$2:AD$6)</f>
-        <v>0.73709239915218905</v>
+        <v>0.74118653618855967</v>
       </c>
       <c r="AE3" s="263">
         <f>Calculations!AE3/SUM(Calculations!AE$2:AE$6)</f>
-        <v>0.72832748227768362</v>
+        <v>0.73232613973464189</v>
       </c>
       <c r="AF3" s="263">
         <f>Calculations!AF3/SUM(Calculations!AF$2:AF$6)</f>
-        <v>0.71961030905717971</v>
+        <v>0.72351410591482535</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
@@ -22247,127 +22245,127 @@
       </c>
       <c r="B6" s="263">
         <f>Calculations!B6/SUM(Calculations!B$2:B$6)</f>
-        <v>0.11414747707927995</v>
+        <v>0.107922851132606</v>
       </c>
       <c r="C6" s="263">
         <f>Calculations!C6/SUM(Calculations!C$2:C$6)</f>
-        <v>0.11319944057864668</v>
+        <v>0.10701403405461746</v>
       </c>
       <c r="D6" s="263">
         <f>Calculations!D6/SUM(Calculations!D$2:D$6)</f>
-        <v>0.11225170420120803</v>
+        <v>0.10610562335878651</v>
       </c>
       <c r="E6" s="263">
         <f>Calculations!E6/SUM(Calculations!E$2:E$6)</f>
-        <v>0.11130426780447</v>
+        <v>0.10519761877260041</v>
       </c>
       <c r="F6" s="263">
         <f>Calculations!F6/SUM(Calculations!F$2:F$6)</f>
-        <v>0.11035713124602875</v>
+        <v>0.10429002002378983</v>
       </c>
       <c r="G6" s="263">
         <f>Calculations!G6/SUM(Calculations!G$2:G$6)</f>
-        <v>0.10941029438357065</v>
+        <v>0.10338282684032898</v>
       </c>
       <c r="H6" s="263">
         <f>Calculations!H6/SUM(Calculations!H$2:H$6)</f>
-        <v>0.10846375707487201</v>
+        <v>0.10247603895043496</v>
       </c>
       <c r="I6" s="263">
         <f>Calculations!I6/SUM(Calculations!I$2:I$6)</f>
-        <v>0.10751751917779914</v>
+        <v>0.10156965608256767</v>
       </c>
       <c r="J6" s="263">
         <f>Calculations!J6/SUM(Calculations!J$2:J$6)</f>
-        <v>0.10657158055030838</v>
+        <v>0.10066367796542969</v>
       </c>
       <c r="K6" s="263">
         <f>Calculations!K6/SUM(Calculations!K$2:K$6)</f>
-        <v>0.10562594105044569</v>
+        <v>9.9758104327965599E-2</v>
       </c>
       <c r="L6" s="263">
         <f>Calculations!L6/SUM(Calculations!L$2:L$6)</f>
-        <v>0.10468060053634697</v>
+        <v>9.8852934899362171E-2</v>
       </c>
       <c r="M6" s="263">
         <f>Calculations!M6/SUM(Calculations!M$2:M$6)</f>
-        <v>0.1030124288668587</v>
+        <v>9.7274329814235685E-2</v>
       </c>
       <c r="N6" s="263">
         <f>Calculations!N6/SUM(Calculations!N$2:N$6)</f>
-        <v>0.10135243837974457</v>
+        <v>9.570345406459238E-2</v>
       </c>
       <c r="O6" s="263">
         <f>Calculations!O6/SUM(Calculations!O$2:O$6)</f>
-        <v>9.970056903799969E-2</v>
+        <v>9.4140251021267399E-2</v>
       </c>
       <c r="P6" s="263">
         <f>Calculations!P6/SUM(Calculations!P$2:P$6)</f>
-        <v>9.8056761390621888E-2</v>
+        <v>9.258466460694148E-2</v>
       </c>
       <c r="Q6" s="263">
         <f>Calculations!Q6/SUM(Calculations!Q$2:Q$6)</f>
-        <v>9.6420956565479415E-2</v>
+        <v>9.1036639289435103E-2</v>
       </c>
       <c r="R6" s="263">
         <f>Calculations!R6/SUM(Calculations!R$2:R$6)</f>
-        <v>9.4793096262282509E-2</v>
+        <v>8.9496120075100424E-2</v>
       </c>
       <c r="S6" s="263">
         <f>Calculations!S6/SUM(Calculations!S$2:S$6)</f>
-        <v>9.3173122745657061E-2</v>
+        <v>8.7963052502308819E-2</v>
       </c>
       <c r="T6" s="263">
         <f>Calculations!T6/SUM(Calculations!T$2:T$6)</f>
-        <v>9.1560978838319013E-2</v>
+        <v>8.6437382635032881E-2</v>
       </c>
       <c r="U6" s="263">
         <f>Calculations!U6/SUM(Calculations!U$2:U$6)</f>
-        <v>8.9956607914346925E-2</v>
+        <v>8.4919057056521058E-2</v>
       </c>
       <c r="V6" s="263">
         <f>Calculations!V6/SUM(Calculations!V$2:V$6)</f>
-        <v>8.8359953892552218E-2</v>
+        <v>8.3408022863063397E-2</v>
       </c>
       <c r="W6" s="263">
         <f>Calculations!W6/SUM(Calculations!W$2:W$6)</f>
-        <v>8.661381748557484E-2</v>
+        <v>8.1755667843673774E-2</v>
       </c>
       <c r="X6" s="263">
         <f>Calculations!X6/SUM(Calculations!X$2:X$6)</f>
-        <v>8.4877404369230983E-2</v>
+        <v>8.0112533170409367E-2</v>
       </c>
       <c r="Y6" s="263">
         <f>Calculations!Y6/SUM(Calculations!Y$2:Y$6)</f>
-        <v>8.3150633553384229E-2</v>
+        <v>7.8478541881983027E-2</v>
       </c>
       <c r="Z6" s="263">
         <f>Calculations!Z6/SUM(Calculations!Z$2:Z$6)</f>
-        <v>8.1433424944883967E-2</v>
+        <v>7.685361787124842E-2</v>
       </c>
       <c r="AA6" s="263">
         <f>Calculations!AA6/SUM(Calculations!AA$2:AA$6)</f>
-        <v>7.9725699335181838E-2</v>
+        <v>7.5237685873383489E-2</v>
       </c>
       <c r="AB6" s="263">
         <f>Calculations!AB6/SUM(Calculations!AB$2:AB$6)</f>
-        <v>7.8027378388152588E-2</v>
+        <v>7.3630671454269422E-2</v>
       </c>
       <c r="AC6" s="263">
         <f>Calculations!AC6/SUM(Calculations!AC$2:AC$6)</f>
-        <v>7.6338384628115763E-2</v>
+        <v>7.2032500999061513E-2</v>
       </c>
       <c r="AD6" s="263">
         <f>Calculations!AD6/SUM(Calculations!AD$2:AD$6)</f>
-        <v>7.4658641428054076E-2</v>
+        <v>7.0443101700948169E-2</v>
       </c>
       <c r="AE6" s="263">
         <f>Calculations!AE6/SUM(Calculations!AE$2:AE$6)</f>
-        <v>7.2988072998024997E-2</v>
+        <v>6.886240155009471E-2</v>
       </c>
       <c r="AF6" s="263">
         <f>Calculations!AF6/SUM(Calculations!AF$2:AF$6)</f>
-        <v>7.1326604373761454E-2</v>
+        <v>6.7290329322767836E-2</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -22572,12 +22570,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22810,20 +22810,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22848,12 +22849,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D3E8F0-5A13-4AED-8799-E0B85C663863}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEA4C8E-9D8C-453A-8E5F-02C5C3A31D99}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>